--- a/TestCase.xlsx
+++ b/TestCase.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="73">
   <si>
     <t>ID</t>
   </si>
@@ -171,6 +171,82 @@
   </si>
   <si>
     <t>Đăng ký</t>
+  </si>
+  <si>
+    <t>Chỉnh Sửa Thông Tin Cá Nhân Tài Khoản</t>
+  </si>
+  <si>
+    <t>009 - 001</t>
+  </si>
+  <si>
+    <t>Không thay đổi thông tin</t>
+  </si>
+  <si>
+    <t>Nhấn nút Update</t>
+  </si>
+  <si>
+    <t>1. Thông báo không có gì thay đổi và
+2. Không thực hiện tác vụ nào</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>009 -002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Không nhập địa chỉ </t>
+  </si>
+  <si>
+    <t>1. Sửa tên:""
+2.Sửa địa chỉ:""
+3.Sửa số điện thoại:"+84915897496"</t>
+  </si>
+  <si>
+    <t>1. Không cho người dùng chỉnh sửa
+2. Thông báo lỗi tương ứng</t>
+  </si>
+  <si>
+    <t>009 - 003</t>
+  </si>
+  <si>
+    <t>Không nhập số điện thoại</t>
+  </si>
+  <si>
+    <t>1. Sửa tên:""
+2.Sửa địa chỉ:"227 Ho Tung Mau Q.PN"
+3.Sửa số điện thoại:""</t>
+  </si>
+  <si>
+    <t>009 - 004</t>
+  </si>
+  <si>
+    <t>Nhập số điện thoại không hợp lệ</t>
+  </si>
+  <si>
+    <t>1. Sửa tên:""
+2.Sửa địa chỉ:"227 Ho Tung Mau Q.PN"
+3.Sửa số điện thoại:"abc"</t>
+  </si>
+  <si>
+    <t>009 - 005</t>
+  </si>
+  <si>
+    <t>Chỉnh sửa hợp lệ</t>
+  </si>
+  <si>
+    <t>1. Sửa tên:""
+2.Sửa địa chỉ:"227 Ho Tung Mau Q.PN"
+3.Sửa số điện thoại:"+84915897496"</t>
+  </si>
+  <si>
+    <t>Cập nhật thông tin tài khoản và chuyển sang màn hình khác</t>
+  </si>
+  <si>
+    <t>Function 03</t>
+  </si>
+  <si>
+    <t>Thiện</t>
   </si>
 </sst>
 </file>
@@ -333,7 +409,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -433,6 +509,18 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -731,13 +819,13 @@
   <dimension ref="A1:D1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="2" max="2" width="30.42578125" customWidth="1"/>
+    <col min="2" max="2" width="35" customWidth="1"/>
     <col min="3" max="3" width="15.28515625" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
     <col min="5" max="26" width="7.7109375" customWidth="1"/>
@@ -778,8 +866,12 @@
       <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
     </row>
@@ -6768,14 +6860,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="17.42578125" customWidth="1"/>
-    <col min="2" max="2" width="30" customWidth="1"/>
+    <col min="2" max="2" width="36.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="25.28515625" customWidth="1"/>
     <col min="5" max="5" width="24.42578125" customWidth="1"/>
     <col min="6" max="6" width="17.7109375" customWidth="1"/>
@@ -7374,16 +7466,20 @@
       <c r="Z17" s="8"/>
     </row>
     <row r="18" spans="1:26">
-      <c r="A18" s="28"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="27"/>
+      <c r="A18" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
       <c r="M18" s="8"/>
@@ -7402,15 +7498,32 @@
       <c r="Z18" s="8"/>
     </row>
     <row r="19" spans="1:26" ht="60" customHeight="1">
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="28"/>
+      <c r="A19" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="42"/>
+      <c r="D19" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="F19" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="G19" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="H19" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="I19" s="44">
+        <v>42650</v>
+      </c>
+      <c r="J19" s="42"/>
       <c r="K19" s="8"/>
       <c r="L19" s="8"/>
       <c r="M19" s="8"/>
@@ -7429,16 +7542,32 @@
       <c r="Z19" s="8"/>
     </row>
     <row r="20" spans="1:26" ht="60" customHeight="1">
-      <c r="A20" s="28"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="28"/>
+      <c r="A20" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="42"/>
+      <c r="D20" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="F20" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="G20" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="H20" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="I20" s="44">
+        <v>42650</v>
+      </c>
+      <c r="J20" s="42"/>
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
       <c r="M20" s="8"/>
@@ -7457,16 +7586,32 @@
       <c r="Z20" s="8"/>
     </row>
     <row r="21" spans="1:26" ht="60" customHeight="1">
-      <c r="A21" s="28"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="28"/>
+      <c r="A21" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="42"/>
+      <c r="D21" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="H21" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="I21" s="44">
+        <v>42650</v>
+      </c>
+      <c r="J21" s="42"/>
       <c r="K21" s="8"/>
       <c r="L21" s="8"/>
       <c r="M21" s="8"/>
@@ -7485,16 +7630,32 @@
       <c r="Z21" s="8"/>
     </row>
     <row r="22" spans="1:26" ht="60" customHeight="1">
-      <c r="A22" s="28"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="28"/>
+      <c r="A22" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="42"/>
+      <c r="D22" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="E22" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="F22" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="G22" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="H22" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="I22" s="44">
+        <v>42650</v>
+      </c>
+      <c r="J22" s="42"/>
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
       <c r="M22" s="8"/>
@@ -7512,17 +7673,33 @@
       <c r="Y22" s="8"/>
       <c r="Z22" s="8"/>
     </row>
-    <row r="23" spans="1:26">
-      <c r="A23" s="27"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="27"/>
+    <row r="23" spans="1:26" ht="75">
+      <c r="A23" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" s="42"/>
+      <c r="D23" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="F23" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="G23" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="H23" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="I23" s="44">
+        <v>42650</v>
+      </c>
+      <c r="J23" s="42"/>
       <c r="K23" s="8"/>
       <c r="L23" s="8"/>
       <c r="M23" s="8"/>

--- a/TestCase.xlsx
+++ b/TestCase.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="74">
   <si>
     <t>ID</t>
   </si>
@@ -27,9 +27,6 @@
   </si>
   <si>
     <t>Remark</t>
-  </si>
-  <si>
-    <t>Đăng Nhập</t>
   </si>
   <si>
     <t>Test case name</t>
@@ -167,16 +164,10 @@
     <t>Chuyển sang phần đăng ký 2</t>
   </si>
   <si>
-    <t>Đăng Ký</t>
-  </si>
-  <si>
     <t>Đăng ký</t>
   </si>
   <si>
     <t>Chỉnh Sửa Thông Tin Cá Nhân Tài Khoản</t>
-  </si>
-  <si>
-    <t>009 - 001</t>
   </si>
   <si>
     <t>Không thay đổi thông tin</t>
@@ -192,9 +183,6 @@
     <t>Pass</t>
   </si>
   <si>
-    <t>009 -002</t>
-  </si>
-  <si>
     <t xml:space="preserve">Không nhập địa chỉ </t>
   </si>
   <si>
@@ -207,9 +195,6 @@
 2. Thông báo lỗi tương ứng</t>
   </si>
   <si>
-    <t>009 - 003</t>
-  </si>
-  <si>
     <t>Không nhập số điện thoại</t>
   </si>
   <si>
@@ -218,18 +203,12 @@
 3.Sửa số điện thoại:""</t>
   </si>
   <si>
-    <t>009 - 004</t>
-  </si>
-  <si>
     <t>Nhập số điện thoại không hợp lệ</t>
   </si>
   <si>
     <t>1. Sửa tên:""
 2.Sửa địa chỉ:"227 Ho Tung Mau Q.PN"
 3.Sửa số điện thoại:"abc"</t>
-  </si>
-  <si>
-    <t>009 - 005</t>
   </si>
   <si>
     <t>Chỉnh sửa hợp lệ</t>
@@ -247,6 +226,30 @@
   </si>
   <si>
     <t>Thiện</t>
+  </si>
+  <si>
+    <t>Đăng xuất</t>
+  </si>
+  <si>
+    <t>Function 04</t>
+  </si>
+  <si>
+    <t>003 - 001</t>
+  </si>
+  <si>
+    <t>004 - 001</t>
+  </si>
+  <si>
+    <t>Nhấn nút Log out</t>
+  </si>
+  <si>
+    <t>1. Đăng xuất người dùng</t>
+  </si>
+  <si>
+    <t>Đăng xuất người dùng</t>
+  </si>
+  <si>
+    <t>15/7/2016</t>
   </si>
 </sst>
 </file>
@@ -409,7 +412,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -521,6 +524,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -819,7 +829,7 @@
   <dimension ref="A1:D1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1"/>
@@ -849,8 +859,8 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>4</v>
+      <c r="B2" s="20" t="s">
+        <v>13</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -860,7 +870,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -869,15 +879,19 @@
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>51</v>
+      <c r="B4" s="46" t="s">
+        <v>49</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="46" t="s">
+        <v>66</v>
+      </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
     </row>
@@ -6860,8 +6874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1"/>
@@ -6882,28 +6896,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="J1" s="7" t="s">
         <v>3</v>
@@ -6927,10 +6941,10 @@
     </row>
     <row r="2" spans="1:26">
       <c r="A2" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
@@ -6959,15 +6973,15 @@
     </row>
     <row r="3" spans="1:26" ht="45" customHeight="1">
       <c r="A3" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="12"/>
       <c r="E3" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F3" s="12"/>
       <c r="G3" s="13"/>
@@ -6993,15 +7007,15 @@
     </row>
     <row r="4" spans="1:26" ht="55.5" customHeight="1">
       <c r="A4" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" s="13"/>
       <c r="D4" s="12"/>
       <c r="E4" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
@@ -7027,15 +7041,15 @@
     </row>
     <row r="5" spans="1:26" ht="56.25" customHeight="1">
       <c r="A5" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="12"/>
       <c r="E5" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
@@ -7061,15 +7075,15 @@
     </row>
     <row r="6" spans="1:26" ht="67.5" customHeight="1">
       <c r="A6" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" s="13"/>
       <c r="D6" s="12"/>
       <c r="E6" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
@@ -7095,15 +7109,15 @@
     </row>
     <row r="7" spans="1:26" ht="57" customHeight="1">
       <c r="A7" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="12"/>
       <c r="E7" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
@@ -7129,15 +7143,15 @@
     </row>
     <row r="8" spans="1:26" ht="57" customHeight="1">
       <c r="A8" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="17"/>
       <c r="E8" s="17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F8" s="17"/>
       <c r="G8" s="12"/>
@@ -7163,10 +7177,10 @@
     </row>
     <row r="9" spans="1:26">
       <c r="A9" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -7195,15 +7209,15 @@
     </row>
     <row r="10" spans="1:26" ht="65.25" customHeight="1">
       <c r="A10" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F10" s="12"/>
       <c r="G10" s="13"/>
@@ -7229,15 +7243,15 @@
     </row>
     <row r="11" spans="1:26" ht="68.25" customHeight="1">
       <c r="A11" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
@@ -7263,15 +7277,15 @@
     </row>
     <row r="12" spans="1:26" ht="57.75" customHeight="1">
       <c r="A12" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="12"/>
       <c r="E12" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
@@ -7297,15 +7311,15 @@
     </row>
     <row r="13" spans="1:26" ht="56.25" customHeight="1">
       <c r="A13" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="12"/>
       <c r="E13" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -7331,15 +7345,15 @@
     </row>
     <row r="14" spans="1:26" ht="56.25" customHeight="1">
       <c r="A14" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="12"/>
       <c r="E14" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -7365,15 +7379,15 @@
     </row>
     <row r="15" spans="1:26" ht="67.5" customHeight="1">
       <c r="A15" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="12"/>
       <c r="E15" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -7399,15 +7413,15 @@
     </row>
     <row r="16" spans="1:26" ht="81.75" customHeight="1">
       <c r="A16" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="12"/>
       <c r="E16" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
@@ -7433,15 +7447,15 @@
     </row>
     <row r="17" spans="1:26" ht="68.25" customHeight="1">
       <c r="A17" s="39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B17" s="39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C17" s="39"/>
       <c r="D17" s="40"/>
       <c r="E17" s="40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F17" s="40"/>
       <c r="G17" s="40"/>
@@ -7467,10 +7481,10 @@
     </row>
     <row r="18" spans="1:26">
       <c r="A18" s="26" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
@@ -7498,27 +7512,27 @@
       <c r="Z18" s="8"/>
     </row>
     <row r="19" spans="1:26" ht="60" customHeight="1">
-      <c r="A19" s="42" t="s">
-        <v>52</v>
+      <c r="A19" s="47" t="s">
+        <v>68</v>
       </c>
       <c r="B19" s="42" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C19" s="42"/>
       <c r="D19" s="43" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E19" s="43" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F19" s="43" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G19" s="43" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H19" s="45" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="I19" s="44">
         <v>42650</v>
@@ -7542,27 +7556,27 @@
       <c r="Z19" s="8"/>
     </row>
     <row r="20" spans="1:26" ht="60" customHeight="1">
-      <c r="A20" s="42" t="s">
-        <v>57</v>
+      <c r="A20" s="47" t="s">
+        <v>68</v>
       </c>
       <c r="B20" s="42" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C20" s="42"/>
       <c r="D20" s="43" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E20" s="43" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F20" s="43" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G20" s="43" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H20" s="45" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="I20" s="44">
         <v>42650</v>
@@ -7586,27 +7600,27 @@
       <c r="Z20" s="8"/>
     </row>
     <row r="21" spans="1:26" ht="60" customHeight="1">
-      <c r="A21" s="42" t="s">
-        <v>61</v>
+      <c r="A21" s="47" t="s">
+        <v>68</v>
       </c>
       <c r="B21" s="42" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C21" s="42"/>
       <c r="D21" s="43" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E21" s="43" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F21" s="43" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G21" s="43" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H21" s="45" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="I21" s="44">
         <v>42650</v>
@@ -7630,27 +7644,27 @@
       <c r="Z21" s="8"/>
     </row>
     <row r="22" spans="1:26" ht="60" customHeight="1">
-      <c r="A22" s="42" t="s">
-        <v>64</v>
+      <c r="A22" s="47" t="s">
+        <v>68</v>
       </c>
       <c r="B22" s="42" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C22" s="42"/>
       <c r="D22" s="43" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E22" s="43" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F22" s="43" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G22" s="43" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H22" s="45" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="I22" s="44">
         <v>42650</v>
@@ -7674,27 +7688,27 @@
       <c r="Z22" s="8"/>
     </row>
     <row r="23" spans="1:26" ht="75">
-      <c r="A23" s="42" t="s">
-        <v>67</v>
+      <c r="A23" s="47" t="s">
+        <v>68</v>
       </c>
       <c r="B23" s="42" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C23" s="42"/>
       <c r="D23" s="43" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E23" s="43" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="F23" s="43" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G23" s="43" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H23" s="45" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="I23" s="44">
         <v>42650</v>
@@ -7718,16 +7732,20 @@
       <c r="Z23" s="8"/>
     </row>
     <row r="24" spans="1:26" ht="54.75" customHeight="1">
-      <c r="A24" s="28"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="28"/>
+      <c r="A24" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
       <c r="K24" s="8"/>
       <c r="L24" s="8"/>
       <c r="M24" s="8"/>
@@ -7746,16 +7764,32 @@
       <c r="Z24" s="8"/>
     </row>
     <row r="25" spans="1:26" ht="60" customHeight="1">
-      <c r="A25" s="28"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="28"/>
+      <c r="A25" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="42"/>
+      <c r="D25" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="E25" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="F25" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="G25" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="H25" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="I25" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="J25" s="42"/>
       <c r="K25" s="8"/>
       <c r="L25" s="8"/>
       <c r="M25" s="8"/>

--- a/TestCase.xlsx
+++ b/TestCase.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="135">
   <si>
     <t>ID</t>
   </si>
@@ -425,6 +425,54 @@
   <si>
     <t>006 - 004</t>
   </si>
+  <si>
+    <t>Xem giỏ hàng</t>
+  </si>
+  <si>
+    <t>Function 07</t>
+  </si>
+  <si>
+    <t>007-001</t>
+  </si>
+  <si>
+    <t>007-002</t>
+  </si>
+  <si>
+    <t>Xem giỏ hàng khi chưa đăng nhập</t>
+  </si>
+  <si>
+    <t>1. Không đăng nhập
+2. Bấm vào nút xem giỏ hàng</t>
+  </si>
+  <si>
+    <t>1. Thông báo người phải đăng nhập để xem giỏ hàng</t>
+  </si>
+  <si>
+    <t>1. Đăng nhập
+2. Bấm vào nút xem giỏ hàng</t>
+  </si>
+  <si>
+    <t>Xem giỏ hàng khi đã đăng nhập, chưa có hàng trong giỏ</t>
+  </si>
+  <si>
+    <t>1. Hiện giao diện giỏ hàng
+2. Thông báo rằng chưa có hàng trong giỏ</t>
+  </si>
+  <si>
+    <t>007-003</t>
+  </si>
+  <si>
+    <t>Xem giỏ hàng khi đã đăng nhập, đã có hàng trong giỏ</t>
+  </si>
+  <si>
+    <t>1. Đăng nhập
+3. Thêm hàng vào giỏ
+2. Bấm vào nút xem giỏ hàng</t>
+  </si>
+  <si>
+    <t>1. Hiện giao diện giỏ hàng
+2. Hiển thị thông tin của hàng trong giỏ, số lượng và tổng giá tiền</t>
+  </si>
 </sst>
 </file>
 
@@ -615,7 +663,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -689,9 +737,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -743,6 +788,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1041,7 +1095,7 @@
   <dimension ref="A1:D1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1"/>
@@ -1091,7 +1145,7 @@
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="41" t="s">
         <v>66</v>
       </c>
       <c r="C4" s="5"/>
@@ -1101,7 +1155,7 @@
       <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="41" t="s">
         <v>93</v>
       </c>
       <c r="C5" s="5"/>
@@ -1111,7 +1165,7 @@
       <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="48" t="s">
         <v>92</v>
       </c>
       <c r="C6" s="5"/>
@@ -1128,8 +1182,12 @@
       <c r="D7" s="5"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>121</v>
+      </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
     </row>
@@ -7094,8 +7152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34:I40"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="I44" sqref="I43:I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1"/>
@@ -7205,10 +7263,10 @@
       </c>
       <c r="F3" s="12"/>
       <c r="G3" s="13"/>
-      <c r="H3" s="50" t="s">
+      <c r="H3" s="49" t="s">
         <v>94</v>
       </c>
-      <c r="I3" s="40">
+      <c r="I3" s="39">
         <v>42376</v>
       </c>
       <c r="J3" s="13"/>
@@ -7243,10 +7301,10 @@
       </c>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
-      <c r="H4" s="50" t="s">
+      <c r="H4" s="49" t="s">
         <v>94</v>
       </c>
-      <c r="I4" s="40">
+      <c r="I4" s="39">
         <v>42376</v>
       </c>
       <c r="J4" s="13"/>
@@ -7281,10 +7339,10 @@
       </c>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
-      <c r="H5" s="50" t="s">
+      <c r="H5" s="49" t="s">
         <v>94</v>
       </c>
-      <c r="I5" s="40">
+      <c r="I5" s="39">
         <v>42376</v>
       </c>
       <c r="J5" s="13"/>
@@ -7319,10 +7377,10 @@
       </c>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
-      <c r="H6" s="50" t="s">
+      <c r="H6" s="49" t="s">
         <v>94</v>
       </c>
-      <c r="I6" s="40">
+      <c r="I6" s="39">
         <v>42376</v>
       </c>
       <c r="J6" s="13"/>
@@ -7357,10 +7415,10 @@
       </c>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
-      <c r="H7" s="50" t="s">
+      <c r="H7" s="49" t="s">
         <v>94</v>
       </c>
-      <c r="I7" s="40">
+      <c r="I7" s="39">
         <v>42376</v>
       </c>
       <c r="J7" s="13"/>
@@ -7395,10 +7453,10 @@
       </c>
       <c r="F8" s="15"/>
       <c r="G8" s="12"/>
-      <c r="H8" s="50" t="s">
+      <c r="H8" s="49" t="s">
         <v>94</v>
       </c>
-      <c r="I8" s="40">
+      <c r="I8" s="39">
         <v>42376</v>
       </c>
       <c r="J8" s="13"/>
@@ -7465,10 +7523,10 @@
       </c>
       <c r="F10" s="12"/>
       <c r="G10" s="13"/>
-      <c r="H10" s="50" t="s">
+      <c r="H10" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="I10" s="40">
+      <c r="I10" s="39">
         <v>42376</v>
       </c>
       <c r="J10" s="13"/>
@@ -7503,10 +7561,10 @@
       </c>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
-      <c r="H11" s="50" t="s">
+      <c r="H11" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="I11" s="40">
+      <c r="I11" s="39">
         <v>42376</v>
       </c>
       <c r="J11" s="13"/>
@@ -7541,10 +7599,10 @@
       </c>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
-      <c r="H12" s="50" t="s">
+      <c r="H12" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="I12" s="40">
+      <c r="I12" s="39">
         <v>42376</v>
       </c>
       <c r="J12" s="13"/>
@@ -7579,10 +7637,10 @@
       </c>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
-      <c r="H13" s="50" t="s">
+      <c r="H13" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="I13" s="40">
+      <c r="I13" s="39">
         <v>42376</v>
       </c>
       <c r="J13" s="11"/>
@@ -7617,10 +7675,10 @@
       </c>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
-      <c r="H14" s="50" t="s">
+      <c r="H14" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="I14" s="40">
+      <c r="I14" s="39">
         <v>42376</v>
       </c>
       <c r="J14" s="11"/>
@@ -7655,10 +7713,10 @@
       </c>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
-      <c r="H15" s="50" t="s">
+      <c r="H15" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="I15" s="40">
+      <c r="I15" s="39">
         <v>42376</v>
       </c>
       <c r="J15" s="11"/>
@@ -7693,10 +7751,10 @@
       </c>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
-      <c r="H16" s="50" t="s">
+      <c r="H16" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="I16" s="40">
+      <c r="I16" s="39">
         <v>42376</v>
       </c>
       <c r="J16" s="11"/>
@@ -7718,26 +7776,26 @@
       <c r="Z16" s="8"/>
     </row>
     <row r="17" spans="1:26" ht="81.75" customHeight="1">
-      <c r="A17" s="36" t="s">
+      <c r="A17" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="36"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37" t="s">
+      <c r="C17" s="35"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="50" t="s">
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="I17" s="40">
+      <c r="I17" s="39">
         <v>42376</v>
       </c>
-      <c r="J17" s="36"/>
+      <c r="J17" s="35"/>
       <c r="K17" s="8"/>
       <c r="L17" s="8"/>
       <c r="M17" s="8"/>
@@ -7788,32 +7846,32 @@
       <c r="Z18" s="8"/>
     </row>
     <row r="19" spans="1:26" ht="34.5" customHeight="1">
-      <c r="A19" s="43" t="s">
+      <c r="A19" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="B19" s="43" t="s">
+      <c r="B19" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="38"/>
-      <c r="D19" s="41" t="s">
+      <c r="C19" s="37"/>
+      <c r="D19" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="E19" s="41" t="s">
+      <c r="E19" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="F19" s="41" t="s">
+      <c r="F19" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="G19" s="39" t="s">
+      <c r="G19" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="H19" s="39" t="s">
+      <c r="H19" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="I19" s="44">
+      <c r="I19" s="43">
         <v>42376</v>
       </c>
-      <c r="J19" s="38"/>
+      <c r="J19" s="37"/>
       <c r="K19" s="8"/>
       <c r="L19" s="8"/>
       <c r="M19" s="8"/>
@@ -7864,32 +7922,32 @@
       <c r="Z20" s="8"/>
     </row>
     <row r="21" spans="1:26" ht="60" customHeight="1">
-      <c r="A21" s="43" t="s">
+      <c r="A21" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="B21" s="38" t="s">
+      <c r="B21" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="38"/>
-      <c r="D21" s="39" t="s">
+      <c r="C21" s="37"/>
+      <c r="D21" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="39" t="s">
+      <c r="E21" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="F21" s="39" t="s">
+      <c r="F21" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="G21" s="39" t="s">
+      <c r="G21" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="H21" s="41" t="s">
+      <c r="H21" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="I21" s="40">
+      <c r="I21" s="39">
         <v>42497</v>
       </c>
-      <c r="J21" s="38"/>
+      <c r="J21" s="37"/>
       <c r="K21" s="8"/>
       <c r="L21" s="8"/>
       <c r="M21" s="8"/>
@@ -7908,32 +7966,32 @@
       <c r="Z21" s="8"/>
     </row>
     <row r="22" spans="1:26" ht="60" customHeight="1">
-      <c r="A22" s="43" t="s">
+      <c r="A22" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="B22" s="38" t="s">
+      <c r="B22" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="38"/>
-      <c r="D22" s="39" t="s">
+      <c r="C22" s="37"/>
+      <c r="D22" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="E22" s="39" t="s">
+      <c r="E22" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="F22" s="39" t="s">
+      <c r="F22" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="G22" s="39" t="s">
+      <c r="G22" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="H22" s="41" t="s">
+      <c r="H22" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="I22" s="40">
+      <c r="I22" s="39">
         <v>42497</v>
       </c>
-      <c r="J22" s="38"/>
+      <c r="J22" s="37"/>
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
       <c r="M22" s="8"/>
@@ -7952,32 +8010,32 @@
       <c r="Z22" s="8"/>
     </row>
     <row r="23" spans="1:26" ht="60" customHeight="1">
-      <c r="A23" s="43" t="s">
+      <c r="A23" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="38" t="s">
+      <c r="B23" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="38"/>
-      <c r="D23" s="39" t="s">
+      <c r="C23" s="37"/>
+      <c r="D23" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="E23" s="39" t="s">
+      <c r="E23" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="F23" s="39" t="s">
+      <c r="F23" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="G23" s="39" t="s">
+      <c r="G23" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="H23" s="41" t="s">
+      <c r="H23" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="I23" s="40">
+      <c r="I23" s="39">
         <v>42497</v>
       </c>
-      <c r="J23" s="38"/>
+      <c r="J23" s="37"/>
       <c r="K23" s="8"/>
       <c r="L23" s="8"/>
       <c r="M23" s="8"/>
@@ -7996,32 +8054,32 @@
       <c r="Z23" s="8"/>
     </row>
     <row r="24" spans="1:26" ht="60" customHeight="1">
-      <c r="A24" s="43" t="s">
+      <c r="A24" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="B24" s="38" t="s">
+      <c r="B24" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="38"/>
-      <c r="D24" s="39" t="s">
+      <c r="C24" s="37"/>
+      <c r="D24" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="E24" s="39" t="s">
+      <c r="E24" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="F24" s="39" t="s">
+      <c r="F24" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="G24" s="39" t="s">
+      <c r="G24" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="H24" s="41" t="s">
+      <c r="H24" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="I24" s="40">
+      <c r="I24" s="39">
         <v>42497</v>
       </c>
-      <c r="J24" s="38"/>
+      <c r="J24" s="37"/>
       <c r="K24" s="8"/>
       <c r="L24" s="8"/>
       <c r="M24" s="8"/>
@@ -8040,32 +8098,32 @@
       <c r="Z24" s="8"/>
     </row>
     <row r="25" spans="1:26" ht="75">
-      <c r="A25" s="43" t="s">
+      <c r="A25" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="B25" s="38" t="s">
+      <c r="B25" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="C25" s="38"/>
-      <c r="D25" s="39" t="s">
+      <c r="C25" s="37"/>
+      <c r="D25" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="E25" s="39" t="s">
+      <c r="E25" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="F25" s="39" t="s">
+      <c r="F25" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="G25" s="39" t="s">
+      <c r="G25" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="H25" s="41" t="s">
+      <c r="H25" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="I25" s="40">
+      <c r="I25" s="39">
         <v>42497</v>
       </c>
-      <c r="J25" s="38"/>
+      <c r="J25" s="37"/>
       <c r="K25" s="8"/>
       <c r="L25" s="8"/>
       <c r="M25" s="8"/>
@@ -8084,7 +8142,7 @@
       <c r="Z25" s="8"/>
     </row>
     <row r="26" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A26" s="45" t="s">
+      <c r="A26" s="44" t="s">
         <v>72</v>
       </c>
       <c r="B26" s="10" t="s">
@@ -8096,7 +8154,7 @@
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
-      <c r="I26" s="46"/>
+      <c r="I26" s="45"/>
       <c r="J26" s="10"/>
       <c r="K26" s="8"/>
       <c r="L26" s="8"/>
@@ -8116,32 +8174,32 @@
       <c r="Z26" s="8"/>
     </row>
     <row r="27" spans="1:26" ht="120" customHeight="1">
-      <c r="A27" s="47" t="s">
+      <c r="A27" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="B27" s="39" t="s">
+      <c r="B27" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="C27" s="38"/>
-      <c r="D27" s="39" t="s">
+      <c r="C27" s="37"/>
+      <c r="D27" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="E27" s="48" t="s">
+      <c r="E27" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="F27" s="39" t="s">
+      <c r="F27" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="G27" s="39" t="s">
+      <c r="G27" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="H27" s="41" t="s">
+      <c r="H27" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="I27" s="40">
+      <c r="I27" s="39">
         <v>42467</v>
       </c>
-      <c r="J27" s="38"/>
+      <c r="J27" s="37"/>
       <c r="K27" s="8"/>
       <c r="L27" s="8"/>
       <c r="M27" s="8"/>
@@ -8160,32 +8218,32 @@
       <c r="Z27" s="8"/>
     </row>
     <row r="28" spans="1:26" ht="124.5" customHeight="1">
-      <c r="A28" s="47" t="s">
+      <c r="A28" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="B28" s="39" t="s">
+      <c r="B28" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="C28" s="38"/>
-      <c r="D28" s="39" t="s">
+      <c r="C28" s="37"/>
+      <c r="D28" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="E28" s="39" t="s">
+      <c r="E28" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="F28" s="39" t="s">
+      <c r="F28" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="G28" s="39" t="s">
+      <c r="G28" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="H28" s="41" t="s">
+      <c r="H28" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="I28" s="40">
+      <c r="I28" s="39">
         <v>42467</v>
       </c>
-      <c r="J28" s="38"/>
+      <c r="J28" s="37"/>
       <c r="K28" s="8"/>
       <c r="L28" s="8"/>
       <c r="M28" s="8"/>
@@ -8204,32 +8262,32 @@
       <c r="Z28" s="8"/>
     </row>
     <row r="29" spans="1:26" ht="118.5" customHeight="1">
-      <c r="A29" s="47" t="s">
+      <c r="A29" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="B29" s="39" t="s">
+      <c r="B29" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="C29" s="38"/>
-      <c r="D29" s="39" t="s">
+      <c r="C29" s="37"/>
+      <c r="D29" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="E29" s="39" t="s">
+      <c r="E29" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="F29" s="39" t="s">
+      <c r="F29" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="G29" s="39" t="s">
+      <c r="G29" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="H29" s="41" t="s">
+      <c r="H29" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="I29" s="40">
+      <c r="I29" s="39">
         <v>42467</v>
       </c>
-      <c r="J29" s="38"/>
+      <c r="J29" s="37"/>
       <c r="K29" s="8"/>
       <c r="L29" s="8"/>
       <c r="M29" s="8"/>
@@ -8248,32 +8306,32 @@
       <c r="Z29" s="8"/>
     </row>
     <row r="30" spans="1:26" ht="117.75" customHeight="1">
-      <c r="A30" s="47" t="s">
+      <c r="A30" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="B30" s="39" t="s">
+      <c r="B30" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="C30" s="38"/>
-      <c r="D30" s="39" t="s">
+      <c r="C30" s="37"/>
+      <c r="D30" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="E30" s="39" t="s">
+      <c r="E30" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="F30" s="39" t="s">
+      <c r="F30" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="G30" s="39" t="s">
+      <c r="G30" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="H30" s="41" t="s">
+      <c r="H30" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="I30" s="40">
+      <c r="I30" s="39">
         <v>42467</v>
       </c>
-      <c r="J30" s="38"/>
+      <c r="J30" s="37"/>
       <c r="K30" s="8"/>
       <c r="L30" s="8"/>
       <c r="M30" s="8"/>
@@ -8292,32 +8350,32 @@
       <c r="Z30" s="8"/>
     </row>
     <row r="31" spans="1:26" ht="120">
-      <c r="A31" s="47" t="s">
+      <c r="A31" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="B31" s="39" t="s">
+      <c r="B31" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="C31" s="38"/>
-      <c r="D31" s="39" t="s">
+      <c r="C31" s="37"/>
+      <c r="D31" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="E31" s="39" t="s">
+      <c r="E31" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="F31" s="39" t="s">
+      <c r="F31" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="G31" s="39" t="s">
+      <c r="G31" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="H31" s="41" t="s">
+      <c r="H31" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="I31" s="40">
+      <c r="I31" s="39">
         <v>42467</v>
       </c>
-      <c r="J31" s="38"/>
+      <c r="J31" s="37"/>
       <c r="K31" s="8"/>
       <c r="L31" s="8"/>
       <c r="M31" s="8"/>
@@ -8336,32 +8394,32 @@
       <c r="Z31" s="8"/>
     </row>
     <row r="32" spans="1:26" ht="93.75" customHeight="1">
-      <c r="A32" s="47" t="s">
+      <c r="A32" s="46" t="s">
         <v>89</v>
       </c>
-      <c r="B32" s="39" t="s">
+      <c r="B32" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="C32" s="38"/>
-      <c r="D32" s="39" t="s">
+      <c r="C32" s="37"/>
+      <c r="D32" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="E32" s="39" t="s">
+      <c r="E32" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="F32" s="39" t="s">
+      <c r="F32" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="G32" s="39" t="s">
+      <c r="G32" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="H32" s="41" t="s">
+      <c r="H32" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="I32" s="40">
+      <c r="I32" s="39">
         <v>42467</v>
       </c>
-      <c r="J32" s="38"/>
+      <c r="J32" s="37"/>
       <c r="K32" s="8"/>
       <c r="L32" s="8"/>
       <c r="M32" s="8"/>
@@ -8380,20 +8438,20 @@
       <c r="Z32" s="8"/>
     </row>
     <row r="33" spans="1:26" ht="24" customHeight="1">
-      <c r="A33" s="51" t="s">
+      <c r="A33" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="B33" s="51" t="s">
+      <c r="B33" s="50" t="s">
         <v>96</v>
       </c>
-      <c r="C33" s="51"/>
-      <c r="D33" s="51"/>
-      <c r="E33" s="51"/>
-      <c r="F33" s="51"/>
-      <c r="G33" s="51"/>
-      <c r="H33" s="51"/>
-      <c r="I33" s="51"/>
-      <c r="J33" s="51"/>
+      <c r="C33" s="50"/>
+      <c r="D33" s="50"/>
+      <c r="E33" s="50"/>
+      <c r="F33" s="50"/>
+      <c r="G33" s="50"/>
+      <c r="H33" s="50"/>
+      <c r="I33" s="50"/>
+      <c r="J33" s="50"/>
       <c r="K33" s="8"/>
       <c r="L33" s="8"/>
       <c r="M33" s="8"/>
@@ -8412,32 +8470,32 @@
       <c r="Z33" s="8"/>
     </row>
     <row r="34" spans="1:26" ht="81" customHeight="1">
-      <c r="A34" s="52" t="s">
+      <c r="A34" s="51" t="s">
         <v>114</v>
       </c>
-      <c r="B34" s="52" t="s">
+      <c r="B34" s="51" t="s">
         <v>97</v>
       </c>
-      <c r="C34" s="52"/>
-      <c r="D34" s="53" t="s">
+      <c r="C34" s="51"/>
+      <c r="D34" s="52" t="s">
         <v>98</v>
       </c>
-      <c r="E34" s="53" t="s">
+      <c r="E34" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="F34" s="53" t="s">
+      <c r="F34" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="G34" s="39" t="s">
+      <c r="G34" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="H34" s="53" t="s">
+      <c r="H34" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="I34" s="40">
+      <c r="I34" s="39">
         <v>42467</v>
       </c>
-      <c r="J34" s="53"/>
+      <c r="J34" s="52"/>
       <c r="K34" s="8"/>
       <c r="L34" s="8"/>
       <c r="M34" s="8"/>
@@ -8456,32 +8514,32 @@
       <c r="Z34" s="8"/>
     </row>
     <row r="35" spans="1:26" ht="80.25" customHeight="1">
-      <c r="A35" s="52" t="s">
+      <c r="A35" s="51" t="s">
         <v>115</v>
       </c>
-      <c r="B35" s="52" t="s">
+      <c r="B35" s="51" t="s">
         <v>99</v>
       </c>
-      <c r="C35" s="52"/>
-      <c r="D35" s="53" t="s">
+      <c r="C35" s="51"/>
+      <c r="D35" s="52" t="s">
         <v>100</v>
       </c>
-      <c r="E35" s="53" t="s">
+      <c r="E35" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="F35" s="53" t="s">
+      <c r="F35" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="G35" s="39" t="s">
+      <c r="G35" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="H35" s="53" t="s">
+      <c r="H35" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="I35" s="40">
+      <c r="I35" s="39">
         <v>42467</v>
       </c>
-      <c r="J35" s="53"/>
+      <c r="J35" s="52"/>
       <c r="K35" s="8"/>
       <c r="L35" s="8"/>
       <c r="M35" s="8"/>
@@ -8500,32 +8558,32 @@
       <c r="Z35" s="8"/>
     </row>
     <row r="36" spans="1:26" ht="57" customHeight="1">
-      <c r="A36" s="52" t="s">
+      <c r="A36" s="51" t="s">
         <v>116</v>
       </c>
-      <c r="B36" s="52" t="s">
+      <c r="B36" s="51" t="s">
         <v>101</v>
       </c>
-      <c r="C36" s="52"/>
-      <c r="D36" s="53" t="s">
+      <c r="C36" s="51"/>
+      <c r="D36" s="52" t="s">
         <v>102</v>
       </c>
-      <c r="E36" s="53" t="s">
+      <c r="E36" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="F36" s="53" t="s">
+      <c r="F36" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="G36" s="39" t="s">
+      <c r="G36" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="H36" s="53" t="s">
+      <c r="H36" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="I36" s="40">
+      <c r="I36" s="39">
         <v>42467</v>
       </c>
-      <c r="J36" s="53"/>
+      <c r="J36" s="52"/>
       <c r="K36" s="8"/>
       <c r="L36" s="8"/>
       <c r="M36" s="8"/>
@@ -8544,32 +8602,32 @@
       <c r="Z36" s="8"/>
     </row>
     <row r="37" spans="1:26" ht="86.25" customHeight="1">
-      <c r="A37" s="52" t="s">
+      <c r="A37" s="51" t="s">
         <v>120</v>
       </c>
-      <c r="B37" s="52" t="s">
+      <c r="B37" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="C37" s="52"/>
-      <c r="D37" s="53" t="s">
+      <c r="C37" s="51"/>
+      <c r="D37" s="52" t="s">
         <v>104</v>
       </c>
-      <c r="E37" s="53" t="s">
+      <c r="E37" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="F37" s="53" t="s">
+      <c r="F37" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="G37" s="39" t="s">
+      <c r="G37" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="H37" s="53" t="s">
+      <c r="H37" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="I37" s="40">
+      <c r="I37" s="39">
         <v>42467</v>
       </c>
-      <c r="J37" s="53"/>
+      <c r="J37" s="52"/>
       <c r="K37" s="8"/>
       <c r="L37" s="8"/>
       <c r="M37" s="8"/>
@@ -8588,32 +8646,32 @@
       <c r="Z37" s="8"/>
     </row>
     <row r="38" spans="1:26" ht="79.5" customHeight="1">
-      <c r="A38" s="52" t="s">
+      <c r="A38" s="51" t="s">
         <v>119</v>
       </c>
-      <c r="B38" s="52" t="s">
+      <c r="B38" s="51" t="s">
         <v>105</v>
       </c>
-      <c r="C38" s="52"/>
-      <c r="D38" s="53" t="s">
+      <c r="C38" s="51"/>
+      <c r="D38" s="52" t="s">
         <v>106</v>
       </c>
-      <c r="E38" s="53" t="s">
+      <c r="E38" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="F38" s="53" t="s">
+      <c r="F38" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="G38" s="39" t="s">
+      <c r="G38" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="H38" s="53" t="s">
+      <c r="H38" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="I38" s="40">
+      <c r="I38" s="39">
         <v>42467</v>
       </c>
-      <c r="J38" s="53"/>
+      <c r="J38" s="52"/>
       <c r="K38" s="8"/>
       <c r="L38" s="8"/>
       <c r="M38" s="8"/>
@@ -8632,32 +8690,32 @@
       <c r="Z38" s="8"/>
     </row>
     <row r="39" spans="1:26" ht="90">
-      <c r="A39" s="52" t="s">
+      <c r="A39" s="51" t="s">
         <v>117</v>
       </c>
-      <c r="B39" s="52" t="s">
+      <c r="B39" s="51" t="s">
         <v>107</v>
       </c>
-      <c r="C39" s="52"/>
-      <c r="D39" s="53" t="s">
+      <c r="C39" s="51"/>
+      <c r="D39" s="52" t="s">
         <v>108</v>
       </c>
-      <c r="E39" s="53" t="s">
+      <c r="E39" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="F39" s="53" t="s">
+      <c r="F39" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="G39" s="39" t="s">
+      <c r="G39" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="H39" s="53" t="s">
+      <c r="H39" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="I39" s="40">
+      <c r="I39" s="39">
         <v>42467</v>
       </c>
-      <c r="J39" s="53"/>
+      <c r="J39" s="52"/>
       <c r="K39" s="8"/>
       <c r="L39" s="8"/>
       <c r="M39" s="8"/>
@@ -8676,32 +8734,32 @@
       <c r="Z39" s="8"/>
     </row>
     <row r="40" spans="1:26" ht="113.25" customHeight="1">
-      <c r="A40" s="52" t="s">
+      <c r="A40" s="51" t="s">
         <v>118</v>
       </c>
-      <c r="B40" s="52" t="s">
+      <c r="B40" s="51" t="s">
         <v>109</v>
       </c>
-      <c r="C40" s="52"/>
-      <c r="D40" s="53" t="s">
+      <c r="C40" s="51"/>
+      <c r="D40" s="52" t="s">
         <v>110</v>
       </c>
-      <c r="E40" s="53" t="s">
+      <c r="E40" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="F40" s="53" t="s">
+      <c r="F40" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="G40" s="39" t="s">
+      <c r="G40" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="H40" s="53" t="s">
+      <c r="H40" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="I40" s="40">
+      <c r="I40" s="39">
         <v>42467</v>
       </c>
-      <c r="J40" s="53"/>
+      <c r="J40" s="52"/>
       <c r="K40" s="8"/>
       <c r="L40" s="8"/>
       <c r="M40" s="8"/>
@@ -8719,17 +8777,21 @@
       <c r="Y40" s="8"/>
       <c r="Z40" s="8"/>
     </row>
-    <row r="41" spans="1:26" ht="81.75" customHeight="1">
-      <c r="A41" s="30"/>
-      <c r="B41" s="26"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="26"/>
-      <c r="E41" s="26"/>
-      <c r="F41" s="26"/>
-      <c r="G41" s="32"/>
-      <c r="H41" s="25"/>
-      <c r="I41" s="27"/>
-      <c r="J41" s="25"/>
+    <row r="41" spans="1:26" ht="25.5" customHeight="1">
+      <c r="A41" s="53" t="s">
+        <v>122</v>
+      </c>
+      <c r="B41" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="45"/>
+      <c r="J41" s="10"/>
       <c r="K41" s="8"/>
       <c r="L41" s="8"/>
       <c r="M41" s="8"/>
@@ -8747,17 +8809,33 @@
       <c r="Y41" s="8"/>
       <c r="Z41" s="8"/>
     </row>
-    <row r="42" spans="1:26" ht="93.75" customHeight="1">
-      <c r="A42" s="30"/>
-      <c r="B42" s="26"/>
-      <c r="C42" s="25"/>
-      <c r="D42" s="26"/>
-      <c r="E42" s="26"/>
-      <c r="F42" s="26"/>
-      <c r="G42" s="32"/>
-      <c r="H42" s="25"/>
-      <c r="I42" s="27"/>
-      <c r="J42" s="25"/>
+    <row r="42" spans="1:26" ht="123" customHeight="1">
+      <c r="A42" s="54" t="s">
+        <v>123</v>
+      </c>
+      <c r="B42" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="C42" s="37"/>
+      <c r="D42" s="40" t="s">
+        <v>126</v>
+      </c>
+      <c r="E42" s="55" t="s">
+        <v>127</v>
+      </c>
+      <c r="F42" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="G42" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="H42" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="I42" s="39">
+        <v>42558</v>
+      </c>
+      <c r="J42" s="37"/>
       <c r="K42" s="8"/>
       <c r="L42" s="8"/>
       <c r="M42" s="8"/>
@@ -8776,16 +8854,32 @@
       <c r="Z42" s="8"/>
     </row>
     <row r="43" spans="1:26" ht="93.75" customHeight="1">
-      <c r="A43" s="30"/>
-      <c r="B43" s="26"/>
-      <c r="C43" s="25"/>
-      <c r="D43" s="26"/>
-      <c r="E43" s="26"/>
-      <c r="F43" s="26"/>
-      <c r="G43" s="32"/>
-      <c r="H43" s="25"/>
-      <c r="I43" s="27"/>
-      <c r="J43" s="25"/>
+      <c r="A43" s="54" t="s">
+        <v>124</v>
+      </c>
+      <c r="B43" s="40" t="s">
+        <v>129</v>
+      </c>
+      <c r="C43" s="37"/>
+      <c r="D43" s="40" t="s">
+        <v>128</v>
+      </c>
+      <c r="E43" s="55" t="s">
+        <v>130</v>
+      </c>
+      <c r="F43" s="40" t="s">
+        <v>130</v>
+      </c>
+      <c r="G43" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="H43" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="I43" s="39">
+        <v>42558</v>
+      </c>
+      <c r="J43" s="37"/>
       <c r="K43" s="8"/>
       <c r="L43" s="8"/>
       <c r="M43" s="8"/>
@@ -8804,16 +8898,32 @@
       <c r="Z43" s="8"/>
     </row>
     <row r="44" spans="1:26" ht="94.5" customHeight="1">
-      <c r="A44" s="30"/>
-      <c r="B44" s="26"/>
-      <c r="C44" s="25"/>
-      <c r="D44" s="26"/>
-      <c r="E44" s="26"/>
-      <c r="F44" s="26"/>
-      <c r="G44" s="32"/>
-      <c r="H44" s="25"/>
-      <c r="I44" s="27"/>
-      <c r="J44" s="25"/>
+      <c r="A44" s="54" t="s">
+        <v>131</v>
+      </c>
+      <c r="B44" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="C44" s="37"/>
+      <c r="D44" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="E44" s="55" t="s">
+        <v>134</v>
+      </c>
+      <c r="F44" s="55" t="s">
+        <v>134</v>
+      </c>
+      <c r="G44" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="H44" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="I44" s="39">
+        <v>42558</v>
+      </c>
+      <c r="J44" s="37"/>
       <c r="K44" s="8"/>
       <c r="L44" s="8"/>
       <c r="M44" s="8"/>
@@ -8832,16 +8942,16 @@
       <c r="Z44" s="8"/>
     </row>
     <row r="45" spans="1:26" ht="96" customHeight="1">
-      <c r="A45" s="30"/>
-      <c r="B45" s="26"/>
-      <c r="C45" s="25"/>
-      <c r="D45" s="26"/>
-      <c r="E45" s="26"/>
-      <c r="F45" s="26"/>
-      <c r="G45" s="32"/>
-      <c r="H45" s="25"/>
-      <c r="I45" s="27"/>
-      <c r="J45" s="25"/>
+      <c r="A45" s="46"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="37"/>
+      <c r="D45" s="38"/>
+      <c r="E45" s="47"/>
+      <c r="F45" s="38"/>
+      <c r="G45" s="38"/>
+      <c r="H45" s="40"/>
+      <c r="I45" s="39"/>
+      <c r="J45" s="37"/>
       <c r="K45" s="8"/>
       <c r="L45" s="8"/>
       <c r="M45" s="8"/>
@@ -8860,16 +8970,16 @@
       <c r="Z45" s="8"/>
     </row>
     <row r="46" spans="1:26">
-      <c r="A46" s="28"/>
-      <c r="B46" s="24"/>
-      <c r="C46" s="24"/>
-      <c r="D46" s="24"/>
-      <c r="E46" s="24"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="33"/>
-      <c r="H46" s="24"/>
-      <c r="I46" s="29"/>
-      <c r="J46" s="24"/>
+      <c r="A46" s="46"/>
+      <c r="B46" s="38"/>
+      <c r="C46" s="37"/>
+      <c r="D46" s="38"/>
+      <c r="E46" s="47"/>
+      <c r="F46" s="38"/>
+      <c r="G46" s="38"/>
+      <c r="H46" s="40"/>
+      <c r="I46" s="39"/>
+      <c r="J46" s="37"/>
       <c r="K46" s="8"/>
       <c r="L46" s="8"/>
       <c r="M46" s="8"/>
@@ -8888,16 +8998,16 @@
       <c r="Z46" s="8"/>
     </row>
     <row r="47" spans="1:26" ht="94.5" customHeight="1">
-      <c r="A47" s="30"/>
-      <c r="B47" s="26"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="26"/>
-      <c r="E47" s="26"/>
-      <c r="F47" s="26"/>
-      <c r="G47" s="32"/>
-      <c r="H47" s="25"/>
-      <c r="I47" s="27"/>
-      <c r="J47" s="25"/>
+      <c r="A47" s="46"/>
+      <c r="B47" s="38"/>
+      <c r="C47" s="37"/>
+      <c r="D47" s="38"/>
+      <c r="E47" s="47"/>
+      <c r="F47" s="38"/>
+      <c r="G47" s="38"/>
+      <c r="H47" s="40"/>
+      <c r="I47" s="39"/>
+      <c r="J47" s="37"/>
       <c r="K47" s="8"/>
       <c r="L47" s="8"/>
       <c r="M47" s="8"/>
@@ -8916,16 +9026,16 @@
       <c r="Z47" s="8"/>
     </row>
     <row r="48" spans="1:26" ht="93" customHeight="1">
-      <c r="A48" s="30"/>
-      <c r="B48" s="25"/>
-      <c r="C48" s="25"/>
-      <c r="D48" s="26"/>
-      <c r="E48" s="26"/>
-      <c r="F48" s="26"/>
-      <c r="G48" s="32"/>
-      <c r="H48" s="25"/>
-      <c r="I48" s="27"/>
-      <c r="J48" s="25"/>
+      <c r="A48" s="46"/>
+      <c r="B48" s="38"/>
+      <c r="C48" s="37"/>
+      <c r="D48" s="38"/>
+      <c r="E48" s="47"/>
+      <c r="F48" s="38"/>
+      <c r="G48" s="38"/>
+      <c r="H48" s="40"/>
+      <c r="I48" s="39"/>
+      <c r="J48" s="37"/>
       <c r="K48" s="8"/>
       <c r="L48" s="8"/>
       <c r="M48" s="8"/>
@@ -9003,10 +9113,10 @@
       <c r="A51" s="30"/>
       <c r="B51" s="26"/>
       <c r="C51" s="25"/>
-      <c r="D51" s="34"/>
+      <c r="D51" s="33"/>
       <c r="E51" s="26"/>
       <c r="F51" s="26"/>
-      <c r="G51" s="35"/>
+      <c r="G51" s="34"/>
       <c r="H51" s="25"/>
       <c r="I51" s="27"/>
       <c r="J51" s="25"/>

--- a/TestCase.xlsx
+++ b/TestCase.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="138">
   <si>
     <t>ID</t>
   </si>
@@ -465,13 +465,23 @@
     <t>Xem giỏ hàng khi đã đăng nhập, đã có hàng trong giỏ</t>
   </si>
   <si>
-    <t>1. Đăng nhập
-3. Thêm hàng vào giỏ
-2. Bấm vào nút xem giỏ hàng</t>
+    <t>1. Hiện giao diện giỏ hàng
+2. Hiển thị thông tin của hàng trong giỏ, số lượng và tổng giá tiền</t>
   </si>
   <si>
-    <t>1. Hiện giao diện giỏ hàng
-2. Hiển thị thông tin của hàng trong giỏ, số lượng và tổng giá tiền</t>
+    <t>007-004</t>
+  </si>
+  <si>
+    <t>Xem giỏ hàng khi đăng nhập với vai trò admin</t>
+  </si>
+  <si>
+    <t>1. Đăng nhập
+2. Thêm hàng vào giỏ
+3. Bấm vào nút xem giỏ hàng</t>
+  </si>
+  <si>
+    <t>1. Đăng nhập với vai trò admin
+2. Bấm vào nút xem giỏ hàng</t>
   </si>
 </sst>
 </file>
@@ -7152,8 +7162,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="I44" sqref="I43:I44"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44:I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1"/>
@@ -8906,13 +8916,13 @@
       </c>
       <c r="C44" s="37"/>
       <c r="D44" s="40" t="s">
+        <v>136</v>
+      </c>
+      <c r="E44" s="55" t="s">
         <v>133</v>
       </c>
-      <c r="E44" s="55" t="s">
-        <v>134</v>
-      </c>
       <c r="F44" s="55" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G44" s="38" t="s">
         <v>53</v>
@@ -8942,15 +8952,31 @@
       <c r="Z44" s="8"/>
     </row>
     <row r="45" spans="1:26" ht="96" customHeight="1">
-      <c r="A45" s="46"/>
-      <c r="B45" s="38"/>
+      <c r="A45" s="54" t="s">
+        <v>134</v>
+      </c>
+      <c r="B45" s="40" t="s">
+        <v>135</v>
+      </c>
       <c r="C45" s="37"/>
-      <c r="D45" s="38"/>
-      <c r="E45" s="47"/>
-      <c r="F45" s="38"/>
-      <c r="G45" s="38"/>
-      <c r="H45" s="40"/>
-      <c r="I45" s="39"/>
+      <c r="D45" s="40" t="s">
+        <v>137</v>
+      </c>
+      <c r="E45" s="55" t="s">
+        <v>130</v>
+      </c>
+      <c r="F45" s="55" t="s">
+        <v>130</v>
+      </c>
+      <c r="G45" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="H45" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="I45" s="39">
+        <v>42559</v>
+      </c>
       <c r="J45" s="37"/>
       <c r="K45" s="8"/>
       <c r="L45" s="8"/>

--- a/TestCase.xlsx
+++ b/TestCase.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="201">
   <si>
     <t>ID</t>
   </si>
@@ -152,16 +152,10 @@
     <t>02 - 007</t>
   </si>
   <si>
-    <t>Nhập emailđã tồn tại</t>
-  </si>
-  <si>
     <t>02 - 008</t>
   </si>
   <si>
     <t>Nhập thông tin hợp lệ</t>
-  </si>
-  <si>
-    <t>Chuyển sang phần đăng ký 2</t>
   </si>
   <si>
     <t>Đăng ký</t>
@@ -241,9 +235,6 @@
   </si>
   <si>
     <t>Nhấn nút Log out</t>
-  </si>
-  <si>
-    <t>1. Đăng xuất người dùng</t>
   </si>
   <si>
     <t>Function 05</t>
@@ -483,12 +474,271 @@
     <t>1. Đăng nhập với vai trò admin
 2. Bấm vào nút xem giỏ hàng</t>
   </si>
+  <si>
+    <t>007-005</t>
+  </si>
+  <si>
+    <t>Xem giỏ hàng khi đã đăng nhập, đã xóa hết sản phẩm trong giỏ hàng</t>
+  </si>
+  <si>
+    <t>1. Đăng nhập
+2. Thêm hàng vào giỏ
+3. Bấm vào nút xem giỏ hàng
+4. Xóa hàng khỏi giỏ</t>
+  </si>
+  <si>
+    <t>1. Hiện giao diện giỏ hàng
+2. Hiện các sản phẩm được thêm vào
+3. Sau khi xóa báo hàng đã được xóa
+4. Nếu xóa hết thì báo trống</t>
+  </si>
+  <si>
+    <t>1. Không cho người dùng đăng nhập
+2. Thông báo lỗi</t>
+  </si>
+  <si>
+    <t>1. Nhập email : " "
+2.Nhập Password : "abcd"
+3. Nhấn nút Login</t>
+  </si>
+  <si>
+    <t>1. Nhập email : "admin@admin.com "
+2.Nhập Password : ""
+3. Nhấn nút Login</t>
+  </si>
+  <si>
+    <t>1. Nhập email : "abcd "
+2.Nhập Password : "abcd"
+3. Nhấn nút Login</t>
+  </si>
+  <si>
+    <t>1. Nhập email : "admin@admin.com "
+2.Nhập Password : "abcd"
+3. Nhấn nút Login</t>
+  </si>
+  <si>
+    <t>1. Nhập email : "admin@admin.com "
+2.Nhập Password : "123456789"
+3. Nhấn nút Login</t>
+  </si>
+  <si>
+    <t>1. Nhập email : "admin@admin.com "
+2.Nhập Password : "123456789"
+3. Chọn Remember me
+4. Nhấn nút Login</t>
+  </si>
+  <si>
+    <t>1. Nhập tên : " abc"
+2. Nhập email: ""
+3. Nhập mật khẩu: "123456789"
+4. Nhập lại mật khẩu: "123456789"</t>
+  </si>
+  <si>
+    <t>1. Nhập tên : " abc"
+2. Nhập email: "abc@gmail.com"
+3. Nhập mật khẩu: ""
+4. Nhập lại mật khẩu: "123456789"</t>
+  </si>
+  <si>
+    <t>1. Nhập tên : ""
+2. Nhập email: "abc@gmail.com"
+3. Nhập mật khẩu: "123456789"
+4. Nhập lại mật khẩu: ""</t>
+  </si>
+  <si>
+    <t>1. Nhập tên : ""
+2. Nhập email: "abc@gmail.com"
+3. Nhập mật khẩu: "123456789"
+4. Nhập lại mật khẩu: "abc"</t>
+  </si>
+  <si>
+    <t>1. Nhập tên : "abc"
+2. Nhập email: "abc@gmail.com"
+3. Nhập mật khẩu: "123"
+4. Nhập lại mật khẩu: "123"</t>
+  </si>
+  <si>
+    <t>1. Nhập tên : "abc"
+2. Nhập email: "abc"
+3. Nhập mật khẩu: "123456789"
+4. Nhập lại mật khẩu: "123456789"</t>
+  </si>
+  <si>
+    <t>1. Nhập tên : "abc"
+2. Nhập email: "admin@admin.com"
+3. Nhập mật khẩu: "123456789"
+4. Nhập lại mật khẩu: "123456789"</t>
+  </si>
+  <si>
+    <t>1. Nhập tên : ""
+2. Nhập email: "abc@gmail.com"
+3. Nhập mật khẩu: "123456789"
+4. Nhập lại mật khẩu: "123456789"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Đăng xuất người dùng
+2. Hiện trang chủ </t>
+  </si>
+  <si>
+    <t>Chuyển sang phần điền thông tin địa chỉ, số đt</t>
+  </si>
+  <si>
+    <t>02 - 009</t>
+  </si>
+  <si>
+    <t>02 - 010</t>
+  </si>
+  <si>
+    <t>02 - 011</t>
+  </si>
+  <si>
+    <t>02 - 012</t>
+  </si>
+  <si>
+    <t>1. Nhập địa chỉ: ""
+2. Nhập số điện thoại: +84915897496</t>
+  </si>
+  <si>
+    <t>1. Nhập địa chỉ: "227 Nguyen Van Cu Quan 5"
+2. Nhập số điện thoại: ""</t>
+  </si>
+  <si>
+    <t>1. Nhập địa chỉ: "227 Nguyen Van Cu Quan 5"
+2. Nhập số điện thoại: "a13asd"</t>
+  </si>
+  <si>
+    <t>1. Nhập địa chỉ: "227 Nguyen Van Cu Quan 5"
+2. Nhập số điện thoại: "0915897496"</t>
+  </si>
+  <si>
+    <t>Đăng ký thành công chuyển sang màn hình khác</t>
+  </si>
+  <si>
+    <t>Nhập email đã tồn tại</t>
+  </si>
+  <si>
+    <t>Xem sản phẩm</t>
+  </si>
+  <si>
+    <t>Function 08</t>
+  </si>
+  <si>
+    <t>Xem chi tiết sản phẩm</t>
+  </si>
+  <si>
+    <t>008-001</t>
+  </si>
+  <si>
+    <t>Xem sản phẩm ở trang chủ khi chưa đăng nhập</t>
+  </si>
+  <si>
+    <t>1. Chuyển sang trang chi tiết sản phẩm
+2. Thể hiện chi tiết sản phẩm</t>
+  </si>
+  <si>
+    <t>1. Không đăng nhập
+2. Bấm vào sản phẩm</t>
+  </si>
+  <si>
+    <t>008-002</t>
+  </si>
+  <si>
+    <t>Xem sản phẩm ở trang chủ khi đã đăng nhập</t>
+  </si>
+  <si>
+    <t>1. Đăng nhập
+2. Bấm vào sản phẩm</t>
+  </si>
+  <si>
+    <t>008-003</t>
+  </si>
+  <si>
+    <t>Đăng nhập khi đang xem chi tiết sản phẩm</t>
+  </si>
+  <si>
+    <t>1. Không đăng nhập
+2. Bấm vào sản phẩm
+3. Đăng nhập ở trang chi tiết sản phẩm</t>
+  </si>
+  <si>
+    <t>1. Vẫn ở trang chi tiết sản phẩm
+2. Thể hiện chi tiết sản phẩm</t>
+  </si>
+  <si>
+    <t>008-004</t>
+  </si>
+  <si>
+    <t>Xem sản phẩm ở trang chủ khi đã đăng nhập với tư cách admin</t>
+  </si>
+  <si>
+    <t>1. Đăng nhập với tư cách admin
+2. Bấm vào sản phẩm</t>
+  </si>
+  <si>
+    <t>Thêm sản phẩm vào giỏ hàng</t>
+  </si>
+  <si>
+    <t>Function 09</t>
+  </si>
+  <si>
+    <t>009-001</t>
+  </si>
+  <si>
+    <t>Thêm sản phẩm vào giỏ hàng khi chưa đăng nhập</t>
+  </si>
+  <si>
+    <t>1. Không đăng nhập
+2. Thêm sản phẩm vào giỏ hàng</t>
+  </si>
+  <si>
+    <t>1. Cho phép thêm sản phẩm 
+khi chưa đăng nhập</t>
+  </si>
+  <si>
+    <t>009-002</t>
+  </si>
+  <si>
+    <t>Thêm sản phẩm vào giỏ hàng khi đã đăng nhập</t>
+  </si>
+  <si>
+    <t>1. Đăng nhập
+2. Thêm sản phẩm vào giỏ hàng</t>
+  </si>
+  <si>
+    <t>1. Ghi nhận sản phẩm đã thêm</t>
+  </si>
+  <si>
+    <t>009-003</t>
+  </si>
+  <si>
+    <t>Thêm sản phẩm vào giỏ hàng trống</t>
+  </si>
+  <si>
+    <t>009-004</t>
+  </si>
+  <si>
+    <t>Thêm sản phẩm vào giỏ hàng đã có hàng</t>
+  </si>
+  <si>
+    <t>009-005</t>
+  </si>
+  <si>
+    <t>Thêm sản phẩm vào giỏ hàng khi đã đăng nhập 
+với tư cách admin</t>
+  </si>
+  <si>
+    <t>1. Đăng nhập với tư cách admin
+2. Thêm sản phẩm vào giỏ hàng</t>
+  </si>
+  <si>
+    <t>1. Không cho phép thêm hàng vào giỏ</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -502,16 +752,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF00B050"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -673,7 +913,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -720,44 +960,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -807,6 +1011,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1105,7 +1324,7 @@
   <dimension ref="A1:D1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1"/>
@@ -1146,7 +1365,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -1155,8 +1374,8 @@
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="41" t="s">
-        <v>66</v>
+      <c r="B4" s="29" t="s">
+        <v>64</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -1165,8 +1384,8 @@
       <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="41" t="s">
-        <v>93</v>
+      <c r="B5" s="29" t="s">
+        <v>90</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -1175,8 +1394,8 @@
       <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="48" t="s">
-        <v>92</v>
+      <c r="B6" s="36" t="s">
+        <v>89</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -1186,7 +1405,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -1196,20 +1415,28 @@
         <v>7</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>166</v>
+      </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>183</v>
+      </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
     </row>
@@ -7160,21 +7387,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z1003"/>
+  <dimension ref="A1:Z1007"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44:I45"/>
+    <sheetView tabSelected="1" topLeftCell="B58" workbookViewId="0">
+      <selection activeCell="G61" sqref="G61:I61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="17.42578125" customWidth="1"/>
-    <col min="2" max="2" width="36.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.5703125" customWidth="1"/>
     <col min="3" max="4" width="25.28515625" customWidth="1"/>
-    <col min="5" max="5" width="24.42578125" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" customWidth="1"/>
-    <col min="7" max="7" width="5.42578125" customWidth="1"/>
-    <col min="8" max="9" width="9.7109375" customWidth="1"/>
+    <col min="5" max="5" width="26" customWidth="1"/>
+    <col min="6" max="6" width="25.85546875" customWidth="1"/>
+    <col min="7" max="9" width="9.7109375" customWidth="1"/>
     <col min="10" max="10" width="6.5703125" customWidth="1"/>
     <col min="11" max="26" width="7.7109375" customWidth="1"/>
   </cols>
@@ -7267,16 +7493,22 @@
         <v>15</v>
       </c>
       <c r="C3" s="13"/>
-      <c r="D3" s="12"/>
+      <c r="D3" s="15" t="s">
+        <v>140</v>
+      </c>
       <c r="E3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="49" t="s">
-        <v>94</v>
-      </c>
-      <c r="I3" s="39">
+      <c r="F3" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="I3" s="27">
         <v>42376</v>
       </c>
       <c r="J3" s="13"/>
@@ -7305,16 +7537,22 @@
         <v>18</v>
       </c>
       <c r="C4" s="13"/>
-      <c r="D4" s="12"/>
+      <c r="D4" s="15" t="s">
+        <v>141</v>
+      </c>
       <c r="E4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="49" t="s">
-        <v>94</v>
-      </c>
-      <c r="I4" s="39">
+      <c r="F4" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="H4" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="I4" s="27">
         <v>42376</v>
       </c>
       <c r="J4" s="13"/>
@@ -7343,16 +7581,22 @@
         <v>15</v>
       </c>
       <c r="C5" s="13"/>
-      <c r="D5" s="12"/>
+      <c r="D5" s="15" t="s">
+        <v>142</v>
+      </c>
       <c r="E5" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="49" t="s">
-        <v>94</v>
-      </c>
-      <c r="I5" s="39">
+      <c r="F5" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="H5" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="I5" s="27">
         <v>42376</v>
       </c>
       <c r="J5" s="13"/>
@@ -7381,16 +7625,22 @@
         <v>21</v>
       </c>
       <c r="C6" s="13"/>
-      <c r="D6" s="12"/>
+      <c r="D6" s="15" t="s">
+        <v>143</v>
+      </c>
       <c r="E6" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="49" t="s">
-        <v>94</v>
-      </c>
-      <c r="I6" s="39">
+      <c r="F6" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="I6" s="27">
         <v>42376</v>
       </c>
       <c r="J6" s="13"/>
@@ -7411,7 +7661,7 @@
       <c r="Y6" s="8"/>
       <c r="Z6" s="8"/>
     </row>
-    <row r="7" spans="1:26" ht="57" customHeight="1">
+    <row r="7" spans="1:26" ht="77.25" customHeight="1">
       <c r="A7" s="13" t="s">
         <v>23</v>
       </c>
@@ -7419,16 +7669,22 @@
         <v>24</v>
       </c>
       <c r="C7" s="13"/>
-      <c r="D7" s="12"/>
+      <c r="D7" s="15" t="s">
+        <v>144</v>
+      </c>
       <c r="E7" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="49" t="s">
-        <v>94</v>
-      </c>
-      <c r="I7" s="39">
+      <c r="F7" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="I7" s="27">
         <v>42376</v>
       </c>
       <c r="J7" s="13"/>
@@ -7449,7 +7705,7 @@
       <c r="Y7" s="8"/>
       <c r="Z7" s="8"/>
     </row>
-    <row r="8" spans="1:26" ht="57" customHeight="1">
+    <row r="8" spans="1:26" ht="99" customHeight="1">
       <c r="A8" s="14" t="s">
         <v>26</v>
       </c>
@@ -7457,16 +7713,22 @@
         <v>27</v>
       </c>
       <c r="C8" s="13"/>
-      <c r="D8" s="15"/>
+      <c r="D8" s="15" t="s">
+        <v>145</v>
+      </c>
       <c r="E8" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="15"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="49" t="s">
-        <v>94</v>
-      </c>
-      <c r="I8" s="39">
+      <c r="F8" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="I8" s="27">
         <v>42376</v>
       </c>
       <c r="J8" s="13"/>
@@ -7492,7 +7754,7 @@
         <v>29</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -7519,7 +7781,7 @@
       <c r="Y9" s="8"/>
       <c r="Z9" s="8"/>
     </row>
-    <row r="10" spans="1:26" ht="65.25" customHeight="1">
+    <row r="10" spans="1:26" ht="98.25" customHeight="1">
       <c r="A10" s="11" t="s">
         <v>30</v>
       </c>
@@ -7527,16 +7789,22 @@
         <v>31</v>
       </c>
       <c r="C10" s="13"/>
-      <c r="D10" s="12"/>
+      <c r="D10" s="15" t="s">
+        <v>146</v>
+      </c>
       <c r="E10" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="49" t="s">
-        <v>95</v>
-      </c>
-      <c r="I10" s="39">
+      <c r="F10" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="I10" s="27">
         <v>42376</v>
       </c>
       <c r="J10" s="13"/>
@@ -7557,7 +7825,7 @@
       <c r="Y10" s="8"/>
       <c r="Z10" s="8"/>
     </row>
-    <row r="11" spans="1:26" ht="68.25" customHeight="1">
+    <row r="11" spans="1:26" ht="92.25" customHeight="1">
       <c r="A11" s="13" t="s">
         <v>33</v>
       </c>
@@ -7565,16 +7833,22 @@
         <v>34</v>
       </c>
       <c r="C11" s="13"/>
-      <c r="D11" s="12"/>
+      <c r="D11" s="15" t="s">
+        <v>147</v>
+      </c>
       <c r="E11" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="49" t="s">
-        <v>95</v>
-      </c>
-      <c r="I11" s="39">
+      <c r="F11" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="H11" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="I11" s="27">
         <v>42376</v>
       </c>
       <c r="J11" s="13"/>
@@ -7595,7 +7869,7 @@
       <c r="Y11" s="8"/>
       <c r="Z11" s="8"/>
     </row>
-    <row r="12" spans="1:26" ht="57.75" customHeight="1">
+    <row r="12" spans="1:26" ht="94.5" customHeight="1">
       <c r="A12" s="13" t="s">
         <v>35</v>
       </c>
@@ -7603,16 +7877,22 @@
         <v>36</v>
       </c>
       <c r="C12" s="13"/>
-      <c r="D12" s="12"/>
+      <c r="D12" s="15" t="s">
+        <v>148</v>
+      </c>
       <c r="E12" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="49" t="s">
-        <v>95</v>
-      </c>
-      <c r="I12" s="39">
+      <c r="F12" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="H12" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="I12" s="27">
         <v>42376</v>
       </c>
       <c r="J12" s="13"/>
@@ -7641,16 +7921,22 @@
         <v>38</v>
       </c>
       <c r="C13" s="11"/>
-      <c r="D13" s="12"/>
+      <c r="D13" s="15" t="s">
+        <v>149</v>
+      </c>
       <c r="E13" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="49" t="s">
-        <v>95</v>
-      </c>
-      <c r="I13" s="39">
+      <c r="F13" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="H13" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="I13" s="27">
         <v>42376</v>
       </c>
       <c r="J13" s="11"/>
@@ -7671,7 +7957,7 @@
       <c r="Y13" s="8"/>
       <c r="Z13" s="8"/>
     </row>
-    <row r="14" spans="1:26" ht="56.25" customHeight="1">
+    <row r="14" spans="1:26" ht="81.75" customHeight="1">
       <c r="A14" s="11" t="s">
         <v>39</v>
       </c>
@@ -7679,16 +7965,22 @@
         <v>40</v>
       </c>
       <c r="C14" s="11"/>
-      <c r="D14" s="12"/>
+      <c r="D14" s="15" t="s">
+        <v>150</v>
+      </c>
       <c r="E14" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="49" t="s">
-        <v>95</v>
-      </c>
-      <c r="I14" s="39">
+      <c r="F14" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="H14" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="I14" s="27">
         <v>42376</v>
       </c>
       <c r="J14" s="11"/>
@@ -7709,7 +8001,7 @@
       <c r="Y14" s="8"/>
       <c r="Z14" s="8"/>
     </row>
-    <row r="15" spans="1:26" ht="67.5" customHeight="1">
+    <row r="15" spans="1:26" ht="98.25" customHeight="1">
       <c r="A15" s="11" t="s">
         <v>41</v>
       </c>
@@ -7717,16 +8009,22 @@
         <v>42</v>
       </c>
       <c r="C15" s="11"/>
-      <c r="D15" s="12"/>
+      <c r="D15" s="15" t="s">
+        <v>151</v>
+      </c>
       <c r="E15" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="49" t="s">
-        <v>95</v>
-      </c>
-      <c r="I15" s="39">
+      <c r="F15" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="H15" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="I15" s="27">
         <v>42376</v>
       </c>
       <c r="J15" s="11"/>
@@ -7747,24 +8045,30 @@
       <c r="Y15" s="8"/>
       <c r="Z15" s="8"/>
     </row>
-    <row r="16" spans="1:26" ht="81.75" customHeight="1">
+    <row r="16" spans="1:26" ht="107.25" customHeight="1">
       <c r="A16" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="11" t="s">
-        <v>44</v>
+      <c r="B16" s="47" t="s">
+        <v>165</v>
       </c>
       <c r="C16" s="11"/>
-      <c r="D16" s="12"/>
+      <c r="D16" s="15" t="s">
+        <v>152</v>
+      </c>
       <c r="E16" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="49" t="s">
-        <v>95</v>
-      </c>
-      <c r="I16" s="39">
+      <c r="F16" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="H16" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="I16" s="27">
         <v>42376</v>
       </c>
       <c r="J16" s="11"/>
@@ -7785,27 +8089,33 @@
       <c r="Y16" s="8"/>
       <c r="Z16" s="8"/>
     </row>
-    <row r="17" spans="1:26" ht="81.75" customHeight="1">
-      <c r="A17" s="35" t="s">
+    <row r="17" spans="1:26" ht="105.75" customHeight="1">
+      <c r="A17" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="35"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="49" t="s">
-        <v>95</v>
-      </c>
-      <c r="I17" s="39">
+      <c r="C17" s="24"/>
+      <c r="D17" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="E17" s="44" t="s">
+        <v>155</v>
+      </c>
+      <c r="F17" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="H17" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="I17" s="27">
         <v>42376</v>
       </c>
-      <c r="J17" s="35"/>
+      <c r="J17" s="24"/>
       <c r="K17" s="8"/>
       <c r="L17" s="8"/>
       <c r="M17" s="8"/>
@@ -7823,21 +8133,33 @@
       <c r="Y17" s="8"/>
       <c r="Z17" s="8"/>
     </row>
-    <row r="18" spans="1:26" ht="22.5" customHeight="1">
-      <c r="A18" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="B18" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
+    <row r="18" spans="1:26" ht="105.75" customHeight="1">
+      <c r="A18" s="46" t="s">
+        <v>156</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="45"/>
+      <c r="D18" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="E18" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="H18" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="I18" s="27">
+        <v>42376</v>
+      </c>
+      <c r="J18" s="45"/>
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
       <c r="M18" s="8"/>
@@ -7855,33 +8177,33 @@
       <c r="Y18" s="8"/>
       <c r="Z18" s="8"/>
     </row>
-    <row r="19" spans="1:26" ht="34.5" customHeight="1">
-      <c r="A19" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="B19" s="42" t="s">
-        <v>66</v>
-      </c>
-      <c r="C19" s="37"/>
-      <c r="D19" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="E19" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="F19" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="G19" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="H19" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="I19" s="43">
+    <row r="19" spans="1:26" ht="105.75" customHeight="1">
+      <c r="A19" s="46" t="s">
+        <v>157</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="45"/>
+      <c r="D19" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="E19" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="H19" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="I19" s="27">
         <v>42376</v>
       </c>
-      <c r="J19" s="37"/>
+      <c r="J19" s="45"/>
       <c r="K19" s="8"/>
       <c r="L19" s="8"/>
       <c r="M19" s="8"/>
@@ -7899,21 +8221,33 @@
       <c r="Y19" s="8"/>
       <c r="Z19" s="8"/>
     </row>
-    <row r="20" spans="1:26">
-      <c r="A20" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
+    <row r="20" spans="1:26" ht="105.75" customHeight="1">
+      <c r="A20" s="46" t="s">
+        <v>158</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="45"/>
+      <c r="D20" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="E20" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="H20" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="I20" s="27">
+        <v>42376</v>
+      </c>
+      <c r="J20" s="45"/>
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
       <c r="M20" s="8"/>
@@ -7931,33 +8265,33 @@
       <c r="Y20" s="8"/>
       <c r="Z20" s="8"/>
     </row>
-    <row r="21" spans="1:26" ht="60" customHeight="1">
-      <c r="A21" s="42" t="s">
-        <v>68</v>
-      </c>
-      <c r="B21" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21" s="37"/>
-      <c r="D21" s="38" t="s">
+    <row r="21" spans="1:26" ht="105.75" customHeight="1">
+      <c r="A21" s="46" t="s">
+        <v>159</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="45"/>
+      <c r="D21" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="E21" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="F21" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="G21" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="F21" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="G21" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="H21" s="40" t="s">
-        <v>94</v>
-      </c>
-      <c r="I21" s="39">
-        <v>42497</v>
-      </c>
-      <c r="J21" s="37"/>
+      <c r="H21" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="I21" s="27">
+        <v>42376</v>
+      </c>
+      <c r="J21" s="45"/>
       <c r="K21" s="8"/>
       <c r="L21" s="8"/>
       <c r="M21" s="8"/>
@@ -7975,33 +8309,21 @@
       <c r="Y21" s="8"/>
       <c r="Z21" s="8"/>
     </row>
-    <row r="22" spans="1:26" ht="60" customHeight="1">
-      <c r="A22" s="42" t="s">
-        <v>68</v>
-      </c>
-      <c r="B22" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="C22" s="37"/>
-      <c r="D22" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="E22" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="F22" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="G22" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="H22" s="40" t="s">
-        <v>94</v>
-      </c>
-      <c r="I22" s="39">
-        <v>42497</v>
-      </c>
-      <c r="J22" s="37"/>
+    <row r="22" spans="1:26" ht="22.5" customHeight="1">
+      <c r="A22" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
       <c r="M22" s="8"/>
@@ -8019,33 +8341,33 @@
       <c r="Y22" s="8"/>
       <c r="Z22" s="8"/>
     </row>
-    <row r="23" spans="1:26" ht="60" customHeight="1">
-      <c r="A23" s="42" t="s">
+    <row r="23" spans="1:26" ht="34.5" customHeight="1">
+      <c r="A23" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="25"/>
+      <c r="D23" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="C23" s="37"/>
-      <c r="D23" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="E23" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="F23" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="G23" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="H23" s="40" t="s">
-        <v>94</v>
-      </c>
-      <c r="I23" s="39">
-        <v>42497</v>
-      </c>
-      <c r="J23" s="37"/>
+      <c r="E23" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="F23" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="G23" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="H23" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="I23" s="31">
+        <v>42376</v>
+      </c>
+      <c r="J23" s="25"/>
       <c r="K23" s="8"/>
       <c r="L23" s="8"/>
       <c r="M23" s="8"/>
@@ -8063,33 +8385,21 @@
       <c r="Y23" s="8"/>
       <c r="Z23" s="8"/>
     </row>
-    <row r="24" spans="1:26" ht="60" customHeight="1">
-      <c r="A24" s="42" t="s">
-        <v>68</v>
-      </c>
-      <c r="B24" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="C24" s="37"/>
-      <c r="D24" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="E24" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="F24" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="G24" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="H24" s="40" t="s">
-        <v>94</v>
-      </c>
-      <c r="I24" s="39">
-        <v>42497</v>
-      </c>
-      <c r="J24" s="37"/>
+    <row r="24" spans="1:26">
+      <c r="A24" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
       <c r="K24" s="8"/>
       <c r="L24" s="8"/>
       <c r="M24" s="8"/>
@@ -8107,33 +8417,33 @@
       <c r="Y24" s="8"/>
       <c r="Z24" s="8"/>
     </row>
-    <row r="25" spans="1:26" ht="75">
-      <c r="A25" s="42" t="s">
-        <v>68</v>
-      </c>
-      <c r="B25" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="C25" s="37"/>
-      <c r="D25" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="E25" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="F25" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="G25" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="H25" s="40" t="s">
-        <v>94</v>
-      </c>
-      <c r="I25" s="39">
+    <row r="25" spans="1:26" ht="60" customHeight="1">
+      <c r="A25" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="25"/>
+      <c r="D25" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="E25" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F25" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="G25" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="H25" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="I25" s="27">
         <v>42497</v>
       </c>
-      <c r="J25" s="37"/>
+      <c r="J25" s="25"/>
       <c r="K25" s="8"/>
       <c r="L25" s="8"/>
       <c r="M25" s="8"/>
@@ -8151,21 +8461,33 @@
       <c r="Y25" s="8"/>
       <c r="Z25" s="8"/>
     </row>
-    <row r="26" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A26" s="44" t="s">
-        <v>72</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="45"/>
-      <c r="J26" s="10"/>
+    <row r="26" spans="1:26" ht="60" customHeight="1">
+      <c r="A26" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="25"/>
+      <c r="D26" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="E26" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="F26" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="G26" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="H26" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="I26" s="27">
+        <v>42497</v>
+      </c>
+      <c r="J26" s="25"/>
       <c r="K26" s="8"/>
       <c r="L26" s="8"/>
       <c r="M26" s="8"/>
@@ -8183,33 +8505,33 @@
       <c r="Y26" s="8"/>
       <c r="Z26" s="8"/>
     </row>
-    <row r="27" spans="1:26" ht="120" customHeight="1">
-      <c r="A27" s="46" t="s">
-        <v>74</v>
-      </c>
-      <c r="B27" s="38" t="s">
-        <v>75</v>
-      </c>
-      <c r="C27" s="37"/>
-      <c r="D27" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="E27" s="47" t="s">
-        <v>77</v>
-      </c>
-      <c r="F27" s="38" t="s">
-        <v>77</v>
-      </c>
-      <c r="G27" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="H27" s="40" t="s">
-        <v>94</v>
-      </c>
-      <c r="I27" s="39">
-        <v>42467</v>
-      </c>
-      <c r="J27" s="37"/>
+    <row r="27" spans="1:26" ht="60" customHeight="1">
+      <c r="A27" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="25"/>
+      <c r="D27" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="F27" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="G27" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="H27" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="I27" s="27">
+        <v>42497</v>
+      </c>
+      <c r="J27" s="25"/>
       <c r="K27" s="8"/>
       <c r="L27" s="8"/>
       <c r="M27" s="8"/>
@@ -8227,33 +8549,33 @@
       <c r="Y27" s="8"/>
       <c r="Z27" s="8"/>
     </row>
-    <row r="28" spans="1:26" ht="124.5" customHeight="1">
-      <c r="A28" s="46" t="s">
-        <v>78</v>
-      </c>
-      <c r="B28" s="38" t="s">
-        <v>79</v>
-      </c>
-      <c r="C28" s="37"/>
-      <c r="D28" s="38" t="s">
-        <v>80</v>
-      </c>
-      <c r="E28" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="F28" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="G28" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="H28" s="40" t="s">
-        <v>94</v>
-      </c>
-      <c r="I28" s="39">
-        <v>42467</v>
-      </c>
-      <c r="J28" s="37"/>
+    <row r="28" spans="1:26" ht="60" customHeight="1">
+      <c r="A28" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="25"/>
+      <c r="D28" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="E28" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="G28" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="H28" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="I28" s="27">
+        <v>42497</v>
+      </c>
+      <c r="J28" s="25"/>
       <c r="K28" s="8"/>
       <c r="L28" s="8"/>
       <c r="M28" s="8"/>
@@ -8271,33 +8593,33 @@
       <c r="Y28" s="8"/>
       <c r="Z28" s="8"/>
     </row>
-    <row r="29" spans="1:26" ht="118.5" customHeight="1">
-      <c r="A29" s="46" t="s">
-        <v>82</v>
-      </c>
-      <c r="B29" s="38" t="s">
-        <v>83</v>
-      </c>
-      <c r="C29" s="37"/>
-      <c r="D29" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="E29" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="F29" s="38" t="s">
-        <v>77</v>
-      </c>
-      <c r="G29" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="H29" s="40" t="s">
-        <v>94</v>
-      </c>
-      <c r="I29" s="39">
-        <v>42467</v>
-      </c>
-      <c r="J29" s="37"/>
+    <row r="29" spans="1:26" ht="75">
+      <c r="A29" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="25"/>
+      <c r="D29" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="E29" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="F29" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="G29" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="H29" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="I29" s="27">
+        <v>42497</v>
+      </c>
+      <c r="J29" s="25"/>
       <c r="K29" s="8"/>
       <c r="L29" s="8"/>
       <c r="M29" s="8"/>
@@ -8315,33 +8637,21 @@
       <c r="Y29" s="8"/>
       <c r="Z29" s="8"/>
     </row>
-    <row r="30" spans="1:26" ht="117.75" customHeight="1">
-      <c r="A30" s="46" t="s">
-        <v>85</v>
-      </c>
-      <c r="B30" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="C30" s="37"/>
-      <c r="D30" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="E30" s="38" t="s">
-        <v>77</v>
-      </c>
-      <c r="F30" s="38" t="s">
-        <v>77</v>
-      </c>
-      <c r="G30" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="H30" s="40" t="s">
-        <v>94</v>
-      </c>
-      <c r="I30" s="39">
-        <v>42467</v>
-      </c>
-      <c r="J30" s="37"/>
+    <row r="30" spans="1:26" ht="19.5" customHeight="1">
+      <c r="A30" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="33"/>
+      <c r="J30" s="10"/>
       <c r="K30" s="8"/>
       <c r="L30" s="8"/>
       <c r="M30" s="8"/>
@@ -8359,33 +8669,33 @@
       <c r="Y30" s="8"/>
       <c r="Z30" s="8"/>
     </row>
-    <row r="31" spans="1:26" ht="120">
-      <c r="A31" s="46" t="s">
-        <v>87</v>
-      </c>
-      <c r="B31" s="38" t="s">
-        <v>88</v>
-      </c>
-      <c r="C31" s="37"/>
-      <c r="D31" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="E31" s="38" t="s">
-        <v>77</v>
-      </c>
-      <c r="F31" s="38" t="s">
-        <v>77</v>
-      </c>
-      <c r="G31" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="H31" s="40" t="s">
-        <v>94</v>
-      </c>
-      <c r="I31" s="39">
+    <row r="31" spans="1:26" ht="120" customHeight="1">
+      <c r="A31" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" s="25"/>
+      <c r="D31" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="E31" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="F31" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="G31" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="H31" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="I31" s="27">
         <v>42467</v>
       </c>
-      <c r="J31" s="37"/>
+      <c r="J31" s="25"/>
       <c r="K31" s="8"/>
       <c r="L31" s="8"/>
       <c r="M31" s="8"/>
@@ -8403,33 +8713,33 @@
       <c r="Y31" s="8"/>
       <c r="Z31" s="8"/>
     </row>
-    <row r="32" spans="1:26" ht="93.75" customHeight="1">
-      <c r="A32" s="46" t="s">
-        <v>89</v>
-      </c>
-      <c r="B32" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="C32" s="37"/>
-      <c r="D32" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="E32" s="38" t="s">
+    <row r="32" spans="1:26" ht="124.5" customHeight="1">
+      <c r="A32" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="B32" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32" s="25"/>
+      <c r="D32" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="E32" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="F32" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="G32" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="H32" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="F32" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="G32" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="H32" s="40" t="s">
-        <v>94</v>
-      </c>
-      <c r="I32" s="39">
+      <c r="I32" s="27">
         <v>42467</v>
       </c>
-      <c r="J32" s="37"/>
+      <c r="J32" s="25"/>
       <c r="K32" s="8"/>
       <c r="L32" s="8"/>
       <c r="M32" s="8"/>
@@ -8447,21 +8757,33 @@
       <c r="Y32" s="8"/>
       <c r="Z32" s="8"/>
     </row>
-    <row r="33" spans="1:26" ht="24" customHeight="1">
-      <c r="A33" s="50" t="s">
-        <v>113</v>
-      </c>
-      <c r="B33" s="50" t="s">
-        <v>96</v>
-      </c>
-      <c r="C33" s="50"/>
-      <c r="D33" s="50"/>
-      <c r="E33" s="50"/>
-      <c r="F33" s="50"/>
-      <c r="G33" s="50"/>
-      <c r="H33" s="50"/>
-      <c r="I33" s="50"/>
-      <c r="J33" s="50"/>
+    <row r="33" spans="1:26" ht="118.5" customHeight="1">
+      <c r="A33" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="B33" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="C33" s="25"/>
+      <c r="D33" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="E33" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="F33" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="G33" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="H33" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="I33" s="27">
+        <v>42467</v>
+      </c>
+      <c r="J33" s="25"/>
       <c r="K33" s="8"/>
       <c r="L33" s="8"/>
       <c r="M33" s="8"/>
@@ -8479,33 +8801,33 @@
       <c r="Y33" s="8"/>
       <c r="Z33" s="8"/>
     </row>
-    <row r="34" spans="1:26" ht="81" customHeight="1">
-      <c r="A34" s="51" t="s">
-        <v>114</v>
-      </c>
-      <c r="B34" s="51" t="s">
-        <v>97</v>
-      </c>
-      <c r="C34" s="51"/>
-      <c r="D34" s="52" t="s">
-        <v>98</v>
-      </c>
-      <c r="E34" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="F34" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="G34" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="H34" s="52" t="s">
-        <v>65</v>
-      </c>
-      <c r="I34" s="39">
+    <row r="34" spans="1:26" ht="117.75" customHeight="1">
+      <c r="A34" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="B34" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="C34" s="25"/>
+      <c r="D34" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="E34" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="F34" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="G34" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="H34" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="I34" s="27">
         <v>42467</v>
       </c>
-      <c r="J34" s="52"/>
+      <c r="J34" s="25"/>
       <c r="K34" s="8"/>
       <c r="L34" s="8"/>
       <c r="M34" s="8"/>
@@ -8523,33 +8845,33 @@
       <c r="Y34" s="8"/>
       <c r="Z34" s="8"/>
     </row>
-    <row r="35" spans="1:26" ht="80.25" customHeight="1">
-      <c r="A35" s="51" t="s">
-        <v>115</v>
-      </c>
-      <c r="B35" s="51" t="s">
-        <v>99</v>
-      </c>
-      <c r="C35" s="51"/>
-      <c r="D35" s="52" t="s">
-        <v>100</v>
-      </c>
-      <c r="E35" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="F35" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="G35" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="H35" s="52" t="s">
-        <v>65</v>
-      </c>
-      <c r="I35" s="39">
+    <row r="35" spans="1:26" ht="120">
+      <c r="A35" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="B35" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="C35" s="25"/>
+      <c r="D35" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="E35" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="F35" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="G35" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="H35" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="I35" s="27">
         <v>42467</v>
       </c>
-      <c r="J35" s="52"/>
+      <c r="J35" s="25"/>
       <c r="K35" s="8"/>
       <c r="L35" s="8"/>
       <c r="M35" s="8"/>
@@ -8567,33 +8889,33 @@
       <c r="Y35" s="8"/>
       <c r="Z35" s="8"/>
     </row>
-    <row r="36" spans="1:26" ht="57" customHeight="1">
-      <c r="A36" s="51" t="s">
-        <v>116</v>
-      </c>
-      <c r="B36" s="51" t="s">
-        <v>101</v>
-      </c>
-      <c r="C36" s="51"/>
-      <c r="D36" s="52" t="s">
-        <v>102</v>
-      </c>
-      <c r="E36" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="F36" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="G36" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="H36" s="52" t="s">
-        <v>65</v>
-      </c>
-      <c r="I36" s="39">
+    <row r="36" spans="1:26" ht="93.75" customHeight="1">
+      <c r="A36" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="B36" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="C36" s="25"/>
+      <c r="D36" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="E36" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="F36" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="G36" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="H36" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="I36" s="27">
         <v>42467</v>
       </c>
-      <c r="J36" s="52"/>
+      <c r="J36" s="25"/>
       <c r="K36" s="8"/>
       <c r="L36" s="8"/>
       <c r="M36" s="8"/>
@@ -8611,33 +8933,21 @@
       <c r="Y36" s="8"/>
       <c r="Z36" s="8"/>
     </row>
-    <row r="37" spans="1:26" ht="86.25" customHeight="1">
-      <c r="A37" s="51" t="s">
-        <v>120</v>
-      </c>
-      <c r="B37" s="51" t="s">
-        <v>103</v>
-      </c>
-      <c r="C37" s="51"/>
-      <c r="D37" s="52" t="s">
-        <v>104</v>
-      </c>
-      <c r="E37" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="F37" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="G37" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="H37" s="52" t="s">
-        <v>65</v>
-      </c>
-      <c r="I37" s="39">
-        <v>42467</v>
-      </c>
-      <c r="J37" s="52"/>
+    <row r="37" spans="1:26" ht="24" customHeight="1">
+      <c r="A37" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="B37" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="C37" s="38"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="38"/>
+      <c r="I37" s="38"/>
+      <c r="J37" s="38"/>
       <c r="K37" s="8"/>
       <c r="L37" s="8"/>
       <c r="M37" s="8"/>
@@ -8655,33 +8965,33 @@
       <c r="Y37" s="8"/>
       <c r="Z37" s="8"/>
     </row>
-    <row r="38" spans="1:26" ht="79.5" customHeight="1">
-      <c r="A38" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="B38" s="51" t="s">
-        <v>105</v>
-      </c>
-      <c r="C38" s="51"/>
-      <c r="D38" s="52" t="s">
-        <v>106</v>
-      </c>
-      <c r="E38" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="F38" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="G38" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="H38" s="52" t="s">
-        <v>65</v>
-      </c>
-      <c r="I38" s="39">
+    <row r="38" spans="1:26" ht="81" customHeight="1">
+      <c r="A38" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="B38" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="C38" s="39"/>
+      <c r="D38" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="E38" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="F38" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="G38" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="H38" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="I38" s="27">
         <v>42467</v>
       </c>
-      <c r="J38" s="52"/>
+      <c r="J38" s="40"/>
       <c r="K38" s="8"/>
       <c r="L38" s="8"/>
       <c r="M38" s="8"/>
@@ -8699,33 +9009,33 @@
       <c r="Y38" s="8"/>
       <c r="Z38" s="8"/>
     </row>
-    <row r="39" spans="1:26" ht="90">
-      <c r="A39" s="51" t="s">
-        <v>117</v>
-      </c>
-      <c r="B39" s="51" t="s">
-        <v>107</v>
-      </c>
-      <c r="C39" s="51"/>
-      <c r="D39" s="52" t="s">
-        <v>108</v>
-      </c>
-      <c r="E39" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="F39" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="G39" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="H39" s="52" t="s">
-        <v>65</v>
-      </c>
-      <c r="I39" s="39">
+    <row r="39" spans="1:26" ht="80.25" customHeight="1">
+      <c r="A39" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="B39" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="C39" s="39"/>
+      <c r="D39" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="E39" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="F39" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="G39" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="H39" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="I39" s="27">
         <v>42467</v>
       </c>
-      <c r="J39" s="52"/>
+      <c r="J39" s="40"/>
       <c r="K39" s="8"/>
       <c r="L39" s="8"/>
       <c r="M39" s="8"/>
@@ -8743,33 +9053,33 @@
       <c r="Y39" s="8"/>
       <c r="Z39" s="8"/>
     </row>
-    <row r="40" spans="1:26" ht="113.25" customHeight="1">
-      <c r="A40" s="51" t="s">
-        <v>118</v>
-      </c>
-      <c r="B40" s="51" t="s">
-        <v>109</v>
-      </c>
-      <c r="C40" s="51"/>
-      <c r="D40" s="52" t="s">
-        <v>110</v>
-      </c>
-      <c r="E40" s="52" t="s">
-        <v>111</v>
-      </c>
-      <c r="F40" s="52" t="s">
-        <v>111</v>
-      </c>
-      <c r="G40" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="H40" s="52" t="s">
-        <v>65</v>
-      </c>
-      <c r="I40" s="39">
+    <row r="40" spans="1:26" ht="57" customHeight="1">
+      <c r="A40" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="B40" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="C40" s="39"/>
+      <c r="D40" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="E40" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="F40" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="G40" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="H40" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="I40" s="27">
         <v>42467</v>
       </c>
-      <c r="J40" s="52"/>
+      <c r="J40" s="40"/>
       <c r="K40" s="8"/>
       <c r="L40" s="8"/>
       <c r="M40" s="8"/>
@@ -8787,21 +9097,33 @@
       <c r="Y40" s="8"/>
       <c r="Z40" s="8"/>
     </row>
-    <row r="41" spans="1:26" ht="25.5" customHeight="1">
-      <c r="A41" s="53" t="s">
-        <v>122</v>
-      </c>
-      <c r="B41" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="45"/>
-      <c r="J41" s="10"/>
+    <row r="41" spans="1:26" ht="86.25" customHeight="1">
+      <c r="A41" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="B41" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="C41" s="39"/>
+      <c r="D41" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="E41" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="F41" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="G41" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="H41" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="I41" s="27">
+        <v>42467</v>
+      </c>
+      <c r="J41" s="40"/>
       <c r="K41" s="8"/>
       <c r="L41" s="8"/>
       <c r="M41" s="8"/>
@@ -8819,33 +9141,33 @@
       <c r="Y41" s="8"/>
       <c r="Z41" s="8"/>
     </row>
-    <row r="42" spans="1:26" ht="123" customHeight="1">
-      <c r="A42" s="54" t="s">
-        <v>123</v>
-      </c>
-      <c r="B42" s="40" t="s">
-        <v>125</v>
-      </c>
-      <c r="C42" s="37"/>
+    <row r="42" spans="1:26" ht="79.5" customHeight="1">
+      <c r="A42" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="B42" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="C42" s="39"/>
       <c r="D42" s="40" t="s">
-        <v>126</v>
-      </c>
-      <c r="E42" s="55" t="s">
-        <v>127</v>
+        <v>103</v>
+      </c>
+      <c r="E42" s="40" t="s">
+        <v>54</v>
       </c>
       <c r="F42" s="40" t="s">
-        <v>127</v>
-      </c>
-      <c r="G42" s="38" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="G42" s="26" t="s">
+        <v>51</v>
       </c>
       <c r="H42" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="I42" s="39">
-        <v>42558</v>
-      </c>
-      <c r="J42" s="37"/>
+        <v>63</v>
+      </c>
+      <c r="I42" s="27">
+        <v>42467</v>
+      </c>
+      <c r="J42" s="40"/>
       <c r="K42" s="8"/>
       <c r="L42" s="8"/>
       <c r="M42" s="8"/>
@@ -8863,33 +9185,33 @@
       <c r="Y42" s="8"/>
       <c r="Z42" s="8"/>
     </row>
-    <row r="43" spans="1:26" ht="93.75" customHeight="1">
-      <c r="A43" s="54" t="s">
-        <v>124</v>
-      </c>
-      <c r="B43" s="40" t="s">
-        <v>129</v>
-      </c>
-      <c r="C43" s="37"/>
+    <row r="43" spans="1:26" ht="90">
+      <c r="A43" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="B43" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="C43" s="39"/>
       <c r="D43" s="40" t="s">
-        <v>128</v>
-      </c>
-      <c r="E43" s="55" t="s">
-        <v>130</v>
+        <v>105</v>
+      </c>
+      <c r="E43" s="40" t="s">
+        <v>54</v>
       </c>
       <c r="F43" s="40" t="s">
-        <v>130</v>
-      </c>
-      <c r="G43" s="38" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="G43" s="26" t="s">
+        <v>51</v>
       </c>
       <c r="H43" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="I43" s="39">
-        <v>42558</v>
-      </c>
-      <c r="J43" s="37"/>
+        <v>63</v>
+      </c>
+      <c r="I43" s="27">
+        <v>42467</v>
+      </c>
+      <c r="J43" s="40"/>
       <c r="K43" s="8"/>
       <c r="L43" s="8"/>
       <c r="M43" s="8"/>
@@ -8907,33 +9229,33 @@
       <c r="Y43" s="8"/>
       <c r="Z43" s="8"/>
     </row>
-    <row r="44" spans="1:26" ht="94.5" customHeight="1">
-      <c r="A44" s="54" t="s">
-        <v>131</v>
-      </c>
-      <c r="B44" s="40" t="s">
-        <v>132</v>
-      </c>
-      <c r="C44" s="37"/>
+    <row r="44" spans="1:26" ht="113.25" customHeight="1">
+      <c r="A44" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="B44" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="C44" s="39"/>
       <c r="D44" s="40" t="s">
-        <v>136</v>
-      </c>
-      <c r="E44" s="55" t="s">
-        <v>133</v>
-      </c>
-      <c r="F44" s="55" t="s">
-        <v>133</v>
-      </c>
-      <c r="G44" s="38" t="s">
-        <v>53</v>
+        <v>107</v>
+      </c>
+      <c r="E44" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="F44" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="G44" s="26" t="s">
+        <v>51</v>
       </c>
       <c r="H44" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="I44" s="39">
-        <v>42558</v>
-      </c>
-      <c r="J44" s="37"/>
+        <v>63</v>
+      </c>
+      <c r="I44" s="27">
+        <v>42467</v>
+      </c>
+      <c r="J44" s="40"/>
       <c r="K44" s="8"/>
       <c r="L44" s="8"/>
       <c r="M44" s="8"/>
@@ -8951,33 +9273,21 @@
       <c r="Y44" s="8"/>
       <c r="Z44" s="8"/>
     </row>
-    <row r="45" spans="1:26" ht="96" customHeight="1">
-      <c r="A45" s="54" t="s">
-        <v>134</v>
-      </c>
-      <c r="B45" s="40" t="s">
-        <v>135</v>
-      </c>
-      <c r="C45" s="37"/>
-      <c r="D45" s="40" t="s">
-        <v>137</v>
-      </c>
-      <c r="E45" s="55" t="s">
-        <v>130</v>
-      </c>
-      <c r="F45" s="55" t="s">
-        <v>130</v>
-      </c>
-      <c r="G45" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="H45" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="I45" s="39">
-        <v>42559</v>
-      </c>
-      <c r="J45" s="37"/>
+    <row r="45" spans="1:26" ht="25.5" customHeight="1">
+      <c r="A45" s="41" t="s">
+        <v>119</v>
+      </c>
+      <c r="B45" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="33"/>
+      <c r="J45" s="10"/>
       <c r="K45" s="8"/>
       <c r="L45" s="8"/>
       <c r="M45" s="8"/>
@@ -8995,17 +9305,33 @@
       <c r="Y45" s="8"/>
       <c r="Z45" s="8"/>
     </row>
-    <row r="46" spans="1:26">
-      <c r="A46" s="46"/>
-      <c r="B46" s="38"/>
-      <c r="C46" s="37"/>
-      <c r="D46" s="38"/>
-      <c r="E46" s="47"/>
-      <c r="F46" s="38"/>
-      <c r="G46" s="38"/>
-      <c r="H46" s="40"/>
-      <c r="I46" s="39"/>
-      <c r="J46" s="37"/>
+    <row r="46" spans="1:26" ht="123" customHeight="1">
+      <c r="A46" s="42" t="s">
+        <v>120</v>
+      </c>
+      <c r="B46" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="C46" s="25"/>
+      <c r="D46" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="E46" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="F46" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="G46" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="H46" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="I46" s="27">
+        <v>42558</v>
+      </c>
+      <c r="J46" s="25"/>
       <c r="K46" s="8"/>
       <c r="L46" s="8"/>
       <c r="M46" s="8"/>
@@ -9023,17 +9349,33 @@
       <c r="Y46" s="8"/>
       <c r="Z46" s="8"/>
     </row>
-    <row r="47" spans="1:26" ht="94.5" customHeight="1">
-      <c r="A47" s="46"/>
-      <c r="B47" s="38"/>
-      <c r="C47" s="37"/>
-      <c r="D47" s="38"/>
-      <c r="E47" s="47"/>
-      <c r="F47" s="38"/>
-      <c r="G47" s="38"/>
-      <c r="H47" s="40"/>
-      <c r="I47" s="39"/>
-      <c r="J47" s="37"/>
+    <row r="47" spans="1:26" ht="93.75" customHeight="1">
+      <c r="A47" s="42" t="s">
+        <v>121</v>
+      </c>
+      <c r="B47" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="C47" s="25"/>
+      <c r="D47" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="E47" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="F47" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="G47" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="H47" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="I47" s="27">
+        <v>42558</v>
+      </c>
+      <c r="J47" s="25"/>
       <c r="K47" s="8"/>
       <c r="L47" s="8"/>
       <c r="M47" s="8"/>
@@ -9051,17 +9393,33 @@
       <c r="Y47" s="8"/>
       <c r="Z47" s="8"/>
     </row>
-    <row r="48" spans="1:26" ht="93" customHeight="1">
-      <c r="A48" s="46"/>
-      <c r="B48" s="38"/>
-      <c r="C48" s="37"/>
-      <c r="D48" s="38"/>
-      <c r="E48" s="47"/>
-      <c r="F48" s="38"/>
-      <c r="G48" s="38"/>
-      <c r="H48" s="40"/>
-      <c r="I48" s="39"/>
-      <c r="J48" s="37"/>
+    <row r="48" spans="1:26" ht="94.5" customHeight="1">
+      <c r="A48" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="B48" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="C48" s="25"/>
+      <c r="D48" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="E48" s="43" t="s">
+        <v>130</v>
+      </c>
+      <c r="F48" s="43" t="s">
+        <v>130</v>
+      </c>
+      <c r="G48" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="H48" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="I48" s="27">
+        <v>42558</v>
+      </c>
+      <c r="J48" s="25"/>
       <c r="K48" s="8"/>
       <c r="L48" s="8"/>
       <c r="M48" s="8"/>
@@ -9079,16 +9437,32 @@
       <c r="Y48" s="8"/>
       <c r="Z48" s="8"/>
     </row>
-    <row r="49" spans="1:26" ht="94.5" customHeight="1">
-      <c r="A49" s="30"/>
-      <c r="B49" s="25"/>
+    <row r="49" spans="1:26" ht="96" customHeight="1">
+      <c r="A49" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="B49" s="28" t="s">
+        <v>132</v>
+      </c>
       <c r="C49" s="25"/>
-      <c r="D49" s="26"/>
-      <c r="E49" s="26"/>
-      <c r="F49" s="26"/>
-      <c r="G49" s="32"/>
-      <c r="H49" s="25"/>
-      <c r="I49" s="27"/>
+      <c r="D49" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="E49" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="F49" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="G49" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="H49" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="I49" s="27">
+        <v>42558</v>
+      </c>
       <c r="J49" s="25"/>
       <c r="K49" s="8"/>
       <c r="L49" s="8"/>
@@ -9107,16 +9481,32 @@
       <c r="Y49" s="8"/>
       <c r="Z49" s="8"/>
     </row>
-    <row r="50" spans="1:26" ht="93" customHeight="1">
-      <c r="A50" s="30"/>
-      <c r="B50" s="26"/>
+    <row r="50" spans="1:26" ht="105" customHeight="1">
+      <c r="A50" s="42" t="s">
+        <v>135</v>
+      </c>
+      <c r="B50" s="28" t="s">
+        <v>136</v>
+      </c>
       <c r="C50" s="25"/>
-      <c r="D50" s="26"/>
-      <c r="E50" s="26"/>
-      <c r="F50" s="26"/>
-      <c r="G50" s="32"/>
-      <c r="H50" s="25"/>
-      <c r="I50" s="27"/>
+      <c r="D50" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="E50" s="43" t="s">
+        <v>138</v>
+      </c>
+      <c r="F50" s="43" t="s">
+        <v>138</v>
+      </c>
+      <c r="G50" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="H50" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="I50" s="27">
+        <v>42558</v>
+      </c>
       <c r="J50" s="25"/>
       <c r="K50" s="8"/>
       <c r="L50" s="8"/>
@@ -9135,17 +9525,21 @@
       <c r="Y50" s="8"/>
       <c r="Z50" s="8"/>
     </row>
-    <row r="51" spans="1:26" ht="67.5" customHeight="1">
-      <c r="A51" s="30"/>
-      <c r="B51" s="26"/>
-      <c r="C51" s="25"/>
-      <c r="D51" s="33"/>
-      <c r="E51" s="26"/>
-      <c r="F51" s="26"/>
-      <c r="G51" s="34"/>
-      <c r="H51" s="25"/>
-      <c r="I51" s="27"/>
-      <c r="J51" s="25"/>
+    <row r="51" spans="1:26" ht="32.25" customHeight="1">
+      <c r="A51" s="41" t="s">
+        <v>167</v>
+      </c>
+      <c r="B51" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="33"/>
+      <c r="J51" s="10"/>
       <c r="K51" s="8"/>
       <c r="L51" s="8"/>
       <c r="M51" s="8"/>
@@ -9163,17 +9557,33 @@
       <c r="Y51" s="8"/>
       <c r="Z51" s="8"/>
     </row>
-    <row r="52" spans="1:26">
-      <c r="A52" s="28"/>
-      <c r="B52" s="24"/>
-      <c r="C52" s="24"/>
-      <c r="D52" s="24"/>
-      <c r="E52" s="24"/>
-      <c r="F52" s="24"/>
-      <c r="G52" s="24"/>
-      <c r="H52" s="24"/>
-      <c r="I52" s="29"/>
-      <c r="J52" s="24"/>
+    <row r="52" spans="1:26" ht="48.75" customHeight="1">
+      <c r="A52" s="42" t="s">
+        <v>169</v>
+      </c>
+      <c r="B52" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="C52" s="25"/>
+      <c r="D52" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="E52" s="43" t="s">
+        <v>171</v>
+      </c>
+      <c r="F52" s="43" t="s">
+        <v>171</v>
+      </c>
+      <c r="G52" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="H52" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="I52" s="27">
+        <v>42589</v>
+      </c>
+      <c r="J52" s="25"/>
       <c r="K52" s="8"/>
       <c r="L52" s="8"/>
       <c r="M52" s="8"/>
@@ -9191,17 +9601,33 @@
       <c r="Y52" s="8"/>
       <c r="Z52" s="8"/>
     </row>
-    <row r="53" spans="1:26" ht="118.5" customHeight="1">
-      <c r="A53" s="30"/>
-      <c r="B53" s="25"/>
-      <c r="C53" s="25"/>
-      <c r="D53" s="26"/>
-      <c r="E53" s="26"/>
-      <c r="F53" s="26"/>
-      <c r="G53" s="32"/>
-      <c r="H53" s="25"/>
-      <c r="I53" s="27"/>
-      <c r="J53" s="25"/>
+    <row r="53" spans="1:26" ht="44.25" customHeight="1">
+      <c r="A53" s="42" t="s">
+        <v>173</v>
+      </c>
+      <c r="B53" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="C53" s="34"/>
+      <c r="D53" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="E53" s="43" t="s">
+        <v>171</v>
+      </c>
+      <c r="F53" s="43" t="s">
+        <v>171</v>
+      </c>
+      <c r="G53" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="H53" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="I53" s="27">
+        <v>42589</v>
+      </c>
+      <c r="J53" s="34"/>
       <c r="K53" s="8"/>
       <c r="L53" s="8"/>
       <c r="M53" s="8"/>
@@ -9219,17 +9645,33 @@
       <c r="Y53" s="8"/>
       <c r="Z53" s="8"/>
     </row>
-    <row r="54" spans="1:26" ht="120.75" customHeight="1">
-      <c r="A54" s="30"/>
-      <c r="B54" s="25"/>
-      <c r="C54" s="25"/>
-      <c r="D54" s="26"/>
-      <c r="E54" s="26"/>
-      <c r="F54" s="26"/>
-      <c r="G54" s="32"/>
-      <c r="H54" s="25"/>
-      <c r="I54" s="27"/>
-      <c r="J54" s="25"/>
+    <row r="54" spans="1:26" ht="64.5" customHeight="1">
+      <c r="A54" s="42" t="s">
+        <v>176</v>
+      </c>
+      <c r="B54" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="C54" s="34"/>
+      <c r="D54" s="48" t="s">
+        <v>178</v>
+      </c>
+      <c r="E54" s="43" t="s">
+        <v>179</v>
+      </c>
+      <c r="F54" s="43" t="s">
+        <v>179</v>
+      </c>
+      <c r="G54" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="H54" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="I54" s="27">
+        <v>42589</v>
+      </c>
+      <c r="J54" s="34"/>
       <c r="K54" s="8"/>
       <c r="L54" s="8"/>
       <c r="M54" s="8"/>
@@ -9247,17 +9689,33 @@
       <c r="Y54" s="8"/>
       <c r="Z54" s="8"/>
     </row>
-    <row r="55" spans="1:26" ht="120" customHeight="1">
-      <c r="A55" s="30"/>
-      <c r="B55" s="25"/>
-      <c r="C55" s="25"/>
-      <c r="D55" s="26"/>
-      <c r="E55" s="26"/>
-      <c r="F55" s="26"/>
-      <c r="G55" s="32"/>
-      <c r="H55" s="25"/>
-      <c r="I55" s="27"/>
-      <c r="J55" s="25"/>
+    <row r="55" spans="1:26" ht="67.5" customHeight="1">
+      <c r="A55" s="42" t="s">
+        <v>180</v>
+      </c>
+      <c r="B55" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="C55" s="34"/>
+      <c r="D55" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="E55" s="43" t="s">
+        <v>171</v>
+      </c>
+      <c r="F55" s="43" t="s">
+        <v>171</v>
+      </c>
+      <c r="G55" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="H55" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="I55" s="27">
+        <v>42589</v>
+      </c>
+      <c r="J55" s="34"/>
       <c r="K55" s="8"/>
       <c r="L55" s="8"/>
       <c r="M55" s="8"/>
@@ -9275,17 +9733,21 @@
       <c r="Y55" s="8"/>
       <c r="Z55" s="8"/>
     </row>
-    <row r="56" spans="1:26" ht="133.5" customHeight="1">
-      <c r="A56" s="30"/>
-      <c r="B56" s="25"/>
-      <c r="C56" s="25"/>
-      <c r="D56" s="26"/>
-      <c r="E56" s="26"/>
-      <c r="F56" s="26"/>
-      <c r="G56" s="32"/>
-      <c r="H56" s="25"/>
-      <c r="I56" s="27"/>
-      <c r="J56" s="25"/>
+    <row r="56" spans="1:26">
+      <c r="A56" s="41" t="s">
+        <v>184</v>
+      </c>
+      <c r="B56" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="10"/>
+      <c r="I56" s="33"/>
+      <c r="J56" s="34"/>
       <c r="K56" s="8"/>
       <c r="L56" s="8"/>
       <c r="M56" s="8"/>
@@ -9303,17 +9765,33 @@
       <c r="Y56" s="8"/>
       <c r="Z56" s="8"/>
     </row>
-    <row r="57" spans="1:26" ht="132.75" customHeight="1">
-      <c r="A57" s="30"/>
-      <c r="B57" s="25"/>
-      <c r="C57" s="25"/>
-      <c r="D57" s="26"/>
-      <c r="E57" s="26"/>
-      <c r="F57" s="26"/>
-      <c r="G57" s="32"/>
-      <c r="H57" s="25"/>
-      <c r="I57" s="27"/>
-      <c r="J57" s="25"/>
+    <row r="57" spans="1:26" ht="49.5" customHeight="1">
+      <c r="A57" s="42" t="s">
+        <v>185</v>
+      </c>
+      <c r="B57" s="42" t="s">
+        <v>186</v>
+      </c>
+      <c r="C57" s="34"/>
+      <c r="D57" s="48" t="s">
+        <v>187</v>
+      </c>
+      <c r="E57" s="48" t="s">
+        <v>188</v>
+      </c>
+      <c r="F57" s="48" t="s">
+        <v>188</v>
+      </c>
+      <c r="G57" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="H57" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="I57" s="27">
+        <v>42589</v>
+      </c>
+      <c r="J57" s="34"/>
       <c r="K57" s="8"/>
       <c r="L57" s="8"/>
       <c r="M57" s="8"/>
@@ -9331,17 +9809,33 @@
       <c r="Y57" s="8"/>
       <c r="Z57" s="8"/>
     </row>
-    <row r="58" spans="1:26" ht="120" customHeight="1">
-      <c r="A58" s="30"/>
-      <c r="B58" s="25"/>
-      <c r="C58" s="25"/>
-      <c r="D58" s="26"/>
-      <c r="E58" s="26"/>
-      <c r="F58" s="26"/>
-      <c r="G58" s="32"/>
-      <c r="H58" s="25"/>
-      <c r="I58" s="27"/>
-      <c r="J58" s="25"/>
+    <row r="58" spans="1:26" ht="45" customHeight="1">
+      <c r="A58" s="42" t="s">
+        <v>189</v>
+      </c>
+      <c r="B58" s="42" t="s">
+        <v>190</v>
+      </c>
+      <c r="C58" s="34"/>
+      <c r="D58" s="48" t="s">
+        <v>191</v>
+      </c>
+      <c r="E58" s="48" t="s">
+        <v>192</v>
+      </c>
+      <c r="F58" s="48" t="s">
+        <v>192</v>
+      </c>
+      <c r="G58" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="H58" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="I58" s="27">
+        <v>42589</v>
+      </c>
+      <c r="J58" s="34"/>
       <c r="K58" s="8"/>
       <c r="L58" s="8"/>
       <c r="M58" s="8"/>
@@ -9359,17 +9853,33 @@
       <c r="Y58" s="8"/>
       <c r="Z58" s="8"/>
     </row>
-    <row r="59" spans="1:26" ht="132.75" customHeight="1">
-      <c r="A59" s="30"/>
-      <c r="B59" s="26"/>
-      <c r="C59" s="25"/>
-      <c r="D59" s="26"/>
-      <c r="E59" s="26"/>
-      <c r="F59" s="26"/>
-      <c r="G59" s="32"/>
-      <c r="H59" s="25"/>
-      <c r="I59" s="27"/>
-      <c r="J59" s="25"/>
+    <row r="59" spans="1:26" ht="57" customHeight="1">
+      <c r="A59" s="42" t="s">
+        <v>193</v>
+      </c>
+      <c r="B59" s="42" t="s">
+        <v>194</v>
+      </c>
+      <c r="C59" s="34"/>
+      <c r="D59" s="48" t="s">
+        <v>191</v>
+      </c>
+      <c r="E59" s="48" t="s">
+        <v>192</v>
+      </c>
+      <c r="F59" s="48" t="s">
+        <v>192</v>
+      </c>
+      <c r="G59" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="H59" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="I59" s="27">
+        <v>42589</v>
+      </c>
+      <c r="J59" s="34"/>
       <c r="K59" s="8"/>
       <c r="L59" s="8"/>
       <c r="M59" s="8"/>
@@ -9387,17 +9897,33 @@
       <c r="Y59" s="8"/>
       <c r="Z59" s="8"/>
     </row>
-    <row r="60" spans="1:26" ht="119.25" customHeight="1">
-      <c r="A60" s="30"/>
-      <c r="B60" s="25"/>
-      <c r="C60" s="25"/>
-      <c r="D60" s="26"/>
-      <c r="E60" s="26"/>
-      <c r="F60" s="26"/>
-      <c r="G60" s="32"/>
-      <c r="H60" s="25"/>
-      <c r="I60" s="27"/>
-      <c r="J60" s="25"/>
+    <row r="60" spans="1:26" ht="56.25" customHeight="1">
+      <c r="A60" s="42" t="s">
+        <v>195</v>
+      </c>
+      <c r="B60" s="42" t="s">
+        <v>196</v>
+      </c>
+      <c r="C60" s="34"/>
+      <c r="D60" s="48" t="s">
+        <v>191</v>
+      </c>
+      <c r="E60" s="48" t="s">
+        <v>192</v>
+      </c>
+      <c r="F60" s="48" t="s">
+        <v>192</v>
+      </c>
+      <c r="G60" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="H60" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="I60" s="27">
+        <v>42589</v>
+      </c>
+      <c r="J60" s="34"/>
       <c r="K60" s="8"/>
       <c r="L60" s="8"/>
       <c r="M60" s="8"/>
@@ -9415,17 +9941,33 @@
       <c r="Y60" s="8"/>
       <c r="Z60" s="8"/>
     </row>
-    <row r="61" spans="1:26">
-      <c r="A61" s="24"/>
-      <c r="B61" s="24"/>
-      <c r="C61" s="24"/>
-      <c r="D61" s="24"/>
-      <c r="E61" s="24"/>
-      <c r="F61" s="24"/>
-      <c r="G61" s="24"/>
-      <c r="H61" s="24"/>
-      <c r="I61" s="24"/>
-      <c r="J61" s="24"/>
+    <row r="61" spans="1:26" ht="60" customHeight="1">
+      <c r="A61" s="42" t="s">
+        <v>197</v>
+      </c>
+      <c r="B61" s="48" t="s">
+        <v>198</v>
+      </c>
+      <c r="C61" s="34"/>
+      <c r="D61" s="48" t="s">
+        <v>199</v>
+      </c>
+      <c r="E61" s="48" t="s">
+        <v>200</v>
+      </c>
+      <c r="F61" s="48" t="s">
+        <v>200</v>
+      </c>
+      <c r="G61" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="H61" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="I61" s="27">
+        <v>42589</v>
+      </c>
+      <c r="J61" s="34"/>
       <c r="K61" s="8"/>
       <c r="L61" s="8"/>
       <c r="M61" s="8"/>
@@ -9443,17 +9985,17 @@
       <c r="Y61" s="8"/>
       <c r="Z61" s="8"/>
     </row>
-    <row r="62" spans="1:26" ht="168.75" customHeight="1">
-      <c r="A62" s="25"/>
-      <c r="B62" s="26"/>
-      <c r="C62" s="25"/>
-      <c r="D62" s="26"/>
-      <c r="E62" s="26"/>
-      <c r="F62" s="26"/>
-      <c r="G62" s="25"/>
-      <c r="H62" s="26"/>
-      <c r="I62" s="25"/>
-      <c r="J62" s="25"/>
+    <row r="62" spans="1:26" ht="120" customHeight="1">
+      <c r="A62" s="34"/>
+      <c r="B62" s="34"/>
+      <c r="C62" s="34"/>
+      <c r="D62" s="34"/>
+      <c r="E62" s="34"/>
+      <c r="F62" s="34"/>
+      <c r="G62" s="34"/>
+      <c r="H62" s="34"/>
+      <c r="I62" s="34"/>
+      <c r="J62" s="34"/>
       <c r="K62" s="8"/>
       <c r="L62" s="8"/>
       <c r="M62" s="8"/>
@@ -9471,17 +10013,17 @@
       <c r="Y62" s="8"/>
       <c r="Z62" s="8"/>
     </row>
-    <row r="63" spans="1:26" ht="170.25" customHeight="1">
-      <c r="A63" s="25"/>
-      <c r="B63" s="26"/>
-      <c r="C63" s="25"/>
-      <c r="D63" s="26"/>
-      <c r="E63" s="26"/>
-      <c r="F63" s="26"/>
-      <c r="G63" s="26"/>
-      <c r="H63" s="26"/>
-      <c r="I63" s="25"/>
-      <c r="J63" s="25"/>
+    <row r="63" spans="1:26" ht="132.75" customHeight="1">
+      <c r="A63" s="34"/>
+      <c r="B63" s="34"/>
+      <c r="C63" s="34"/>
+      <c r="D63" s="34"/>
+      <c r="E63" s="34"/>
+      <c r="F63" s="34"/>
+      <c r="G63" s="34"/>
+      <c r="H63" s="34"/>
+      <c r="I63" s="34"/>
+      <c r="J63" s="34"/>
       <c r="K63" s="8"/>
       <c r="L63" s="8"/>
       <c r="M63" s="8"/>
@@ -9499,17 +10041,17 @@
       <c r="Y63" s="8"/>
       <c r="Z63" s="8"/>
     </row>
-    <row r="64" spans="1:26" ht="171" customHeight="1">
-      <c r="A64" s="25"/>
-      <c r="B64" s="26"/>
-      <c r="C64" s="25"/>
-      <c r="D64" s="26"/>
-      <c r="E64" s="26"/>
-      <c r="F64" s="26"/>
-      <c r="G64" s="26"/>
-      <c r="H64" s="26"/>
-      <c r="I64" s="25"/>
-      <c r="J64" s="25"/>
+    <row r="64" spans="1:26" ht="119.25" customHeight="1">
+      <c r="A64" s="34"/>
+      <c r="B64" s="34"/>
+      <c r="C64" s="34"/>
+      <c r="D64" s="34"/>
+      <c r="E64" s="34"/>
+      <c r="F64" s="34"/>
+      <c r="G64" s="34"/>
+      <c r="H64" s="34"/>
+      <c r="I64" s="34"/>
+      <c r="J64" s="34"/>
       <c r="K64" s="8"/>
       <c r="L64" s="8"/>
       <c r="M64" s="8"/>
@@ -9527,17 +10069,17 @@
       <c r="Y64" s="8"/>
       <c r="Z64" s="8"/>
     </row>
-    <row r="65" spans="1:26" ht="170.25" customHeight="1">
-      <c r="A65" s="25"/>
-      <c r="B65" s="26"/>
-      <c r="C65" s="25"/>
-      <c r="D65" s="26"/>
-      <c r="E65" s="26"/>
-      <c r="F65" s="26"/>
-      <c r="G65" s="26"/>
-      <c r="H65" s="26"/>
-      <c r="I65" s="25"/>
-      <c r="J65" s="25"/>
+    <row r="65" spans="1:26">
+      <c r="A65" s="34"/>
+      <c r="B65" s="34"/>
+      <c r="C65" s="34"/>
+      <c r="D65" s="34"/>
+      <c r="E65" s="34"/>
+      <c r="F65" s="34"/>
+      <c r="G65" s="34"/>
+      <c r="H65" s="34"/>
+      <c r="I65" s="34"/>
+      <c r="J65" s="34"/>
       <c r="K65" s="8"/>
       <c r="L65" s="8"/>
       <c r="M65" s="8"/>
@@ -9555,17 +10097,17 @@
       <c r="Y65" s="8"/>
       <c r="Z65" s="8"/>
     </row>
-    <row r="66" spans="1:26" ht="171" customHeight="1">
-      <c r="A66" s="25"/>
-      <c r="B66" s="26"/>
-      <c r="C66" s="25"/>
-      <c r="D66" s="26"/>
-      <c r="E66" s="26"/>
-      <c r="F66" s="26"/>
-      <c r="G66" s="26"/>
-      <c r="H66" s="26"/>
-      <c r="I66" s="25"/>
-      <c r="J66" s="25"/>
+    <row r="66" spans="1:26" ht="168.75" customHeight="1">
+      <c r="A66" s="34"/>
+      <c r="B66" s="34"/>
+      <c r="C66" s="34"/>
+      <c r="D66" s="34"/>
+      <c r="E66" s="34"/>
+      <c r="F66" s="34"/>
+      <c r="G66" s="34"/>
+      <c r="H66" s="34"/>
+      <c r="I66" s="34"/>
+      <c r="J66" s="34"/>
       <c r="K66" s="8"/>
       <c r="L66" s="8"/>
       <c r="M66" s="8"/>
@@ -9583,17 +10125,17 @@
       <c r="Y66" s="8"/>
       <c r="Z66" s="8"/>
     </row>
-    <row r="67" spans="1:26" ht="171" customHeight="1">
-      <c r="A67" s="25"/>
-      <c r="B67" s="26"/>
-      <c r="C67" s="25"/>
-      <c r="D67" s="26"/>
-      <c r="E67" s="26"/>
-      <c r="F67" s="26"/>
-      <c r="G67" s="26"/>
-      <c r="H67" s="26"/>
-      <c r="I67" s="25"/>
-      <c r="J67" s="25"/>
+    <row r="67" spans="1:26" ht="170.25" customHeight="1">
+      <c r="A67" s="34"/>
+      <c r="B67" s="34"/>
+      <c r="C67" s="34"/>
+      <c r="D67" s="34"/>
+      <c r="E67" s="34"/>
+      <c r="F67" s="34"/>
+      <c r="G67" s="34"/>
+      <c r="H67" s="34"/>
+      <c r="I67" s="34"/>
+      <c r="J67" s="34"/>
       <c r="K67" s="8"/>
       <c r="L67" s="8"/>
       <c r="M67" s="8"/>
@@ -9611,17 +10153,17 @@
       <c r="Y67" s="8"/>
       <c r="Z67" s="8"/>
     </row>
-    <row r="68" spans="1:26" ht="170.25" customHeight="1">
-      <c r="A68" s="25"/>
-      <c r="B68" s="26"/>
-      <c r="C68" s="25"/>
-      <c r="D68" s="26"/>
-      <c r="E68" s="26"/>
-      <c r="F68" s="26"/>
-      <c r="G68" s="26"/>
-      <c r="H68" s="26"/>
-      <c r="I68" s="25"/>
-      <c r="J68" s="25"/>
+    <row r="68" spans="1:26" ht="171" customHeight="1">
+      <c r="A68" s="34"/>
+      <c r="B68" s="34"/>
+      <c r="C68" s="34"/>
+      <c r="D68" s="34"/>
+      <c r="E68" s="34"/>
+      <c r="F68" s="34"/>
+      <c r="G68" s="34"/>
+      <c r="H68" s="34"/>
+      <c r="I68" s="34"/>
+      <c r="J68" s="34"/>
       <c r="K68" s="8"/>
       <c r="L68" s="8"/>
       <c r="M68" s="8"/>
@@ -9639,17 +10181,17 @@
       <c r="Y68" s="8"/>
       <c r="Z68" s="8"/>
     </row>
-    <row r="69" spans="1:26" ht="171" customHeight="1">
-      <c r="A69" s="25"/>
-      <c r="B69" s="26"/>
-      <c r="C69" s="25"/>
-      <c r="D69" s="26"/>
-      <c r="E69" s="26"/>
-      <c r="F69" s="26"/>
-      <c r="G69" s="26"/>
-      <c r="H69" s="26"/>
-      <c r="I69" s="25"/>
-      <c r="J69" s="25"/>
+    <row r="69" spans="1:26" ht="170.25" customHeight="1">
+      <c r="A69" s="34"/>
+      <c r="B69" s="34"/>
+      <c r="C69" s="34"/>
+      <c r="D69" s="34"/>
+      <c r="E69" s="34"/>
+      <c r="F69" s="34"/>
+      <c r="G69" s="34"/>
+      <c r="H69" s="34"/>
+      <c r="I69" s="34"/>
+      <c r="J69" s="34"/>
       <c r="K69" s="8"/>
       <c r="L69" s="8"/>
       <c r="M69" s="8"/>
@@ -9667,17 +10209,17 @@
       <c r="Y69" s="8"/>
       <c r="Z69" s="8"/>
     </row>
-    <row r="70" spans="1:26" ht="159" customHeight="1">
-      <c r="A70" s="25"/>
-      <c r="B70" s="26"/>
-      <c r="C70" s="25"/>
-      <c r="D70" s="31"/>
-      <c r="E70" s="26"/>
-      <c r="F70" s="26"/>
-      <c r="G70" s="26"/>
-      <c r="H70" s="26"/>
-      <c r="I70" s="25"/>
-      <c r="J70" s="25"/>
+    <row r="70" spans="1:26" ht="171" customHeight="1">
+      <c r="A70" s="34"/>
+      <c r="B70" s="34"/>
+      <c r="C70" s="34"/>
+      <c r="D70" s="34"/>
+      <c r="E70" s="34"/>
+      <c r="F70" s="34"/>
+      <c r="G70" s="34"/>
+      <c r="H70" s="34"/>
+      <c r="I70" s="34"/>
+      <c r="J70" s="34"/>
       <c r="K70" s="8"/>
       <c r="L70" s="8"/>
       <c r="M70" s="8"/>
@@ -9695,17 +10237,17 @@
       <c r="Y70" s="8"/>
       <c r="Z70" s="8"/>
     </row>
-    <row r="71" spans="1:26" ht="157.5" customHeight="1">
-      <c r="A71" s="25"/>
-      <c r="B71" s="26"/>
-      <c r="C71" s="25"/>
-      <c r="D71" s="26"/>
-      <c r="E71" s="26"/>
-      <c r="F71" s="26"/>
-      <c r="G71" s="26"/>
-      <c r="H71" s="26"/>
-      <c r="I71" s="25"/>
-      <c r="J71" s="25"/>
+    <row r="71" spans="1:26" ht="171" customHeight="1">
+      <c r="A71" s="34"/>
+      <c r="B71" s="34"/>
+      <c r="C71" s="34"/>
+      <c r="D71" s="34"/>
+      <c r="E71" s="34"/>
+      <c r="F71" s="34"/>
+      <c r="G71" s="34"/>
+      <c r="H71" s="34"/>
+      <c r="I71" s="34"/>
+      <c r="J71" s="34"/>
       <c r="K71" s="8"/>
       <c r="L71" s="8"/>
       <c r="M71" s="8"/>
@@ -9723,17 +10265,17 @@
       <c r="Y71" s="8"/>
       <c r="Z71" s="8"/>
     </row>
-    <row r="72" spans="1:26" ht="172.5" customHeight="1">
-      <c r="A72" s="25"/>
-      <c r="B72" s="26"/>
-      <c r="C72" s="25"/>
-      <c r="D72" s="26"/>
-      <c r="E72" s="26"/>
-      <c r="F72" s="26"/>
-      <c r="G72" s="26"/>
-      <c r="H72" s="26"/>
-      <c r="I72" s="25"/>
-      <c r="J72" s="25"/>
+    <row r="72" spans="1:26" ht="170.25" customHeight="1">
+      <c r="A72" s="34"/>
+      <c r="B72" s="34"/>
+      <c r="C72" s="34"/>
+      <c r="D72" s="34"/>
+      <c r="E72" s="34"/>
+      <c r="F72" s="34"/>
+      <c r="G72" s="34"/>
+      <c r="H72" s="34"/>
+      <c r="I72" s="34"/>
+      <c r="J72" s="34"/>
       <c r="K72" s="8"/>
       <c r="L72" s="8"/>
       <c r="M72" s="8"/>
@@ -9751,17 +10293,17 @@
       <c r="Y72" s="8"/>
       <c r="Z72" s="8"/>
     </row>
-    <row r="73" spans="1:26" ht="169.5" customHeight="1">
-      <c r="A73" s="25"/>
-      <c r="B73" s="26"/>
-      <c r="C73" s="25"/>
-      <c r="D73" s="26"/>
-      <c r="E73" s="26"/>
-      <c r="F73" s="26"/>
-      <c r="G73" s="26"/>
-      <c r="H73" s="26"/>
-      <c r="I73" s="25"/>
-      <c r="J73" s="25"/>
+    <row r="73" spans="1:26" ht="171" customHeight="1">
+      <c r="A73" s="34"/>
+      <c r="B73" s="34"/>
+      <c r="C73" s="34"/>
+      <c r="D73" s="34"/>
+      <c r="E73" s="34"/>
+      <c r="F73" s="34"/>
+      <c r="G73" s="34"/>
+      <c r="H73" s="34"/>
+      <c r="I73" s="34"/>
+      <c r="J73" s="34"/>
       <c r="K73" s="8"/>
       <c r="L73" s="8"/>
       <c r="M73" s="8"/>
@@ -9779,17 +10321,17 @@
       <c r="Y73" s="8"/>
       <c r="Z73" s="8"/>
     </row>
-    <row r="74" spans="1:26" ht="173.25" customHeight="1">
-      <c r="A74" s="25"/>
-      <c r="B74" s="26"/>
-      <c r="C74" s="25"/>
-      <c r="D74" s="26"/>
-      <c r="E74" s="26"/>
-      <c r="F74" s="26"/>
-      <c r="G74" s="26"/>
-      <c r="H74" s="26"/>
-      <c r="I74" s="25"/>
-      <c r="J74" s="25"/>
+    <row r="74" spans="1:26" ht="159" customHeight="1">
+      <c r="A74" s="34"/>
+      <c r="B74" s="34"/>
+      <c r="C74" s="34"/>
+      <c r="D74" s="34"/>
+      <c r="E74" s="34"/>
+      <c r="F74" s="34"/>
+      <c r="G74" s="34"/>
+      <c r="H74" s="34"/>
+      <c r="I74" s="34"/>
+      <c r="J74" s="34"/>
       <c r="K74" s="8"/>
       <c r="L74" s="8"/>
       <c r="M74" s="8"/>
@@ -9807,17 +10349,17 @@
       <c r="Y74" s="8"/>
       <c r="Z74" s="8"/>
     </row>
-    <row r="75" spans="1:26" ht="170.25" customHeight="1">
-      <c r="A75" s="25"/>
-      <c r="B75" s="26"/>
-      <c r="C75" s="25"/>
-      <c r="D75" s="26"/>
-      <c r="E75" s="26"/>
-      <c r="F75" s="26"/>
-      <c r="G75" s="26"/>
-      <c r="H75" s="26"/>
-      <c r="I75" s="25"/>
-      <c r="J75" s="25"/>
+    <row r="75" spans="1:26" ht="157.5" customHeight="1">
+      <c r="A75" s="34"/>
+      <c r="B75" s="34"/>
+      <c r="C75" s="34"/>
+      <c r="D75" s="34"/>
+      <c r="E75" s="34"/>
+      <c r="F75" s="34"/>
+      <c r="G75" s="34"/>
+      <c r="H75" s="34"/>
+      <c r="I75" s="34"/>
+      <c r="J75" s="34"/>
       <c r="K75" s="8"/>
       <c r="L75" s="8"/>
       <c r="M75" s="8"/>
@@ -9835,17 +10377,17 @@
       <c r="Y75" s="8"/>
       <c r="Z75" s="8"/>
     </row>
-    <row r="76" spans="1:26" ht="171.75" customHeight="1">
-      <c r="A76" s="25"/>
-      <c r="B76" s="26"/>
-      <c r="C76" s="25"/>
-      <c r="D76" s="26"/>
-      <c r="E76" s="26"/>
-      <c r="F76" s="26"/>
-      <c r="G76" s="26"/>
-      <c r="H76" s="26"/>
-      <c r="I76" s="25"/>
-      <c r="J76" s="25"/>
+    <row r="76" spans="1:26" ht="172.5" customHeight="1">
+      <c r="A76" s="34"/>
+      <c r="B76" s="34"/>
+      <c r="C76" s="34"/>
+      <c r="D76" s="34"/>
+      <c r="E76" s="34"/>
+      <c r="F76" s="34"/>
+      <c r="G76" s="34"/>
+      <c r="H76" s="34"/>
+      <c r="I76" s="34"/>
+      <c r="J76" s="34"/>
       <c r="K76" s="8"/>
       <c r="L76" s="8"/>
       <c r="M76" s="8"/>
@@ -9863,17 +10405,17 @@
       <c r="Y76" s="8"/>
       <c r="Z76" s="8"/>
     </row>
-    <row r="77" spans="1:26" ht="171" customHeight="1">
-      <c r="A77" s="25"/>
-      <c r="B77" s="26"/>
-      <c r="C77" s="25"/>
-      <c r="D77" s="26"/>
-      <c r="E77" s="26"/>
-      <c r="F77" s="26"/>
-      <c r="G77" s="26"/>
-      <c r="H77" s="26"/>
-      <c r="I77" s="25"/>
-      <c r="J77" s="25"/>
+    <row r="77" spans="1:26" ht="169.5" customHeight="1">
+      <c r="A77" s="34"/>
+      <c r="B77" s="34"/>
+      <c r="C77" s="34"/>
+      <c r="D77" s="34"/>
+      <c r="E77" s="34"/>
+      <c r="F77" s="34"/>
+      <c r="G77" s="34"/>
+      <c r="H77" s="34"/>
+      <c r="I77" s="34"/>
+      <c r="J77" s="34"/>
       <c r="K77" s="8"/>
       <c r="L77" s="8"/>
       <c r="M77" s="8"/>
@@ -9891,17 +10433,17 @@
       <c r="Y77" s="8"/>
       <c r="Z77" s="8"/>
     </row>
-    <row r="78" spans="1:26">
-      <c r="A78" s="24"/>
-      <c r="B78" s="24"/>
-      <c r="C78" s="24"/>
-      <c r="D78" s="24"/>
-      <c r="E78" s="24"/>
-      <c r="F78" s="24"/>
-      <c r="G78" s="24"/>
-      <c r="H78" s="24"/>
-      <c r="I78" s="24"/>
-      <c r="J78" s="24"/>
+    <row r="78" spans="1:26" ht="173.25" customHeight="1">
+      <c r="A78" s="34"/>
+      <c r="B78" s="34"/>
+      <c r="C78" s="34"/>
+      <c r="D78" s="34"/>
+      <c r="E78" s="34"/>
+      <c r="F78" s="34"/>
+      <c r="G78" s="34"/>
+      <c r="H78" s="34"/>
+      <c r="I78" s="34"/>
+      <c r="J78" s="34"/>
       <c r="K78" s="8"/>
       <c r="L78" s="8"/>
       <c r="M78" s="8"/>
@@ -9919,17 +10461,17 @@
       <c r="Y78" s="8"/>
       <c r="Z78" s="8"/>
     </row>
-    <row r="79" spans="1:26" ht="196.5" customHeight="1">
-      <c r="A79" s="25"/>
-      <c r="B79" s="26"/>
-      <c r="C79" s="25"/>
-      <c r="D79" s="26"/>
-      <c r="E79" s="26"/>
-      <c r="F79" s="26"/>
-      <c r="G79" s="25"/>
-      <c r="H79" s="26"/>
-      <c r="I79" s="25"/>
-      <c r="J79" s="25"/>
+    <row r="79" spans="1:26" ht="170.25" customHeight="1">
+      <c r="A79" s="34"/>
+      <c r="B79" s="34"/>
+      <c r="C79" s="34"/>
+      <c r="D79" s="34"/>
+      <c r="E79" s="34"/>
+      <c r="F79" s="34"/>
+      <c r="G79" s="34"/>
+      <c r="H79" s="34"/>
+      <c r="I79" s="34"/>
+      <c r="J79" s="34"/>
       <c r="K79" s="8"/>
       <c r="L79" s="8"/>
       <c r="M79" s="8"/>
@@ -9947,17 +10489,17 @@
       <c r="Y79" s="8"/>
       <c r="Z79" s="8"/>
     </row>
-    <row r="80" spans="1:26" ht="195" customHeight="1">
-      <c r="A80" s="25"/>
-      <c r="B80" s="26"/>
-      <c r="C80" s="25"/>
-      <c r="D80" s="26"/>
-      <c r="E80" s="26"/>
-      <c r="F80" s="26"/>
-      <c r="G80" s="26"/>
-      <c r="H80" s="26"/>
-      <c r="I80" s="25"/>
-      <c r="J80" s="25"/>
+    <row r="80" spans="1:26" ht="171.75" customHeight="1">
+      <c r="A80" s="34"/>
+      <c r="B80" s="34"/>
+      <c r="C80" s="34"/>
+      <c r="D80" s="34"/>
+      <c r="E80" s="34"/>
+      <c r="F80" s="34"/>
+      <c r="G80" s="34"/>
+      <c r="H80" s="34"/>
+      <c r="I80" s="34"/>
+      <c r="J80" s="34"/>
       <c r="K80" s="8"/>
       <c r="L80" s="8"/>
       <c r="M80" s="8"/>
@@ -9975,17 +10517,17 @@
       <c r="Y80" s="8"/>
       <c r="Z80" s="8"/>
     </row>
-    <row r="81" spans="1:26" ht="183" customHeight="1">
-      <c r="A81" s="25"/>
-      <c r="B81" s="26"/>
-      <c r="C81" s="25"/>
-      <c r="D81" s="26"/>
-      <c r="E81" s="26"/>
-      <c r="F81" s="26"/>
-      <c r="G81" s="26"/>
-      <c r="H81" s="26"/>
-      <c r="I81" s="25"/>
-      <c r="J81" s="25"/>
+    <row r="81" spans="1:26" ht="171" customHeight="1">
+      <c r="A81" s="34"/>
+      <c r="B81" s="34"/>
+      <c r="C81" s="34"/>
+      <c r="D81" s="34"/>
+      <c r="E81" s="34"/>
+      <c r="F81" s="34"/>
+      <c r="G81" s="34"/>
+      <c r="H81" s="34"/>
+      <c r="I81" s="34"/>
+      <c r="J81" s="34"/>
       <c r="K81" s="8"/>
       <c r="L81" s="8"/>
       <c r="M81" s="8"/>
@@ -10003,17 +10545,17 @@
       <c r="Y81" s="8"/>
       <c r="Z81" s="8"/>
     </row>
-    <row r="82" spans="1:26" ht="197.25" customHeight="1">
-      <c r="A82" s="25"/>
-      <c r="B82" s="26"/>
-      <c r="C82" s="25"/>
-      <c r="D82" s="26"/>
-      <c r="E82" s="26"/>
-      <c r="F82" s="26"/>
-      <c r="G82" s="26"/>
-      <c r="H82" s="26"/>
-      <c r="I82" s="25"/>
-      <c r="J82" s="25"/>
+    <row r="82" spans="1:26">
+      <c r="A82" s="34"/>
+      <c r="B82" s="34"/>
+      <c r="C82" s="34"/>
+      <c r="D82" s="34"/>
+      <c r="E82" s="34"/>
+      <c r="F82" s="34"/>
+      <c r="G82" s="34"/>
+      <c r="H82" s="34"/>
+      <c r="I82" s="34"/>
+      <c r="J82" s="34"/>
       <c r="K82" s="8"/>
       <c r="L82" s="8"/>
       <c r="M82" s="8"/>
@@ -10031,17 +10573,17 @@
       <c r="Y82" s="8"/>
       <c r="Z82" s="8"/>
     </row>
-    <row r="83" spans="1:26" ht="183.75" customHeight="1">
-      <c r="A83" s="25"/>
-      <c r="B83" s="26"/>
-      <c r="C83" s="25"/>
-      <c r="D83" s="26"/>
-      <c r="E83" s="26"/>
-      <c r="F83" s="26"/>
-      <c r="G83" s="26"/>
-      <c r="H83" s="26"/>
-      <c r="I83" s="25"/>
-      <c r="J83" s="25"/>
+    <row r="83" spans="1:26" ht="196.5" customHeight="1">
+      <c r="A83" s="34"/>
+      <c r="B83" s="34"/>
+      <c r="C83" s="34"/>
+      <c r="D83" s="34"/>
+      <c r="E83" s="34"/>
+      <c r="F83" s="34"/>
+      <c r="G83" s="34"/>
+      <c r="H83" s="34"/>
+      <c r="I83" s="34"/>
+      <c r="J83" s="34"/>
       <c r="K83" s="8"/>
       <c r="L83" s="8"/>
       <c r="M83" s="8"/>
@@ -10060,16 +10602,16 @@
       <c r="Z83" s="8"/>
     </row>
     <row r="84" spans="1:26" ht="195" customHeight="1">
-      <c r="A84" s="25"/>
-      <c r="B84" s="26"/>
-      <c r="C84" s="25"/>
-      <c r="D84" s="26"/>
-      <c r="E84" s="26"/>
-      <c r="F84" s="26"/>
-      <c r="G84" s="26"/>
-      <c r="H84" s="26"/>
-      <c r="I84" s="25"/>
-      <c r="J84" s="25"/>
+      <c r="A84" s="34"/>
+      <c r="B84" s="34"/>
+      <c r="C84" s="34"/>
+      <c r="D84" s="34"/>
+      <c r="E84" s="34"/>
+      <c r="F84" s="34"/>
+      <c r="G84" s="34"/>
+      <c r="H84" s="34"/>
+      <c r="I84" s="34"/>
+      <c r="J84" s="34"/>
       <c r="K84" s="8"/>
       <c r="L84" s="8"/>
       <c r="M84" s="8"/>
@@ -10087,17 +10629,17 @@
       <c r="Y84" s="8"/>
       <c r="Z84" s="8"/>
     </row>
-    <row r="85" spans="1:26" ht="196.5" customHeight="1">
-      <c r="A85" s="25"/>
-      <c r="B85" s="26"/>
-      <c r="C85" s="25"/>
-      <c r="D85" s="26"/>
-      <c r="E85" s="26"/>
-      <c r="F85" s="26"/>
-      <c r="G85" s="26"/>
-      <c r="H85" s="26"/>
-      <c r="I85" s="25"/>
-      <c r="J85" s="25"/>
+    <row r="85" spans="1:26" ht="183" customHeight="1">
+      <c r="A85" s="34"/>
+      <c r="B85" s="34"/>
+      <c r="C85" s="34"/>
+      <c r="D85" s="34"/>
+      <c r="E85" s="34"/>
+      <c r="F85" s="34"/>
+      <c r="G85" s="34"/>
+      <c r="H85" s="34"/>
+      <c r="I85" s="34"/>
+      <c r="J85" s="34"/>
       <c r="K85" s="8"/>
       <c r="L85" s="8"/>
       <c r="M85" s="8"/>
@@ -10116,16 +10658,16 @@
       <c r="Z85" s="8"/>
     </row>
     <row r="86" spans="1:26" ht="197.25" customHeight="1">
-      <c r="A86" s="25"/>
-      <c r="B86" s="26"/>
-      <c r="C86" s="25"/>
-      <c r="D86" s="26"/>
-      <c r="E86" s="26"/>
-      <c r="F86" s="26"/>
-      <c r="G86" s="26"/>
-      <c r="H86" s="26"/>
-      <c r="I86" s="25"/>
-      <c r="J86" s="25"/>
+      <c r="A86" s="34"/>
+      <c r="B86" s="34"/>
+      <c r="C86" s="34"/>
+      <c r="D86" s="34"/>
+      <c r="E86" s="34"/>
+      <c r="F86" s="34"/>
+      <c r="G86" s="34"/>
+      <c r="H86" s="34"/>
+      <c r="I86" s="34"/>
+      <c r="J86" s="34"/>
       <c r="K86" s="8"/>
       <c r="L86" s="8"/>
       <c r="M86" s="8"/>
@@ -10143,17 +10685,17 @@
       <c r="Y86" s="8"/>
       <c r="Z86" s="8"/>
     </row>
-    <row r="87" spans="1:26" ht="196.5" customHeight="1">
-      <c r="A87" s="25"/>
-      <c r="B87" s="26"/>
-      <c r="C87" s="25"/>
-      <c r="D87" s="26"/>
-      <c r="E87" s="26"/>
-      <c r="F87" s="26"/>
-      <c r="G87" s="26"/>
-      <c r="H87" s="26"/>
-      <c r="I87" s="25"/>
-      <c r="J87" s="25"/>
+    <row r="87" spans="1:26" ht="183.75" customHeight="1">
+      <c r="A87" s="34"/>
+      <c r="B87" s="34"/>
+      <c r="C87" s="34"/>
+      <c r="D87" s="34"/>
+      <c r="E87" s="34"/>
+      <c r="F87" s="34"/>
+      <c r="G87" s="34"/>
+      <c r="H87" s="34"/>
+      <c r="I87" s="34"/>
+      <c r="J87" s="34"/>
       <c r="K87" s="8"/>
       <c r="L87" s="8"/>
       <c r="M87" s="8"/>
@@ -10171,17 +10713,17 @@
       <c r="Y87" s="8"/>
       <c r="Z87" s="8"/>
     </row>
-    <row r="88" spans="1:26" ht="197.25" customHeight="1">
-      <c r="A88" s="25"/>
-      <c r="B88" s="26"/>
-      <c r="C88" s="25"/>
-      <c r="D88" s="26"/>
-      <c r="E88" s="26"/>
-      <c r="F88" s="26"/>
-      <c r="G88" s="26"/>
-      <c r="H88" s="26"/>
-      <c r="I88" s="25"/>
-      <c r="J88" s="25"/>
+    <row r="88" spans="1:26" ht="195" customHeight="1">
+      <c r="A88" s="34"/>
+      <c r="B88" s="34"/>
+      <c r="C88" s="34"/>
+      <c r="D88" s="34"/>
+      <c r="E88" s="34"/>
+      <c r="F88" s="34"/>
+      <c r="G88" s="34"/>
+      <c r="H88" s="34"/>
+      <c r="I88" s="34"/>
+      <c r="J88" s="34"/>
       <c r="K88" s="8"/>
       <c r="L88" s="8"/>
       <c r="M88" s="8"/>
@@ -10199,17 +10741,17 @@
       <c r="Y88" s="8"/>
       <c r="Z88" s="8"/>
     </row>
-    <row r="89" spans="1:26" ht="197.25" customHeight="1">
-      <c r="A89" s="25"/>
-      <c r="B89" s="26"/>
-      <c r="C89" s="25"/>
-      <c r="D89" s="26"/>
-      <c r="E89" s="26"/>
-      <c r="F89" s="26"/>
-      <c r="G89" s="26"/>
-      <c r="H89" s="26"/>
-      <c r="I89" s="25"/>
-      <c r="J89" s="25"/>
+    <row r="89" spans="1:26" ht="196.5" customHeight="1">
+      <c r="A89" s="34"/>
+      <c r="B89" s="34"/>
+      <c r="C89" s="34"/>
+      <c r="D89" s="34"/>
+      <c r="E89" s="34"/>
+      <c r="F89" s="34"/>
+      <c r="G89" s="34"/>
+      <c r="H89" s="34"/>
+      <c r="I89" s="34"/>
+      <c r="J89" s="34"/>
       <c r="K89" s="8"/>
       <c r="L89" s="8"/>
       <c r="M89" s="8"/>
@@ -10228,16 +10770,16 @@
       <c r="Z89" s="8"/>
     </row>
     <row r="90" spans="1:26" ht="197.25" customHeight="1">
-      <c r="A90" s="25"/>
-      <c r="B90" s="26"/>
-      <c r="C90" s="25"/>
-      <c r="D90" s="26"/>
-      <c r="E90" s="26"/>
-      <c r="F90" s="26"/>
-      <c r="G90" s="26"/>
-      <c r="H90" s="26"/>
-      <c r="I90" s="25"/>
-      <c r="J90" s="25"/>
+      <c r="A90" s="34"/>
+      <c r="B90" s="34"/>
+      <c r="C90" s="34"/>
+      <c r="D90" s="34"/>
+      <c r="E90" s="34"/>
+      <c r="F90" s="34"/>
+      <c r="G90" s="34"/>
+      <c r="H90" s="34"/>
+      <c r="I90" s="34"/>
+      <c r="J90" s="34"/>
       <c r="K90" s="8"/>
       <c r="L90" s="8"/>
       <c r="M90" s="8"/>
@@ -10256,16 +10798,16 @@
       <c r="Z90" s="8"/>
     </row>
     <row r="91" spans="1:26" ht="196.5" customHeight="1">
-      <c r="A91" s="25"/>
-      <c r="B91" s="26"/>
-      <c r="C91" s="25"/>
-      <c r="D91" s="26"/>
-      <c r="E91" s="26"/>
-      <c r="F91" s="26"/>
-      <c r="G91" s="26"/>
-      <c r="H91" s="26"/>
-      <c r="I91" s="25"/>
-      <c r="J91" s="25"/>
+      <c r="A91" s="34"/>
+      <c r="B91" s="34"/>
+      <c r="C91" s="34"/>
+      <c r="D91" s="34"/>
+      <c r="E91" s="34"/>
+      <c r="F91" s="34"/>
+      <c r="G91" s="34"/>
+      <c r="H91" s="34"/>
+      <c r="I91" s="34"/>
+      <c r="J91" s="34"/>
       <c r="K91" s="8"/>
       <c r="L91" s="8"/>
       <c r="M91" s="8"/>
@@ -10283,17 +10825,17 @@
       <c r="Y91" s="8"/>
       <c r="Z91" s="8"/>
     </row>
-    <row r="92" spans="1:26" ht="196.5" customHeight="1">
-      <c r="A92" s="25"/>
-      <c r="B92" s="26"/>
-      <c r="C92" s="25"/>
-      <c r="D92" s="26"/>
-      <c r="E92" s="26"/>
-      <c r="F92" s="26"/>
-      <c r="G92" s="26"/>
-      <c r="H92" s="26"/>
-      <c r="I92" s="25"/>
-      <c r="J92" s="25"/>
+    <row r="92" spans="1:26" ht="197.25" customHeight="1">
+      <c r="A92" s="34"/>
+      <c r="B92" s="34"/>
+      <c r="C92" s="34"/>
+      <c r="D92" s="34"/>
+      <c r="E92" s="34"/>
+      <c r="F92" s="34"/>
+      <c r="G92" s="34"/>
+      <c r="H92" s="34"/>
+      <c r="I92" s="34"/>
+      <c r="J92" s="34"/>
       <c r="K92" s="8"/>
       <c r="L92" s="8"/>
       <c r="M92" s="8"/>
@@ -10312,16 +10854,16 @@
       <c r="Z92" s="8"/>
     </row>
     <row r="93" spans="1:26" ht="197.25" customHeight="1">
-      <c r="A93" s="25"/>
-      <c r="B93" s="26"/>
-      <c r="C93" s="25"/>
-      <c r="D93" s="26"/>
-      <c r="E93" s="26"/>
-      <c r="F93" s="26"/>
-      <c r="G93" s="26"/>
-      <c r="H93" s="26"/>
-      <c r="I93" s="25"/>
-      <c r="J93" s="25"/>
+      <c r="A93" s="34"/>
+      <c r="B93" s="34"/>
+      <c r="C93" s="34"/>
+      <c r="D93" s="34"/>
+      <c r="E93" s="34"/>
+      <c r="F93" s="34"/>
+      <c r="G93" s="34"/>
+      <c r="H93" s="34"/>
+      <c r="I93" s="34"/>
+      <c r="J93" s="34"/>
       <c r="K93" s="8"/>
       <c r="L93" s="8"/>
       <c r="M93" s="8"/>
@@ -10339,17 +10881,17 @@
       <c r="Y93" s="8"/>
       <c r="Z93" s="8"/>
     </row>
-    <row r="94" spans="1:26" ht="196.5" customHeight="1">
-      <c r="A94" s="25"/>
-      <c r="B94" s="26"/>
-      <c r="C94" s="25"/>
-      <c r="D94" s="26"/>
-      <c r="E94" s="26"/>
-      <c r="F94" s="26"/>
-      <c r="G94" s="26"/>
-      <c r="H94" s="26"/>
-      <c r="I94" s="25"/>
-      <c r="J94" s="25"/>
+    <row r="94" spans="1:26" ht="197.25" customHeight="1">
+      <c r="A94" s="34"/>
+      <c r="B94" s="34"/>
+      <c r="C94" s="34"/>
+      <c r="D94" s="34"/>
+      <c r="E94" s="34"/>
+      <c r="F94" s="34"/>
+      <c r="G94" s="34"/>
+      <c r="H94" s="34"/>
+      <c r="I94" s="34"/>
+      <c r="J94" s="34"/>
       <c r="K94" s="8"/>
       <c r="L94" s="8"/>
       <c r="M94" s="8"/>
@@ -10367,17 +10909,17 @@
       <c r="Y94" s="8"/>
       <c r="Z94" s="8"/>
     </row>
-    <row r="95" spans="1:26">
-      <c r="A95" s="24"/>
-      <c r="B95" s="24"/>
-      <c r="C95" s="24"/>
-      <c r="D95" s="24"/>
-      <c r="E95" s="24"/>
-      <c r="F95" s="24"/>
-      <c r="G95" s="24"/>
-      <c r="H95" s="24"/>
-      <c r="I95" s="24"/>
-      <c r="J95" s="24"/>
+    <row r="95" spans="1:26" ht="196.5" customHeight="1">
+      <c r="A95" s="34"/>
+      <c r="B95" s="34"/>
+      <c r="C95" s="34"/>
+      <c r="D95" s="34"/>
+      <c r="E95" s="34"/>
+      <c r="F95" s="34"/>
+      <c r="G95" s="34"/>
+      <c r="H95" s="34"/>
+      <c r="I95" s="34"/>
+      <c r="J95" s="34"/>
       <c r="K95" s="8"/>
       <c r="L95" s="8"/>
       <c r="M95" s="8"/>
@@ -10395,17 +10937,17 @@
       <c r="Y95" s="8"/>
       <c r="Z95" s="8"/>
     </row>
-    <row r="96" spans="1:26" ht="75" customHeight="1">
-      <c r="A96" s="25"/>
-      <c r="B96" s="25"/>
-      <c r="C96" s="25"/>
-      <c r="D96" s="26"/>
-      <c r="E96" s="26"/>
-      <c r="F96" s="26"/>
-      <c r="G96" s="26"/>
-      <c r="H96" s="26"/>
-      <c r="I96" s="25"/>
-      <c r="J96" s="25"/>
+    <row r="96" spans="1:26" ht="196.5" customHeight="1">
+      <c r="A96" s="34"/>
+      <c r="B96" s="34"/>
+      <c r="C96" s="34"/>
+      <c r="D96" s="34"/>
+      <c r="E96" s="34"/>
+      <c r="F96" s="34"/>
+      <c r="G96" s="34"/>
+      <c r="H96" s="34"/>
+      <c r="I96" s="34"/>
+      <c r="J96" s="34"/>
       <c r="K96" s="8"/>
       <c r="L96" s="8"/>
       <c r="M96" s="8"/>
@@ -10423,17 +10965,17 @@
       <c r="Y96" s="8"/>
       <c r="Z96" s="8"/>
     </row>
-    <row r="97" spans="1:26" ht="70.5" customHeight="1">
-      <c r="A97" s="25"/>
-      <c r="B97" s="25"/>
-      <c r="C97" s="25"/>
-      <c r="D97" s="26"/>
-      <c r="E97" s="26"/>
-      <c r="F97" s="26"/>
-      <c r="G97" s="26"/>
-      <c r="H97" s="26"/>
-      <c r="I97" s="25"/>
-      <c r="J97" s="25"/>
+    <row r="97" spans="1:26" ht="197.25" customHeight="1">
+      <c r="A97" s="34"/>
+      <c r="B97" s="34"/>
+      <c r="C97" s="34"/>
+      <c r="D97" s="34"/>
+      <c r="E97" s="34"/>
+      <c r="F97" s="34"/>
+      <c r="G97" s="34"/>
+      <c r="H97" s="34"/>
+      <c r="I97" s="34"/>
+      <c r="J97" s="34"/>
       <c r="K97" s="8"/>
       <c r="L97" s="8"/>
       <c r="M97" s="8"/>
@@ -10451,17 +10993,17 @@
       <c r="Y97" s="8"/>
       <c r="Z97" s="8"/>
     </row>
-    <row r="98" spans="1:26">
-      <c r="A98" s="24"/>
-      <c r="B98" s="24"/>
-      <c r="C98" s="24"/>
-      <c r="D98" s="24"/>
-      <c r="E98" s="24"/>
-      <c r="F98" s="24"/>
-      <c r="G98" s="24"/>
-      <c r="H98" s="24"/>
-      <c r="I98" s="24"/>
-      <c r="J98" s="24"/>
+    <row r="98" spans="1:26" ht="196.5" customHeight="1">
+      <c r="A98" s="34"/>
+      <c r="B98" s="34"/>
+      <c r="C98" s="34"/>
+      <c r="D98" s="34"/>
+      <c r="E98" s="34"/>
+      <c r="F98" s="34"/>
+      <c r="G98" s="34"/>
+      <c r="H98" s="34"/>
+      <c r="I98" s="34"/>
+      <c r="J98" s="34"/>
       <c r="K98" s="8"/>
       <c r="L98" s="8"/>
       <c r="M98" s="8"/>
@@ -10479,17 +11021,17 @@
       <c r="Y98" s="8"/>
       <c r="Z98" s="8"/>
     </row>
-    <row r="99" spans="1:26" ht="75" customHeight="1">
-      <c r="A99" s="25"/>
-      <c r="B99" s="25"/>
-      <c r="C99" s="25"/>
-      <c r="D99" s="26"/>
-      <c r="E99" s="26"/>
-      <c r="F99" s="26"/>
-      <c r="G99" s="26"/>
-      <c r="H99" s="26"/>
-      <c r="I99" s="25"/>
-      <c r="J99" s="25"/>
+    <row r="99" spans="1:26">
+      <c r="A99" s="34"/>
+      <c r="B99" s="34"/>
+      <c r="C99" s="34"/>
+      <c r="D99" s="34"/>
+      <c r="E99" s="34"/>
+      <c r="F99" s="34"/>
+      <c r="G99" s="34"/>
+      <c r="H99" s="34"/>
+      <c r="I99" s="34"/>
+      <c r="J99" s="34"/>
       <c r="K99" s="8"/>
       <c r="L99" s="8"/>
       <c r="M99" s="8"/>
@@ -10508,16 +11050,16 @@
       <c r="Z99" s="8"/>
     </row>
     <row r="100" spans="1:26" ht="75" customHeight="1">
-      <c r="A100" s="25"/>
-      <c r="B100" s="25"/>
-      <c r="C100" s="25"/>
-      <c r="D100" s="26"/>
-      <c r="E100" s="26"/>
-      <c r="F100" s="26"/>
-      <c r="G100" s="26"/>
-      <c r="H100" s="26"/>
-      <c r="I100" s="25"/>
-      <c r="J100" s="25"/>
+      <c r="A100" s="34"/>
+      <c r="B100" s="34"/>
+      <c r="C100" s="34"/>
+      <c r="D100" s="34"/>
+      <c r="E100" s="34"/>
+      <c r="F100" s="34"/>
+      <c r="G100" s="34"/>
+      <c r="H100" s="34"/>
+      <c r="I100" s="34"/>
+      <c r="J100" s="34"/>
       <c r="K100" s="8"/>
       <c r="L100" s="8"/>
       <c r="M100" s="8"/>
@@ -10535,17 +11077,17 @@
       <c r="Y100" s="8"/>
       <c r="Z100" s="8"/>
     </row>
-    <row r="101" spans="1:26">
-      <c r="A101" s="24"/>
-      <c r="B101" s="24"/>
-      <c r="C101" s="24"/>
-      <c r="D101" s="24"/>
-      <c r="E101" s="24"/>
-      <c r="F101" s="24"/>
-      <c r="G101" s="24"/>
-      <c r="H101" s="24"/>
-      <c r="I101" s="24"/>
-      <c r="J101" s="24"/>
+    <row r="101" spans="1:26" ht="70.5" customHeight="1">
+      <c r="A101" s="34"/>
+      <c r="B101" s="34"/>
+      <c r="C101" s="34"/>
+      <c r="D101" s="34"/>
+      <c r="E101" s="34"/>
+      <c r="F101" s="34"/>
+      <c r="G101" s="34"/>
+      <c r="H101" s="34"/>
+      <c r="I101" s="34"/>
+      <c r="J101" s="34"/>
       <c r="K101" s="8"/>
       <c r="L101" s="8"/>
       <c r="M101" s="8"/>
@@ -10563,17 +11105,17 @@
       <c r="Y101" s="8"/>
       <c r="Z101" s="8"/>
     </row>
-    <row r="102" spans="1:26" ht="57.75" customHeight="1">
-      <c r="A102" s="25"/>
-      <c r="B102" s="25"/>
-      <c r="C102" s="25"/>
-      <c r="D102" s="26"/>
-      <c r="E102" s="26"/>
-      <c r="F102" s="26"/>
-      <c r="G102" s="26"/>
-      <c r="H102" s="26"/>
-      <c r="I102" s="25"/>
-      <c r="J102" s="25"/>
+    <row r="102" spans="1:26">
+      <c r="A102" s="34"/>
+      <c r="B102" s="34"/>
+      <c r="C102" s="34"/>
+      <c r="D102" s="34"/>
+      <c r="E102" s="34"/>
+      <c r="F102" s="34"/>
+      <c r="G102" s="34"/>
+      <c r="H102" s="34"/>
+      <c r="I102" s="34"/>
+      <c r="J102" s="34"/>
       <c r="K102" s="8"/>
       <c r="L102" s="8"/>
       <c r="M102" s="8"/>
@@ -10591,17 +11133,17 @@
       <c r="Y102" s="8"/>
       <c r="Z102" s="8"/>
     </row>
-    <row r="103" spans="1:26" ht="69.75" customHeight="1">
-      <c r="A103" s="25"/>
-      <c r="B103" s="25"/>
-      <c r="C103" s="25"/>
-      <c r="D103" s="26"/>
-      <c r="E103" s="26"/>
-      <c r="F103" s="26"/>
-      <c r="G103" s="26"/>
-      <c r="H103" s="26"/>
-      <c r="I103" s="25"/>
-      <c r="J103" s="25"/>
+    <row r="103" spans="1:26" ht="75" customHeight="1">
+      <c r="A103" s="34"/>
+      <c r="B103" s="34"/>
+      <c r="C103" s="34"/>
+      <c r="D103" s="34"/>
+      <c r="E103" s="34"/>
+      <c r="F103" s="34"/>
+      <c r="G103" s="34"/>
+      <c r="H103" s="34"/>
+      <c r="I103" s="34"/>
+      <c r="J103" s="34"/>
       <c r="K103" s="8"/>
       <c r="L103" s="8"/>
       <c r="M103" s="8"/>
@@ -10619,17 +11161,17 @@
       <c r="Y103" s="8"/>
       <c r="Z103" s="8"/>
     </row>
-    <row r="104" spans="1:26">
-      <c r="A104" s="24"/>
-      <c r="B104" s="24"/>
-      <c r="C104" s="24"/>
-      <c r="D104" s="24"/>
-      <c r="E104" s="24"/>
-      <c r="F104" s="24"/>
-      <c r="G104" s="24"/>
-      <c r="H104" s="24"/>
-      <c r="I104" s="24"/>
-      <c r="J104" s="24"/>
+    <row r="104" spans="1:26" ht="75" customHeight="1">
+      <c r="A104" s="34"/>
+      <c r="B104" s="34"/>
+      <c r="C104" s="34"/>
+      <c r="D104" s="34"/>
+      <c r="E104" s="34"/>
+      <c r="F104" s="34"/>
+      <c r="G104" s="34"/>
+      <c r="H104" s="34"/>
+      <c r="I104" s="34"/>
+      <c r="J104" s="34"/>
       <c r="K104" s="8"/>
       <c r="L104" s="8"/>
       <c r="M104" s="8"/>
@@ -10647,17 +11189,17 @@
       <c r="Y104" s="8"/>
       <c r="Z104" s="8"/>
     </row>
-    <row r="105" spans="1:26" ht="69" customHeight="1">
-      <c r="A105" s="25"/>
-      <c r="B105" s="25"/>
-      <c r="C105" s="25"/>
-      <c r="D105" s="26"/>
-      <c r="E105" s="26"/>
-      <c r="F105" s="26"/>
-      <c r="G105" s="26"/>
-      <c r="H105" s="26"/>
-      <c r="I105" s="25"/>
-      <c r="J105" s="25"/>
+    <row r="105" spans="1:26">
+      <c r="A105" s="34"/>
+      <c r="B105" s="34"/>
+      <c r="C105" s="34"/>
+      <c r="D105" s="34"/>
+      <c r="E105" s="34"/>
+      <c r="F105" s="34"/>
+      <c r="G105" s="34"/>
+      <c r="H105" s="34"/>
+      <c r="I105" s="34"/>
+      <c r="J105" s="34"/>
       <c r="K105" s="8"/>
       <c r="L105" s="8"/>
       <c r="M105" s="8"/>
@@ -10675,17 +11217,17 @@
       <c r="Y105" s="8"/>
       <c r="Z105" s="8"/>
     </row>
-    <row r="106" spans="1:26" ht="60" customHeight="1">
-      <c r="A106" s="25"/>
-      <c r="B106" s="25"/>
-      <c r="C106" s="25"/>
-      <c r="D106" s="26"/>
-      <c r="E106" s="26"/>
-      <c r="F106" s="26"/>
-      <c r="G106" s="26"/>
-      <c r="H106" s="26"/>
-      <c r="I106" s="25"/>
-      <c r="J106" s="25"/>
+    <row r="106" spans="1:26" ht="57.75" customHeight="1">
+      <c r="A106" s="34"/>
+      <c r="B106" s="34"/>
+      <c r="C106" s="34"/>
+      <c r="D106" s="34"/>
+      <c r="E106" s="34"/>
+      <c r="F106" s="34"/>
+      <c r="G106" s="34"/>
+      <c r="H106" s="34"/>
+      <c r="I106" s="34"/>
+      <c r="J106" s="34"/>
       <c r="K106" s="8"/>
       <c r="L106" s="8"/>
       <c r="M106" s="8"/>
@@ -10703,17 +11245,17 @@
       <c r="Y106" s="8"/>
       <c r="Z106" s="8"/>
     </row>
-    <row r="107" spans="1:26">
-      <c r="A107" s="16"/>
-      <c r="B107" s="16"/>
-      <c r="C107" s="16"/>
-      <c r="D107" s="16"/>
-      <c r="E107" s="16"/>
-      <c r="F107" s="16"/>
-      <c r="G107" s="8"/>
-      <c r="H107" s="16"/>
-      <c r="I107" s="16"/>
-      <c r="J107" s="16"/>
+    <row r="107" spans="1:26" ht="69.75" customHeight="1">
+      <c r="A107" s="34"/>
+      <c r="B107" s="34"/>
+      <c r="C107" s="34"/>
+      <c r="D107" s="34"/>
+      <c r="E107" s="34"/>
+      <c r="F107" s="34"/>
+      <c r="G107" s="34"/>
+      <c r="H107" s="34"/>
+      <c r="I107" s="34"/>
+      <c r="J107" s="34"/>
       <c r="K107" s="8"/>
       <c r="L107" s="8"/>
       <c r="M107" s="8"/>
@@ -10732,16 +11274,16 @@
       <c r="Z107" s="8"/>
     </row>
     <row r="108" spans="1:26">
-      <c r="A108" s="16"/>
-      <c r="B108" s="16"/>
-      <c r="C108" s="16"/>
-      <c r="D108" s="16"/>
-      <c r="E108" s="16"/>
-      <c r="F108" s="16"/>
-      <c r="G108" s="8"/>
-      <c r="H108" s="16"/>
-      <c r="I108" s="16"/>
-      <c r="J108" s="16"/>
+      <c r="A108" s="34"/>
+      <c r="B108" s="34"/>
+      <c r="C108" s="34"/>
+      <c r="D108" s="34"/>
+      <c r="E108" s="34"/>
+      <c r="F108" s="34"/>
+      <c r="G108" s="34"/>
+      <c r="H108" s="34"/>
+      <c r="I108" s="34"/>
+      <c r="J108" s="34"/>
       <c r="K108" s="8"/>
       <c r="L108" s="8"/>
       <c r="M108" s="8"/>
@@ -10759,17 +11301,17 @@
       <c r="Y108" s="8"/>
       <c r="Z108" s="8"/>
     </row>
-    <row r="109" spans="1:26">
-      <c r="A109" s="16"/>
-      <c r="B109" s="16"/>
-      <c r="C109" s="16"/>
-      <c r="D109" s="16"/>
-      <c r="E109" s="16"/>
-      <c r="F109" s="16"/>
-      <c r="G109" s="8"/>
-      <c r="H109" s="16"/>
-      <c r="I109" s="16"/>
-      <c r="J109" s="16"/>
+    <row r="109" spans="1:26" ht="69" customHeight="1">
+      <c r="A109" s="34"/>
+      <c r="B109" s="34"/>
+      <c r="C109" s="34"/>
+      <c r="D109" s="34"/>
+      <c r="E109" s="34"/>
+      <c r="F109" s="34"/>
+      <c r="G109" s="34"/>
+      <c r="H109" s="34"/>
+      <c r="I109" s="34"/>
+      <c r="J109" s="34"/>
       <c r="K109" s="8"/>
       <c r="L109" s="8"/>
       <c r="M109" s="8"/>
@@ -10787,17 +11329,17 @@
       <c r="Y109" s="8"/>
       <c r="Z109" s="8"/>
     </row>
-    <row r="110" spans="1:26">
-      <c r="A110" s="16"/>
-      <c r="B110" s="16"/>
-      <c r="C110" s="16"/>
-      <c r="D110" s="16"/>
-      <c r="E110" s="16"/>
-      <c r="F110" s="16"/>
-      <c r="G110" s="8"/>
-      <c r="H110" s="16"/>
-      <c r="I110" s="16"/>
-      <c r="J110" s="16"/>
+    <row r="110" spans="1:26" ht="60" customHeight="1">
+      <c r="A110" s="34"/>
+      <c r="B110" s="34"/>
+      <c r="C110" s="34"/>
+      <c r="D110" s="34"/>
+      <c r="E110" s="34"/>
+      <c r="F110" s="34"/>
+      <c r="G110" s="34"/>
+      <c r="H110" s="34"/>
+      <c r="I110" s="34"/>
+      <c r="J110" s="34"/>
       <c r="K110" s="8"/>
       <c r="L110" s="8"/>
       <c r="M110" s="8"/>
@@ -10816,16 +11358,16 @@
       <c r="Z110" s="8"/>
     </row>
     <row r="111" spans="1:26">
-      <c r="A111" s="16"/>
-      <c r="B111" s="16"/>
-      <c r="C111" s="16"/>
-      <c r="D111" s="16"/>
-      <c r="E111" s="16"/>
-      <c r="F111" s="16"/>
-      <c r="G111" s="8"/>
-      <c r="H111" s="16"/>
-      <c r="I111" s="16"/>
-      <c r="J111" s="16"/>
+      <c r="A111" s="34"/>
+      <c r="B111" s="34"/>
+      <c r="C111" s="34"/>
+      <c r="D111" s="34"/>
+      <c r="E111" s="34"/>
+      <c r="F111" s="34"/>
+      <c r="G111" s="34"/>
+      <c r="H111" s="34"/>
+      <c r="I111" s="34"/>
+      <c r="J111" s="34"/>
       <c r="K111" s="8"/>
       <c r="L111" s="8"/>
       <c r="M111" s="8"/>
@@ -10844,16 +11386,16 @@
       <c r="Z111" s="8"/>
     </row>
     <row r="112" spans="1:26">
-      <c r="A112" s="16"/>
-      <c r="B112" s="16"/>
-      <c r="C112" s="16"/>
-      <c r="D112" s="16"/>
-      <c r="E112" s="16"/>
-      <c r="F112" s="16"/>
-      <c r="G112" s="8"/>
-      <c r="H112" s="16"/>
-      <c r="I112" s="16"/>
-      <c r="J112" s="16"/>
+      <c r="A112" s="34"/>
+      <c r="B112" s="34"/>
+      <c r="C112" s="34"/>
+      <c r="D112" s="34"/>
+      <c r="E112" s="34"/>
+      <c r="F112" s="34"/>
+      <c r="G112" s="34"/>
+      <c r="H112" s="34"/>
+      <c r="I112" s="34"/>
+      <c r="J112" s="34"/>
       <c r="K112" s="8"/>
       <c r="L112" s="8"/>
       <c r="M112" s="8"/>
@@ -10872,16 +11414,16 @@
       <c r="Z112" s="8"/>
     </row>
     <row r="113" spans="1:26">
-      <c r="A113" s="16"/>
-      <c r="B113" s="16"/>
-      <c r="C113" s="16"/>
-      <c r="D113" s="16"/>
-      <c r="E113" s="16"/>
-      <c r="F113" s="16"/>
-      <c r="G113" s="8"/>
-      <c r="H113" s="16"/>
-      <c r="I113" s="16"/>
-      <c r="J113" s="16"/>
+      <c r="A113" s="34"/>
+      <c r="B113" s="34"/>
+      <c r="C113" s="34"/>
+      <c r="D113" s="34"/>
+      <c r="E113" s="34"/>
+      <c r="F113" s="34"/>
+      <c r="G113" s="34"/>
+      <c r="H113" s="34"/>
+      <c r="I113" s="34"/>
+      <c r="J113" s="34"/>
       <c r="K113" s="8"/>
       <c r="L113" s="8"/>
       <c r="M113" s="8"/>
@@ -10900,16 +11442,16 @@
       <c r="Z113" s="8"/>
     </row>
     <row r="114" spans="1:26">
-      <c r="A114" s="16"/>
-      <c r="B114" s="16"/>
-      <c r="C114" s="16"/>
-      <c r="D114" s="16"/>
-      <c r="E114" s="16"/>
-      <c r="F114" s="16"/>
-      <c r="G114" s="8"/>
-      <c r="H114" s="16"/>
-      <c r="I114" s="16"/>
-      <c r="J114" s="16"/>
+      <c r="A114" s="34"/>
+      <c r="B114" s="34"/>
+      <c r="C114" s="34"/>
+      <c r="D114" s="34"/>
+      <c r="E114" s="34"/>
+      <c r="F114" s="34"/>
+      <c r="G114" s="34"/>
+      <c r="H114" s="34"/>
+      <c r="I114" s="34"/>
+      <c r="J114" s="34"/>
       <c r="K114" s="8"/>
       <c r="L114" s="8"/>
       <c r="M114" s="8"/>
@@ -10928,16 +11470,16 @@
       <c r="Z114" s="8"/>
     </row>
     <row r="115" spans="1:26">
-      <c r="A115" s="16"/>
-      <c r="B115" s="16"/>
-      <c r="C115" s="16"/>
-      <c r="D115" s="16"/>
-      <c r="E115" s="16"/>
-      <c r="F115" s="16"/>
-      <c r="G115" s="8"/>
-      <c r="H115" s="16"/>
-      <c r="I115" s="16"/>
-      <c r="J115" s="16"/>
+      <c r="A115" s="34"/>
+      <c r="B115" s="34"/>
+      <c r="C115" s="34"/>
+      <c r="D115" s="34"/>
+      <c r="E115" s="34"/>
+      <c r="F115" s="34"/>
+      <c r="G115" s="34"/>
+      <c r="H115" s="34"/>
+      <c r="I115" s="34"/>
+      <c r="J115" s="34"/>
       <c r="K115" s="8"/>
       <c r="L115" s="8"/>
       <c r="M115" s="8"/>
@@ -10956,16 +11498,16 @@
       <c r="Z115" s="8"/>
     </row>
     <row r="116" spans="1:26">
-      <c r="A116" s="16"/>
-      <c r="B116" s="16"/>
-      <c r="C116" s="16"/>
-      <c r="D116" s="16"/>
-      <c r="E116" s="16"/>
-      <c r="F116" s="16"/>
-      <c r="G116" s="8"/>
-      <c r="H116" s="16"/>
-      <c r="I116" s="16"/>
-      <c r="J116" s="16"/>
+      <c r="A116" s="34"/>
+      <c r="B116" s="34"/>
+      <c r="C116" s="34"/>
+      <c r="D116" s="34"/>
+      <c r="E116" s="34"/>
+      <c r="F116" s="34"/>
+      <c r="G116" s="34"/>
+      <c r="H116" s="34"/>
+      <c r="I116" s="34"/>
+      <c r="J116" s="34"/>
       <c r="K116" s="8"/>
       <c r="L116" s="8"/>
       <c r="M116" s="8"/>
@@ -10984,16 +11526,16 @@
       <c r="Z116" s="8"/>
     </row>
     <row r="117" spans="1:26">
-      <c r="A117" s="16"/>
-      <c r="B117" s="16"/>
-      <c r="C117" s="16"/>
-      <c r="D117" s="16"/>
-      <c r="E117" s="16"/>
-      <c r="F117" s="16"/>
-      <c r="G117" s="8"/>
-      <c r="H117" s="16"/>
-      <c r="I117" s="16"/>
-      <c r="J117" s="16"/>
+      <c r="A117" s="34"/>
+      <c r="B117" s="34"/>
+      <c r="C117" s="34"/>
+      <c r="D117" s="34"/>
+      <c r="E117" s="34"/>
+      <c r="F117" s="34"/>
+      <c r="G117" s="34"/>
+      <c r="H117" s="34"/>
+      <c r="I117" s="34"/>
+      <c r="J117" s="34"/>
       <c r="K117" s="8"/>
       <c r="L117" s="8"/>
       <c r="M117" s="8"/>
@@ -11012,16 +11554,16 @@
       <c r="Z117" s="8"/>
     </row>
     <row r="118" spans="1:26">
-      <c r="A118" s="16"/>
-      <c r="B118" s="16"/>
-      <c r="C118" s="16"/>
-      <c r="D118" s="16"/>
-      <c r="E118" s="16"/>
-      <c r="F118" s="16"/>
-      <c r="G118" s="8"/>
-      <c r="H118" s="16"/>
-      <c r="I118" s="16"/>
-      <c r="J118" s="16"/>
+      <c r="A118" s="34"/>
+      <c r="B118" s="34"/>
+      <c r="C118" s="34"/>
+      <c r="D118" s="34"/>
+      <c r="E118" s="34"/>
+      <c r="F118" s="34"/>
+      <c r="G118" s="34"/>
+      <c r="H118" s="34"/>
+      <c r="I118" s="34"/>
+      <c r="J118" s="34"/>
       <c r="K118" s="8"/>
       <c r="L118" s="8"/>
       <c r="M118" s="8"/>
@@ -11040,16 +11582,16 @@
       <c r="Z118" s="8"/>
     </row>
     <row r="119" spans="1:26">
-      <c r="A119" s="16"/>
-      <c r="B119" s="16"/>
-      <c r="C119" s="16"/>
-      <c r="D119" s="16"/>
-      <c r="E119" s="16"/>
-      <c r="F119" s="16"/>
-      <c r="G119" s="8"/>
-      <c r="H119" s="16"/>
-      <c r="I119" s="16"/>
-      <c r="J119" s="16"/>
+      <c r="A119" s="34"/>
+      <c r="B119" s="34"/>
+      <c r="C119" s="34"/>
+      <c r="D119" s="34"/>
+      <c r="E119" s="34"/>
+      <c r="F119" s="34"/>
+      <c r="G119" s="34"/>
+      <c r="H119" s="34"/>
+      <c r="I119" s="34"/>
+      <c r="J119" s="34"/>
       <c r="K119" s="8"/>
       <c r="L119" s="8"/>
       <c r="M119" s="8"/>
@@ -11068,16 +11610,16 @@
       <c r="Z119" s="8"/>
     </row>
     <row r="120" spans="1:26">
-      <c r="A120" s="16"/>
-      <c r="B120" s="16"/>
-      <c r="C120" s="16"/>
-      <c r="D120" s="16"/>
-      <c r="E120" s="16"/>
-      <c r="F120" s="16"/>
-      <c r="G120" s="8"/>
-      <c r="H120" s="16"/>
-      <c r="I120" s="16"/>
-      <c r="J120" s="16"/>
+      <c r="A120" s="34"/>
+      <c r="B120" s="34"/>
+      <c r="C120" s="34"/>
+      <c r="D120" s="34"/>
+      <c r="E120" s="34"/>
+      <c r="F120" s="34"/>
+      <c r="G120" s="34"/>
+      <c r="H120" s="34"/>
+      <c r="I120" s="34"/>
+      <c r="J120" s="34"/>
       <c r="K120" s="8"/>
       <c r="L120" s="8"/>
       <c r="M120" s="8"/>
@@ -11096,16 +11638,16 @@
       <c r="Z120" s="8"/>
     </row>
     <row r="121" spans="1:26">
-      <c r="A121" s="16"/>
-      <c r="B121" s="16"/>
-      <c r="C121" s="16"/>
-      <c r="D121" s="16"/>
-      <c r="E121" s="16"/>
-      <c r="F121" s="16"/>
-      <c r="G121" s="8"/>
-      <c r="H121" s="16"/>
-      <c r="I121" s="16"/>
-      <c r="J121" s="16"/>
+      <c r="A121" s="34"/>
+      <c r="B121" s="34"/>
+      <c r="C121" s="34"/>
+      <c r="D121" s="34"/>
+      <c r="E121" s="34"/>
+      <c r="F121" s="34"/>
+      <c r="G121" s="34"/>
+      <c r="H121" s="34"/>
+      <c r="I121" s="34"/>
+      <c r="J121" s="34"/>
       <c r="K121" s="8"/>
       <c r="L121" s="8"/>
       <c r="M121" s="8"/>
@@ -11124,16 +11666,16 @@
       <c r="Z121" s="8"/>
     </row>
     <row r="122" spans="1:26">
-      <c r="A122" s="16"/>
-      <c r="B122" s="16"/>
-      <c r="C122" s="16"/>
-      <c r="D122" s="16"/>
-      <c r="E122" s="16"/>
-      <c r="F122" s="16"/>
-      <c r="G122" s="8"/>
-      <c r="H122" s="16"/>
-      <c r="I122" s="16"/>
-      <c r="J122" s="16"/>
+      <c r="A122" s="34"/>
+      <c r="B122" s="34"/>
+      <c r="C122" s="34"/>
+      <c r="D122" s="34"/>
+      <c r="E122" s="34"/>
+      <c r="F122" s="34"/>
+      <c r="G122" s="34"/>
+      <c r="H122" s="34"/>
+      <c r="I122" s="34"/>
+      <c r="J122" s="34"/>
       <c r="K122" s="8"/>
       <c r="L122" s="8"/>
       <c r="M122" s="8"/>
@@ -11152,16 +11694,16 @@
       <c r="Z122" s="8"/>
     </row>
     <row r="123" spans="1:26">
-      <c r="A123" s="16"/>
-      <c r="B123" s="16"/>
-      <c r="C123" s="16"/>
-      <c r="D123" s="16"/>
-      <c r="E123" s="16"/>
-      <c r="F123" s="16"/>
-      <c r="G123" s="8"/>
-      <c r="H123" s="16"/>
-      <c r="I123" s="16"/>
-      <c r="J123" s="16"/>
+      <c r="A123" s="34"/>
+      <c r="B123" s="34"/>
+      <c r="C123" s="34"/>
+      <c r="D123" s="34"/>
+      <c r="E123" s="34"/>
+      <c r="F123" s="34"/>
+      <c r="G123" s="34"/>
+      <c r="H123" s="34"/>
+      <c r="I123" s="34"/>
+      <c r="J123" s="34"/>
       <c r="K123" s="8"/>
       <c r="L123" s="8"/>
       <c r="M123" s="8"/>
@@ -11180,16 +11722,16 @@
       <c r="Z123" s="8"/>
     </row>
     <row r="124" spans="1:26">
-      <c r="A124" s="16"/>
-      <c r="B124" s="16"/>
-      <c r="C124" s="16"/>
-      <c r="D124" s="16"/>
-      <c r="E124" s="16"/>
-      <c r="F124" s="16"/>
-      <c r="G124" s="8"/>
-      <c r="H124" s="16"/>
-      <c r="I124" s="16"/>
-      <c r="J124" s="16"/>
+      <c r="A124" s="34"/>
+      <c r="B124" s="34"/>
+      <c r="C124" s="34"/>
+      <c r="D124" s="34"/>
+      <c r="E124" s="34"/>
+      <c r="F124" s="34"/>
+      <c r="G124" s="34"/>
+      <c r="H124" s="34"/>
+      <c r="I124" s="34"/>
+      <c r="J124" s="34"/>
       <c r="K124" s="8"/>
       <c r="L124" s="8"/>
       <c r="M124" s="8"/>
@@ -11208,16 +11750,16 @@
       <c r="Z124" s="8"/>
     </row>
     <row r="125" spans="1:26">
-      <c r="A125" s="16"/>
-      <c r="B125" s="16"/>
-      <c r="C125" s="16"/>
-      <c r="D125" s="16"/>
-      <c r="E125" s="16"/>
-      <c r="F125" s="16"/>
-      <c r="G125" s="8"/>
-      <c r="H125" s="16"/>
-      <c r="I125" s="16"/>
-      <c r="J125" s="16"/>
+      <c r="A125" s="34"/>
+      <c r="B125" s="34"/>
+      <c r="C125" s="34"/>
+      <c r="D125" s="34"/>
+      <c r="E125" s="34"/>
+      <c r="F125" s="34"/>
+      <c r="G125" s="34"/>
+      <c r="H125" s="34"/>
+      <c r="I125" s="34"/>
+      <c r="J125" s="34"/>
       <c r="K125" s="8"/>
       <c r="L125" s="8"/>
       <c r="M125" s="8"/>
@@ -11236,16 +11778,16 @@
       <c r="Z125" s="8"/>
     </row>
     <row r="126" spans="1:26">
-      <c r="A126" s="16"/>
-      <c r="B126" s="16"/>
-      <c r="C126" s="16"/>
-      <c r="D126" s="16"/>
-      <c r="E126" s="16"/>
-      <c r="F126" s="16"/>
-      <c r="G126" s="8"/>
-      <c r="H126" s="16"/>
-      <c r="I126" s="16"/>
-      <c r="J126" s="16"/>
+      <c r="A126" s="34"/>
+      <c r="B126" s="34"/>
+      <c r="C126" s="34"/>
+      <c r="D126" s="34"/>
+      <c r="E126" s="34"/>
+      <c r="F126" s="34"/>
+      <c r="G126" s="34"/>
+      <c r="H126" s="34"/>
+      <c r="I126" s="34"/>
+      <c r="J126" s="34"/>
       <c r="K126" s="8"/>
       <c r="L126" s="8"/>
       <c r="M126" s="8"/>
@@ -11264,16 +11806,16 @@
       <c r="Z126" s="8"/>
     </row>
     <row r="127" spans="1:26">
-      <c r="A127" s="16"/>
-      <c r="B127" s="16"/>
-      <c r="C127" s="16"/>
-      <c r="D127" s="16"/>
-      <c r="E127" s="16"/>
-      <c r="F127" s="16"/>
-      <c r="G127" s="8"/>
-      <c r="H127" s="16"/>
-      <c r="I127" s="16"/>
-      <c r="J127" s="16"/>
+      <c r="A127" s="34"/>
+      <c r="B127" s="34"/>
+      <c r="C127" s="34"/>
+      <c r="D127" s="34"/>
+      <c r="E127" s="34"/>
+      <c r="F127" s="34"/>
+      <c r="G127" s="34"/>
+      <c r="H127" s="34"/>
+      <c r="I127" s="34"/>
+      <c r="J127" s="34"/>
       <c r="K127" s="8"/>
       <c r="L127" s="8"/>
       <c r="M127" s="8"/>
@@ -11292,16 +11834,16 @@
       <c r="Z127" s="8"/>
     </row>
     <row r="128" spans="1:26">
-      <c r="A128" s="16"/>
-      <c r="B128" s="16"/>
-      <c r="C128" s="16"/>
-      <c r="D128" s="16"/>
-      <c r="E128" s="16"/>
-      <c r="F128" s="16"/>
-      <c r="G128" s="8"/>
-      <c r="H128" s="16"/>
-      <c r="I128" s="16"/>
-      <c r="J128" s="16"/>
+      <c r="A128" s="34"/>
+      <c r="B128" s="34"/>
+      <c r="C128" s="34"/>
+      <c r="D128" s="34"/>
+      <c r="E128" s="34"/>
+      <c r="F128" s="34"/>
+      <c r="G128" s="34"/>
+      <c r="H128" s="34"/>
+      <c r="I128" s="34"/>
+      <c r="J128" s="34"/>
       <c r="K128" s="8"/>
       <c r="L128" s="8"/>
       <c r="M128" s="8"/>
@@ -11320,16 +11862,16 @@
       <c r="Z128" s="8"/>
     </row>
     <row r="129" spans="1:26">
-      <c r="A129" s="16"/>
-      <c r="B129" s="16"/>
-      <c r="C129" s="16"/>
-      <c r="D129" s="16"/>
-      <c r="E129" s="16"/>
-      <c r="F129" s="16"/>
-      <c r="G129" s="8"/>
-      <c r="H129" s="16"/>
-      <c r="I129" s="16"/>
-      <c r="J129" s="16"/>
+      <c r="A129" s="34"/>
+      <c r="B129" s="34"/>
+      <c r="C129" s="34"/>
+      <c r="D129" s="34"/>
+      <c r="E129" s="34"/>
+      <c r="F129" s="34"/>
+      <c r="G129" s="34"/>
+      <c r="H129" s="34"/>
+      <c r="I129" s="34"/>
+      <c r="J129" s="34"/>
       <c r="K129" s="8"/>
       <c r="L129" s="8"/>
       <c r="M129" s="8"/>
@@ -35819,6 +36361,118 @@
       <c r="Y1003" s="8"/>
       <c r="Z1003" s="8"/>
     </row>
+    <row r="1004" spans="1:26">
+      <c r="A1004" s="16"/>
+      <c r="B1004" s="16"/>
+      <c r="C1004" s="16"/>
+      <c r="D1004" s="16"/>
+      <c r="E1004" s="16"/>
+      <c r="F1004" s="16"/>
+      <c r="G1004" s="8"/>
+      <c r="H1004" s="16"/>
+      <c r="I1004" s="16"/>
+      <c r="J1004" s="16"/>
+      <c r="K1004" s="8"/>
+      <c r="L1004" s="8"/>
+      <c r="M1004" s="8"/>
+      <c r="N1004" s="8"/>
+      <c r="O1004" s="8"/>
+      <c r="P1004" s="8"/>
+      <c r="Q1004" s="8"/>
+      <c r="R1004" s="8"/>
+      <c r="S1004" s="8"/>
+      <c r="T1004" s="8"/>
+      <c r="U1004" s="8"/>
+      <c r="V1004" s="8"/>
+      <c r="W1004" s="8"/>
+      <c r="X1004" s="8"/>
+      <c r="Y1004" s="8"/>
+      <c r="Z1004" s="8"/>
+    </row>
+    <row r="1005" spans="1:26">
+      <c r="A1005" s="16"/>
+      <c r="B1005" s="16"/>
+      <c r="C1005" s="16"/>
+      <c r="D1005" s="16"/>
+      <c r="E1005" s="16"/>
+      <c r="F1005" s="16"/>
+      <c r="G1005" s="8"/>
+      <c r="H1005" s="16"/>
+      <c r="I1005" s="16"/>
+      <c r="J1005" s="16"/>
+      <c r="K1005" s="8"/>
+      <c r="L1005" s="8"/>
+      <c r="M1005" s="8"/>
+      <c r="N1005" s="8"/>
+      <c r="O1005" s="8"/>
+      <c r="P1005" s="8"/>
+      <c r="Q1005" s="8"/>
+      <c r="R1005" s="8"/>
+      <c r="S1005" s="8"/>
+      <c r="T1005" s="8"/>
+      <c r="U1005" s="8"/>
+      <c r="V1005" s="8"/>
+      <c r="W1005" s="8"/>
+      <c r="X1005" s="8"/>
+      <c r="Y1005" s="8"/>
+      <c r="Z1005" s="8"/>
+    </row>
+    <row r="1006" spans="1:26">
+      <c r="A1006" s="16"/>
+      <c r="B1006" s="16"/>
+      <c r="C1006" s="16"/>
+      <c r="D1006" s="16"/>
+      <c r="E1006" s="16"/>
+      <c r="F1006" s="16"/>
+      <c r="G1006" s="8"/>
+      <c r="H1006" s="16"/>
+      <c r="I1006" s="16"/>
+      <c r="J1006" s="16"/>
+      <c r="K1006" s="8"/>
+      <c r="L1006" s="8"/>
+      <c r="M1006" s="8"/>
+      <c r="N1006" s="8"/>
+      <c r="O1006" s="8"/>
+      <c r="P1006" s="8"/>
+      <c r="Q1006" s="8"/>
+      <c r="R1006" s="8"/>
+      <c r="S1006" s="8"/>
+      <c r="T1006" s="8"/>
+      <c r="U1006" s="8"/>
+      <c r="V1006" s="8"/>
+      <c r="W1006" s="8"/>
+      <c r="X1006" s="8"/>
+      <c r="Y1006" s="8"/>
+      <c r="Z1006" s="8"/>
+    </row>
+    <row r="1007" spans="1:26">
+      <c r="A1007" s="16"/>
+      <c r="B1007" s="16"/>
+      <c r="C1007" s="16"/>
+      <c r="D1007" s="16"/>
+      <c r="E1007" s="16"/>
+      <c r="F1007" s="16"/>
+      <c r="G1007" s="8"/>
+      <c r="H1007" s="16"/>
+      <c r="I1007" s="16"/>
+      <c r="J1007" s="16"/>
+      <c r="K1007" s="8"/>
+      <c r="L1007" s="8"/>
+      <c r="M1007" s="8"/>
+      <c r="N1007" s="8"/>
+      <c r="O1007" s="8"/>
+      <c r="P1007" s="8"/>
+      <c r="Q1007" s="8"/>
+      <c r="R1007" s="8"/>
+      <c r="S1007" s="8"/>
+      <c r="T1007" s="8"/>
+      <c r="U1007" s="8"/>
+      <c r="V1007" s="8"/>
+      <c r="W1007" s="8"/>
+      <c r="X1007" s="8"/>
+      <c r="Y1007" s="8"/>
+      <c r="Z1007" s="8"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TestCase.xlsx
+++ b/TestCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="525" windowWidth="19815" windowHeight="7365" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="525" windowWidth="19815" windowHeight="7365"/>
   </bookViews>
   <sheets>
     <sheet name="Function list" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="355">
   <si>
     <t>ID</t>
   </si>
@@ -1194,12 +1194,373 @@
   <si>
     <t>011-005</t>
   </si>
+  <si>
+    <t xml:space="preserve">Function 12 </t>
+  </si>
+  <si>
+    <t>Xóa sản phẩm khỏi giỏ hàng</t>
+  </si>
+  <si>
+    <t>012-001</t>
+  </si>
+  <si>
+    <t>Xóa sản phẩm khỏi giỏ hàng khi chưa đăng nhập</t>
+  </si>
+  <si>
+    <t>1. Đăng nhập
+2. Thêm sản phẩm vào giỏ hàng
+3. Xóa sản phẩm khỏi giỏ hàng</t>
+  </si>
+  <si>
+    <t>1. Yêu cầu đăng nhập để xem và chỉnh sửa giỏ hàng</t>
+  </si>
+  <si>
+    <t>012-002</t>
+  </si>
+  <si>
+    <t>012-003</t>
+  </si>
+  <si>
+    <t>1. Không đăng nhập
+2. Thêm sản phẩm vào giỏ hàng
+3. Xóa sản phẩm khỏi giỏ hàng</t>
+  </si>
+  <si>
+    <t>1. Đăng nhập
+2. Thêm sản phẩm vào giỏ hàng
+3. Xóa hết sản phẩm khỏi giỏ hàng</t>
+  </si>
+  <si>
+    <t>Xóa hết sản phẩm trong giỏ hàng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Thông báo sản phẩm đã được xóa khỏi giỏ hàng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Thông báo giỏ hàng trống</t>
+  </si>
+  <si>
+    <t>Function 13</t>
+  </si>
+  <si>
+    <t>Thêm sản phẩm</t>
+  </si>
+  <si>
+    <t>Để trống Model</t>
+  </si>
+  <si>
+    <t>1. Nhập Model: ""
+2. Nhập Price: "1000000"
+3. Chọn Category: "Premium"
+4. Chọn Brand: "ASUS"
+5. Nhập Processor: "Core i3-530"
+6. Nhập Ram: "8"
+7. Nhập Screen: "16"
+8. Nhập HDD: "500"
+9. Chọn file Small picture: "small.jpg"
+10. Chọn file Big picture: "big.jpg"
+11. Nhấn nút "Create"</t>
+  </si>
+  <si>
+    <t>1. Không cho người dùng tiếp tục
+2. Hiện thông báo "Create Failed"</t>
+  </si>
+  <si>
+    <t>Để trống Price </t>
+  </si>
+  <si>
+    <t>1. Nhập Model: "QT123"
+2. Nhập Price: ""
+3. Chọn Category: "Premium"
+4. Chọn Brand: "ASUS"
+5. Nhập Processor: "Core i3-530"
+6. Nhập Ram: "8"
+7. Nhập Screen: "16"
+8. Nhập HDD: "500"
+9. Chọn file Small picture: "small.jpg"
+10. Chọn file Big picture: "big.jpg"
+11. Nhấn nút "Create"</t>
+  </si>
+  <si>
+    <t>Không thay đổi Category</t>
+  </si>
+  <si>
+    <t>1. Nhập Model: "QT123"
+2. Nhập Price: "1000000"
+3. Giữ nguyên ô Category
+4. Chọn Brand: "ASUS"
+5. Nhập Processor: "Core i3-530"
+6. Nhập Ram: "8"
+7. Nhập Screen: "16"
+8. Nhập HDD: "500"
+9. Chọn file Small picture: "small.jpg"
+10. Chọn file Big picture: "big.jpg"
+11. Nhấn nút "Create"</t>
+  </si>
+  <si>
+    <t>1. Cho phép người dùng tiếp tục
+2. Hiện thông báo "Product is succesfully created"</t>
+  </si>
+  <si>
+    <t>Không thay đổi Brand</t>
+  </si>
+  <si>
+    <t>1. Nhập Model: "QT123"
+2. Nhập Price: "1000000"
+3. Chọn Category: "Premium"
+4. Giữ nguyên ô Brand
+5. Nhập Processor: "Core i3-530"
+6. Nhập Ram: "8"
+7. Nhập Screen: "16"
+8. Nhập HDD: "500"
+9. Chọn file Small picture: "small.jpg"
+10. Chọn file Big picture: "big.jpg"
+11. Nhấn nút "Create"</t>
+  </si>
+  <si>
+    <t>Không nhập Processor</t>
+  </si>
+  <si>
+    <t>1. Nhập Model: "QT123"
+2. Nhập Price: "1000000"
+3. Chọn Category: "Premium"
+4. Chọn Brand: "ASUS"
+5. Nhập Processor: ""
+6. Nhập Ram: "8"
+7. Nhập Screen: "16"
+8. Nhập HDD: "500"
+9. Chọn file Small picture: "small.jpg"
+10. Chọn file Big picture: "big.jpg"
+11. Nhấn nút "Create"</t>
+  </si>
+  <si>
+    <t>Không nhập RAM</t>
+  </si>
+  <si>
+    <t>1. Nhập Model: "QT123"
+2. Nhập Price: "1000000"
+3. Chọn Category: "Premium"
+4. Chọn Brand: "ASUS"
+5. Nhập Processor: "Core i3-530"
+6. Nhập Ram: ""
+7. Nhập Screen: "16"
+8. Nhập HDD: "500"
+9. Chọn file Small picture: "small.jpg"
+10. Chọn file Big picture: "big.jpg"
+11. Nhấn nút "Create"</t>
+  </si>
+  <si>
+    <t>Không nhập Screen</t>
+  </si>
+  <si>
+    <t>1. Nhập Model: "QT123"
+2. Nhập Price: "1000000"
+3. Chọn Category: "Premium"
+4. Chọn Brand: "ASUS"
+5. Nhập Processor: "Core i3-530"
+6. Nhập Ram: "8"
+7. Nhập Screen: ""
+8. Nhập HDD: "500"
+9. Chọn file Small picture: "small.jpg"
+10. Chọn file Big picture: "big.jpg"
+11. Nhấn nút "Create"</t>
+  </si>
+  <si>
+    <t>Không nhập HDD</t>
+  </si>
+  <si>
+    <t>1. Nhập Model: "QT123"
+2. Nhập Price: "1000000"
+3. Chọn Category: "Premium"
+4. Chọn Brand: "ASUS"
+5. Nhập Processor: "Core i3-530"
+6. Nhập Ram: "8"
+7. Nhập Screen: "16"
+8. Nhập HDD: ""
+9. Chọn file Small picture: "small.jpg"
+10. Chọn file Big picture: "big.jpg"
+11. Nhấn nút "Create"</t>
+  </si>
+  <si>
+    <t>Không chọn file Small picture</t>
+  </si>
+  <si>
+    <t>1. Nhập Model: "QT123"
+2. Nhập Price: "1000000"
+3. Chọn Category: "Premium"
+4. Chọn Brand: "ASUS"
+5. Nhập Processor: "Core i3-530"
+6. Nhập Ram: "8"
+7. Nhập Screen: "16"
+8. Nhập HDD: "500"
+9. Không chọn file Small picture
+10. Chọn file Big picture: "big.jpg"
+11. Nhấn nút "Create"</t>
+  </si>
+  <si>
+    <t>Không chọn file Big picture</t>
+  </si>
+  <si>
+    <t>1. Nhập Model: "QT123"
+2. Nhập Price: "1000000"
+3. Chọn Category: "Premium"
+4. Chọn Brand: "ASUS"
+5. Nhập Processor: "Core i3-530"
+6. Nhập Ram: "8"
+7. Nhập Screen: "16"
+8. Nhập HDD: "500"
+9. Chọn file Small picture: "small.jpg"
+10. Không chọn file Big picture
+11. Nhấn nút "Create"</t>
+  </si>
+  <si>
+    <t>Nhập đầy đủ và đúng kiểu dữ liệu </t>
+  </si>
+  <si>
+    <t>1. Nhập Model: "QT123"
+2. Nhập Price: "1000000"
+3. Chọn Category: "Premium"
+4. Chọn Brand: "ASUS"
+5. Nhập Processor: "Core i3-530"
+6. Nhập Ram: "8"
+7. Nhập Screen: "16"
+8. Nhập HDD: "500"
+9. Chọn file Small picture: "small.jpg"
+10. Chọn file Big picture: "big.jpg"
+11. Nhấn nút "Create"</t>
+  </si>
+  <si>
+    <t>1. Nhập Model: "QT123"
+2. Nhập Price: "abc"
+3. Chọn Category: "Premium"
+4. Chọn Brand: "ASUS"
+5. Nhập Processor: "Core i3-530"
+6. Nhập Ram: "8"
+7. Nhập Screen: "16"
+8. Nhập HDD: "500"
+9. Chọn file Small picture: "small.jpg"
+10. Chọn file Big picture: "big.jpg"
+11. Nhấn nút "Create"</t>
+  </si>
+  <si>
+    <t>1. Không cho người dùng tiếp tục
+2. Hiện thông báo nhập sai kiểu dữ liệu của Price</t>
+  </si>
+  <si>
+    <t>1. Không cho người dùng tiếp tục
+2. Không hiện bất kì thông báo nào</t>
+  </si>
+  <si>
+    <t>1. Nhập Model: "QT123"
+2. Nhập Price: "1000000"
+3. Chọn Category: "Premium"
+4. Chọn Brand: "ASUS"
+5. Nhập Processor: "Core i3-530"
+6. Nhập Ram: "abc"
+7. Nhập Screen: "16"
+8. Nhập HDD: "500"
+9. Chọn file Small picture: "small.jpg"
+10. Chọn file Big picture: "big.jpg"
+11. Nhấn nút "Create"</t>
+  </si>
+  <si>
+    <t>1. Không cho người dùng tiếp tục
+2. Hiện thông báo nhập sai kiểu dữ liệu của RAM</t>
+  </si>
+  <si>
+    <t>1. Nhập Model: "QT123"
+2. Nhập Price: "1000000"
+3. Chọn Category: "Premium"
+4. Chọn Brand: "ASUS"
+5. Nhập Processor: "Core i3-530"
+6. Nhập Ram: "8"
+7. Nhập Screen: "abc"
+8. Nhập HDD: "500"
+9. Chọn file Small picture: "small.jpg"
+10. Chọn file Big picture: "big.jpg"
+11. Nhấn nút "Create"</t>
+  </si>
+  <si>
+    <t>1. Không cho người dùng tiếp tục
+2. Hiện thông báo nhập sai kiểu dữ liệu của Screen</t>
+  </si>
+  <si>
+    <t>1. Nhập Model: "QT123"
+2. Nhập Price: "1000000"
+3. Chọn Category: "Premium"
+4. Chọn Brand: "ASUS"
+5. Nhập Processor: "Core i3-530"
+6. Nhập Ram: "8"
+7. Nhập Screen: "16"
+8. Nhập HDD: "abc"
+9. Chọn file Small picture: "small.jpg"
+10. Chọn file Big picture: "big.jpg"
+11. Nhấn nút "Create"</t>
+  </si>
+  <si>
+    <t>1. Không cho người dùng tiếp tục
+2. Hiện thông báo nhập sai kiểu dữ liệu của HDD</t>
+  </si>
+  <si>
+    <t>1. Không cho người dùng tiếp tục
+2. Hiện thông báo tên Model đã tồn tại</t>
+  </si>
+  <si>
+    <t>013-001</t>
+  </si>
+  <si>
+    <t>013-002</t>
+  </si>
+  <si>
+    <t>013-003</t>
+  </si>
+  <si>
+    <t>013-004</t>
+  </si>
+  <si>
+    <t>013-005</t>
+  </si>
+  <si>
+    <t>013-006</t>
+  </si>
+  <si>
+    <t>013-007</t>
+  </si>
+  <si>
+    <t>013-008</t>
+  </si>
+  <si>
+    <t>013-009</t>
+  </si>
+  <si>
+    <t>013-010</t>
+  </si>
+  <si>
+    <t>013-011</t>
+  </si>
+  <si>
+    <t>013-012</t>
+  </si>
+  <si>
+    <t>013-013</t>
+  </si>
+  <si>
+    <t>013-014</t>
+  </si>
+  <si>
+    <t>013-015</t>
+  </si>
+  <si>
+    <t>013-016</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1234,6 +1595,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1402,7 +1769,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1417,7 +1784,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1543,6 +1909,57 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1840,8 +2257,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1"/>
@@ -1891,7 +2308,7 @@
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
         <v>64</v>
       </c>
       <c r="C4" s="5"/>
@@ -1901,7 +2318,7 @@
       <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>90</v>
       </c>
       <c r="C5" s="5"/>
@@ -1911,7 +2328,7 @@
       <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="16" t="s">
         <v>89</v>
       </c>
       <c r="C6" s="5"/>
@@ -1961,7 +2378,7 @@
       <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="14" t="s">
         <v>201</v>
       </c>
       <c r="C11" s="5"/>
@@ -1971,29 +2388,37 @@
       <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="14" t="s">
         <v>270</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="5"/>
-      <c r="B13" s="4"/>
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>291</v>
+      </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="11"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
+      <c r="A14" s="10">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="12"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="14"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="13"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="6"/>
@@ -7914,51 +8339,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z1007"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="B83" sqref="B83"/>
+    <sheetView topLeftCell="A87" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G97" sqref="G90:G97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" customWidth="1"/>
-    <col min="2" max="2" width="43.5703125" customWidth="1"/>
+    <col min="1" max="1" width="27.28515625" customWidth="1"/>
+    <col min="2" max="2" width="48.140625" customWidth="1"/>
     <col min="3" max="4" width="25.28515625" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
     <col min="6" max="6" width="25.85546875" customWidth="1"/>
-    <col min="7" max="9" width="9.7109375" customWidth="1"/>
+    <col min="7" max="8" width="9.7109375" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" customWidth="1"/>
     <col min="10" max="10" width="6.5703125" customWidth="1"/>
     <col min="11" max="26" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="J1" s="21" t="s">
         <v>3</v>
       </c>
       <c r="K1" s="7"/>
@@ -7979,20 +8405,20 @@
       <c r="Z1" s="7"/>
     </row>
     <row r="2" spans="1:26">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
@@ -8011,32 +8437,32 @@
       <c r="Z2" s="7"/>
     </row>
     <row r="3" spans="1:26" ht="45" customHeight="1">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="25" t="s">
+      <c r="C3" s="23"/>
+      <c r="D3" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="G3" s="56" t="s">
+      <c r="G3" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="H3" s="26" t="s">
+      <c r="H3" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="I3" s="27">
+      <c r="I3" s="26">
         <v>42376</v>
       </c>
-      <c r="J3" s="24"/>
+      <c r="J3" s="23"/>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
@@ -8055,32 +8481,32 @@
       <c r="Z3" s="7"/>
     </row>
     <row r="4" spans="1:26" ht="55.5" customHeight="1">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="25" t="s">
+      <c r="C4" s="23"/>
+      <c r="D4" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="25" t="s">
+      <c r="F4" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="G4" s="56" t="s">
+      <c r="G4" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="H4" s="26" t="s">
+      <c r="H4" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="I4" s="27">
+      <c r="I4" s="26">
         <v>42376</v>
       </c>
-      <c r="J4" s="24"/>
+      <c r="J4" s="23"/>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
@@ -8099,32 +8525,32 @@
       <c r="Z4" s="7"/>
     </row>
     <row r="5" spans="1:26" ht="56.25" customHeight="1">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="25" t="s">
+      <c r="C5" s="23"/>
+      <c r="D5" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="E5" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="56" t="s">
+      <c r="G5" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="H5" s="26" t="s">
+      <c r="H5" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="I5" s="27">
+      <c r="I5" s="26">
         <v>42376</v>
       </c>
-      <c r="J5" s="24"/>
+      <c r="J5" s="23"/>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
@@ -8143,32 +8569,32 @@
       <c r="Z5" s="7"/>
     </row>
     <row r="6" spans="1:26" ht="67.5" customHeight="1">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="25" t="s">
+      <c r="C6" s="23"/>
+      <c r="D6" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="E6" s="25" t="s">
+      <c r="E6" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="25" t="s">
+      <c r="F6" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="56" t="s">
+      <c r="G6" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="H6" s="26" t="s">
+      <c r="H6" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="I6" s="27">
+      <c r="I6" s="26">
         <v>42376</v>
       </c>
-      <c r="J6" s="24"/>
+      <c r="J6" s="23"/>
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
@@ -8187,32 +8613,32 @@
       <c r="Z6" s="7"/>
     </row>
     <row r="7" spans="1:26" ht="77.25" customHeight="1">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="25" t="s">
+      <c r="C7" s="23"/>
+      <c r="D7" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="E7" s="25" t="s">
+      <c r="E7" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="25" t="s">
+      <c r="F7" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="56" t="s">
+      <c r="G7" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="H7" s="26" t="s">
+      <c r="H7" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="I7" s="27">
+      <c r="I7" s="26">
         <v>42376</v>
       </c>
-      <c r="J7" s="24"/>
+      <c r="J7" s="23"/>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
@@ -8231,32 +8657,32 @@
       <c r="Z7" s="7"/>
     </row>
     <row r="8" spans="1:26" ht="99" customHeight="1">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="25" t="s">
+      <c r="C8" s="23"/>
+      <c r="D8" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="E8" s="25" t="s">
+      <c r="E8" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="25" t="s">
+      <c r="F8" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="56" t="s">
+      <c r="G8" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="H8" s="26" t="s">
+      <c r="H8" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="I8" s="27">
+      <c r="I8" s="26">
         <v>42376</v>
       </c>
-      <c r="J8" s="24"/>
+      <c r="J8" s="23"/>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
@@ -8275,20 +8701,20 @@
       <c r="Z8" s="7"/>
     </row>
     <row r="9" spans="1:26">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
@@ -8307,32 +8733,32 @@
       <c r="Z9" s="7"/>
     </row>
     <row r="10" spans="1:26" ht="98.25" customHeight="1">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="25" t="s">
+      <c r="C10" s="23"/>
+      <c r="D10" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="E10" s="25" t="s">
+      <c r="E10" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="25" t="s">
+      <c r="F10" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="56" t="s">
+      <c r="G10" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="H10" s="26" t="s">
+      <c r="H10" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="I10" s="27">
+      <c r="I10" s="26">
         <v>42376</v>
       </c>
-      <c r="J10" s="24"/>
+      <c r="J10" s="23"/>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
@@ -8351,32 +8777,32 @@
       <c r="Z10" s="7"/>
     </row>
     <row r="11" spans="1:26" ht="92.25" customHeight="1">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="25" t="s">
+      <c r="C11" s="23"/>
+      <c r="D11" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="E11" s="25" t="s">
+      <c r="E11" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="25" t="s">
+      <c r="F11" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="G11" s="56" t="s">
+      <c r="G11" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="H11" s="26" t="s">
+      <c r="H11" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="I11" s="27">
+      <c r="I11" s="26">
         <v>42376</v>
       </c>
-      <c r="J11" s="24"/>
+      <c r="J11" s="23"/>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
@@ -8395,32 +8821,32 @@
       <c r="Z11" s="7"/>
     </row>
     <row r="12" spans="1:26" ht="94.5" customHeight="1">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="25" t="s">
+      <c r="C12" s="23"/>
+      <c r="D12" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="E12" s="25" t="s">
+      <c r="E12" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="25" t="s">
+      <c r="F12" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="56" t="s">
+      <c r="G12" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="H12" s="26" t="s">
+      <c r="H12" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="I12" s="27">
+      <c r="I12" s="26">
         <v>42376</v>
       </c>
-      <c r="J12" s="24"/>
+      <c r="J12" s="23"/>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
@@ -8439,32 +8865,32 @@
       <c r="Z12" s="7"/>
     </row>
     <row r="13" spans="1:26" ht="56.25" customHeight="1">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="24"/>
-      <c r="D13" s="25" t="s">
+      <c r="C13" s="23"/>
+      <c r="D13" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="E13" s="25" t="s">
+      <c r="E13" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="25" t="s">
+      <c r="F13" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="G13" s="56" t="s">
+      <c r="G13" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="H13" s="26" t="s">
+      <c r="H13" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="I13" s="27">
+      <c r="I13" s="26">
         <v>42376</v>
       </c>
-      <c r="J13" s="24"/>
+      <c r="J13" s="23"/>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
@@ -8483,32 +8909,32 @@
       <c r="Z13" s="7"/>
     </row>
     <row r="14" spans="1:26" ht="81.75" customHeight="1">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="25" t="s">
+      <c r="C14" s="23"/>
+      <c r="D14" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="E14" s="25" t="s">
+      <c r="E14" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="25" t="s">
+      <c r="F14" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="G14" s="56" t="s">
+      <c r="G14" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="H14" s="26" t="s">
+      <c r="H14" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="I14" s="27">
+      <c r="I14" s="26">
         <v>42376</v>
       </c>
-      <c r="J14" s="24"/>
+      <c r="J14" s="23"/>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
@@ -8527,32 +8953,32 @@
       <c r="Z14" s="7"/>
     </row>
     <row r="15" spans="1:26" ht="98.25" customHeight="1">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="25" t="s">
+      <c r="C15" s="23"/>
+      <c r="D15" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="E15" s="25" t="s">
+      <c r="E15" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="F15" s="25" t="s">
+      <c r="F15" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="G15" s="56" t="s">
+      <c r="G15" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="H15" s="26" t="s">
+      <c r="H15" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="I15" s="27">
+      <c r="I15" s="26">
         <v>42376</v>
       </c>
-      <c r="J15" s="24"/>
+      <c r="J15" s="23"/>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
@@ -8571,32 +8997,32 @@
       <c r="Z15" s="7"/>
     </row>
     <row r="16" spans="1:26" ht="107.25" customHeight="1">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="28" t="s">
         <v>165</v>
       </c>
-      <c r="C16" s="24"/>
-      <c r="D16" s="25" t="s">
+      <c r="C16" s="23"/>
+      <c r="D16" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="E16" s="25" t="s">
+      <c r="E16" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="F16" s="25" t="s">
+      <c r="F16" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="G16" s="56" t="s">
+      <c r="G16" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="H16" s="26" t="s">
+      <c r="H16" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="I16" s="27">
+      <c r="I16" s="26">
         <v>42376</v>
       </c>
-      <c r="J16" s="24"/>
+      <c r="J16" s="23"/>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
@@ -8615,32 +9041,32 @@
       <c r="Z16" s="7"/>
     </row>
     <row r="17" spans="1:26" ht="105.75" customHeight="1">
-      <c r="A17" s="30" t="s">
+      <c r="A17" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="30"/>
-      <c r="D17" s="25" t="s">
+      <c r="C17" s="29"/>
+      <c r="D17" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="E17" s="32" t="s">
+      <c r="E17" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="F17" s="26" t="s">
+      <c r="F17" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="G17" s="56" t="s">
+      <c r="G17" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="H17" s="26" t="s">
+      <c r="H17" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="I17" s="27">
+      <c r="I17" s="26">
         <v>42376</v>
       </c>
-      <c r="J17" s="30"/>
+      <c r="J17" s="29"/>
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
@@ -8659,32 +9085,32 @@
       <c r="Z17" s="7"/>
     </row>
     <row r="18" spans="1:26" ht="105.75" customHeight="1">
-      <c r="A18" s="31" t="s">
+      <c r="A18" s="30" t="s">
         <v>156</v>
       </c>
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="34"/>
-      <c r="D18" s="35" t="s">
+      <c r="C18" s="33"/>
+      <c r="D18" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="E18" s="35" t="s">
+      <c r="E18" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="F18" s="35" t="s">
+      <c r="F18" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="G18" s="52" t="s">
+      <c r="G18" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="H18" s="26" t="s">
+      <c r="H18" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="I18" s="27">
+      <c r="I18" s="26">
         <v>42376</v>
       </c>
-      <c r="J18" s="34"/>
+      <c r="J18" s="33"/>
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
@@ -8703,32 +9129,32 @@
       <c r="Z18" s="7"/>
     </row>
     <row r="19" spans="1:26" ht="105.75" customHeight="1">
-      <c r="A19" s="31" t="s">
+      <c r="A19" s="30" t="s">
         <v>157</v>
       </c>
-      <c r="B19" s="33" t="s">
+      <c r="B19" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="34"/>
-      <c r="D19" s="35" t="s">
+      <c r="C19" s="33"/>
+      <c r="D19" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="E19" s="35" t="s">
+      <c r="E19" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="F19" s="35" t="s">
+      <c r="F19" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="G19" s="52" t="s">
+      <c r="G19" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="H19" s="26" t="s">
+      <c r="H19" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="I19" s="27">
+      <c r="I19" s="26">
         <v>42376</v>
       </c>
-      <c r="J19" s="34"/>
+      <c r="J19" s="33"/>
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
@@ -8747,32 +9173,32 @@
       <c r="Z19" s="7"/>
     </row>
     <row r="20" spans="1:26" ht="105.75" customHeight="1">
-      <c r="A20" s="31" t="s">
+      <c r="A20" s="30" t="s">
         <v>158</v>
       </c>
-      <c r="B20" s="33" t="s">
+      <c r="B20" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="34"/>
-      <c r="D20" s="35" t="s">
+      <c r="C20" s="33"/>
+      <c r="D20" s="34" t="s">
         <v>162</v>
       </c>
-      <c r="E20" s="35" t="s">
+      <c r="E20" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="F20" s="35" t="s">
+      <c r="F20" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="G20" s="52" t="s">
+      <c r="G20" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="H20" s="26" t="s">
+      <c r="H20" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="I20" s="27">
+      <c r="I20" s="26">
         <v>42376</v>
       </c>
-      <c r="J20" s="34"/>
+      <c r="J20" s="33"/>
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
@@ -8791,32 +9217,32 @@
       <c r="Z20" s="7"/>
     </row>
     <row r="21" spans="1:26" ht="105.75" customHeight="1">
-      <c r="A21" s="31" t="s">
+      <c r="A21" s="30" t="s">
         <v>159</v>
       </c>
-      <c r="B21" s="33" t="s">
+      <c r="B21" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="34"/>
-      <c r="D21" s="35" t="s">
+      <c r="C21" s="33"/>
+      <c r="D21" s="34" t="s">
         <v>163</v>
       </c>
-      <c r="E21" s="35" t="s">
+      <c r="E21" s="34" t="s">
         <v>164</v>
       </c>
-      <c r="F21" s="35" t="s">
+      <c r="F21" s="34" t="s">
         <v>164</v>
       </c>
-      <c r="G21" s="52" t="s">
+      <c r="G21" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="H21" s="26" t="s">
+      <c r="H21" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="I21" s="27">
+      <c r="I21" s="26">
         <v>42376</v>
       </c>
-      <c r="J21" s="34"/>
+      <c r="J21" s="33"/>
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
@@ -8835,20 +9261,20 @@
       <c r="Z21" s="7"/>
     </row>
     <row r="22" spans="1:26" ht="22.5" customHeight="1">
-      <c r="A22" s="28" t="s">
+      <c r="A22" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="B22" s="28" t="s">
+      <c r="B22" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
@@ -8867,32 +9293,32 @@
       <c r="Z22" s="7"/>
     </row>
     <row r="23" spans="1:26" ht="34.5" customHeight="1">
-      <c r="A23" s="36" t="s">
+      <c r="A23" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="B23" s="36" t="s">
+      <c r="B23" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="C23" s="33"/>
-      <c r="D23" s="37" t="s">
+      <c r="C23" s="32"/>
+      <c r="D23" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="E23" s="37" t="s">
+      <c r="E23" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="F23" s="37" t="s">
+      <c r="F23" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="G23" s="52" t="s">
+      <c r="G23" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="H23" s="35" t="s">
+      <c r="H23" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="I23" s="38">
+      <c r="I23" s="37">
         <v>42376</v>
       </c>
-      <c r="J23" s="33"/>
+      <c r="J23" s="32"/>
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
@@ -8911,20 +9337,20 @@
       <c r="Z23" s="7"/>
     </row>
     <row r="24" spans="1:26">
-      <c r="A24" s="28" t="s">
+      <c r="A24" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
@@ -8943,32 +9369,32 @@
       <c r="Z24" s="7"/>
     </row>
     <row r="25" spans="1:26" ht="60" customHeight="1">
-      <c r="A25" s="36" t="s">
+      <c r="A25" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="B25" s="33" t="s">
+      <c r="B25" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="33"/>
-      <c r="D25" s="35" t="s">
+      <c r="C25" s="32"/>
+      <c r="D25" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="E25" s="35" t="s">
+      <c r="E25" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="F25" s="35" t="s">
+      <c r="F25" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="G25" s="52" t="s">
+      <c r="G25" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="H25" s="37" t="s">
+      <c r="H25" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="I25" s="27">
+      <c r="I25" s="26">
         <v>42497</v>
       </c>
-      <c r="J25" s="33"/>
+      <c r="J25" s="32"/>
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
@@ -8987,32 +9413,32 @@
       <c r="Z25" s="7"/>
     </row>
     <row r="26" spans="1:26" ht="60" customHeight="1">
-      <c r="A26" s="36" t="s">
+      <c r="A26" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="B26" s="33" t="s">
+      <c r="B26" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="33"/>
-      <c r="D26" s="35" t="s">
+      <c r="C26" s="32"/>
+      <c r="D26" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="E26" s="35" t="s">
+      <c r="E26" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="F26" s="35" t="s">
+      <c r="F26" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="G26" s="52" t="s">
+      <c r="G26" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="H26" s="37" t="s">
+      <c r="H26" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="I26" s="27">
+      <c r="I26" s="26">
         <v>42497</v>
       </c>
-      <c r="J26" s="33"/>
+      <c r="J26" s="32"/>
       <c r="K26" s="7"/>
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
@@ -9031,32 +9457,32 @@
       <c r="Z26" s="7"/>
     </row>
     <row r="27" spans="1:26" ht="60" customHeight="1">
-      <c r="A27" s="36" t="s">
+      <c r="A27" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="B27" s="33" t="s">
+      <c r="B27" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="33"/>
-      <c r="D27" s="35" t="s">
+      <c r="C27" s="32"/>
+      <c r="D27" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="E27" s="35" t="s">
+      <c r="E27" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="F27" s="35" t="s">
+      <c r="F27" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="G27" s="52" t="s">
+      <c r="G27" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="H27" s="37" t="s">
+      <c r="H27" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="I27" s="27">
+      <c r="I27" s="26">
         <v>42497</v>
       </c>
-      <c r="J27" s="33"/>
+      <c r="J27" s="32"/>
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
       <c r="M27" s="7"/>
@@ -9075,32 +9501,32 @@
       <c r="Z27" s="7"/>
     </row>
     <row r="28" spans="1:26" ht="60" customHeight="1">
-      <c r="A28" s="36" t="s">
+      <c r="A28" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="B28" s="33" t="s">
+      <c r="B28" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="C28" s="33"/>
-      <c r="D28" s="35" t="s">
+      <c r="C28" s="32"/>
+      <c r="D28" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="E28" s="35" t="s">
+      <c r="E28" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="F28" s="35" t="s">
+      <c r="F28" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="G28" s="52" t="s">
+      <c r="G28" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="H28" s="37" t="s">
+      <c r="H28" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="I28" s="27">
+      <c r="I28" s="26">
         <v>42497</v>
       </c>
-      <c r="J28" s="33"/>
+      <c r="J28" s="32"/>
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
@@ -9119,32 +9545,32 @@
       <c r="Z28" s="7"/>
     </row>
     <row r="29" spans="1:26" ht="75">
-      <c r="A29" s="36" t="s">
+      <c r="A29" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="B29" s="33" t="s">
+      <c r="B29" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="33"/>
-      <c r="D29" s="35" t="s">
+      <c r="C29" s="32"/>
+      <c r="D29" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="E29" s="35" t="s">
+      <c r="E29" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="F29" s="35" t="s">
+      <c r="F29" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="G29" s="52" t="s">
+      <c r="G29" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="H29" s="37" t="s">
+      <c r="H29" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="I29" s="27">
+      <c r="I29" s="26">
         <v>42497</v>
       </c>
-      <c r="J29" s="33"/>
+      <c r="J29" s="32"/>
       <c r="K29" s="7"/>
       <c r="L29" s="7"/>
       <c r="M29" s="7"/>
@@ -9163,20 +9589,20 @@
       <c r="Z29" s="7"/>
     </row>
     <row r="30" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A30" s="39" t="s">
+      <c r="A30" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="B30" s="23" t="s">
+      <c r="B30" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="40"/>
-      <c r="J30" s="23"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="22"/>
       <c r="K30" s="7"/>
       <c r="L30" s="7"/>
       <c r="M30" s="7"/>
@@ -9195,32 +9621,32 @@
       <c r="Z30" s="7"/>
     </row>
     <row r="31" spans="1:26" ht="120" customHeight="1">
-      <c r="A31" s="41" t="s">
+      <c r="A31" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="B31" s="35" t="s">
+      <c r="B31" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="C31" s="33"/>
-      <c r="D31" s="35" t="s">
+      <c r="C31" s="32"/>
+      <c r="D31" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="E31" s="42" t="s">
+      <c r="E31" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="F31" s="35" t="s">
+      <c r="F31" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="G31" s="52" t="s">
+      <c r="G31" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="H31" s="37" t="s">
+      <c r="H31" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="I31" s="27">
+      <c r="I31" s="26">
         <v>42467</v>
       </c>
-      <c r="J31" s="33"/>
+      <c r="J31" s="32"/>
       <c r="K31" s="7"/>
       <c r="L31" s="7"/>
       <c r="M31" s="7"/>
@@ -9239,32 +9665,32 @@
       <c r="Z31" s="7"/>
     </row>
     <row r="32" spans="1:26" ht="124.5" customHeight="1">
-      <c r="A32" s="41" t="s">
+      <c r="A32" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="B32" s="35" t="s">
+      <c r="B32" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="C32" s="33"/>
-      <c r="D32" s="35" t="s">
+      <c r="C32" s="32"/>
+      <c r="D32" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="E32" s="35" t="s">
+      <c r="E32" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="F32" s="35" t="s">
+      <c r="F32" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="G32" s="52" t="s">
+      <c r="G32" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="H32" s="37" t="s">
+      <c r="H32" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="I32" s="27">
+      <c r="I32" s="26">
         <v>42467</v>
       </c>
-      <c r="J32" s="33"/>
+      <c r="J32" s="32"/>
       <c r="K32" s="7"/>
       <c r="L32" s="7"/>
       <c r="M32" s="7"/>
@@ -9283,32 +9709,32 @@
       <c r="Z32" s="7"/>
     </row>
     <row r="33" spans="1:26" ht="118.5" customHeight="1">
-      <c r="A33" s="41" t="s">
+      <c r="A33" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="B33" s="35" t="s">
+      <c r="B33" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="C33" s="33"/>
-      <c r="D33" s="35" t="s">
+      <c r="C33" s="32"/>
+      <c r="D33" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="E33" s="35" t="s">
+      <c r="E33" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="F33" s="35" t="s">
+      <c r="F33" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="G33" s="52" t="s">
+      <c r="G33" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="H33" s="37" t="s">
+      <c r="H33" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="I33" s="27">
+      <c r="I33" s="26">
         <v>42467</v>
       </c>
-      <c r="J33" s="33"/>
+      <c r="J33" s="32"/>
       <c r="K33" s="7"/>
       <c r="L33" s="7"/>
       <c r="M33" s="7"/>
@@ -9327,32 +9753,32 @@
       <c r="Z33" s="7"/>
     </row>
     <row r="34" spans="1:26" ht="117.75" customHeight="1">
-      <c r="A34" s="41" t="s">
+      <c r="A34" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="B34" s="35" t="s">
+      <c r="B34" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="C34" s="33"/>
-      <c r="D34" s="35" t="s">
+      <c r="C34" s="32"/>
+      <c r="D34" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="E34" s="35" t="s">
+      <c r="E34" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="F34" s="35" t="s">
+      <c r="F34" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="G34" s="52" t="s">
+      <c r="G34" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="H34" s="37" t="s">
+      <c r="H34" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="I34" s="27">
+      <c r="I34" s="26">
         <v>42467</v>
       </c>
-      <c r="J34" s="33"/>
+      <c r="J34" s="32"/>
       <c r="K34" s="7"/>
       <c r="L34" s="7"/>
       <c r="M34" s="7"/>
@@ -9371,32 +9797,32 @@
       <c r="Z34" s="7"/>
     </row>
     <row r="35" spans="1:26" ht="105">
-      <c r="A35" s="41" t="s">
+      <c r="A35" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="B35" s="35" t="s">
+      <c r="B35" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="C35" s="33"/>
-      <c r="D35" s="35" t="s">
+      <c r="C35" s="32"/>
+      <c r="D35" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="E35" s="35" t="s">
+      <c r="E35" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="F35" s="35" t="s">
+      <c r="F35" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="G35" s="52" t="s">
+      <c r="G35" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="H35" s="37" t="s">
+      <c r="H35" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="I35" s="27">
+      <c r="I35" s="26">
         <v>42467</v>
       </c>
-      <c r="J35" s="33"/>
+      <c r="J35" s="32"/>
       <c r="K35" s="7"/>
       <c r="L35" s="7"/>
       <c r="M35" s="7"/>
@@ -9415,32 +9841,32 @@
       <c r="Z35" s="7"/>
     </row>
     <row r="36" spans="1:26" ht="93.75" customHeight="1">
-      <c r="A36" s="41" t="s">
+      <c r="A36" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="B36" s="35" t="s">
+      <c r="B36" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="C36" s="33"/>
-      <c r="D36" s="35" t="s">
+      <c r="C36" s="32"/>
+      <c r="D36" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="E36" s="35" t="s">
+      <c r="E36" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="F36" s="35" t="s">
+      <c r="F36" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="G36" s="52" t="s">
+      <c r="G36" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="H36" s="37" t="s">
+      <c r="H36" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="I36" s="27">
+      <c r="I36" s="26">
         <v>42467</v>
       </c>
-      <c r="J36" s="33"/>
+      <c r="J36" s="32"/>
       <c r="K36" s="7"/>
       <c r="L36" s="7"/>
       <c r="M36" s="7"/>
@@ -9459,20 +9885,20 @@
       <c r="Z36" s="7"/>
     </row>
     <row r="37" spans="1:26" ht="24" customHeight="1">
-      <c r="A37" s="43" t="s">
+      <c r="A37" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="B37" s="43" t="s">
+      <c r="B37" s="42" t="s">
         <v>93</v>
       </c>
-      <c r="C37" s="43"/>
-      <c r="D37" s="43"/>
-      <c r="E37" s="43"/>
-      <c r="F37" s="43"/>
-      <c r="G37" s="43"/>
-      <c r="H37" s="43"/>
-      <c r="I37" s="43"/>
-      <c r="J37" s="43"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="42"/>
+      <c r="H37" s="42"/>
+      <c r="I37" s="42"/>
+      <c r="J37" s="42"/>
       <c r="K37" s="7"/>
       <c r="L37" s="7"/>
       <c r="M37" s="7"/>
@@ -9491,32 +9917,32 @@
       <c r="Z37" s="7"/>
     </row>
     <row r="38" spans="1:26" ht="81" customHeight="1">
-      <c r="A38" s="44" t="s">
+      <c r="A38" s="43" t="s">
         <v>111</v>
       </c>
-      <c r="B38" s="44" t="s">
+      <c r="B38" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="C38" s="44"/>
-      <c r="D38" s="18" t="s">
+      <c r="C38" s="43"/>
+      <c r="D38" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="E38" s="18" t="s">
+      <c r="E38" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="F38" s="18" t="s">
+      <c r="F38" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="G38" s="52" t="s">
+      <c r="G38" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="H38" s="18" t="s">
+      <c r="H38" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="I38" s="27">
+      <c r="I38" s="26">
         <v>42467</v>
       </c>
-      <c r="J38" s="18"/>
+      <c r="J38" s="17"/>
       <c r="K38" s="7"/>
       <c r="L38" s="7"/>
       <c r="M38" s="7"/>
@@ -9535,32 +9961,32 @@
       <c r="Z38" s="7"/>
     </row>
     <row r="39" spans="1:26" ht="80.25" customHeight="1">
-      <c r="A39" s="44" t="s">
+      <c r="A39" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="B39" s="44" t="s">
+      <c r="B39" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="C39" s="44"/>
-      <c r="D39" s="18" t="s">
+      <c r="C39" s="43"/>
+      <c r="D39" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="E39" s="18" t="s">
+      <c r="E39" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="F39" s="18" t="s">
+      <c r="F39" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="G39" s="52" t="s">
+      <c r="G39" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="H39" s="18" t="s">
+      <c r="H39" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="I39" s="27">
+      <c r="I39" s="26">
         <v>42467</v>
       </c>
-      <c r="J39" s="18"/>
+      <c r="J39" s="17"/>
       <c r="K39" s="7"/>
       <c r="L39" s="7"/>
       <c r="M39" s="7"/>
@@ -9579,32 +10005,32 @@
       <c r="Z39" s="7"/>
     </row>
     <row r="40" spans="1:26" ht="57" customHeight="1">
-      <c r="A40" s="44" t="s">
+      <c r="A40" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="B40" s="44" t="s">
+      <c r="B40" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="C40" s="44"/>
-      <c r="D40" s="18" t="s">
+      <c r="C40" s="43"/>
+      <c r="D40" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="E40" s="18" t="s">
+      <c r="E40" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="F40" s="18" t="s">
+      <c r="F40" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="G40" s="52" t="s">
+      <c r="G40" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="H40" s="18" t="s">
+      <c r="H40" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="I40" s="27">
+      <c r="I40" s="26">
         <v>42467</v>
       </c>
-      <c r="J40" s="18"/>
+      <c r="J40" s="17"/>
       <c r="K40" s="7"/>
       <c r="L40" s="7"/>
       <c r="M40" s="7"/>
@@ -9623,32 +10049,32 @@
       <c r="Z40" s="7"/>
     </row>
     <row r="41" spans="1:26" ht="86.25" customHeight="1">
-      <c r="A41" s="44" t="s">
+      <c r="A41" s="43" t="s">
         <v>117</v>
       </c>
-      <c r="B41" s="44" t="s">
+      <c r="B41" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="C41" s="44"/>
-      <c r="D41" s="18" t="s">
+      <c r="C41" s="43"/>
+      <c r="D41" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="E41" s="18" t="s">
+      <c r="E41" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="F41" s="18" t="s">
+      <c r="F41" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="G41" s="52" t="s">
+      <c r="G41" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="H41" s="18" t="s">
+      <c r="H41" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="I41" s="27">
+      <c r="I41" s="26">
         <v>42467</v>
       </c>
-      <c r="J41" s="18"/>
+      <c r="J41" s="17"/>
       <c r="K41" s="7"/>
       <c r="L41" s="7"/>
       <c r="M41" s="7"/>
@@ -9667,32 +10093,32 @@
       <c r="Z41" s="7"/>
     </row>
     <row r="42" spans="1:26" ht="79.5" customHeight="1">
-      <c r="A42" s="44" t="s">
+      <c r="A42" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="B42" s="44" t="s">
+      <c r="B42" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="C42" s="44"/>
-      <c r="D42" s="18" t="s">
+      <c r="C42" s="43"/>
+      <c r="D42" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="E42" s="18" t="s">
+      <c r="E42" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="F42" s="18" t="s">
+      <c r="F42" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="G42" s="52" t="s">
+      <c r="G42" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="H42" s="18" t="s">
+      <c r="H42" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="I42" s="27">
+      <c r="I42" s="26">
         <v>42467</v>
       </c>
-      <c r="J42" s="18"/>
+      <c r="J42" s="17"/>
       <c r="K42" s="7"/>
       <c r="L42" s="7"/>
       <c r="M42" s="7"/>
@@ -9711,32 +10137,32 @@
       <c r="Z42" s="7"/>
     </row>
     <row r="43" spans="1:26" ht="90">
-      <c r="A43" s="44" t="s">
+      <c r="A43" s="43" t="s">
         <v>114</v>
       </c>
-      <c r="B43" s="44" t="s">
+      <c r="B43" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="C43" s="44"/>
-      <c r="D43" s="18" t="s">
+      <c r="C43" s="43"/>
+      <c r="D43" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="E43" s="18" t="s">
+      <c r="E43" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="F43" s="18" t="s">
+      <c r="F43" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="G43" s="52" t="s">
+      <c r="G43" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="H43" s="18" t="s">
+      <c r="H43" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="I43" s="27">
+      <c r="I43" s="26">
         <v>42467</v>
       </c>
-      <c r="J43" s="18"/>
+      <c r="J43" s="17"/>
       <c r="K43" s="7"/>
       <c r="L43" s="7"/>
       <c r="M43" s="7"/>
@@ -9755,32 +10181,32 @@
       <c r="Z43" s="7"/>
     </row>
     <row r="44" spans="1:26" ht="113.25" customHeight="1">
-      <c r="A44" s="44" t="s">
+      <c r="A44" s="43" t="s">
         <v>115</v>
       </c>
-      <c r="B44" s="44" t="s">
+      <c r="B44" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="C44" s="44"/>
-      <c r="D44" s="18" t="s">
+      <c r="C44" s="43"/>
+      <c r="D44" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="E44" s="18" t="s">
+      <c r="E44" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="F44" s="18" t="s">
+      <c r="F44" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="G44" s="52" t="s">
+      <c r="G44" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="H44" s="18" t="s">
+      <c r="H44" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="I44" s="27">
+      <c r="I44" s="26">
         <v>42467</v>
       </c>
-      <c r="J44" s="18"/>
+      <c r="J44" s="17"/>
       <c r="K44" s="7"/>
       <c r="L44" s="7"/>
       <c r="M44" s="7"/>
@@ -9799,20 +10225,20 @@
       <c r="Z44" s="7"/>
     </row>
     <row r="45" spans="1:26" ht="25.5" customHeight="1">
-      <c r="A45" s="45" t="s">
+      <c r="A45" s="44" t="s">
         <v>119</v>
       </c>
-      <c r="B45" s="28" t="s">
+      <c r="B45" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="C45" s="23"/>
-      <c r="D45" s="23"/>
-      <c r="E45" s="23"/>
-      <c r="F45" s="23"/>
-      <c r="G45" s="23"/>
-      <c r="H45" s="23"/>
-      <c r="I45" s="40"/>
-      <c r="J45" s="23"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="22"/>
+      <c r="G45" s="22"/>
+      <c r="H45" s="22"/>
+      <c r="I45" s="39"/>
+      <c r="J45" s="22"/>
       <c r="K45" s="7"/>
       <c r="L45" s="7"/>
       <c r="M45" s="7"/>
@@ -9831,32 +10257,32 @@
       <c r="Z45" s="7"/>
     </row>
     <row r="46" spans="1:26" ht="123" customHeight="1">
-      <c r="A46" s="21" t="s">
+      <c r="A46" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="B46" s="37" t="s">
+      <c r="B46" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="C46" s="33"/>
-      <c r="D46" s="37" t="s">
+      <c r="C46" s="32"/>
+      <c r="D46" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="E46" s="46" t="s">
+      <c r="E46" s="45" t="s">
         <v>124</v>
       </c>
-      <c r="F46" s="37" t="s">
+      <c r="F46" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="G46" s="52" t="s">
+      <c r="G46" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="H46" s="37" t="s">
+      <c r="H46" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="I46" s="27">
+      <c r="I46" s="26">
         <v>42558</v>
       </c>
-      <c r="J46" s="33"/>
+      <c r="J46" s="32"/>
       <c r="K46" s="7"/>
       <c r="L46" s="7"/>
       <c r="M46" s="7"/>
@@ -9875,32 +10301,32 @@
       <c r="Z46" s="7"/>
     </row>
     <row r="47" spans="1:26" ht="93.75" customHeight="1">
-      <c r="A47" s="21" t="s">
+      <c r="A47" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="B47" s="37" t="s">
+      <c r="B47" s="36" t="s">
         <v>126</v>
       </c>
-      <c r="C47" s="33"/>
-      <c r="D47" s="37" t="s">
+      <c r="C47" s="32"/>
+      <c r="D47" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="E47" s="46" t="s">
+      <c r="E47" s="45" t="s">
         <v>127</v>
       </c>
-      <c r="F47" s="37" t="s">
+      <c r="F47" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="G47" s="52" t="s">
+      <c r="G47" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="H47" s="37" t="s">
+      <c r="H47" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="I47" s="27">
+      <c r="I47" s="26">
         <v>42558</v>
       </c>
-      <c r="J47" s="33"/>
+      <c r="J47" s="32"/>
       <c r="K47" s="7"/>
       <c r="L47" s="7"/>
       <c r="M47" s="7"/>
@@ -9919,32 +10345,32 @@
       <c r="Z47" s="7"/>
     </row>
     <row r="48" spans="1:26" ht="94.5" customHeight="1">
-      <c r="A48" s="21" t="s">
+      <c r="A48" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="B48" s="37" t="s">
+      <c r="B48" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="C48" s="33"/>
-      <c r="D48" s="37" t="s">
+      <c r="C48" s="32"/>
+      <c r="D48" s="36" t="s">
         <v>133</v>
       </c>
-      <c r="E48" s="46" t="s">
+      <c r="E48" s="45" t="s">
         <v>130</v>
       </c>
-      <c r="F48" s="46" t="s">
+      <c r="F48" s="45" t="s">
         <v>130</v>
       </c>
-      <c r="G48" s="52" t="s">
+      <c r="G48" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="H48" s="37" t="s">
+      <c r="H48" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="I48" s="27">
+      <c r="I48" s="26">
         <v>42558</v>
       </c>
-      <c r="J48" s="33"/>
+      <c r="J48" s="32"/>
       <c r="K48" s="7"/>
       <c r="L48" s="7"/>
       <c r="M48" s="7"/>
@@ -9963,32 +10389,32 @@
       <c r="Z48" s="7"/>
     </row>
     <row r="49" spans="1:26" ht="96" customHeight="1">
-      <c r="A49" s="21" t="s">
+      <c r="A49" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="B49" s="37" t="s">
+      <c r="B49" s="36" t="s">
         <v>132</v>
       </c>
-      <c r="C49" s="33"/>
-      <c r="D49" s="37" t="s">
+      <c r="C49" s="32"/>
+      <c r="D49" s="36" t="s">
         <v>134</v>
       </c>
-      <c r="E49" s="46" t="s">
+      <c r="E49" s="45" t="s">
         <v>127</v>
       </c>
-      <c r="F49" s="46" t="s">
+      <c r="F49" s="45" t="s">
         <v>127</v>
       </c>
-      <c r="G49" s="52" t="s">
+      <c r="G49" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="H49" s="37" t="s">
+      <c r="H49" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="I49" s="27">
+      <c r="I49" s="26">
         <v>42558</v>
       </c>
-      <c r="J49" s="33"/>
+      <c r="J49" s="32"/>
       <c r="K49" s="7"/>
       <c r="L49" s="7"/>
       <c r="M49" s="7"/>
@@ -10007,32 +10433,32 @@
       <c r="Z49" s="7"/>
     </row>
     <row r="50" spans="1:26" ht="105" customHeight="1">
-      <c r="A50" s="21" t="s">
+      <c r="A50" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="B50" s="37" t="s">
+      <c r="B50" s="36" t="s">
         <v>136</v>
       </c>
-      <c r="C50" s="33"/>
-      <c r="D50" s="37" t="s">
+      <c r="C50" s="32"/>
+      <c r="D50" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="E50" s="46" t="s">
+      <c r="E50" s="45" t="s">
         <v>138</v>
       </c>
-      <c r="F50" s="46" t="s">
+      <c r="F50" s="45" t="s">
         <v>138</v>
       </c>
-      <c r="G50" s="52" t="s">
+      <c r="G50" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="H50" s="37" t="s">
+      <c r="H50" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="I50" s="27">
+      <c r="I50" s="26">
         <v>42558</v>
       </c>
-      <c r="J50" s="33"/>
+      <c r="J50" s="32"/>
       <c r="K50" s="7"/>
       <c r="L50" s="7"/>
       <c r="M50" s="7"/>
@@ -10051,20 +10477,20 @@
       <c r="Z50" s="7"/>
     </row>
     <row r="51" spans="1:26" ht="32.25" customHeight="1">
-      <c r="A51" s="45" t="s">
+      <c r="A51" s="44" t="s">
         <v>167</v>
       </c>
-      <c r="B51" s="28" t="s">
+      <c r="B51" s="27" t="s">
         <v>168</v>
       </c>
-      <c r="C51" s="23"/>
-      <c r="D51" s="23"/>
-      <c r="E51" s="23"/>
-      <c r="F51" s="23"/>
-      <c r="G51" s="23"/>
-      <c r="H51" s="23"/>
-      <c r="I51" s="40"/>
-      <c r="J51" s="23"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="22"/>
+      <c r="E51" s="22"/>
+      <c r="F51" s="22"/>
+      <c r="G51" s="22"/>
+      <c r="H51" s="22"/>
+      <c r="I51" s="39"/>
+      <c r="J51" s="22"/>
       <c r="K51" s="7"/>
       <c r="L51" s="7"/>
       <c r="M51" s="7"/>
@@ -10083,32 +10509,32 @@
       <c r="Z51" s="7"/>
     </row>
     <row r="52" spans="1:26" ht="48.75" customHeight="1">
-      <c r="A52" s="21" t="s">
+      <c r="A52" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="B52" s="37" t="s">
+      <c r="B52" s="36" t="s">
         <v>170</v>
       </c>
-      <c r="C52" s="33"/>
-      <c r="D52" s="37" t="s">
+      <c r="C52" s="32"/>
+      <c r="D52" s="36" t="s">
         <v>172</v>
       </c>
-      <c r="E52" s="46" t="s">
+      <c r="E52" s="45" t="s">
         <v>171</v>
       </c>
-      <c r="F52" s="46" t="s">
+      <c r="F52" s="45" t="s">
         <v>171</v>
       </c>
-      <c r="G52" s="52" t="s">
+      <c r="G52" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="H52" s="37" t="s">
+      <c r="H52" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="I52" s="27">
+      <c r="I52" s="26">
         <v>42589</v>
       </c>
-      <c r="J52" s="33"/>
+      <c r="J52" s="32"/>
       <c r="K52" s="7"/>
       <c r="L52" s="7"/>
       <c r="M52" s="7"/>
@@ -10127,32 +10553,32 @@
       <c r="Z52" s="7"/>
     </row>
     <row r="53" spans="1:26" ht="44.25" customHeight="1">
-      <c r="A53" s="21" t="s">
+      <c r="A53" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="B53" s="37" t="s">
+      <c r="B53" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="C53" s="41"/>
-      <c r="D53" s="37" t="s">
+      <c r="C53" s="40"/>
+      <c r="D53" s="36" t="s">
         <v>175</v>
       </c>
-      <c r="E53" s="46" t="s">
+      <c r="E53" s="45" t="s">
         <v>171</v>
       </c>
-      <c r="F53" s="46" t="s">
+      <c r="F53" s="45" t="s">
         <v>171</v>
       </c>
-      <c r="G53" s="52" t="s">
+      <c r="G53" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="H53" s="37" t="s">
+      <c r="H53" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="I53" s="27">
+      <c r="I53" s="26">
         <v>42589</v>
       </c>
-      <c r="J53" s="41"/>
+      <c r="J53" s="40"/>
       <c r="K53" s="7"/>
       <c r="L53" s="7"/>
       <c r="M53" s="7"/>
@@ -10171,32 +10597,32 @@
       <c r="Z53" s="7"/>
     </row>
     <row r="54" spans="1:26" ht="64.5" customHeight="1">
-      <c r="A54" s="21" t="s">
+      <c r="A54" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="B54" s="21" t="s">
+      <c r="B54" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="C54" s="41"/>
-      <c r="D54" s="47" t="s">
+      <c r="C54" s="40"/>
+      <c r="D54" s="46" t="s">
         <v>178</v>
       </c>
-      <c r="E54" s="46" t="s">
+      <c r="E54" s="45" t="s">
         <v>179</v>
       </c>
-      <c r="F54" s="46" t="s">
+      <c r="F54" s="45" t="s">
         <v>179</v>
       </c>
-      <c r="G54" s="52" t="s">
+      <c r="G54" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="H54" s="37" t="s">
+      <c r="H54" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="I54" s="27">
+      <c r="I54" s="26">
         <v>42589</v>
       </c>
-      <c r="J54" s="41"/>
+      <c r="J54" s="40"/>
       <c r="K54" s="7"/>
       <c r="L54" s="7"/>
       <c r="M54" s="7"/>
@@ -10215,32 +10641,34 @@
       <c r="Z54" s="7"/>
     </row>
     <row r="55" spans="1:26" ht="67.5" customHeight="1">
-      <c r="A55" s="21" t="s">
+      <c r="A55" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="B55" s="37" t="s">
+      <c r="B55" s="36" t="s">
         <v>181</v>
       </c>
-      <c r="C55" s="41"/>
-      <c r="D55" s="37" t="s">
+      <c r="C55" s="18" t="s">
+        <v>272</v>
+      </c>
+      <c r="D55" s="36" t="s">
         <v>182</v>
       </c>
-      <c r="E55" s="46" t="s">
+      <c r="E55" s="45" t="s">
         <v>171</v>
       </c>
-      <c r="F55" s="46" t="s">
+      <c r="F55" s="45" t="s">
         <v>171</v>
       </c>
-      <c r="G55" s="52" t="s">
+      <c r="G55" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="H55" s="37" t="s">
+      <c r="H55" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="I55" s="27">
+      <c r="I55" s="26">
         <v>42589</v>
       </c>
-      <c r="J55" s="41"/>
+      <c r="J55" s="40"/>
       <c r="K55" s="7"/>
       <c r="L55" s="7"/>
       <c r="M55" s="7"/>
@@ -10259,20 +10687,20 @@
       <c r="Z55" s="7"/>
     </row>
     <row r="56" spans="1:26">
-      <c r="A56" s="45" t="s">
+      <c r="A56" s="44" t="s">
         <v>184</v>
       </c>
-      <c r="B56" s="28" t="s">
+      <c r="B56" s="27" t="s">
         <v>183</v>
       </c>
-      <c r="C56" s="23"/>
-      <c r="D56" s="23"/>
-      <c r="E56" s="23"/>
-      <c r="F56" s="23"/>
-      <c r="G56" s="23"/>
-      <c r="H56" s="23"/>
-      <c r="I56" s="40"/>
-      <c r="J56" s="40"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="22"/>
+      <c r="E56" s="22"/>
+      <c r="F56" s="22"/>
+      <c r="G56" s="22"/>
+      <c r="H56" s="22"/>
+      <c r="I56" s="39"/>
+      <c r="J56" s="39"/>
       <c r="K56" s="7"/>
       <c r="L56" s="7"/>
       <c r="M56" s="7"/>
@@ -10291,32 +10719,32 @@
       <c r="Z56" s="7"/>
     </row>
     <row r="57" spans="1:26" ht="49.5" customHeight="1">
-      <c r="A57" s="21" t="s">
+      <c r="A57" s="20" t="s">
         <v>185</v>
       </c>
-      <c r="B57" s="21" t="s">
+      <c r="B57" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="C57" s="41"/>
-      <c r="D57" s="47" t="s">
+      <c r="C57" s="40"/>
+      <c r="D57" s="46" t="s">
         <v>187</v>
       </c>
-      <c r="E57" s="47" t="s">
+      <c r="E57" s="46" t="s">
         <v>188</v>
       </c>
-      <c r="F57" s="47" t="s">
+      <c r="F57" s="46" t="s">
         <v>188</v>
       </c>
-      <c r="G57" s="52" t="s">
+      <c r="G57" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="H57" s="37" t="s">
+      <c r="H57" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="I57" s="27">
+      <c r="I57" s="26">
         <v>42589</v>
       </c>
-      <c r="J57" s="41"/>
+      <c r="J57" s="40"/>
       <c r="K57" s="7"/>
       <c r="L57" s="7"/>
       <c r="M57" s="7"/>
@@ -10335,32 +10763,32 @@
       <c r="Z57" s="7"/>
     </row>
     <row r="58" spans="1:26" ht="45" customHeight="1">
-      <c r="A58" s="21" t="s">
+      <c r="A58" s="20" t="s">
         <v>189</v>
       </c>
-      <c r="B58" s="21" t="s">
+      <c r="B58" s="20" t="s">
         <v>190</v>
       </c>
-      <c r="C58" s="41"/>
-      <c r="D58" s="47" t="s">
+      <c r="C58" s="40"/>
+      <c r="D58" s="46" t="s">
         <v>191</v>
       </c>
-      <c r="E58" s="47" t="s">
+      <c r="E58" s="46" t="s">
         <v>192</v>
       </c>
-      <c r="F58" s="47" t="s">
+      <c r="F58" s="46" t="s">
         <v>192</v>
       </c>
-      <c r="G58" s="52" t="s">
+      <c r="G58" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="H58" s="37" t="s">
+      <c r="H58" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="I58" s="27">
+      <c r="I58" s="26">
         <v>42589</v>
       </c>
-      <c r="J58" s="41"/>
+      <c r="J58" s="40"/>
       <c r="K58" s="7"/>
       <c r="L58" s="7"/>
       <c r="M58" s="7"/>
@@ -10379,32 +10807,32 @@
       <c r="Z58" s="7"/>
     </row>
     <row r="59" spans="1:26" ht="57" customHeight="1">
-      <c r="A59" s="21" t="s">
+      <c r="A59" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="B59" s="21" t="s">
+      <c r="B59" s="20" t="s">
         <v>194</v>
       </c>
-      <c r="C59" s="41"/>
-      <c r="D59" s="47" t="s">
+      <c r="C59" s="40"/>
+      <c r="D59" s="46" t="s">
         <v>191</v>
       </c>
-      <c r="E59" s="47" t="s">
+      <c r="E59" s="46" t="s">
         <v>192</v>
       </c>
-      <c r="F59" s="47" t="s">
+      <c r="F59" s="46" t="s">
         <v>192</v>
       </c>
-      <c r="G59" s="52" t="s">
+      <c r="G59" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="H59" s="37" t="s">
+      <c r="H59" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="I59" s="27">
+      <c r="I59" s="26">
         <v>42589</v>
       </c>
-      <c r="J59" s="41"/>
+      <c r="J59" s="40"/>
       <c r="K59" s="7"/>
       <c r="L59" s="7"/>
       <c r="M59" s="7"/>
@@ -10423,32 +10851,32 @@
       <c r="Z59" s="7"/>
     </row>
     <row r="60" spans="1:26" ht="56.25" customHeight="1">
-      <c r="A60" s="21" t="s">
+      <c r="A60" s="20" t="s">
         <v>195</v>
       </c>
-      <c r="B60" s="21" t="s">
+      <c r="B60" s="20" t="s">
         <v>196</v>
       </c>
-      <c r="C60" s="41"/>
-      <c r="D60" s="47" t="s">
+      <c r="C60" s="40"/>
+      <c r="D60" s="46" t="s">
         <v>191</v>
       </c>
-      <c r="E60" s="47" t="s">
+      <c r="E60" s="46" t="s">
         <v>192</v>
       </c>
-      <c r="F60" s="47" t="s">
+      <c r="F60" s="46" t="s">
         <v>192</v>
       </c>
-      <c r="G60" s="52" t="s">
+      <c r="G60" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="H60" s="37" t="s">
+      <c r="H60" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="I60" s="27">
+      <c r="I60" s="26">
         <v>42589</v>
       </c>
-      <c r="J60" s="41"/>
+      <c r="J60" s="40"/>
       <c r="K60" s="7"/>
       <c r="L60" s="7"/>
       <c r="M60" s="7"/>
@@ -10467,32 +10895,34 @@
       <c r="Z60" s="7"/>
     </row>
     <row r="61" spans="1:26" ht="60" customHeight="1">
-      <c r="A61" s="21" t="s">
+      <c r="A61" s="20" t="s">
         <v>197</v>
       </c>
-      <c r="B61" s="47" t="s">
+      <c r="B61" s="46" t="s">
         <v>198</v>
       </c>
-      <c r="C61" s="41"/>
-      <c r="D61" s="47" t="s">
+      <c r="C61" s="18" t="s">
+        <v>272</v>
+      </c>
+      <c r="D61" s="46" t="s">
         <v>199</v>
       </c>
-      <c r="E61" s="47" t="s">
+      <c r="E61" s="46" t="s">
         <v>200</v>
       </c>
-      <c r="F61" s="47" t="s">
+      <c r="F61" s="46" t="s">
         <v>267</v>
       </c>
-      <c r="G61" s="53" t="s">
+      <c r="G61" s="52" t="s">
         <v>209</v>
       </c>
-      <c r="H61" s="37" t="s">
+      <c r="H61" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="I61" s="27">
+      <c r="I61" s="26">
         <v>42589</v>
       </c>
-      <c r="J61" s="41"/>
+      <c r="J61" s="40"/>
       <c r="K61" s="7"/>
       <c r="L61" s="7"/>
       <c r="M61" s="7"/>
@@ -10511,20 +10941,20 @@
       <c r="Z61" s="7"/>
     </row>
     <row r="62" spans="1:26" ht="27.75" customHeight="1">
-      <c r="A62" s="45" t="s">
+      <c r="A62" s="44" t="s">
         <v>202</v>
       </c>
-      <c r="B62" s="28" t="s">
+      <c r="B62" s="27" t="s">
         <v>204</v>
       </c>
-      <c r="C62" s="23"/>
-      <c r="D62" s="23"/>
-      <c r="E62" s="23"/>
-      <c r="F62" s="23"/>
-      <c r="G62" s="23"/>
-      <c r="H62" s="23"/>
-      <c r="I62" s="40"/>
-      <c r="J62" s="40"/>
+      <c r="C62" s="22"/>
+      <c r="D62" s="22"/>
+      <c r="E62" s="22"/>
+      <c r="F62" s="22"/>
+      <c r="G62" s="22"/>
+      <c r="H62" s="22"/>
+      <c r="I62" s="39"/>
+      <c r="J62" s="39"/>
       <c r="K62" s="7"/>
       <c r="L62" s="7"/>
       <c r="M62" s="7"/>
@@ -10543,32 +10973,32 @@
       <c r="Z62" s="7"/>
     </row>
     <row r="63" spans="1:26" ht="259.5" customHeight="1">
-      <c r="A63" s="21" t="s">
+      <c r="A63" s="20" t="s">
         <v>203</v>
       </c>
-      <c r="B63" s="18" t="s">
+      <c r="B63" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="C63" s="18"/>
-      <c r="D63" s="18" t="s">
+      <c r="C63" s="17"/>
+      <c r="D63" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="E63" s="18" t="s">
+      <c r="E63" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="F63" s="18" t="s">
+      <c r="F63" s="17" t="s">
         <v>208</v>
       </c>
-      <c r="G63" s="54" t="s">
+      <c r="G63" s="53" t="s">
         <v>209</v>
       </c>
-      <c r="H63" s="19" t="s">
+      <c r="H63" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="I63" s="20">
+      <c r="I63" s="19">
         <v>42681</v>
       </c>
-      <c r="J63" s="19"/>
+      <c r="J63" s="18"/>
       <c r="K63" s="7"/>
       <c r="L63" s="7"/>
       <c r="M63" s="7"/>
@@ -10587,32 +11017,32 @@
       <c r="Z63" s="7"/>
     </row>
     <row r="64" spans="1:26" ht="249.75" customHeight="1">
-      <c r="A64" s="21" t="s">
+      <c r="A64" s="20" t="s">
         <v>252</v>
       </c>
-      <c r="B64" s="18" t="s">
+      <c r="B64" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="C64" s="18"/>
-      <c r="D64" s="18" t="s">
+      <c r="C64" s="17"/>
+      <c r="D64" s="17" t="s">
         <v>211</v>
       </c>
-      <c r="E64" s="18" t="s">
+      <c r="E64" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="F64" s="18" t="s">
+      <c r="F64" s="17" t="s">
         <v>208</v>
       </c>
-      <c r="G64" s="18" t="s">
+      <c r="G64" s="53" t="s">
         <v>209</v>
       </c>
-      <c r="H64" s="19" t="s">
+      <c r="H64" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="I64" s="20">
+      <c r="I64" s="19">
         <v>42681</v>
       </c>
-      <c r="J64" s="19"/>
+      <c r="J64" s="18"/>
       <c r="K64" s="7"/>
       <c r="L64" s="7"/>
       <c r="M64" s="7"/>
@@ -10631,32 +11061,32 @@
       <c r="Z64" s="7"/>
     </row>
     <row r="65" spans="1:26" ht="255">
-      <c r="A65" s="21" t="s">
+      <c r="A65" s="20" t="s">
         <v>253</v>
       </c>
-      <c r="B65" s="18" t="s">
+      <c r="B65" s="17" t="s">
         <v>213</v>
       </c>
-      <c r="C65" s="18"/>
-      <c r="D65" s="18" t="s">
+      <c r="C65" s="17"/>
+      <c r="D65" s="17" t="s">
         <v>214</v>
       </c>
-      <c r="E65" s="18" t="s">
+      <c r="E65" s="17" t="s">
         <v>215</v>
       </c>
-      <c r="F65" s="18" t="s">
+      <c r="F65" s="17" t="s">
         <v>215</v>
       </c>
-      <c r="G65" s="55" t="s">
+      <c r="G65" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="H65" s="19" t="s">
+      <c r="H65" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="I65" s="20">
+      <c r="I65" s="19">
         <v>42681</v>
       </c>
-      <c r="J65" s="48"/>
+      <c r="J65" s="47"/>
       <c r="K65" s="7"/>
       <c r="L65" s="7"/>
       <c r="M65" s="7"/>
@@ -10675,32 +11105,32 @@
       <c r="Z65" s="7"/>
     </row>
     <row r="66" spans="1:26" ht="263.25" customHeight="1">
-      <c r="A66" s="21" t="s">
+      <c r="A66" s="20" t="s">
         <v>254</v>
       </c>
-      <c r="B66" s="18" t="s">
+      <c r="B66" s="17" t="s">
         <v>216</v>
       </c>
-      <c r="C66" s="18"/>
-      <c r="D66" s="18" t="s">
+      <c r="C66" s="17"/>
+      <c r="D66" s="17" t="s">
         <v>217</v>
       </c>
-      <c r="E66" s="18" t="s">
+      <c r="E66" s="17" t="s">
         <v>215</v>
       </c>
-      <c r="F66" s="18" t="s">
+      <c r="F66" s="17" t="s">
         <v>215</v>
       </c>
-      <c r="G66" s="18" t="s">
+      <c r="G66" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="H66" s="19" t="s">
+      <c r="H66" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="I66" s="20">
+      <c r="I66" s="19">
         <v>42681</v>
       </c>
-      <c r="J66" s="19"/>
+      <c r="J66" s="18"/>
       <c r="K66" s="7"/>
       <c r="L66" s="7"/>
       <c r="M66" s="7"/>
@@ -10719,32 +11149,32 @@
       <c r="Z66" s="7"/>
     </row>
     <row r="67" spans="1:26" ht="249" customHeight="1">
-      <c r="A67" s="21" t="s">
+      <c r="A67" s="20" t="s">
         <v>255</v>
       </c>
-      <c r="B67" s="18" t="s">
+      <c r="B67" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="C67" s="18"/>
-      <c r="D67" s="18" t="s">
+      <c r="C67" s="17"/>
+      <c r="D67" s="17" t="s">
         <v>219</v>
       </c>
-      <c r="E67" s="18" t="s">
+      <c r="E67" s="17" t="s">
         <v>220</v>
       </c>
-      <c r="F67" s="18" t="s">
+      <c r="F67" s="17" t="s">
         <v>215</v>
       </c>
-      <c r="G67" s="18" t="s">
+      <c r="G67" s="53" t="s">
         <v>209</v>
       </c>
-      <c r="H67" s="19" t="s">
+      <c r="H67" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="I67" s="20">
+      <c r="I67" s="19">
         <v>42681</v>
       </c>
-      <c r="J67" s="19"/>
+      <c r="J67" s="18"/>
       <c r="K67" s="7"/>
       <c r="L67" s="7"/>
       <c r="M67" s="7"/>
@@ -10763,32 +11193,32 @@
       <c r="Z67" s="7"/>
     </row>
     <row r="68" spans="1:26" ht="278.25" customHeight="1">
-      <c r="A68" s="21" t="s">
+      <c r="A68" s="20" t="s">
         <v>256</v>
       </c>
-      <c r="B68" s="18" t="s">
+      <c r="B68" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="C68" s="18"/>
-      <c r="D68" s="18" t="s">
+      <c r="C68" s="17"/>
+      <c r="D68" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="E68" s="18" t="s">
+      <c r="E68" s="17" t="s">
         <v>223</v>
       </c>
-      <c r="F68" s="18" t="s">
+      <c r="F68" s="17" t="s">
         <v>215</v>
       </c>
-      <c r="G68" s="54" t="s">
+      <c r="G68" s="53" t="s">
         <v>209</v>
       </c>
-      <c r="H68" s="19" t="s">
+      <c r="H68" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="I68" s="20">
+      <c r="I68" s="19">
         <v>42681</v>
       </c>
-      <c r="J68" s="19"/>
+      <c r="J68" s="18"/>
       <c r="K68" s="7"/>
       <c r="L68" s="7"/>
       <c r="M68" s="7"/>
@@ -10807,32 +11237,32 @@
       <c r="Z68" s="7"/>
     </row>
     <row r="69" spans="1:26" ht="267.75" customHeight="1">
-      <c r="A69" s="21" t="s">
+      <c r="A69" s="20" t="s">
         <v>257</v>
       </c>
-      <c r="B69" s="18" t="s">
+      <c r="B69" s="17" t="s">
         <v>224</v>
       </c>
-      <c r="C69" s="18"/>
-      <c r="D69" s="18" t="s">
+      <c r="C69" s="17"/>
+      <c r="D69" s="17" t="s">
         <v>225</v>
       </c>
-      <c r="E69" s="18" t="s">
+      <c r="E69" s="17" t="s">
         <v>226</v>
       </c>
-      <c r="F69" s="18" t="s">
+      <c r="F69" s="17" t="s">
         <v>215</v>
       </c>
-      <c r="G69" s="18" t="s">
+      <c r="G69" s="53" t="s">
         <v>209</v>
       </c>
-      <c r="H69" s="19" t="s">
+      <c r="H69" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="I69" s="20">
+      <c r="I69" s="19">
         <v>42681</v>
       </c>
-      <c r="J69" s="19"/>
+      <c r="J69" s="18"/>
       <c r="K69" s="7"/>
       <c r="L69" s="7"/>
       <c r="M69" s="7"/>
@@ -10851,32 +11281,32 @@
       <c r="Z69" s="7"/>
     </row>
     <row r="70" spans="1:26" ht="282.75" customHeight="1">
-      <c r="A70" s="21" t="s">
+      <c r="A70" s="20" t="s">
         <v>258</v>
       </c>
-      <c r="B70" s="18" t="s">
+      <c r="B70" s="17" t="s">
         <v>227</v>
       </c>
-      <c r="C70" s="18"/>
-      <c r="D70" s="18" t="s">
+      <c r="C70" s="17"/>
+      <c r="D70" s="17" t="s">
         <v>228</v>
       </c>
-      <c r="E70" s="18" t="s">
+      <c r="E70" s="17" t="s">
         <v>229</v>
       </c>
-      <c r="F70" s="18" t="s">
+      <c r="F70" s="17" t="s">
         <v>215</v>
       </c>
-      <c r="G70" s="18" t="s">
+      <c r="G70" s="53" t="s">
         <v>209</v>
       </c>
-      <c r="H70" s="19" t="s">
+      <c r="H70" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="I70" s="20">
+      <c r="I70" s="19">
         <v>42681</v>
       </c>
-      <c r="J70" s="19"/>
+      <c r="J70" s="18"/>
       <c r="K70" s="7"/>
       <c r="L70" s="7"/>
       <c r="M70" s="7"/>
@@ -10895,32 +11325,32 @@
       <c r="Z70" s="7"/>
     </row>
     <row r="71" spans="1:26" ht="271.5" customHeight="1">
-      <c r="A71" s="21" t="s">
+      <c r="A71" s="20" t="s">
         <v>259</v>
       </c>
-      <c r="B71" s="18" t="s">
+      <c r="B71" s="17" t="s">
         <v>230</v>
       </c>
-      <c r="C71" s="18"/>
-      <c r="D71" s="18" t="s">
+      <c r="C71" s="17"/>
+      <c r="D71" s="17" t="s">
         <v>231</v>
       </c>
-      <c r="E71" s="18" t="s">
+      <c r="E71" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="F71" s="18" t="s">
+      <c r="F71" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="G71" s="55" t="s">
+      <c r="G71" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="H71" s="19" t="s">
+      <c r="H71" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="I71" s="20">
+      <c r="I71" s="19">
         <v>42681</v>
       </c>
-      <c r="J71" s="19"/>
+      <c r="J71" s="18"/>
       <c r="K71" s="7"/>
       <c r="L71" s="7"/>
       <c r="M71" s="7"/>
@@ -10939,32 +11369,32 @@
       <c r="Z71" s="7"/>
     </row>
     <row r="72" spans="1:26" ht="270.75" customHeight="1">
-      <c r="A72" s="21" t="s">
+      <c r="A72" s="20" t="s">
         <v>260</v>
       </c>
-      <c r="B72" s="18" t="s">
+      <c r="B72" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="C72" s="18"/>
-      <c r="D72" s="18" t="s">
+      <c r="C72" s="17"/>
+      <c r="D72" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="E72" s="18" t="s">
+      <c r="E72" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="F72" s="18" t="s">
+      <c r="F72" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="G72" s="18" t="s">
+      <c r="G72" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="H72" s="18" t="s">
+      <c r="H72" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="I72" s="20">
+      <c r="I72" s="19">
         <v>42681</v>
       </c>
-      <c r="J72" s="48"/>
+      <c r="J72" s="47"/>
       <c r="K72" s="7"/>
       <c r="L72" s="7"/>
       <c r="M72" s="7"/>
@@ -10983,32 +11413,32 @@
       <c r="Z72" s="7"/>
     </row>
     <row r="73" spans="1:26" ht="276.75" customHeight="1">
-      <c r="A73" s="21" t="s">
+      <c r="A73" s="20" t="s">
         <v>261</v>
       </c>
-      <c r="B73" s="18" t="s">
+      <c r="B73" s="17" t="s">
         <v>235</v>
       </c>
-      <c r="C73" s="18"/>
-      <c r="D73" s="18" t="s">
+      <c r="C73" s="17"/>
+      <c r="D73" s="17" t="s">
         <v>236</v>
       </c>
-      <c r="E73" s="18" t="s">
+      <c r="E73" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="F73" s="18" t="s">
+      <c r="F73" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="G73" s="18" t="s">
+      <c r="G73" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="H73" s="19" t="s">
+      <c r="H73" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="I73" s="20">
+      <c r="I73" s="19">
         <v>42681</v>
       </c>
-      <c r="J73" s="19"/>
+      <c r="J73" s="18"/>
       <c r="K73" s="7"/>
       <c r="L73" s="7"/>
       <c r="M73" s="7"/>
@@ -11027,32 +11457,32 @@
       <c r="Z73" s="7"/>
     </row>
     <row r="74" spans="1:26" ht="261.75" customHeight="1">
-      <c r="A74" s="21" t="s">
+      <c r="A74" s="20" t="s">
         <v>262</v>
       </c>
-      <c r="B74" s="18" t="s">
+      <c r="B74" s="17" t="s">
         <v>237</v>
       </c>
-      <c r="C74" s="18"/>
-      <c r="D74" s="18" t="s">
+      <c r="C74" s="17"/>
+      <c r="D74" s="17" t="s">
         <v>238</v>
       </c>
-      <c r="E74" s="18" t="s">
+      <c r="E74" s="17" t="s">
         <v>239</v>
       </c>
-      <c r="F74" s="18" t="s">
+      <c r="F74" s="17" t="s">
         <v>240</v>
       </c>
-      <c r="G74" s="54" t="s">
+      <c r="G74" s="53" t="s">
         <v>209</v>
       </c>
-      <c r="H74" s="19" t="s">
+      <c r="H74" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="I74" s="20">
+      <c r="I74" s="19">
         <v>42681</v>
       </c>
-      <c r="J74" s="19"/>
+      <c r="J74" s="18"/>
       <c r="K74" s="7"/>
       <c r="L74" s="7"/>
       <c r="M74" s="7"/>
@@ -11071,32 +11501,32 @@
       <c r="Z74" s="7"/>
     </row>
     <row r="75" spans="1:26" ht="271.5" customHeight="1">
-      <c r="A75" s="21" t="s">
+      <c r="A75" s="20" t="s">
         <v>263</v>
       </c>
-      <c r="B75" s="18" t="s">
+      <c r="B75" s="17" t="s">
         <v>241</v>
       </c>
-      <c r="C75" s="18"/>
-      <c r="D75" s="18" t="s">
+      <c r="C75" s="17"/>
+      <c r="D75" s="17" t="s">
         <v>242</v>
       </c>
-      <c r="E75" s="18" t="s">
+      <c r="E75" s="17" t="s">
         <v>243</v>
       </c>
-      <c r="F75" s="18" t="s">
+      <c r="F75" s="17" t="s">
         <v>240</v>
       </c>
-      <c r="G75" s="54" t="s">
+      <c r="G75" s="53" t="s">
         <v>209</v>
       </c>
-      <c r="H75" s="19" t="s">
+      <c r="H75" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="I75" s="20">
+      <c r="I75" s="19">
         <v>42681</v>
       </c>
-      <c r="J75" s="19"/>
+      <c r="J75" s="18"/>
       <c r="K75" s="7"/>
       <c r="L75" s="7"/>
       <c r="M75" s="7"/>
@@ -11115,32 +11545,32 @@
       <c r="Z75" s="7"/>
     </row>
     <row r="76" spans="1:26" ht="259.5" customHeight="1">
-      <c r="A76" s="21" t="s">
+      <c r="A76" s="20" t="s">
         <v>264</v>
       </c>
-      <c r="B76" s="18" t="s">
+      <c r="B76" s="17" t="s">
         <v>244</v>
       </c>
-      <c r="C76" s="18"/>
-      <c r="D76" s="18" t="s">
+      <c r="C76" s="17"/>
+      <c r="D76" s="17" t="s">
         <v>245</v>
       </c>
-      <c r="E76" s="18" t="s">
+      <c r="E76" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="F76" s="18" t="s">
+      <c r="F76" s="17" t="s">
         <v>240</v>
       </c>
-      <c r="G76" s="54" t="s">
+      <c r="G76" s="53" t="s">
         <v>209</v>
       </c>
-      <c r="H76" s="19" t="s">
+      <c r="H76" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="I76" s="20">
+      <c r="I76" s="19">
         <v>42681</v>
       </c>
-      <c r="J76" s="19"/>
+      <c r="J76" s="18"/>
       <c r="K76" s="7"/>
       <c r="L76" s="7"/>
       <c r="M76" s="7"/>
@@ -11159,32 +11589,32 @@
       <c r="Z76" s="7"/>
     </row>
     <row r="77" spans="1:26" ht="263.25" customHeight="1">
-      <c r="A77" s="21" t="s">
+      <c r="A77" s="20" t="s">
         <v>265</v>
       </c>
-      <c r="B77" s="18" t="s">
+      <c r="B77" s="17" t="s">
         <v>247</v>
       </c>
-      <c r="C77" s="18"/>
-      <c r="D77" s="18" t="s">
+      <c r="C77" s="17"/>
+      <c r="D77" s="17" t="s">
         <v>248</v>
       </c>
-      <c r="E77" s="18" t="s">
+      <c r="E77" s="17" t="s">
         <v>249</v>
       </c>
-      <c r="F77" s="18" t="s">
+      <c r="F77" s="17" t="s">
         <v>240</v>
       </c>
-      <c r="G77" s="54" t="s">
+      <c r="G77" s="53" t="s">
         <v>209</v>
       </c>
-      <c r="H77" s="19" t="s">
+      <c r="H77" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="I77" s="20">
+      <c r="I77" s="19">
         <v>42681</v>
       </c>
-      <c r="J77" s="19"/>
+      <c r="J77" s="18"/>
       <c r="K77" s="7"/>
       <c r="L77" s="7"/>
       <c r="M77" s="7"/>
@@ -11203,32 +11633,32 @@
       <c r="Z77" s="7"/>
     </row>
     <row r="78" spans="1:26" ht="269.25" customHeight="1">
-      <c r="A78" s="21" t="s">
+      <c r="A78" s="20" t="s">
         <v>266</v>
       </c>
-      <c r="B78" s="18" t="s">
+      <c r="B78" s="17" t="s">
         <v>250</v>
       </c>
-      <c r="C78" s="18"/>
-      <c r="D78" s="18" t="s">
+      <c r="C78" s="17"/>
+      <c r="D78" s="17" t="s">
         <v>236</v>
       </c>
-      <c r="E78" s="18" t="s">
+      <c r="E78" s="17" t="s">
         <v>251</v>
       </c>
-      <c r="F78" s="18" t="s">
+      <c r="F78" s="17" t="s">
         <v>215</v>
       </c>
-      <c r="G78" s="54" t="s">
+      <c r="G78" s="53" t="s">
         <v>209</v>
       </c>
-      <c r="H78" s="19" t="s">
+      <c r="H78" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="I78" s="20">
+      <c r="I78" s="19">
         <v>42681</v>
       </c>
-      <c r="J78" s="48"/>
+      <c r="J78" s="47"/>
       <c r="K78" s="7"/>
       <c r="L78" s="7"/>
       <c r="M78" s="7"/>
@@ -11247,20 +11677,20 @@
       <c r="Z78" s="7"/>
     </row>
     <row r="79" spans="1:26" ht="24.75" customHeight="1">
-      <c r="A79" s="45" t="s">
+      <c r="A79" s="44" t="s">
         <v>268</v>
       </c>
-      <c r="B79" s="28" t="s">
+      <c r="B79" s="27" t="s">
         <v>269</v>
       </c>
-      <c r="C79" s="23"/>
-      <c r="D79" s="23"/>
-      <c r="E79" s="23"/>
-      <c r="F79" s="23"/>
-      <c r="G79" s="23"/>
-      <c r="H79" s="23"/>
-      <c r="I79" s="40"/>
-      <c r="J79" s="40"/>
+      <c r="C79" s="22"/>
+      <c r="D79" s="22"/>
+      <c r="E79" s="22"/>
+      <c r="F79" s="22"/>
+      <c r="G79" s="22"/>
+      <c r="H79" s="22"/>
+      <c r="I79" s="39"/>
+      <c r="J79" s="39"/>
       <c r="K79" s="7"/>
       <c r="L79" s="7"/>
       <c r="M79" s="7"/>
@@ -11279,32 +11709,34 @@
       <c r="Z79" s="7"/>
     </row>
     <row r="80" spans="1:26" ht="81" customHeight="1">
-      <c r="A80" s="21" t="s">
+      <c r="A80" s="20" t="s">
         <v>285</v>
       </c>
-      <c r="B80" s="19" t="s">
+      <c r="B80" s="18" t="s">
         <v>271</v>
       </c>
-      <c r="C80" s="19" t="s">
+      <c r="C80" s="18" t="s">
         <v>272</v>
       </c>
-      <c r="D80" s="19" t="s">
+      <c r="D80" s="18" t="s">
         <v>273</v>
       </c>
-      <c r="E80" s="19" t="s">
+      <c r="E80" s="18" t="s">
         <v>274</v>
       </c>
-      <c r="F80" s="19" t="s">
+      <c r="F80" s="18" t="s">
         <v>274</v>
       </c>
-      <c r="G80" s="49" t="s">
+      <c r="G80" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="H80" s="18" t="s">
+      <c r="H80" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="I80" s="16"/>
-      <c r="J80" s="16"/>
+      <c r="I80" s="19">
+        <v>42681</v>
+      </c>
+      <c r="J80" s="15"/>
       <c r="K80" s="7"/>
       <c r="L80" s="7"/>
       <c r="M80" s="7"/>
@@ -11323,32 +11755,34 @@
       <c r="Z80" s="7"/>
     </row>
     <row r="81" spans="1:26" ht="171" customHeight="1">
-      <c r="A81" s="21" t="s">
+      <c r="A81" s="20" t="s">
         <v>286</v>
       </c>
-      <c r="B81" s="19" t="s">
+      <c r="B81" s="18" t="s">
         <v>275</v>
       </c>
-      <c r="C81" s="19" t="s">
+      <c r="C81" s="18" t="s">
         <v>272</v>
       </c>
-      <c r="D81" s="19" t="s">
+      <c r="D81" s="18" t="s">
         <v>276</v>
       </c>
-      <c r="E81" s="19" t="s">
+      <c r="E81" s="18" t="s">
         <v>274</v>
       </c>
-      <c r="F81" s="19" t="s">
+      <c r="F81" s="18" t="s">
         <v>274</v>
       </c>
-      <c r="G81" s="49" t="s">
+      <c r="G81" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="H81" s="18" t="s">
+      <c r="H81" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="I81" s="16"/>
-      <c r="J81" s="16"/>
+      <c r="I81" s="19">
+        <v>42681</v>
+      </c>
+      <c r="J81" s="15"/>
       <c r="K81" s="7"/>
       <c r="L81" s="7"/>
       <c r="M81" s="7"/>
@@ -11367,32 +11801,34 @@
       <c r="Z81" s="7"/>
     </row>
     <row r="82" spans="1:26" ht="105">
-      <c r="A82" s="21" t="s">
+      <c r="A82" s="20" t="s">
         <v>287</v>
       </c>
-      <c r="B82" s="19" t="s">
+      <c r="B82" s="18" t="s">
         <v>277</v>
       </c>
-      <c r="C82" s="19" t="s">
+      <c r="C82" s="18" t="s">
         <v>272</v>
       </c>
-      <c r="D82" s="19" t="s">
+      <c r="D82" s="18" t="s">
         <v>278</v>
       </c>
-      <c r="E82" s="19" t="s">
+      <c r="E82" s="18" t="s">
         <v>274</v>
       </c>
-      <c r="F82" s="19" t="s">
+      <c r="F82" s="18" t="s">
         <v>274</v>
       </c>
-      <c r="G82" s="49" t="s">
+      <c r="G82" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="H82" s="18" t="s">
+      <c r="H82" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="I82" s="16"/>
-      <c r="J82" s="16"/>
+      <c r="I82" s="19">
+        <v>42681</v>
+      </c>
+      <c r="J82" s="15"/>
       <c r="K82" s="7"/>
       <c r="L82" s="7"/>
       <c r="M82" s="7"/>
@@ -11411,32 +11847,34 @@
       <c r="Z82" s="7"/>
     </row>
     <row r="83" spans="1:26" ht="196.5" customHeight="1">
-      <c r="A83" s="21" t="s">
+      <c r="A83" s="20" t="s">
         <v>288</v>
       </c>
-      <c r="B83" s="19" t="s">
+      <c r="B83" s="18" t="s">
         <v>279</v>
       </c>
-      <c r="C83" s="19" t="s">
+      <c r="C83" s="18" t="s">
         <v>272</v>
       </c>
-      <c r="D83" s="19" t="s">
+      <c r="D83" s="18" t="s">
         <v>280</v>
       </c>
-      <c r="E83" s="19" t="s">
+      <c r="E83" s="18" t="s">
         <v>274</v>
       </c>
-      <c r="F83" s="19" t="s">
+      <c r="F83" s="18" t="s">
         <v>274</v>
       </c>
-      <c r="G83" s="49" t="s">
+      <c r="G83" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="H83" s="18" t="s">
+      <c r="H83" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="I83" s="16"/>
-      <c r="J83" s="16"/>
+      <c r="I83" s="19">
+        <v>42681</v>
+      </c>
+      <c r="J83" s="15"/>
       <c r="K83" s="7"/>
       <c r="L83" s="7"/>
       <c r="M83" s="7"/>
@@ -11455,32 +11893,34 @@
       <c r="Z83" s="7"/>
     </row>
     <row r="84" spans="1:26" ht="195" customHeight="1">
-      <c r="A84" s="21" t="s">
+      <c r="A84" s="20" t="s">
         <v>289</v>
       </c>
-      <c r="B84" s="19" t="s">
+      <c r="B84" s="18" t="s">
         <v>281</v>
       </c>
-      <c r="C84" s="19" t="s">
+      <c r="C84" s="18" t="s">
         <v>272</v>
       </c>
-      <c r="D84" s="50" t="s">
+      <c r="D84" s="49" t="s">
         <v>282</v>
       </c>
-      <c r="E84" s="19" t="s">
+      <c r="E84" s="18" t="s">
         <v>283</v>
       </c>
-      <c r="F84" s="19" t="s">
+      <c r="F84" s="18" t="s">
         <v>284</v>
       </c>
-      <c r="G84" s="51" t="s">
+      <c r="G84" s="50" t="s">
         <v>209</v>
       </c>
-      <c r="H84" s="18" t="s">
+      <c r="H84" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="I84" s="16"/>
-      <c r="J84" s="16"/>
+      <c r="I84" s="19">
+        <v>42681</v>
+      </c>
+      <c r="J84" s="15"/>
       <c r="K84" s="7"/>
       <c r="L84" s="7"/>
       <c r="M84" s="7"/>
@@ -11498,17 +11938,21 @@
       <c r="Y84" s="7"/>
       <c r="Z84" s="7"/>
     </row>
-    <row r="85" spans="1:26" ht="183" customHeight="1">
-      <c r="A85" s="16"/>
-      <c r="B85" s="16"/>
-      <c r="C85" s="16"/>
-      <c r="D85" s="16"/>
-      <c r="E85" s="16"/>
-      <c r="F85" s="16"/>
-      <c r="G85" s="16"/>
-      <c r="H85" s="16"/>
-      <c r="I85" s="16"/>
-      <c r="J85" s="16"/>
+    <row r="85" spans="1:26" ht="30" customHeight="1">
+      <c r="A85" s="44" t="s">
+        <v>290</v>
+      </c>
+      <c r="B85" s="27" t="s">
+        <v>291</v>
+      </c>
+      <c r="C85" s="22"/>
+      <c r="D85" s="22"/>
+      <c r="E85" s="22"/>
+      <c r="F85" s="22"/>
+      <c r="G85" s="22"/>
+      <c r="H85" s="22"/>
+      <c r="I85" s="39"/>
+      <c r="J85" s="39"/>
       <c r="K85" s="7"/>
       <c r="L85" s="7"/>
       <c r="M85" s="7"/>
@@ -11526,17 +11970,34 @@
       <c r="Y85" s="7"/>
       <c r="Z85" s="7"/>
     </row>
-    <row r="86" spans="1:26" ht="197.25" customHeight="1">
-      <c r="A86" s="16"/>
-      <c r="B86" s="16"/>
-      <c r="C86" s="16"/>
-      <c r="D86" s="16"/>
-      <c r="E86" s="16"/>
-      <c r="F86" s="16"/>
-      <c r="G86" s="16"/>
-      <c r="H86" s="16"/>
-      <c r="I86" s="16"/>
-      <c r="J86" s="16"/>
+    <row r="86" spans="1:26" ht="89.25" customHeight="1">
+      <c r="A86" s="20" t="s">
+        <v>292</v>
+      </c>
+      <c r="B86" s="56" t="s">
+        <v>293</v>
+      </c>
+      <c r="C86" s="15"/>
+      <c r="D86" s="60" t="s">
+        <v>298</v>
+      </c>
+      <c r="E86" s="57" t="s">
+        <v>295</v>
+      </c>
+      <c r="F86" s="57" t="s">
+        <v>295</v>
+      </c>
+      <c r="G86" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="H86" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="I86" s="19">
+        <f t="shared" ref="I86:I88" si="0">DATE(2016,7,12)</f>
+        <v>42563</v>
+      </c>
+      <c r="J86" s="15"/>
       <c r="K86" s="7"/>
       <c r="L86" s="7"/>
       <c r="M86" s="7"/>
@@ -11554,17 +12015,34 @@
       <c r="Y86" s="7"/>
       <c r="Z86" s="7"/>
     </row>
-    <row r="87" spans="1:26" ht="183.75" customHeight="1">
-      <c r="A87" s="16"/>
-      <c r="B87" s="16"/>
-      <c r="C87" s="16"/>
-      <c r="D87" s="16"/>
-      <c r="E87" s="16"/>
-      <c r="F87" s="16"/>
-      <c r="G87" s="16"/>
-      <c r="H87" s="16"/>
-      <c r="I87" s="16"/>
-      <c r="J87" s="16"/>
+    <row r="87" spans="1:26" ht="78" customHeight="1">
+      <c r="A87" s="20" t="s">
+        <v>296</v>
+      </c>
+      <c r="B87" s="58" t="s">
+        <v>291</v>
+      </c>
+      <c r="C87" s="59"/>
+      <c r="D87" s="46" t="s">
+        <v>294</v>
+      </c>
+      <c r="E87" s="57" t="s">
+        <v>301</v>
+      </c>
+      <c r="F87" s="57" t="s">
+        <v>301</v>
+      </c>
+      <c r="G87" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="H87" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="I87" s="19">
+        <f t="shared" si="0"/>
+        <v>42563</v>
+      </c>
+      <c r="J87" s="15"/>
       <c r="K87" s="7"/>
       <c r="L87" s="7"/>
       <c r="M87" s="7"/>
@@ -11582,17 +12060,34 @@
       <c r="Y87" s="7"/>
       <c r="Z87" s="7"/>
     </row>
-    <row r="88" spans="1:26" ht="195" customHeight="1">
-      <c r="A88" s="16"/>
-      <c r="B88" s="16"/>
-      <c r="C88" s="16"/>
-      <c r="D88" s="16"/>
-      <c r="E88" s="16"/>
-      <c r="F88" s="16"/>
-      <c r="G88" s="16"/>
-      <c r="H88" s="16"/>
-      <c r="I88" s="16"/>
-      <c r="J88" s="16"/>
+    <row r="88" spans="1:26" ht="89.25" customHeight="1">
+      <c r="A88" s="20" t="s">
+        <v>297</v>
+      </c>
+      <c r="B88" s="59" t="s">
+        <v>300</v>
+      </c>
+      <c r="C88" s="59"/>
+      <c r="D88" s="60" t="s">
+        <v>299</v>
+      </c>
+      <c r="E88" s="57" t="s">
+        <v>302</v>
+      </c>
+      <c r="F88" s="57" t="s">
+        <v>302</v>
+      </c>
+      <c r="G88" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="H88" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="I88" s="19">
+        <f t="shared" si="0"/>
+        <v>42563</v>
+      </c>
+      <c r="J88" s="15"/>
       <c r="K88" s="7"/>
       <c r="L88" s="7"/>
       <c r="M88" s="7"/>
@@ -11610,17 +12105,21 @@
       <c r="Y88" s="7"/>
       <c r="Z88" s="7"/>
     </row>
-    <row r="89" spans="1:26" ht="196.5" customHeight="1">
-      <c r="A89" s="16"/>
-      <c r="B89" s="16"/>
-      <c r="C89" s="16"/>
-      <c r="D89" s="16"/>
-      <c r="E89" s="16"/>
-      <c r="F89" s="16"/>
-      <c r="G89" s="16"/>
-      <c r="H89" s="16"/>
-      <c r="I89" s="16"/>
-      <c r="J89" s="16"/>
+    <row r="89" spans="1:26" ht="36.75" customHeight="1">
+      <c r="A89" s="62" t="s">
+        <v>303</v>
+      </c>
+      <c r="B89" s="22" t="s">
+        <v>304</v>
+      </c>
+      <c r="C89" s="22"/>
+      <c r="D89" s="22"/>
+      <c r="E89" s="22"/>
+      <c r="F89" s="22"/>
+      <c r="G89" s="22"/>
+      <c r="H89" s="22"/>
+      <c r="I89" s="39"/>
+      <c r="J89" s="39"/>
       <c r="K89" s="7"/>
       <c r="L89" s="7"/>
       <c r="M89" s="7"/>
@@ -11638,17 +12137,33 @@
       <c r="Y89" s="7"/>
       <c r="Z89" s="7"/>
     </row>
-    <row r="90" spans="1:26" ht="197.25" customHeight="1">
-      <c r="A90" s="16"/>
-      <c r="B90" s="16"/>
-      <c r="C90" s="16"/>
-      <c r="D90" s="16"/>
-      <c r="E90" s="16"/>
-      <c r="F90" s="16"/>
-      <c r="G90" s="16"/>
-      <c r="H90" s="16"/>
-      <c r="I90" s="16"/>
-      <c r="J90" s="16"/>
+    <row r="90" spans="1:26" ht="267" customHeight="1">
+      <c r="A90" s="69" t="s">
+        <v>339</v>
+      </c>
+      <c r="B90" s="64" t="s">
+        <v>305</v>
+      </c>
+      <c r="C90" s="63"/>
+      <c r="D90" s="64" t="s">
+        <v>306</v>
+      </c>
+      <c r="E90" s="64" t="s">
+        <v>307</v>
+      </c>
+      <c r="F90" s="64" t="s">
+        <v>307</v>
+      </c>
+      <c r="G90" s="71" t="s">
+        <v>51</v>
+      </c>
+      <c r="H90" s="67" t="s">
+        <v>92</v>
+      </c>
+      <c r="I90" s="19">
+        <v>42681</v>
+      </c>
+      <c r="J90" s="63"/>
       <c r="K90" s="7"/>
       <c r="L90" s="7"/>
       <c r="M90" s="7"/>
@@ -11666,17 +12181,33 @@
       <c r="Y90" s="7"/>
       <c r="Z90" s="7"/>
     </row>
-    <row r="91" spans="1:26" ht="196.5" customHeight="1">
-      <c r="A91" s="16"/>
-      <c r="B91" s="16"/>
-      <c r="C91" s="16"/>
-      <c r="D91" s="16"/>
-      <c r="E91" s="16"/>
-      <c r="F91" s="16"/>
-      <c r="G91" s="16"/>
-      <c r="H91" s="16"/>
-      <c r="I91" s="16"/>
-      <c r="J91" s="16"/>
+    <row r="91" spans="1:26" ht="254.25" customHeight="1">
+      <c r="A91" s="69" t="s">
+        <v>340</v>
+      </c>
+      <c r="B91" s="64" t="s">
+        <v>308</v>
+      </c>
+      <c r="C91" s="63"/>
+      <c r="D91" s="64" t="s">
+        <v>309</v>
+      </c>
+      <c r="E91" s="64" t="s">
+        <v>307</v>
+      </c>
+      <c r="F91" s="64" t="s">
+        <v>307</v>
+      </c>
+      <c r="G91" s="72" t="s">
+        <v>51</v>
+      </c>
+      <c r="H91" s="67" t="s">
+        <v>92</v>
+      </c>
+      <c r="I91" s="19">
+        <v>42681</v>
+      </c>
+      <c r="J91" s="63"/>
       <c r="K91" s="7"/>
       <c r="L91" s="7"/>
       <c r="M91" s="7"/>
@@ -11694,17 +12225,33 @@
       <c r="Y91" s="7"/>
       <c r="Z91" s="7"/>
     </row>
-    <row r="92" spans="1:26" ht="197.25" customHeight="1">
-      <c r="A92" s="16"/>
-      <c r="B92" s="16"/>
-      <c r="C92" s="16"/>
-      <c r="D92" s="16"/>
-      <c r="E92" s="16"/>
-      <c r="F92" s="16"/>
-      <c r="G92" s="16"/>
-      <c r="H92" s="16"/>
-      <c r="I92" s="16"/>
-      <c r="J92" s="16"/>
+    <row r="92" spans="1:26" ht="232.5" customHeight="1">
+      <c r="A92" s="69" t="s">
+        <v>341</v>
+      </c>
+      <c r="B92" s="64" t="s">
+        <v>310</v>
+      </c>
+      <c r="C92" s="63"/>
+      <c r="D92" s="64" t="s">
+        <v>311</v>
+      </c>
+      <c r="E92" s="64" t="s">
+        <v>312</v>
+      </c>
+      <c r="F92" s="64" t="s">
+        <v>312</v>
+      </c>
+      <c r="G92" s="72" t="s">
+        <v>51</v>
+      </c>
+      <c r="H92" s="67" t="s">
+        <v>92</v>
+      </c>
+      <c r="I92" s="19">
+        <v>42681</v>
+      </c>
+      <c r="J92" s="63"/>
       <c r="K92" s="7"/>
       <c r="L92" s="7"/>
       <c r="M92" s="7"/>
@@ -11723,16 +12270,32 @@
       <c r="Z92" s="7"/>
     </row>
     <row r="93" spans="1:26" ht="197.25" customHeight="1">
-      <c r="A93" s="16"/>
-      <c r="B93" s="16"/>
-      <c r="C93" s="16"/>
-      <c r="D93" s="16"/>
-      <c r="E93" s="16"/>
-      <c r="F93" s="16"/>
-      <c r="G93" s="16"/>
-      <c r="H93" s="16"/>
-      <c r="I93" s="16"/>
-      <c r="J93" s="16"/>
+      <c r="A93" s="69" t="s">
+        <v>342</v>
+      </c>
+      <c r="B93" s="64" t="s">
+        <v>313</v>
+      </c>
+      <c r="C93" s="63"/>
+      <c r="D93" s="64" t="s">
+        <v>314</v>
+      </c>
+      <c r="E93" s="64" t="s">
+        <v>312</v>
+      </c>
+      <c r="F93" s="64" t="s">
+        <v>312</v>
+      </c>
+      <c r="G93" s="72" t="s">
+        <v>51</v>
+      </c>
+      <c r="H93" s="67" t="s">
+        <v>92</v>
+      </c>
+      <c r="I93" s="19">
+        <v>42681</v>
+      </c>
+      <c r="J93" s="63"/>
       <c r="K93" s="7"/>
       <c r="L93" s="7"/>
       <c r="M93" s="7"/>
@@ -11750,17 +12313,33 @@
       <c r="Y93" s="7"/>
       <c r="Z93" s="7"/>
     </row>
-    <row r="94" spans="1:26" ht="197.25" customHeight="1">
-      <c r="A94" s="16"/>
-      <c r="B94" s="16"/>
-      <c r="C94" s="16"/>
-      <c r="D94" s="16"/>
-      <c r="E94" s="16"/>
-      <c r="F94" s="16"/>
-      <c r="G94" s="16"/>
-      <c r="H94" s="16"/>
-      <c r="I94" s="16"/>
-      <c r="J94" s="16"/>
+    <row r="94" spans="1:26" ht="252" customHeight="1">
+      <c r="A94" s="69" t="s">
+        <v>343</v>
+      </c>
+      <c r="B94" s="64" t="s">
+        <v>315</v>
+      </c>
+      <c r="C94" s="63"/>
+      <c r="D94" s="64" t="s">
+        <v>316</v>
+      </c>
+      <c r="E94" s="64" t="s">
+        <v>307</v>
+      </c>
+      <c r="F94" s="64" t="s">
+        <v>307</v>
+      </c>
+      <c r="G94" s="72" t="s">
+        <v>51</v>
+      </c>
+      <c r="H94" s="67" t="s">
+        <v>92</v>
+      </c>
+      <c r="I94" s="19">
+        <v>42681</v>
+      </c>
+      <c r="J94" s="63"/>
       <c r="K94" s="7"/>
       <c r="L94" s="7"/>
       <c r="M94" s="7"/>
@@ -11778,17 +12357,33 @@
       <c r="Y94" s="7"/>
       <c r="Z94" s="7"/>
     </row>
-    <row r="95" spans="1:26" ht="196.5" customHeight="1">
-      <c r="A95" s="16"/>
-      <c r="B95" s="16"/>
-      <c r="C95" s="16"/>
-      <c r="D95" s="16"/>
-      <c r="E95" s="16"/>
-      <c r="F95" s="16"/>
-      <c r="G95" s="16"/>
-      <c r="H95" s="16"/>
-      <c r="I95" s="16"/>
-      <c r="J95" s="16"/>
+    <row r="95" spans="1:26" ht="276.75" customHeight="1">
+      <c r="A95" s="69" t="s">
+        <v>344</v>
+      </c>
+      <c r="B95" s="64" t="s">
+        <v>317</v>
+      </c>
+      <c r="C95" s="63"/>
+      <c r="D95" s="64" t="s">
+        <v>318</v>
+      </c>
+      <c r="E95" s="64" t="s">
+        <v>307</v>
+      </c>
+      <c r="F95" s="64" t="s">
+        <v>307</v>
+      </c>
+      <c r="G95" s="72" t="s">
+        <v>51</v>
+      </c>
+      <c r="H95" s="67" t="s">
+        <v>92</v>
+      </c>
+      <c r="I95" s="19">
+        <v>42681</v>
+      </c>
+      <c r="J95" s="63"/>
       <c r="K95" s="7"/>
       <c r="L95" s="7"/>
       <c r="M95" s="7"/>
@@ -11807,16 +12402,32 @@
       <c r="Z95" s="7"/>
     </row>
     <row r="96" spans="1:26" ht="196.5" customHeight="1">
-      <c r="A96" s="16"/>
-      <c r="B96" s="16"/>
-      <c r="C96" s="16"/>
-      <c r="D96" s="16"/>
-      <c r="E96" s="16"/>
-      <c r="F96" s="16"/>
-      <c r="G96" s="16"/>
-      <c r="H96" s="16"/>
-      <c r="I96" s="16"/>
-      <c r="J96" s="16"/>
+      <c r="A96" s="69" t="s">
+        <v>345</v>
+      </c>
+      <c r="B96" s="64" t="s">
+        <v>319</v>
+      </c>
+      <c r="C96" s="63"/>
+      <c r="D96" s="64" t="s">
+        <v>320</v>
+      </c>
+      <c r="E96" s="64" t="s">
+        <v>307</v>
+      </c>
+      <c r="F96" s="64" t="s">
+        <v>307</v>
+      </c>
+      <c r="G96" s="72" t="s">
+        <v>51</v>
+      </c>
+      <c r="H96" s="67" t="s">
+        <v>92</v>
+      </c>
+      <c r="I96" s="19">
+        <v>42681</v>
+      </c>
+      <c r="J96" s="63"/>
       <c r="K96" s="7"/>
       <c r="L96" s="7"/>
       <c r="M96" s="7"/>
@@ -11834,17 +12445,33 @@
       <c r="Y96" s="7"/>
       <c r="Z96" s="7"/>
     </row>
-    <row r="97" spans="1:26" ht="197.25" customHeight="1">
-      <c r="A97" s="16"/>
-      <c r="B97" s="16"/>
-      <c r="C97" s="16"/>
-      <c r="D97" s="16"/>
-      <c r="E97" s="16"/>
-      <c r="F97" s="16"/>
-      <c r="G97" s="16"/>
-      <c r="H97" s="16"/>
-      <c r="I97" s="16"/>
-      <c r="J97" s="16"/>
+    <row r="97" spans="1:26" ht="249.75" customHeight="1">
+      <c r="A97" s="69" t="s">
+        <v>346</v>
+      </c>
+      <c r="B97" s="64" t="s">
+        <v>321</v>
+      </c>
+      <c r="C97" s="63"/>
+      <c r="D97" s="64" t="s">
+        <v>322</v>
+      </c>
+      <c r="E97" s="64" t="s">
+        <v>307</v>
+      </c>
+      <c r="F97" s="64" t="s">
+        <v>307</v>
+      </c>
+      <c r="G97" s="72" t="s">
+        <v>51</v>
+      </c>
+      <c r="H97" s="67" t="s">
+        <v>92</v>
+      </c>
+      <c r="I97" s="19">
+        <v>42681</v>
+      </c>
+      <c r="J97" s="63"/>
       <c r="K97" s="7"/>
       <c r="L97" s="7"/>
       <c r="M97" s="7"/>
@@ -11863,16 +12490,32 @@
       <c r="Z97" s="7"/>
     </row>
     <row r="98" spans="1:26" ht="196.5" customHeight="1">
-      <c r="A98" s="16"/>
-      <c r="B98" s="16"/>
-      <c r="C98" s="16"/>
-      <c r="D98" s="16"/>
-      <c r="E98" s="16"/>
-      <c r="F98" s="16"/>
-      <c r="G98" s="16"/>
-      <c r="H98" s="16"/>
-      <c r="I98" s="16"/>
-      <c r="J98" s="16"/>
+      <c r="A98" s="69" t="s">
+        <v>347</v>
+      </c>
+      <c r="B98" s="64" t="s">
+        <v>323</v>
+      </c>
+      <c r="C98" s="63"/>
+      <c r="D98" s="65" t="s">
+        <v>324</v>
+      </c>
+      <c r="E98" s="64" t="s">
+        <v>307</v>
+      </c>
+      <c r="F98" s="64" t="s">
+        <v>312</v>
+      </c>
+      <c r="G98" s="70" t="s">
+        <v>209</v>
+      </c>
+      <c r="H98" s="67" t="s">
+        <v>92</v>
+      </c>
+      <c r="I98" s="19">
+        <v>42681</v>
+      </c>
+      <c r="J98" s="63"/>
       <c r="K98" s="7"/>
       <c r="L98" s="7"/>
       <c r="M98" s="7"/>
@@ -11890,17 +12533,33 @@
       <c r="Y98" s="7"/>
       <c r="Z98" s="7"/>
     </row>
-    <row r="99" spans="1:26">
-      <c r="A99" s="16"/>
-      <c r="B99" s="16"/>
-      <c r="C99" s="16"/>
-      <c r="D99" s="16"/>
-      <c r="E99" s="16"/>
-      <c r="F99" s="16"/>
-      <c r="G99" s="16"/>
-      <c r="H99" s="16"/>
-      <c r="I99" s="16"/>
-      <c r="J99" s="16"/>
+    <row r="99" spans="1:26" ht="225">
+      <c r="A99" s="69" t="s">
+        <v>348</v>
+      </c>
+      <c r="B99" s="64" t="s">
+        <v>325</v>
+      </c>
+      <c r="C99" s="63"/>
+      <c r="D99" s="64" t="s">
+        <v>326</v>
+      </c>
+      <c r="E99" s="64" t="s">
+        <v>307</v>
+      </c>
+      <c r="F99" s="64" t="s">
+        <v>312</v>
+      </c>
+      <c r="G99" s="70" t="s">
+        <v>209</v>
+      </c>
+      <c r="H99" s="67" t="s">
+        <v>92</v>
+      </c>
+      <c r="I99" s="19">
+        <v>42681</v>
+      </c>
+      <c r="J99" s="63"/>
       <c r="K99" s="7"/>
       <c r="L99" s="7"/>
       <c r="M99" s="7"/>
@@ -11918,17 +12577,33 @@
       <c r="Y99" s="7"/>
       <c r="Z99" s="7"/>
     </row>
-    <row r="100" spans="1:26" ht="75" customHeight="1">
-      <c r="A100" s="16"/>
-      <c r="B100" s="16"/>
-      <c r="C100" s="16"/>
-      <c r="D100" s="16"/>
-      <c r="E100" s="16"/>
-      <c r="F100" s="16"/>
-      <c r="G100" s="16"/>
-      <c r="H100" s="16"/>
-      <c r="I100" s="16"/>
-      <c r="J100" s="16"/>
+    <row r="100" spans="1:26" ht="289.5" customHeight="1">
+      <c r="A100" s="69" t="s">
+        <v>349</v>
+      </c>
+      <c r="B100" s="64" t="s">
+        <v>327</v>
+      </c>
+      <c r="C100" s="63"/>
+      <c r="D100" s="64" t="s">
+        <v>328</v>
+      </c>
+      <c r="E100" s="64" t="s">
+        <v>312</v>
+      </c>
+      <c r="F100" s="64" t="s">
+        <v>312</v>
+      </c>
+      <c r="G100" s="70" t="s">
+        <v>51</v>
+      </c>
+      <c r="H100" s="67" t="s">
+        <v>92</v>
+      </c>
+      <c r="I100" s="19">
+        <v>42681</v>
+      </c>
+      <c r="J100" s="63"/>
       <c r="K100" s="7"/>
       <c r="L100" s="7"/>
       <c r="M100" s="7"/>
@@ -11946,17 +12621,33 @@
       <c r="Y100" s="7"/>
       <c r="Z100" s="7"/>
     </row>
-    <row r="101" spans="1:26" ht="70.5" customHeight="1">
-      <c r="A101" s="16"/>
-      <c r="B101" s="16"/>
-      <c r="C101" s="16"/>
-      <c r="D101" s="16"/>
-      <c r="E101" s="16"/>
-      <c r="F101" s="16"/>
-      <c r="G101" s="16"/>
-      <c r="H101" s="16"/>
-      <c r="I101" s="16"/>
-      <c r="J101" s="16"/>
+    <row r="101" spans="1:26" ht="264" customHeight="1">
+      <c r="A101" s="69" t="s">
+        <v>350</v>
+      </c>
+      <c r="B101" s="64" t="s">
+        <v>237</v>
+      </c>
+      <c r="C101" s="63"/>
+      <c r="D101" s="64" t="s">
+        <v>329</v>
+      </c>
+      <c r="E101" s="64" t="s">
+        <v>330</v>
+      </c>
+      <c r="F101" s="64" t="s">
+        <v>331</v>
+      </c>
+      <c r="G101" s="70" t="s">
+        <v>209</v>
+      </c>
+      <c r="H101" s="67" t="s">
+        <v>92</v>
+      </c>
+      <c r="I101" s="19">
+        <v>42681</v>
+      </c>
+      <c r="J101" s="63"/>
       <c r="K101" s="7"/>
       <c r="L101" s="7"/>
       <c r="M101" s="7"/>
@@ -11974,17 +12665,33 @@
       <c r="Y101" s="7"/>
       <c r="Z101" s="7"/>
     </row>
-    <row r="102" spans="1:26">
-      <c r="A102" s="16"/>
-      <c r="B102" s="16"/>
-      <c r="C102" s="16"/>
-      <c r="D102" s="16"/>
-      <c r="E102" s="16"/>
-      <c r="F102" s="16"/>
-      <c r="G102" s="16"/>
-      <c r="H102" s="16"/>
-      <c r="I102" s="16"/>
-      <c r="J102" s="16"/>
+    <row r="102" spans="1:26" ht="225">
+      <c r="A102" s="69" t="s">
+        <v>351</v>
+      </c>
+      <c r="B102" s="64" t="s">
+        <v>241</v>
+      </c>
+      <c r="C102" s="63"/>
+      <c r="D102" s="64" t="s">
+        <v>332</v>
+      </c>
+      <c r="E102" s="64" t="s">
+        <v>333</v>
+      </c>
+      <c r="F102" s="64" t="s">
+        <v>331</v>
+      </c>
+      <c r="G102" s="70" t="s">
+        <v>209</v>
+      </c>
+      <c r="H102" s="67" t="s">
+        <v>92</v>
+      </c>
+      <c r="I102" s="19">
+        <v>42681</v>
+      </c>
+      <c r="J102" s="63"/>
       <c r="K102" s="7"/>
       <c r="L102" s="7"/>
       <c r="M102" s="7"/>
@@ -12002,17 +12709,33 @@
       <c r="Y102" s="7"/>
       <c r="Z102" s="7"/>
     </row>
-    <row r="103" spans="1:26" ht="75" customHeight="1">
-      <c r="A103" s="16"/>
-      <c r="B103" s="16"/>
-      <c r="C103" s="16"/>
-      <c r="D103" s="16"/>
-      <c r="E103" s="16"/>
-      <c r="F103" s="16"/>
-      <c r="G103" s="16"/>
-      <c r="H103" s="16"/>
-      <c r="I103" s="16"/>
-      <c r="J103" s="16"/>
+    <row r="103" spans="1:26" ht="250.5" customHeight="1">
+      <c r="A103" s="69" t="s">
+        <v>352</v>
+      </c>
+      <c r="B103" s="64" t="s">
+        <v>244</v>
+      </c>
+      <c r="C103" s="63"/>
+      <c r="D103" s="64" t="s">
+        <v>334</v>
+      </c>
+      <c r="E103" s="64" t="s">
+        <v>335</v>
+      </c>
+      <c r="F103" s="64" t="s">
+        <v>331</v>
+      </c>
+      <c r="G103" s="70" t="s">
+        <v>209</v>
+      </c>
+      <c r="H103" s="67" t="s">
+        <v>92</v>
+      </c>
+      <c r="I103" s="19">
+        <v>42681</v>
+      </c>
+      <c r="J103" s="63"/>
       <c r="K103" s="7"/>
       <c r="L103" s="7"/>
       <c r="M103" s="7"/>
@@ -12030,17 +12753,33 @@
       <c r="Y103" s="7"/>
       <c r="Z103" s="7"/>
     </row>
-    <row r="104" spans="1:26" ht="75" customHeight="1">
-      <c r="A104" s="16"/>
-      <c r="B104" s="16"/>
-      <c r="C104" s="16"/>
-      <c r="D104" s="16"/>
-      <c r="E104" s="16"/>
-      <c r="F104" s="16"/>
-      <c r="G104" s="16"/>
-      <c r="H104" s="16"/>
-      <c r="I104" s="16"/>
-      <c r="J104" s="16"/>
+    <row r="104" spans="1:26" ht="225" customHeight="1">
+      <c r="A104" s="69" t="s">
+        <v>353</v>
+      </c>
+      <c r="B104" s="64" t="s">
+        <v>247</v>
+      </c>
+      <c r="C104" s="63"/>
+      <c r="D104" s="64" t="s">
+        <v>336</v>
+      </c>
+      <c r="E104" s="64" t="s">
+        <v>337</v>
+      </c>
+      <c r="F104" s="64" t="s">
+        <v>331</v>
+      </c>
+      <c r="G104" s="70" t="s">
+        <v>209</v>
+      </c>
+      <c r="H104" s="67" t="s">
+        <v>92</v>
+      </c>
+      <c r="I104" s="19">
+        <v>42681</v>
+      </c>
+      <c r="J104" s="63"/>
       <c r="K104" s="7"/>
       <c r="L104" s="7"/>
       <c r="M104" s="7"/>
@@ -12058,17 +12797,33 @@
       <c r="Y104" s="7"/>
       <c r="Z104" s="7"/>
     </row>
-    <row r="105" spans="1:26">
-      <c r="A105" s="16"/>
-      <c r="B105" s="16"/>
-      <c r="C105" s="16"/>
-      <c r="D105" s="16"/>
-      <c r="E105" s="16"/>
-      <c r="F105" s="16"/>
-      <c r="G105" s="16"/>
-      <c r="H105" s="16"/>
-      <c r="I105" s="16"/>
-      <c r="J105" s="16"/>
+    <row r="105" spans="1:26" ht="225">
+      <c r="A105" s="69" t="s">
+        <v>354</v>
+      </c>
+      <c r="B105" s="64" t="s">
+        <v>250</v>
+      </c>
+      <c r="C105" s="63"/>
+      <c r="D105" s="64" t="s">
+        <v>328</v>
+      </c>
+      <c r="E105" s="64" t="s">
+        <v>338</v>
+      </c>
+      <c r="F105" s="64" t="s">
+        <v>312</v>
+      </c>
+      <c r="G105" s="70" t="s">
+        <v>209</v>
+      </c>
+      <c r="H105" s="67" t="s">
+        <v>92</v>
+      </c>
+      <c r="I105" s="19">
+        <v>42681</v>
+      </c>
+      <c r="J105" s="63"/>
       <c r="K105" s="7"/>
       <c r="L105" s="7"/>
       <c r="M105" s="7"/>
@@ -12087,16 +12842,16 @@
       <c r="Z105" s="7"/>
     </row>
     <row r="106" spans="1:26" ht="57.75" customHeight="1">
-      <c r="A106" s="16"/>
-      <c r="B106" s="16"/>
-      <c r="C106" s="16"/>
-      <c r="D106" s="16"/>
-      <c r="E106" s="16"/>
-      <c r="F106" s="16"/>
-      <c r="G106" s="16"/>
-      <c r="H106" s="16"/>
-      <c r="I106" s="16"/>
-      <c r="J106" s="16"/>
+      <c r="A106" s="68"/>
+      <c r="B106" s="68"/>
+      <c r="C106" s="66"/>
+      <c r="D106" s="66"/>
+      <c r="E106" s="66"/>
+      <c r="F106" s="66"/>
+      <c r="G106" s="66"/>
+      <c r="H106" s="66"/>
+      <c r="I106" s="66"/>
+      <c r="J106" s="66"/>
       <c r="K106" s="7"/>
       <c r="L106" s="7"/>
       <c r="M106" s="7"/>
@@ -12114,17 +12869,17 @@
       <c r="Y106" s="7"/>
       <c r="Z106" s="7"/>
     </row>
-    <row r="107" spans="1:26" ht="69.75" customHeight="1">
-      <c r="A107" s="16"/>
-      <c r="B107" s="16"/>
-      <c r="C107" s="16"/>
-      <c r="D107" s="16"/>
-      <c r="E107" s="16"/>
-      <c r="F107" s="16"/>
-      <c r="G107" s="16"/>
-      <c r="H107" s="16"/>
-      <c r="I107" s="16"/>
-      <c r="J107" s="16"/>
+    <row r="107" spans="1:26" ht="276" customHeight="1">
+      <c r="A107" s="63"/>
+      <c r="B107" s="64"/>
+      <c r="C107" s="63"/>
+      <c r="D107" s="64"/>
+      <c r="E107" s="64"/>
+      <c r="F107" s="64"/>
+      <c r="G107" s="63"/>
+      <c r="H107" s="67"/>
+      <c r="I107" s="61"/>
+      <c r="J107" s="63"/>
       <c r="K107" s="7"/>
       <c r="L107" s="7"/>
       <c r="M107" s="7"/>
@@ -12142,17 +12897,17 @@
       <c r="Y107" s="7"/>
       <c r="Z107" s="7"/>
     </row>
-    <row r="108" spans="1:26">
-      <c r="A108" s="16"/>
-      <c r="B108" s="16"/>
-      <c r="C108" s="16"/>
-      <c r="D108" s="16"/>
-      <c r="E108" s="16"/>
-      <c r="F108" s="16"/>
-      <c r="G108" s="16"/>
-      <c r="H108" s="16"/>
-      <c r="I108" s="16"/>
-      <c r="J108" s="16"/>
+    <row r="108" spans="1:26" ht="285.75" customHeight="1">
+      <c r="A108" s="63"/>
+      <c r="B108" s="64"/>
+      <c r="C108" s="63"/>
+      <c r="D108" s="64"/>
+      <c r="E108" s="64"/>
+      <c r="F108" s="64"/>
+      <c r="G108" s="64"/>
+      <c r="H108" s="67"/>
+      <c r="I108" s="61"/>
+      <c r="J108" s="63"/>
       <c r="K108" s="7"/>
       <c r="L108" s="7"/>
       <c r="M108" s="7"/>
@@ -12170,17 +12925,17 @@
       <c r="Y108" s="7"/>
       <c r="Z108" s="7"/>
     </row>
-    <row r="109" spans="1:26" ht="69" customHeight="1">
-      <c r="A109" s="16"/>
-      <c r="B109" s="16"/>
-      <c r="C109" s="16"/>
-      <c r="D109" s="16"/>
-      <c r="E109" s="16"/>
-      <c r="F109" s="16"/>
-      <c r="G109" s="16"/>
-      <c r="H109" s="16"/>
-      <c r="I109" s="16"/>
-      <c r="J109" s="16"/>
+    <row r="109" spans="1:26" ht="288.75" customHeight="1">
+      <c r="A109" s="63"/>
+      <c r="B109" s="64"/>
+      <c r="C109" s="63"/>
+      <c r="D109" s="64"/>
+      <c r="E109" s="64"/>
+      <c r="F109" s="64"/>
+      <c r="G109" s="64"/>
+      <c r="H109" s="67"/>
+      <c r="I109" s="61"/>
+      <c r="J109" s="63"/>
       <c r="K109" s="7"/>
       <c r="L109" s="7"/>
       <c r="M109" s="7"/>
@@ -12198,17 +12953,17 @@
       <c r="Y109" s="7"/>
       <c r="Z109" s="7"/>
     </row>
-    <row r="110" spans="1:26" ht="60" customHeight="1">
-      <c r="A110" s="16"/>
-      <c r="B110" s="16"/>
-      <c r="C110" s="16"/>
-      <c r="D110" s="16"/>
-      <c r="E110" s="16"/>
-      <c r="F110" s="16"/>
-      <c r="G110" s="16"/>
-      <c r="H110" s="16"/>
-      <c r="I110" s="16"/>
-      <c r="J110" s="16"/>
+    <row r="110" spans="1:26" ht="233.25" customHeight="1">
+      <c r="A110" s="63"/>
+      <c r="B110" s="64"/>
+      <c r="C110" s="63"/>
+      <c r="D110" s="64"/>
+      <c r="E110" s="64"/>
+      <c r="F110" s="64"/>
+      <c r="G110" s="64"/>
+      <c r="H110" s="67"/>
+      <c r="I110" s="61"/>
+      <c r="J110" s="63"/>
       <c r="K110" s="7"/>
       <c r="L110" s="7"/>
       <c r="M110" s="7"/>
@@ -12227,16 +12982,16 @@
       <c r="Z110" s="7"/>
     </row>
     <row r="111" spans="1:26">
-      <c r="A111" s="16"/>
-      <c r="B111" s="16"/>
-      <c r="C111" s="16"/>
-      <c r="D111" s="16"/>
-      <c r="E111" s="16"/>
-      <c r="F111" s="16"/>
-      <c r="G111" s="16"/>
-      <c r="H111" s="16"/>
-      <c r="I111" s="16"/>
-      <c r="J111" s="16"/>
+      <c r="A111" s="63"/>
+      <c r="B111" s="64"/>
+      <c r="C111" s="63"/>
+      <c r="D111" s="64"/>
+      <c r="E111" s="64"/>
+      <c r="F111" s="64"/>
+      <c r="G111" s="64"/>
+      <c r="H111" s="67"/>
+      <c r="I111" s="61"/>
+      <c r="J111" s="63"/>
       <c r="K111" s="7"/>
       <c r="L111" s="7"/>
       <c r="M111" s="7"/>
@@ -12254,17 +13009,17 @@
       <c r="Y111" s="7"/>
       <c r="Z111" s="7"/>
     </row>
-    <row r="112" spans="1:26">
-      <c r="A112" s="16"/>
-      <c r="B112" s="16"/>
-      <c r="C112" s="16"/>
-      <c r="D112" s="16"/>
-      <c r="E112" s="16"/>
-      <c r="F112" s="16"/>
-      <c r="G112" s="16"/>
-      <c r="H112" s="16"/>
-      <c r="I112" s="16"/>
-      <c r="J112" s="16"/>
+    <row r="112" spans="1:26" ht="307.5" customHeight="1">
+      <c r="A112" s="63"/>
+      <c r="B112" s="64"/>
+      <c r="C112" s="63"/>
+      <c r="D112" s="64"/>
+      <c r="E112" s="64"/>
+      <c r="F112" s="64"/>
+      <c r="G112" s="64"/>
+      <c r="H112" s="67"/>
+      <c r="I112" s="61"/>
+      <c r="J112" s="63"/>
       <c r="K112" s="7"/>
       <c r="L112" s="7"/>
       <c r="M112" s="7"/>
@@ -12283,16 +13038,16 @@
       <c r="Z112" s="7"/>
     </row>
     <row r="113" spans="1:26">
-      <c r="A113" s="16"/>
-      <c r="B113" s="16"/>
-      <c r="C113" s="16"/>
-      <c r="D113" s="16"/>
-      <c r="E113" s="16"/>
-      <c r="F113" s="16"/>
-      <c r="G113" s="16"/>
-      <c r="H113" s="16"/>
-      <c r="I113" s="16"/>
-      <c r="J113" s="16"/>
+      <c r="A113" s="63"/>
+      <c r="B113" s="64"/>
+      <c r="C113" s="63"/>
+      <c r="D113" s="64"/>
+      <c r="E113" s="64"/>
+      <c r="F113" s="64"/>
+      <c r="G113" s="64"/>
+      <c r="H113" s="67"/>
+      <c r="I113" s="61"/>
+      <c r="J113" s="63"/>
       <c r="K113" s="7"/>
       <c r="L113" s="7"/>
       <c r="M113" s="7"/>
@@ -12311,16 +13066,16 @@
       <c r="Z113" s="7"/>
     </row>
     <row r="114" spans="1:26">
-      <c r="A114" s="16"/>
-      <c r="B114" s="16"/>
-      <c r="C114" s="16"/>
-      <c r="D114" s="16"/>
-      <c r="E114" s="16"/>
-      <c r="F114" s="16"/>
-      <c r="G114" s="16"/>
-      <c r="H114" s="16"/>
-      <c r="I114" s="16"/>
-      <c r="J114" s="16"/>
+      <c r="A114" s="63"/>
+      <c r="B114" s="64"/>
+      <c r="C114" s="63"/>
+      <c r="D114" s="64"/>
+      <c r="E114" s="64"/>
+      <c r="F114" s="64"/>
+      <c r="G114" s="64"/>
+      <c r="H114" s="67"/>
+      <c r="I114" s="61"/>
+      <c r="J114" s="63"/>
       <c r="K114" s="7"/>
       <c r="L114" s="7"/>
       <c r="M114" s="7"/>
@@ -12338,17 +13093,17 @@
       <c r="Y114" s="7"/>
       <c r="Z114" s="7"/>
     </row>
-    <row r="115" spans="1:26">
-      <c r="A115" s="16"/>
-      <c r="B115" s="16"/>
-      <c r="C115" s="16"/>
-      <c r="D115" s="16"/>
-      <c r="E115" s="16"/>
-      <c r="F115" s="16"/>
-      <c r="G115" s="16"/>
-      <c r="H115" s="16"/>
-      <c r="I115" s="16"/>
-      <c r="J115" s="16"/>
+    <row r="115" spans="1:26" ht="315" customHeight="1">
+      <c r="A115" s="63"/>
+      <c r="B115" s="64"/>
+      <c r="C115" s="63"/>
+      <c r="D115" s="64"/>
+      <c r="E115" s="64"/>
+      <c r="F115" s="64"/>
+      <c r="G115" s="64"/>
+      <c r="H115" s="67"/>
+      <c r="I115" s="61"/>
+      <c r="J115" s="63"/>
       <c r="K115" s="7"/>
       <c r="L115" s="7"/>
       <c r="M115" s="7"/>
@@ -12367,16 +13122,16 @@
       <c r="Z115" s="7"/>
     </row>
     <row r="116" spans="1:26">
-      <c r="A116" s="16"/>
-      <c r="B116" s="16"/>
-      <c r="C116" s="16"/>
-      <c r="D116" s="16"/>
-      <c r="E116" s="16"/>
-      <c r="F116" s="16"/>
-      <c r="G116" s="16"/>
-      <c r="H116" s="16"/>
-      <c r="I116" s="16"/>
-      <c r="J116" s="16"/>
+      <c r="A116" s="63"/>
+      <c r="B116" s="64"/>
+      <c r="C116" s="63"/>
+      <c r="D116" s="64"/>
+      <c r="E116" s="64"/>
+      <c r="F116" s="64"/>
+      <c r="G116" s="64"/>
+      <c r="H116" s="67"/>
+      <c r="I116" s="61"/>
+      <c r="J116" s="63"/>
       <c r="K116" s="7"/>
       <c r="L116" s="7"/>
       <c r="M116" s="7"/>
@@ -12395,16 +13150,16 @@
       <c r="Z116" s="7"/>
     </row>
     <row r="117" spans="1:26">
-      <c r="A117" s="16"/>
-      <c r="B117" s="16"/>
-      <c r="C117" s="16"/>
-      <c r="D117" s="16"/>
-      <c r="E117" s="16"/>
-      <c r="F117" s="16"/>
-      <c r="G117" s="16"/>
-      <c r="H117" s="16"/>
-      <c r="I117" s="16"/>
-      <c r="J117" s="16"/>
+      <c r="A117" s="63"/>
+      <c r="B117" s="64"/>
+      <c r="C117" s="63"/>
+      <c r="D117" s="64"/>
+      <c r="E117" s="64"/>
+      <c r="F117" s="64"/>
+      <c r="G117" s="64"/>
+      <c r="H117" s="67"/>
+      <c r="I117" s="61"/>
+      <c r="J117" s="63"/>
       <c r="K117" s="7"/>
       <c r="L117" s="7"/>
       <c r="M117" s="7"/>
@@ -12422,17 +13177,17 @@
       <c r="Y117" s="7"/>
       <c r="Z117" s="7"/>
     </row>
-    <row r="118" spans="1:26">
-      <c r="A118" s="16"/>
-      <c r="B118" s="16"/>
-      <c r="C118" s="16"/>
-      <c r="D118" s="16"/>
-      <c r="E118" s="16"/>
-      <c r="F118" s="16"/>
-      <c r="G118" s="16"/>
-      <c r="H118" s="16"/>
-      <c r="I118" s="16"/>
-      <c r="J118" s="16"/>
+    <row r="118" spans="1:26" ht="288" customHeight="1">
+      <c r="A118" s="63"/>
+      <c r="B118" s="64"/>
+      <c r="C118" s="63"/>
+      <c r="D118" s="64"/>
+      <c r="E118" s="64"/>
+      <c r="F118" s="64"/>
+      <c r="G118" s="64"/>
+      <c r="H118" s="67"/>
+      <c r="I118" s="61"/>
+      <c r="J118" s="63"/>
       <c r="K118" s="7"/>
       <c r="L118" s="7"/>
       <c r="M118" s="7"/>
@@ -12451,16 +13206,16 @@
       <c r="Z118" s="7"/>
     </row>
     <row r="119" spans="1:26">
-      <c r="A119" s="16"/>
-      <c r="B119" s="16"/>
-      <c r="C119" s="16"/>
-      <c r="D119" s="16"/>
-      <c r="E119" s="16"/>
-      <c r="F119" s="16"/>
-      <c r="G119" s="16"/>
-      <c r="H119" s="16"/>
-      <c r="I119" s="16"/>
-      <c r="J119" s="16"/>
+      <c r="A119" s="63"/>
+      <c r="B119" s="64"/>
+      <c r="C119" s="63"/>
+      <c r="D119" s="64"/>
+      <c r="E119" s="64"/>
+      <c r="F119" s="64"/>
+      <c r="G119" s="64"/>
+      <c r="H119" s="67"/>
+      <c r="I119" s="61"/>
+      <c r="J119" s="63"/>
       <c r="K119" s="7"/>
       <c r="L119" s="7"/>
       <c r="M119" s="7"/>
@@ -12479,16 +13234,16 @@
       <c r="Z119" s="7"/>
     </row>
     <row r="120" spans="1:26">
-      <c r="A120" s="16"/>
-      <c r="B120" s="16"/>
-      <c r="C120" s="16"/>
-      <c r="D120" s="16"/>
-      <c r="E120" s="16"/>
-      <c r="F120" s="16"/>
-      <c r="G120" s="16"/>
-      <c r="H120" s="16"/>
-      <c r="I120" s="16"/>
-      <c r="J120" s="16"/>
+      <c r="A120" s="63"/>
+      <c r="B120" s="64"/>
+      <c r="C120" s="63"/>
+      <c r="D120" s="64"/>
+      <c r="E120" s="64"/>
+      <c r="F120" s="64"/>
+      <c r="G120" s="64"/>
+      <c r="H120" s="67"/>
+      <c r="I120" s="61"/>
+      <c r="J120" s="63"/>
       <c r="K120" s="7"/>
       <c r="L120" s="7"/>
       <c r="M120" s="7"/>
@@ -12506,17 +13261,17 @@
       <c r="Y120" s="7"/>
       <c r="Z120" s="7"/>
     </row>
-    <row r="121" spans="1:26">
-      <c r="A121" s="16"/>
-      <c r="B121" s="16"/>
-      <c r="C121" s="16"/>
-      <c r="D121" s="16"/>
-      <c r="E121" s="16"/>
-      <c r="F121" s="16"/>
-      <c r="G121" s="16"/>
-      <c r="H121" s="16"/>
-      <c r="I121" s="16"/>
-      <c r="J121" s="16"/>
+    <row r="121" spans="1:26" ht="300" customHeight="1">
+      <c r="A121" s="63"/>
+      <c r="B121" s="64"/>
+      <c r="C121" s="63"/>
+      <c r="D121" s="64"/>
+      <c r="E121" s="64"/>
+      <c r="F121" s="64"/>
+      <c r="G121" s="64"/>
+      <c r="H121" s="67"/>
+      <c r="I121" s="61"/>
+      <c r="J121" s="63"/>
       <c r="K121" s="7"/>
       <c r="L121" s="7"/>
       <c r="M121" s="7"/>
@@ -12534,17 +13289,17 @@
       <c r="Y121" s="7"/>
       <c r="Z121" s="7"/>
     </row>
-    <row r="122" spans="1:26">
-      <c r="A122" s="16"/>
-      <c r="B122" s="16"/>
-      <c r="C122" s="16"/>
-      <c r="D122" s="16"/>
-      <c r="E122" s="16"/>
-      <c r="F122" s="16"/>
-      <c r="G122" s="16"/>
-      <c r="H122" s="16"/>
-      <c r="I122" s="16"/>
-      <c r="J122" s="16"/>
+    <row r="122" spans="1:26" ht="297.75" customHeight="1">
+      <c r="A122" s="63"/>
+      <c r="B122" s="64"/>
+      <c r="C122" s="63"/>
+      <c r="D122" s="64"/>
+      <c r="E122" s="64"/>
+      <c r="F122" s="64"/>
+      <c r="G122" s="64"/>
+      <c r="H122" s="67"/>
+      <c r="I122" s="61"/>
+      <c r="J122" s="63"/>
       <c r="K122" s="7"/>
       <c r="L122" s="7"/>
       <c r="M122" s="7"/>
@@ -12563,16 +13318,16 @@
       <c r="Z122" s="7"/>
     </row>
     <row r="123" spans="1:26">
-      <c r="A123" s="16"/>
-      <c r="B123" s="16"/>
-      <c r="C123" s="16"/>
-      <c r="D123" s="16"/>
-      <c r="E123" s="16"/>
-      <c r="F123" s="16"/>
-      <c r="G123" s="16"/>
-      <c r="H123" s="16"/>
-      <c r="I123" s="16"/>
-      <c r="J123" s="16"/>
+      <c r="A123" s="15"/>
+      <c r="B123" s="15"/>
+      <c r="C123" s="15"/>
+      <c r="D123" s="15"/>
+      <c r="E123" s="15"/>
+      <c r="F123" s="15"/>
+      <c r="G123" s="15"/>
+      <c r="H123" s="15"/>
+      <c r="I123" s="15"/>
+      <c r="J123" s="15"/>
       <c r="K123" s="7"/>
       <c r="L123" s="7"/>
       <c r="M123" s="7"/>
@@ -12591,16 +13346,16 @@
       <c r="Z123" s="7"/>
     </row>
     <row r="124" spans="1:26">
-      <c r="A124" s="16"/>
-      <c r="B124" s="16"/>
-      <c r="C124" s="16"/>
-      <c r="D124" s="16"/>
-      <c r="E124" s="16"/>
-      <c r="F124" s="16"/>
-      <c r="G124" s="16"/>
-      <c r="H124" s="16"/>
-      <c r="I124" s="16"/>
-      <c r="J124" s="16"/>
+      <c r="A124" s="15"/>
+      <c r="B124" s="15"/>
+      <c r="C124" s="15"/>
+      <c r="D124" s="15"/>
+      <c r="E124" s="15"/>
+      <c r="F124" s="15"/>
+      <c r="G124" s="15"/>
+      <c r="H124" s="15"/>
+      <c r="I124" s="15"/>
+      <c r="J124" s="15"/>
       <c r="K124" s="7"/>
       <c r="L124" s="7"/>
       <c r="M124" s="7"/>
@@ -12619,16 +13374,16 @@
       <c r="Z124" s="7"/>
     </row>
     <row r="125" spans="1:26">
-      <c r="A125" s="16"/>
-      <c r="B125" s="16"/>
-      <c r="C125" s="16"/>
-      <c r="D125" s="16"/>
-      <c r="E125" s="16"/>
-      <c r="F125" s="16"/>
-      <c r="G125" s="16"/>
-      <c r="H125" s="16"/>
-      <c r="I125" s="16"/>
-      <c r="J125" s="16"/>
+      <c r="A125" s="15"/>
+      <c r="B125" s="15"/>
+      <c r="C125" s="15"/>
+      <c r="D125" s="15"/>
+      <c r="E125" s="15"/>
+      <c r="F125" s="15"/>
+      <c r="G125" s="15"/>
+      <c r="H125" s="15"/>
+      <c r="I125" s="15"/>
+      <c r="J125" s="15"/>
       <c r="K125" s="7"/>
       <c r="L125" s="7"/>
       <c r="M125" s="7"/>
@@ -12647,16 +13402,16 @@
       <c r="Z125" s="7"/>
     </row>
     <row r="126" spans="1:26">
-      <c r="A126" s="16"/>
-      <c r="B126" s="16"/>
-      <c r="C126" s="16"/>
-      <c r="D126" s="16"/>
-      <c r="E126" s="16"/>
-      <c r="F126" s="16"/>
-      <c r="G126" s="16"/>
-      <c r="H126" s="16"/>
-      <c r="I126" s="16"/>
-      <c r="J126" s="16"/>
+      <c r="A126" s="15"/>
+      <c r="B126" s="15"/>
+      <c r="C126" s="15"/>
+      <c r="D126" s="15"/>
+      <c r="E126" s="15"/>
+      <c r="F126" s="15"/>
+      <c r="G126" s="15"/>
+      <c r="H126" s="15"/>
+      <c r="I126" s="15"/>
+      <c r="J126" s="15"/>
       <c r="K126" s="7"/>
       <c r="L126" s="7"/>
       <c r="M126" s="7"/>
@@ -12675,16 +13430,16 @@
       <c r="Z126" s="7"/>
     </row>
     <row r="127" spans="1:26">
-      <c r="A127" s="16"/>
-      <c r="B127" s="16"/>
-      <c r="C127" s="16"/>
-      <c r="D127" s="16"/>
-      <c r="E127" s="16"/>
-      <c r="F127" s="16"/>
-      <c r="G127" s="16"/>
-      <c r="H127" s="16"/>
-      <c r="I127" s="16"/>
-      <c r="J127" s="16"/>
+      <c r="A127" s="15"/>
+      <c r="B127" s="15"/>
+      <c r="C127" s="15"/>
+      <c r="D127" s="15"/>
+      <c r="E127" s="15"/>
+      <c r="F127" s="15"/>
+      <c r="G127" s="15"/>
+      <c r="H127" s="15"/>
+      <c r="I127" s="15"/>
+      <c r="J127" s="15"/>
       <c r="K127" s="7"/>
       <c r="L127" s="7"/>
       <c r="M127" s="7"/>
@@ -12703,16 +13458,16 @@
       <c r="Z127" s="7"/>
     </row>
     <row r="128" spans="1:26">
-      <c r="A128" s="16"/>
-      <c r="B128" s="16"/>
-      <c r="C128" s="16"/>
-      <c r="D128" s="16"/>
-      <c r="E128" s="16"/>
-      <c r="F128" s="16"/>
-      <c r="G128" s="16"/>
-      <c r="H128" s="16"/>
-      <c r="I128" s="16"/>
-      <c r="J128" s="16"/>
+      <c r="A128" s="15"/>
+      <c r="B128" s="15"/>
+      <c r="C128" s="15"/>
+      <c r="D128" s="15"/>
+      <c r="E128" s="15"/>
+      <c r="F128" s="15"/>
+      <c r="G128" s="15"/>
+      <c r="H128" s="15"/>
+      <c r="I128" s="15"/>
+      <c r="J128" s="15"/>
       <c r="K128" s="7"/>
       <c r="L128" s="7"/>
       <c r="M128" s="7"/>
@@ -12731,16 +13486,16 @@
       <c r="Z128" s="7"/>
     </row>
     <row r="129" spans="1:26">
-      <c r="A129" s="16"/>
-      <c r="B129" s="16"/>
-      <c r="C129" s="16"/>
-      <c r="D129" s="16"/>
-      <c r="E129" s="16"/>
-      <c r="F129" s="16"/>
-      <c r="G129" s="16"/>
-      <c r="H129" s="16"/>
-      <c r="I129" s="16"/>
-      <c r="J129" s="16"/>
+      <c r="A129" s="15"/>
+      <c r="B129" s="15"/>
+      <c r="C129" s="15"/>
+      <c r="D129" s="15"/>
+      <c r="E129" s="15"/>
+      <c r="F129" s="15"/>
+      <c r="G129" s="15"/>
+      <c r="H129" s="15"/>
+      <c r="I129" s="15"/>
+      <c r="J129" s="15"/>
       <c r="K129" s="7"/>
       <c r="L129" s="7"/>
       <c r="M129" s="7"/>

--- a/TestCase.xlsx
+++ b/TestCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="525" windowWidth="19815" windowHeight="7365"/>
+    <workbookView xWindow="360" yWindow="525" windowWidth="19815" windowHeight="7365" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Function list" sheetId="1" r:id="rId1"/>
@@ -1643,7 +1643,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1696,51 +1696,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
@@ -1769,7 +1724,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1784,22 +1739,18 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1819,9 +1770,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1853,9 +1801,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1868,10 +1813,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1883,16 +1828,16 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1901,10 +1846,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1925,9 +1870,6 @@
     <xf numFmtId="1" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1940,14 +1882,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1961,6 +1897,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2255,10 +2193,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1000"/>
+  <dimension ref="A1:D999"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1"/>
@@ -2308,7 +2246,7 @@
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="10" t="s">
         <v>64</v>
       </c>
       <c r="C4" s="5"/>
@@ -2318,7 +2256,7 @@
       <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="10" t="s">
         <v>90</v>
       </c>
       <c r="C5" s="5"/>
@@ -2328,7 +2266,7 @@
       <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="12" t="s">
         <v>89</v>
       </c>
       <c r="C6" s="5"/>
@@ -2378,7 +2316,7 @@
       <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="10" t="s">
         <v>201</v>
       </c>
       <c r="C11" s="5"/>
@@ -2388,7 +2326,7 @@
       <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="10" t="s">
         <v>270</v>
       </c>
       <c r="C12" s="5"/>
@@ -2398,27 +2336,27 @@
       <c r="A13" s="5">
         <v>12</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="10" t="s">
         <v>291</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="10">
+      <c r="A14" s="64">
         <v>13</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="65" t="s">
         <v>304</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="64"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="11"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="13"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="6"/>
@@ -8323,12 +8261,6 @@
       <c r="B999" s="6"/>
       <c r="C999" s="6"/>
       <c r="D999" s="6"/>
-    </row>
-    <row r="1000" spans="1:4">
-      <c r="A1000" s="6"/>
-      <c r="B1000" s="6"/>
-      <c r="C1000" s="6"/>
-      <c r="D1000" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8337,10 +8269,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z1007"/>
+  <dimension ref="A1:Z983"/>
   <sheetViews>
-    <sheetView topLeftCell="A87" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G97" sqref="G90:G97"/>
+    <sheetView tabSelected="1" topLeftCell="A104" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I90" sqref="I90:I105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1"/>
@@ -8357,34 +8289,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="17" t="s">
         <v>3</v>
       </c>
       <c r="K1" s="7"/>
@@ -8405,20 +8337,20 @@
       <c r="Z1" s="7"/>
     </row>
     <row r="2" spans="1:26">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
@@ -8437,32 +8369,33 @@
       <c r="Z2" s="7"/>
     </row>
     <row r="3" spans="1:26" ht="45" customHeight="1">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="24" t="s">
+      <c r="C3" s="19"/>
+      <c r="D3" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="G3" s="55" t="s">
+      <c r="G3" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="H3" s="25" t="s">
+      <c r="H3" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="I3" s="26">
-        <v>42376</v>
-      </c>
-      <c r="J3" s="23"/>
+      <c r="I3" s="15">
+        <f t="shared" ref="I3:I8" si="0">DATE(2016,7,1)</f>
+        <v>42552</v>
+      </c>
+      <c r="J3" s="19"/>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
@@ -8481,32 +8414,33 @@
       <c r="Z3" s="7"/>
     </row>
     <row r="4" spans="1:26" ht="55.5" customHeight="1">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="24" t="s">
+      <c r="C4" s="19"/>
+      <c r="D4" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="24" t="s">
+      <c r="F4" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="G4" s="55" t="s">
+      <c r="G4" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="H4" s="25" t="s">
+      <c r="H4" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="I4" s="26">
-        <v>42376</v>
-      </c>
-      <c r="J4" s="23"/>
+      <c r="I4" s="15">
+        <f t="shared" si="0"/>
+        <v>42552</v>
+      </c>
+      <c r="J4" s="19"/>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
@@ -8525,32 +8459,33 @@
       <c r="Z4" s="7"/>
     </row>
     <row r="5" spans="1:26" ht="56.25" customHeight="1">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="24" t="s">
+      <c r="C5" s="19"/>
+      <c r="D5" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="55" t="s">
+      <c r="G5" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="H5" s="25" t="s">
+      <c r="H5" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="I5" s="26">
-        <v>42376</v>
-      </c>
-      <c r="J5" s="23"/>
+      <c r="I5" s="15">
+        <f t="shared" si="0"/>
+        <v>42552</v>
+      </c>
+      <c r="J5" s="19"/>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
@@ -8569,32 +8504,33 @@
       <c r="Z5" s="7"/>
     </row>
     <row r="6" spans="1:26" ht="67.5" customHeight="1">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="24" t="s">
+      <c r="C6" s="19"/>
+      <c r="D6" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="55" t="s">
+      <c r="G6" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="H6" s="25" t="s">
+      <c r="H6" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="I6" s="26">
-        <v>42376</v>
-      </c>
-      <c r="J6" s="23"/>
+      <c r="I6" s="15">
+        <f t="shared" si="0"/>
+        <v>42552</v>
+      </c>
+      <c r="J6" s="19"/>
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
@@ -8613,32 +8549,33 @@
       <c r="Z6" s="7"/>
     </row>
     <row r="7" spans="1:26" ht="77.25" customHeight="1">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="23"/>
-      <c r="D7" s="24" t="s">
+      <c r="C7" s="19"/>
+      <c r="D7" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="24" t="s">
+      <c r="F7" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="55" t="s">
+      <c r="G7" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="H7" s="25" t="s">
+      <c r="H7" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="I7" s="26">
-        <v>42376</v>
-      </c>
-      <c r="J7" s="23"/>
+      <c r="I7" s="15">
+        <f t="shared" si="0"/>
+        <v>42552</v>
+      </c>
+      <c r="J7" s="19"/>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
@@ -8657,32 +8594,33 @@
       <c r="Z7" s="7"/>
     </row>
     <row r="8" spans="1:26" ht="99" customHeight="1">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="24" t="s">
+      <c r="C8" s="19"/>
+      <c r="D8" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="55" t="s">
+      <c r="G8" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="H8" s="25" t="s">
+      <c r="H8" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="I8" s="26">
-        <v>42376</v>
-      </c>
-      <c r="J8" s="23"/>
+      <c r="I8" s="15">
+        <f t="shared" si="0"/>
+        <v>42552</v>
+      </c>
+      <c r="J8" s="19"/>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
@@ -8701,20 +8639,20 @@
       <c r="Z8" s="7"/>
     </row>
     <row r="9" spans="1:26">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
@@ -8733,32 +8671,33 @@
       <c r="Z9" s="7"/>
     </row>
     <row r="10" spans="1:26" ht="98.25" customHeight="1">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="24" t="s">
+      <c r="C10" s="19"/>
+      <c r="D10" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="E10" s="24" t="s">
+      <c r="E10" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="24" t="s">
+      <c r="F10" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="55" t="s">
+      <c r="G10" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="H10" s="25" t="s">
+      <c r="H10" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="I10" s="26">
-        <v>42376</v>
-      </c>
-      <c r="J10" s="23"/>
+      <c r="I10" s="15">
+        <f t="shared" ref="I10:I21" si="1">DATE(2016,7,1)</f>
+        <v>42552</v>
+      </c>
+      <c r="J10" s="19"/>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
@@ -8777,32 +8716,33 @@
       <c r="Z10" s="7"/>
     </row>
     <row r="11" spans="1:26" ht="92.25" customHeight="1">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="24" t="s">
+      <c r="C11" s="19"/>
+      <c r="D11" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="E11" s="24" t="s">
+      <c r="E11" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="24" t="s">
+      <c r="F11" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="G11" s="55" t="s">
+      <c r="G11" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="H11" s="25" t="s">
+      <c r="H11" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="I11" s="26">
-        <v>42376</v>
-      </c>
-      <c r="J11" s="23"/>
+      <c r="I11" s="15">
+        <f t="shared" si="1"/>
+        <v>42552</v>
+      </c>
+      <c r="J11" s="19"/>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
@@ -8821,32 +8761,33 @@
       <c r="Z11" s="7"/>
     </row>
     <row r="12" spans="1:26" ht="94.5" customHeight="1">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="24" t="s">
+      <c r="C12" s="19"/>
+      <c r="D12" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="E12" s="24" t="s">
+      <c r="E12" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="24" t="s">
+      <c r="F12" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="55" t="s">
+      <c r="G12" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="H12" s="25" t="s">
+      <c r="H12" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="I12" s="26">
-        <v>42376</v>
-      </c>
-      <c r="J12" s="23"/>
+      <c r="I12" s="15">
+        <f t="shared" si="1"/>
+        <v>42552</v>
+      </c>
+      <c r="J12" s="19"/>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
@@ -8865,32 +8806,33 @@
       <c r="Z12" s="7"/>
     </row>
     <row r="13" spans="1:26" ht="56.25" customHeight="1">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="24" t="s">
+      <c r="C13" s="19"/>
+      <c r="D13" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="E13" s="24" t="s">
+      <c r="E13" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="24" t="s">
+      <c r="F13" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="G13" s="55" t="s">
+      <c r="G13" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="H13" s="25" t="s">
+      <c r="H13" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="I13" s="26">
-        <v>42376</v>
-      </c>
-      <c r="J13" s="23"/>
+      <c r="I13" s="15">
+        <f t="shared" si="1"/>
+        <v>42552</v>
+      </c>
+      <c r="J13" s="19"/>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
@@ -8909,32 +8851,33 @@
       <c r="Z13" s="7"/>
     </row>
     <row r="14" spans="1:26" ht="81.75" customHeight="1">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="24" t="s">
+      <c r="C14" s="19"/>
+      <c r="D14" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="E14" s="24" t="s">
+      <c r="E14" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="24" t="s">
+      <c r="F14" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="G14" s="55" t="s">
+      <c r="G14" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="H14" s="25" t="s">
+      <c r="H14" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="I14" s="26">
-        <v>42376</v>
-      </c>
-      <c r="J14" s="23"/>
+      <c r="I14" s="15">
+        <f t="shared" si="1"/>
+        <v>42552</v>
+      </c>
+      <c r="J14" s="19"/>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
@@ -8953,32 +8896,33 @@
       <c r="Z14" s="7"/>
     </row>
     <row r="15" spans="1:26" ht="98.25" customHeight="1">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="24" t="s">
+      <c r="C15" s="19"/>
+      <c r="D15" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="E15" s="24" t="s">
+      <c r="E15" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="F15" s="24" t="s">
+      <c r="F15" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="G15" s="55" t="s">
+      <c r="G15" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="H15" s="25" t="s">
+      <c r="H15" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="I15" s="26">
-        <v>42376</v>
-      </c>
-      <c r="J15" s="23"/>
+      <c r="I15" s="15">
+        <f t="shared" si="1"/>
+        <v>42552</v>
+      </c>
+      <c r="J15" s="19"/>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
@@ -8997,32 +8941,33 @@
       <c r="Z15" s="7"/>
     </row>
     <row r="16" spans="1:26" ht="107.25" customHeight="1">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="23" t="s">
         <v>165</v>
       </c>
-      <c r="C16" s="23"/>
-      <c r="D16" s="24" t="s">
+      <c r="C16" s="19"/>
+      <c r="D16" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="E16" s="24" t="s">
+      <c r="E16" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="F16" s="24" t="s">
+      <c r="F16" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="G16" s="55" t="s">
+      <c r="G16" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="H16" s="25" t="s">
+      <c r="H16" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="I16" s="26">
-        <v>42376</v>
-      </c>
-      <c r="J16" s="23"/>
+      <c r="I16" s="15">
+        <f t="shared" si="1"/>
+        <v>42552</v>
+      </c>
+      <c r="J16" s="19"/>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
@@ -9041,32 +8986,33 @@
       <c r="Z16" s="7"/>
     </row>
     <row r="17" spans="1:26" ht="105.75" customHeight="1">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="29"/>
-      <c r="D17" s="24" t="s">
+      <c r="C17" s="24"/>
+      <c r="D17" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="E17" s="31" t="s">
+      <c r="E17" s="26" t="s">
         <v>155</v>
       </c>
-      <c r="F17" s="25" t="s">
+      <c r="F17" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="G17" s="55" t="s">
+      <c r="G17" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="H17" s="25" t="s">
+      <c r="H17" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="I17" s="26">
-        <v>42376</v>
-      </c>
-      <c r="J17" s="29"/>
+      <c r="I17" s="15">
+        <f t="shared" si="1"/>
+        <v>42552</v>
+      </c>
+      <c r="J17" s="24"/>
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
@@ -9085,32 +9031,33 @@
       <c r="Z17" s="7"/>
     </row>
     <row r="18" spans="1:26" ht="105.75" customHeight="1">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="25" t="s">
         <v>156</v>
       </c>
-      <c r="B18" s="32" t="s">
+      <c r="B18" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="33"/>
-      <c r="D18" s="34" t="s">
+      <c r="C18" s="28"/>
+      <c r="D18" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="E18" s="34" t="s">
+      <c r="E18" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="F18" s="34" t="s">
+      <c r="F18" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="G18" s="51" t="s">
+      <c r="G18" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="H18" s="25" t="s">
+      <c r="H18" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="I18" s="26">
-        <v>42376</v>
-      </c>
-      <c r="J18" s="33"/>
+      <c r="I18" s="15">
+        <f t="shared" si="1"/>
+        <v>42552</v>
+      </c>
+      <c r="J18" s="28"/>
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
@@ -9129,32 +9076,33 @@
       <c r="Z18" s="7"/>
     </row>
     <row r="19" spans="1:26" ht="105.75" customHeight="1">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="25" t="s">
         <v>157</v>
       </c>
-      <c r="B19" s="32" t="s">
+      <c r="B19" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="33"/>
-      <c r="D19" s="34" t="s">
+      <c r="C19" s="28"/>
+      <c r="D19" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="E19" s="34" t="s">
+      <c r="E19" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="F19" s="34" t="s">
+      <c r="F19" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="G19" s="51" t="s">
+      <c r="G19" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="H19" s="25" t="s">
+      <c r="H19" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="I19" s="26">
-        <v>42376</v>
-      </c>
-      <c r="J19" s="33"/>
+      <c r="I19" s="15">
+        <f t="shared" si="1"/>
+        <v>42552</v>
+      </c>
+      <c r="J19" s="28"/>
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
@@ -9173,32 +9121,33 @@
       <c r="Z19" s="7"/>
     </row>
     <row r="20" spans="1:26" ht="105.75" customHeight="1">
-      <c r="A20" s="30" t="s">
+      <c r="A20" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="33"/>
-      <c r="D20" s="34" t="s">
+      <c r="C20" s="28"/>
+      <c r="D20" s="29" t="s">
         <v>162</v>
       </c>
-      <c r="E20" s="34" t="s">
+      <c r="E20" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="F20" s="34" t="s">
+      <c r="F20" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="G20" s="51" t="s">
+      <c r="G20" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="H20" s="25" t="s">
+      <c r="H20" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="I20" s="26">
-        <v>42376</v>
-      </c>
-      <c r="J20" s="33"/>
+      <c r="I20" s="15">
+        <f t="shared" si="1"/>
+        <v>42552</v>
+      </c>
+      <c r="J20" s="28"/>
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
@@ -9217,32 +9166,33 @@
       <c r="Z20" s="7"/>
     </row>
     <row r="21" spans="1:26" ht="105.75" customHeight="1">
-      <c r="A21" s="30" t="s">
+      <c r="A21" s="25" t="s">
         <v>159</v>
       </c>
-      <c r="B21" s="32" t="s">
+      <c r="B21" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="33"/>
-      <c r="D21" s="34" t="s">
+      <c r="C21" s="28"/>
+      <c r="D21" s="29" t="s">
         <v>163</v>
       </c>
-      <c r="E21" s="34" t="s">
+      <c r="E21" s="29" t="s">
         <v>164</v>
       </c>
-      <c r="F21" s="34" t="s">
+      <c r="F21" s="29" t="s">
         <v>164</v>
       </c>
-      <c r="G21" s="51" t="s">
+      <c r="G21" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="H21" s="25" t="s">
+      <c r="H21" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="I21" s="26">
-        <v>42376</v>
-      </c>
-      <c r="J21" s="33"/>
+      <c r="I21" s="15">
+        <f t="shared" si="1"/>
+        <v>42552</v>
+      </c>
+      <c r="J21" s="28"/>
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
@@ -9261,20 +9211,20 @@
       <c r="Z21" s="7"/>
     </row>
     <row r="22" spans="1:26" ht="22.5" customHeight="1">
-      <c r="A22" s="27" t="s">
+      <c r="A22" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="B22" s="27" t="s">
+      <c r="B22" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
@@ -9293,32 +9243,33 @@
       <c r="Z22" s="7"/>
     </row>
     <row r="23" spans="1:26" ht="34.5" customHeight="1">
-      <c r="A23" s="35" t="s">
+      <c r="A23" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="B23" s="35" t="s">
+      <c r="B23" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="C23" s="32"/>
-      <c r="D23" s="36" t="s">
+      <c r="C23" s="27"/>
+      <c r="D23" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="E23" s="36" t="s">
+      <c r="E23" s="31" t="s">
         <v>154</v>
       </c>
-      <c r="F23" s="36" t="s">
+      <c r="F23" s="31" t="s">
         <v>154</v>
       </c>
-      <c r="G23" s="51" t="s">
+      <c r="G23" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="H23" s="34" t="s">
+      <c r="H23" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="I23" s="37">
-        <v>42376</v>
-      </c>
-      <c r="J23" s="32"/>
+      <c r="I23" s="15">
+        <f>DATE(2016,7,1)</f>
+        <v>42552</v>
+      </c>
+      <c r="J23" s="27"/>
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
@@ -9337,20 +9288,20 @@
       <c r="Z23" s="7"/>
     </row>
     <row r="24" spans="1:26">
-      <c r="A24" s="27" t="s">
+      <c r="A24" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
@@ -9369,32 +9320,33 @@
       <c r="Z24" s="7"/>
     </row>
     <row r="25" spans="1:26" ht="60" customHeight="1">
-      <c r="A25" s="35" t="s">
+      <c r="A25" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="B25" s="32" t="s">
+      <c r="B25" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="32"/>
-      <c r="D25" s="34" t="s">
+      <c r="C25" s="27"/>
+      <c r="D25" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="E25" s="34" t="s">
+      <c r="E25" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="F25" s="34" t="s">
+      <c r="F25" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="G25" s="51" t="s">
+      <c r="G25" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="H25" s="36" t="s">
+      <c r="H25" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="I25" s="26">
-        <v>42497</v>
-      </c>
-      <c r="J25" s="32"/>
+      <c r="I25" s="15">
+        <f t="shared" ref="I25:I28" si="2">DATE(2016,7,5)</f>
+        <v>42556</v>
+      </c>
+      <c r="J25" s="27"/>
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
@@ -9413,32 +9365,33 @@
       <c r="Z25" s="7"/>
     </row>
     <row r="26" spans="1:26" ht="60" customHeight="1">
-      <c r="A26" s="35" t="s">
+      <c r="A26" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="B26" s="32" t="s">
+      <c r="B26" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="32"/>
-      <c r="D26" s="34" t="s">
+      <c r="C26" s="27"/>
+      <c r="D26" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="E26" s="34" t="s">
+      <c r="E26" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="F26" s="34" t="s">
+      <c r="F26" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="G26" s="51" t="s">
+      <c r="G26" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="H26" s="36" t="s">
+      <c r="H26" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="I26" s="26">
-        <v>42497</v>
-      </c>
-      <c r="J26" s="32"/>
+      <c r="I26" s="15">
+        <f t="shared" si="2"/>
+        <v>42556</v>
+      </c>
+      <c r="J26" s="27"/>
       <c r="K26" s="7"/>
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
@@ -9457,32 +9410,33 @@
       <c r="Z26" s="7"/>
     </row>
     <row r="27" spans="1:26" ht="60" customHeight="1">
-      <c r="A27" s="35" t="s">
+      <c r="A27" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="B27" s="32" t="s">
+      <c r="B27" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="32"/>
-      <c r="D27" s="34" t="s">
+      <c r="C27" s="27"/>
+      <c r="D27" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="E27" s="34" t="s">
+      <c r="E27" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="F27" s="34" t="s">
+      <c r="F27" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="G27" s="51" t="s">
+      <c r="G27" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="H27" s="36" t="s">
+      <c r="H27" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="I27" s="26">
-        <v>42497</v>
-      </c>
-      <c r="J27" s="32"/>
+      <c r="I27" s="15">
+        <f t="shared" si="2"/>
+        <v>42556</v>
+      </c>
+      <c r="J27" s="27"/>
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
       <c r="M27" s="7"/>
@@ -9501,32 +9455,33 @@
       <c r="Z27" s="7"/>
     </row>
     <row r="28" spans="1:26" ht="60" customHeight="1">
-      <c r="A28" s="35" t="s">
+      <c r="A28" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="B28" s="32" t="s">
+      <c r="B28" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="C28" s="32"/>
-      <c r="D28" s="34" t="s">
+      <c r="C28" s="27"/>
+      <c r="D28" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="E28" s="34" t="s">
+      <c r="E28" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="F28" s="34" t="s">
+      <c r="F28" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="G28" s="51" t="s">
+      <c r="G28" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="H28" s="36" t="s">
+      <c r="H28" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="I28" s="26">
-        <v>42497</v>
-      </c>
-      <c r="J28" s="32"/>
+      <c r="I28" s="15">
+        <f t="shared" si="2"/>
+        <v>42556</v>
+      </c>
+      <c r="J28" s="27"/>
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
@@ -9545,32 +9500,33 @@
       <c r="Z28" s="7"/>
     </row>
     <row r="29" spans="1:26" ht="75">
-      <c r="A29" s="35" t="s">
+      <c r="A29" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="B29" s="32" t="s">
+      <c r="B29" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="32"/>
-      <c r="D29" s="34" t="s">
+      <c r="C29" s="27"/>
+      <c r="D29" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="E29" s="34" t="s">
+      <c r="E29" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="F29" s="34" t="s">
+      <c r="F29" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="G29" s="51" t="s">
+      <c r="G29" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="H29" s="36" t="s">
+      <c r="H29" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="I29" s="26">
-        <v>42497</v>
-      </c>
-      <c r="J29" s="32"/>
+      <c r="I29" s="15">
+        <f>DATE(2016,7,5)</f>
+        <v>42556</v>
+      </c>
+      <c r="J29" s="27"/>
       <c r="K29" s="7"/>
       <c r="L29" s="7"/>
       <c r="M29" s="7"/>
@@ -9589,20 +9545,20 @@
       <c r="Z29" s="7"/>
     </row>
     <row r="30" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A30" s="38" t="s">
+      <c r="A30" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="B30" s="22" t="s">
+      <c r="B30" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="39"/>
-      <c r="J30" s="22"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="33"/>
+      <c r="J30" s="18"/>
       <c r="K30" s="7"/>
       <c r="L30" s="7"/>
       <c r="M30" s="7"/>
@@ -9621,32 +9577,33 @@
       <c r="Z30" s="7"/>
     </row>
     <row r="31" spans="1:26" ht="120" customHeight="1">
-      <c r="A31" s="40" t="s">
+      <c r="A31" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="B31" s="34" t="s">
+      <c r="B31" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="C31" s="32"/>
-      <c r="D31" s="34" t="s">
+      <c r="C31" s="27"/>
+      <c r="D31" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="E31" s="41" t="s">
+      <c r="E31" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="F31" s="34" t="s">
+      <c r="F31" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="G31" s="51" t="s">
+      <c r="G31" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="H31" s="36" t="s">
+      <c r="H31" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="I31" s="26">
-        <v>42467</v>
-      </c>
-      <c r="J31" s="32"/>
+      <c r="I31" s="15">
+        <f t="shared" ref="I31:I36" si="3">DATE(2016,7,4)</f>
+        <v>42555</v>
+      </c>
+      <c r="J31" s="27"/>
       <c r="K31" s="7"/>
       <c r="L31" s="7"/>
       <c r="M31" s="7"/>
@@ -9665,32 +9622,33 @@
       <c r="Z31" s="7"/>
     </row>
     <row r="32" spans="1:26" ht="124.5" customHeight="1">
-      <c r="A32" s="40" t="s">
+      <c r="A32" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="B32" s="34" t="s">
+      <c r="B32" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="C32" s="32"/>
-      <c r="D32" s="34" t="s">
+      <c r="C32" s="27"/>
+      <c r="D32" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="E32" s="34" t="s">
+      <c r="E32" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="F32" s="34" t="s">
+      <c r="F32" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="G32" s="51" t="s">
+      <c r="G32" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="H32" s="36" t="s">
+      <c r="H32" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="I32" s="26">
-        <v>42467</v>
-      </c>
-      <c r="J32" s="32"/>
+      <c r="I32" s="15">
+        <f t="shared" si="3"/>
+        <v>42555</v>
+      </c>
+      <c r="J32" s="27"/>
       <c r="K32" s="7"/>
       <c r="L32" s="7"/>
       <c r="M32" s="7"/>
@@ -9709,32 +9667,33 @@
       <c r="Z32" s="7"/>
     </row>
     <row r="33" spans="1:26" ht="118.5" customHeight="1">
-      <c r="A33" s="40" t="s">
+      <c r="A33" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="B33" s="34" t="s">
+      <c r="B33" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="C33" s="32"/>
-      <c r="D33" s="34" t="s">
+      <c r="C33" s="27"/>
+      <c r="D33" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="E33" s="34" t="s">
+      <c r="E33" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="F33" s="34" t="s">
+      <c r="F33" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="G33" s="51" t="s">
+      <c r="G33" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="H33" s="36" t="s">
+      <c r="H33" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="I33" s="26">
-        <v>42467</v>
-      </c>
-      <c r="J33" s="32"/>
+      <c r="I33" s="15">
+        <f t="shared" si="3"/>
+        <v>42555</v>
+      </c>
+      <c r="J33" s="27"/>
       <c r="K33" s="7"/>
       <c r="L33" s="7"/>
       <c r="M33" s="7"/>
@@ -9753,32 +9712,33 @@
       <c r="Z33" s="7"/>
     </row>
     <row r="34" spans="1:26" ht="117.75" customHeight="1">
-      <c r="A34" s="40" t="s">
+      <c r="A34" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="B34" s="34" t="s">
+      <c r="B34" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="C34" s="32"/>
-      <c r="D34" s="34" t="s">
+      <c r="C34" s="27"/>
+      <c r="D34" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="E34" s="34" t="s">
+      <c r="E34" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="F34" s="34" t="s">
+      <c r="F34" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="G34" s="51" t="s">
+      <c r="G34" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="H34" s="36" t="s">
+      <c r="H34" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="I34" s="26">
-        <v>42467</v>
-      </c>
-      <c r="J34" s="32"/>
+      <c r="I34" s="15">
+        <f t="shared" si="3"/>
+        <v>42555</v>
+      </c>
+      <c r="J34" s="27"/>
       <c r="K34" s="7"/>
       <c r="L34" s="7"/>
       <c r="M34" s="7"/>
@@ -9797,32 +9757,33 @@
       <c r="Z34" s="7"/>
     </row>
     <row r="35" spans="1:26" ht="105">
-      <c r="A35" s="40" t="s">
+      <c r="A35" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="B35" s="34" t="s">
+      <c r="B35" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="C35" s="32"/>
-      <c r="D35" s="34" t="s">
+      <c r="C35" s="27"/>
+      <c r="D35" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="E35" s="34" t="s">
+      <c r="E35" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="F35" s="34" t="s">
+      <c r="F35" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="G35" s="51" t="s">
+      <c r="G35" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="H35" s="36" t="s">
+      <c r="H35" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="I35" s="26">
-        <v>42467</v>
-      </c>
-      <c r="J35" s="32"/>
+      <c r="I35" s="15">
+        <f t="shared" si="3"/>
+        <v>42555</v>
+      </c>
+      <c r="J35" s="27"/>
       <c r="K35" s="7"/>
       <c r="L35" s="7"/>
       <c r="M35" s="7"/>
@@ -9841,32 +9802,33 @@
       <c r="Z35" s="7"/>
     </row>
     <row r="36" spans="1:26" ht="93.75" customHeight="1">
-      <c r="A36" s="40" t="s">
+      <c r="A36" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="B36" s="34" t="s">
+      <c r="B36" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="C36" s="32"/>
-      <c r="D36" s="34" t="s">
+      <c r="C36" s="27"/>
+      <c r="D36" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="E36" s="34" t="s">
+      <c r="E36" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="F36" s="34" t="s">
+      <c r="F36" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="G36" s="51" t="s">
+      <c r="G36" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="H36" s="36" t="s">
+      <c r="H36" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="I36" s="26">
-        <v>42467</v>
-      </c>
-      <c r="J36" s="32"/>
+      <c r="I36" s="15">
+        <f t="shared" si="3"/>
+        <v>42555</v>
+      </c>
+      <c r="J36" s="27"/>
       <c r="K36" s="7"/>
       <c r="L36" s="7"/>
       <c r="M36" s="7"/>
@@ -9885,20 +9847,20 @@
       <c r="Z36" s="7"/>
     </row>
     <row r="37" spans="1:26" ht="24" customHeight="1">
-      <c r="A37" s="42" t="s">
+      <c r="A37" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="B37" s="42" t="s">
+      <c r="B37" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="C37" s="42"/>
-      <c r="D37" s="42"/>
-      <c r="E37" s="42"/>
-      <c r="F37" s="42"/>
-      <c r="G37" s="42"/>
-      <c r="H37" s="42"/>
-      <c r="I37" s="42"/>
-      <c r="J37" s="42"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="36"/>
       <c r="K37" s="7"/>
       <c r="L37" s="7"/>
       <c r="M37" s="7"/>
@@ -9917,32 +9879,33 @@
       <c r="Z37" s="7"/>
     </row>
     <row r="38" spans="1:26" ht="81" customHeight="1">
-      <c r="A38" s="43" t="s">
+      <c r="A38" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="B38" s="43" t="s">
+      <c r="B38" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="C38" s="43"/>
-      <c r="D38" s="17" t="s">
+      <c r="C38" s="37"/>
+      <c r="D38" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="E38" s="17" t="s">
+      <c r="E38" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="F38" s="17" t="s">
+      <c r="F38" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="G38" s="51" t="s">
+      <c r="G38" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="H38" s="17" t="s">
+      <c r="H38" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="I38" s="26">
-        <v>42467</v>
-      </c>
-      <c r="J38" s="17"/>
+      <c r="I38" s="15">
+        <f t="shared" ref="I38:I43" si="4">DATE(2016,7,4)</f>
+        <v>42555</v>
+      </c>
+      <c r="J38" s="13"/>
       <c r="K38" s="7"/>
       <c r="L38" s="7"/>
       <c r="M38" s="7"/>
@@ -9961,32 +9924,33 @@
       <c r="Z38" s="7"/>
     </row>
     <row r="39" spans="1:26" ht="80.25" customHeight="1">
-      <c r="A39" s="43" t="s">
+      <c r="A39" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="B39" s="43" t="s">
+      <c r="B39" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="C39" s="43"/>
-      <c r="D39" s="17" t="s">
+      <c r="C39" s="37"/>
+      <c r="D39" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="E39" s="17" t="s">
+      <c r="E39" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="F39" s="17" t="s">
+      <c r="F39" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="G39" s="51" t="s">
+      <c r="G39" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="H39" s="17" t="s">
+      <c r="H39" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="I39" s="26">
-        <v>42467</v>
-      </c>
-      <c r="J39" s="17"/>
+      <c r="I39" s="15">
+        <f t="shared" si="4"/>
+        <v>42555</v>
+      </c>
+      <c r="J39" s="13"/>
       <c r="K39" s="7"/>
       <c r="L39" s="7"/>
       <c r="M39" s="7"/>
@@ -10005,32 +9969,33 @@
       <c r="Z39" s="7"/>
     </row>
     <row r="40" spans="1:26" ht="57" customHeight="1">
-      <c r="A40" s="43" t="s">
+      <c r="A40" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="B40" s="43" t="s">
+      <c r="B40" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="C40" s="43"/>
-      <c r="D40" s="17" t="s">
+      <c r="C40" s="37"/>
+      <c r="D40" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="E40" s="17" t="s">
+      <c r="E40" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="F40" s="17" t="s">
+      <c r="F40" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="G40" s="51" t="s">
+      <c r="G40" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="H40" s="17" t="s">
+      <c r="H40" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="I40" s="26">
-        <v>42467</v>
-      </c>
-      <c r="J40" s="17"/>
+      <c r="I40" s="15">
+        <f t="shared" si="4"/>
+        <v>42555</v>
+      </c>
+      <c r="J40" s="13"/>
       <c r="K40" s="7"/>
       <c r="L40" s="7"/>
       <c r="M40" s="7"/>
@@ -10049,32 +10014,33 @@
       <c r="Z40" s="7"/>
     </row>
     <row r="41" spans="1:26" ht="86.25" customHeight="1">
-      <c r="A41" s="43" t="s">
+      <c r="A41" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="B41" s="43" t="s">
+      <c r="B41" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="C41" s="43"/>
-      <c r="D41" s="17" t="s">
+      <c r="C41" s="37"/>
+      <c r="D41" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="E41" s="17" t="s">
+      <c r="E41" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="F41" s="17" t="s">
+      <c r="F41" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="G41" s="51" t="s">
+      <c r="G41" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="H41" s="17" t="s">
+      <c r="H41" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="I41" s="26">
-        <v>42467</v>
-      </c>
-      <c r="J41" s="17"/>
+      <c r="I41" s="15">
+        <f t="shared" si="4"/>
+        <v>42555</v>
+      </c>
+      <c r="J41" s="13"/>
       <c r="K41" s="7"/>
       <c r="L41" s="7"/>
       <c r="M41" s="7"/>
@@ -10093,32 +10059,33 @@
       <c r="Z41" s="7"/>
     </row>
     <row r="42" spans="1:26" ht="79.5" customHeight="1">
-      <c r="A42" s="43" t="s">
+      <c r="A42" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="B42" s="43" t="s">
+      <c r="B42" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="C42" s="43"/>
-      <c r="D42" s="17" t="s">
+      <c r="C42" s="37"/>
+      <c r="D42" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="E42" s="17" t="s">
+      <c r="E42" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="F42" s="17" t="s">
+      <c r="F42" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="G42" s="51" t="s">
+      <c r="G42" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="H42" s="17" t="s">
+      <c r="H42" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="I42" s="26">
-        <v>42467</v>
-      </c>
-      <c r="J42" s="17"/>
+      <c r="I42" s="15">
+        <f t="shared" si="4"/>
+        <v>42555</v>
+      </c>
+      <c r="J42" s="13"/>
       <c r="K42" s="7"/>
       <c r="L42" s="7"/>
       <c r="M42" s="7"/>
@@ -10137,32 +10104,33 @@
       <c r="Z42" s="7"/>
     </row>
     <row r="43" spans="1:26" ht="90">
-      <c r="A43" s="43" t="s">
+      <c r="A43" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="B43" s="43" t="s">
+      <c r="B43" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="C43" s="43"/>
-      <c r="D43" s="17" t="s">
+      <c r="C43" s="37"/>
+      <c r="D43" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="E43" s="17" t="s">
+      <c r="E43" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="F43" s="17" t="s">
+      <c r="F43" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="G43" s="51" t="s">
+      <c r="G43" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="H43" s="17" t="s">
+      <c r="H43" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="I43" s="26">
-        <v>42467</v>
-      </c>
-      <c r="J43" s="17"/>
+      <c r="I43" s="15">
+        <f t="shared" si="4"/>
+        <v>42555</v>
+      </c>
+      <c r="J43" s="13"/>
       <c r="K43" s="7"/>
       <c r="L43" s="7"/>
       <c r="M43" s="7"/>
@@ -10181,32 +10149,33 @@
       <c r="Z43" s="7"/>
     </row>
     <row r="44" spans="1:26" ht="113.25" customHeight="1">
-      <c r="A44" s="43" t="s">
+      <c r="A44" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="B44" s="43" t="s">
+      <c r="B44" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="C44" s="43"/>
-      <c r="D44" s="17" t="s">
+      <c r="C44" s="37"/>
+      <c r="D44" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="E44" s="17" t="s">
+      <c r="E44" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="F44" s="17" t="s">
+      <c r="F44" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="G44" s="51" t="s">
+      <c r="G44" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="H44" s="17" t="s">
+      <c r="H44" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="I44" s="26">
-        <v>42467</v>
-      </c>
-      <c r="J44" s="17"/>
+      <c r="I44" s="15">
+        <f>DATE(2016,7,4)</f>
+        <v>42555</v>
+      </c>
+      <c r="J44" s="13"/>
       <c r="K44" s="7"/>
       <c r="L44" s="7"/>
       <c r="M44" s="7"/>
@@ -10225,20 +10194,20 @@
       <c r="Z44" s="7"/>
     </row>
     <row r="45" spans="1:26" ht="25.5" customHeight="1">
-      <c r="A45" s="44" t="s">
+      <c r="A45" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="B45" s="27" t="s">
+      <c r="B45" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="C45" s="22"/>
-      <c r="D45" s="22"/>
-      <c r="E45" s="22"/>
-      <c r="F45" s="22"/>
-      <c r="G45" s="22"/>
-      <c r="H45" s="22"/>
-      <c r="I45" s="39"/>
-      <c r="J45" s="22"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="18"/>
+      <c r="I45" s="33"/>
+      <c r="J45" s="18"/>
       <c r="K45" s="7"/>
       <c r="L45" s="7"/>
       <c r="M45" s="7"/>
@@ -10257,32 +10226,33 @@
       <c r="Z45" s="7"/>
     </row>
     <row r="46" spans="1:26" ht="123" customHeight="1">
-      <c r="A46" s="20" t="s">
+      <c r="A46" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="B46" s="36" t="s">
+      <c r="B46" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="C46" s="32"/>
-      <c r="D46" s="36" t="s">
+      <c r="C46" s="27"/>
+      <c r="D46" s="31" t="s">
         <v>123</v>
       </c>
-      <c r="E46" s="45" t="s">
+      <c r="E46" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="F46" s="36" t="s">
+      <c r="F46" s="31" t="s">
         <v>124</v>
       </c>
-      <c r="G46" s="51" t="s">
+      <c r="G46" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="H46" s="36" t="s">
+      <c r="H46" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="I46" s="26">
+      <c r="I46" s="15">
+        <f t="shared" ref="I46:I49" si="5">DATE(2016,7,7)</f>
         <v>42558</v>
       </c>
-      <c r="J46" s="32"/>
+      <c r="J46" s="27"/>
       <c r="K46" s="7"/>
       <c r="L46" s="7"/>
       <c r="M46" s="7"/>
@@ -10301,32 +10271,33 @@
       <c r="Z46" s="7"/>
     </row>
     <row r="47" spans="1:26" ht="93.75" customHeight="1">
-      <c r="A47" s="20" t="s">
+      <c r="A47" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="B47" s="36" t="s">
+      <c r="B47" s="31" t="s">
         <v>126</v>
       </c>
-      <c r="C47" s="32"/>
-      <c r="D47" s="36" t="s">
+      <c r="C47" s="27"/>
+      <c r="D47" s="31" t="s">
         <v>125</v>
       </c>
-      <c r="E47" s="45" t="s">
+      <c r="E47" s="39" t="s">
         <v>127</v>
       </c>
-      <c r="F47" s="36" t="s">
+      <c r="F47" s="31" t="s">
         <v>127</v>
       </c>
-      <c r="G47" s="51" t="s">
+      <c r="G47" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="H47" s="36" t="s">
+      <c r="H47" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="I47" s="26">
+      <c r="I47" s="15">
+        <f t="shared" si="5"/>
         <v>42558</v>
       </c>
-      <c r="J47" s="32"/>
+      <c r="J47" s="27"/>
       <c r="K47" s="7"/>
       <c r="L47" s="7"/>
       <c r="M47" s="7"/>
@@ -10345,32 +10316,33 @@
       <c r="Z47" s="7"/>
     </row>
     <row r="48" spans="1:26" ht="94.5" customHeight="1">
-      <c r="A48" s="20" t="s">
+      <c r="A48" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="B48" s="36" t="s">
+      <c r="B48" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="C48" s="32"/>
-      <c r="D48" s="36" t="s">
+      <c r="C48" s="27"/>
+      <c r="D48" s="31" t="s">
         <v>133</v>
       </c>
-      <c r="E48" s="45" t="s">
+      <c r="E48" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="F48" s="45" t="s">
+      <c r="F48" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="G48" s="51" t="s">
+      <c r="G48" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="H48" s="36" t="s">
+      <c r="H48" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="I48" s="26">
+      <c r="I48" s="15">
+        <f t="shared" si="5"/>
         <v>42558</v>
       </c>
-      <c r="J48" s="32"/>
+      <c r="J48" s="27"/>
       <c r="K48" s="7"/>
       <c r="L48" s="7"/>
       <c r="M48" s="7"/>
@@ -10389,32 +10361,33 @@
       <c r="Z48" s="7"/>
     </row>
     <row r="49" spans="1:26" ht="96" customHeight="1">
-      <c r="A49" s="20" t="s">
+      <c r="A49" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="B49" s="36" t="s">
+      <c r="B49" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="C49" s="32"/>
-      <c r="D49" s="36" t="s">
+      <c r="C49" s="27"/>
+      <c r="D49" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="E49" s="45" t="s">
+      <c r="E49" s="39" t="s">
         <v>127</v>
       </c>
-      <c r="F49" s="45" t="s">
+      <c r="F49" s="39" t="s">
         <v>127</v>
       </c>
-      <c r="G49" s="51" t="s">
+      <c r="G49" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="H49" s="36" t="s">
+      <c r="H49" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="I49" s="26">
+      <c r="I49" s="15">
+        <f t="shared" si="5"/>
         <v>42558</v>
       </c>
-      <c r="J49" s="32"/>
+      <c r="J49" s="27"/>
       <c r="K49" s="7"/>
       <c r="L49" s="7"/>
       <c r="M49" s="7"/>
@@ -10433,32 +10406,33 @@
       <c r="Z49" s="7"/>
     </row>
     <row r="50" spans="1:26" ht="105" customHeight="1">
-      <c r="A50" s="20" t="s">
+      <c r="A50" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="B50" s="36" t="s">
+      <c r="B50" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="C50" s="32"/>
-      <c r="D50" s="36" t="s">
+      <c r="C50" s="27"/>
+      <c r="D50" s="31" t="s">
         <v>137</v>
       </c>
-      <c r="E50" s="45" t="s">
+      <c r="E50" s="39" t="s">
         <v>138</v>
       </c>
-      <c r="F50" s="45" t="s">
+      <c r="F50" s="39" t="s">
         <v>138</v>
       </c>
-      <c r="G50" s="51" t="s">
+      <c r="G50" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="H50" s="36" t="s">
+      <c r="H50" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="I50" s="26">
+      <c r="I50" s="15">
+        <f>DATE(2016,7,7)</f>
         <v>42558</v>
       </c>
-      <c r="J50" s="32"/>
+      <c r="J50" s="27"/>
       <c r="K50" s="7"/>
       <c r="L50" s="7"/>
       <c r="M50" s="7"/>
@@ -10477,20 +10451,20 @@
       <c r="Z50" s="7"/>
     </row>
     <row r="51" spans="1:26" ht="32.25" customHeight="1">
-      <c r="A51" s="44" t="s">
+      <c r="A51" s="38" t="s">
         <v>167</v>
       </c>
-      <c r="B51" s="27" t="s">
+      <c r="B51" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="C51" s="22"/>
-      <c r="D51" s="22"/>
-      <c r="E51" s="22"/>
-      <c r="F51" s="22"/>
-      <c r="G51" s="22"/>
-      <c r="H51" s="22"/>
-      <c r="I51" s="39"/>
-      <c r="J51" s="22"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="18"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="18"/>
+      <c r="G51" s="18"/>
+      <c r="H51" s="18"/>
+      <c r="I51" s="33"/>
+      <c r="J51" s="18"/>
       <c r="K51" s="7"/>
       <c r="L51" s="7"/>
       <c r="M51" s="7"/>
@@ -10509,32 +10483,33 @@
       <c r="Z51" s="7"/>
     </row>
     <row r="52" spans="1:26" ht="48.75" customHeight="1">
-      <c r="A52" s="20" t="s">
+      <c r="A52" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="B52" s="36" t="s">
+      <c r="B52" s="31" t="s">
         <v>170</v>
       </c>
-      <c r="C52" s="32"/>
-      <c r="D52" s="36" t="s">
+      <c r="C52" s="27"/>
+      <c r="D52" s="31" t="s">
         <v>172</v>
       </c>
-      <c r="E52" s="45" t="s">
+      <c r="E52" s="39" t="s">
         <v>171</v>
       </c>
-      <c r="F52" s="45" t="s">
+      <c r="F52" s="39" t="s">
         <v>171</v>
       </c>
-      <c r="G52" s="51" t="s">
+      <c r="G52" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="H52" s="36" t="s">
+      <c r="H52" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="I52" s="26">
-        <v>42589</v>
-      </c>
-      <c r="J52" s="32"/>
+      <c r="I52" s="15">
+        <f t="shared" ref="I52:I55" si="6">DATE(2016,7,8)</f>
+        <v>42559</v>
+      </c>
+      <c r="J52" s="27"/>
       <c r="K52" s="7"/>
       <c r="L52" s="7"/>
       <c r="M52" s="7"/>
@@ -10553,32 +10528,33 @@
       <c r="Z52" s="7"/>
     </row>
     <row r="53" spans="1:26" ht="44.25" customHeight="1">
-      <c r="A53" s="20" t="s">
+      <c r="A53" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="B53" s="36" t="s">
+      <c r="B53" s="31" t="s">
         <v>174</v>
       </c>
-      <c r="C53" s="40"/>
-      <c r="D53" s="36" t="s">
+      <c r="C53" s="34"/>
+      <c r="D53" s="31" t="s">
         <v>175</v>
       </c>
-      <c r="E53" s="45" t="s">
+      <c r="E53" s="39" t="s">
         <v>171</v>
       </c>
-      <c r="F53" s="45" t="s">
+      <c r="F53" s="39" t="s">
         <v>171</v>
       </c>
-      <c r="G53" s="51" t="s">
+      <c r="G53" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="H53" s="36" t="s">
+      <c r="H53" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="I53" s="26">
-        <v>42589</v>
-      </c>
-      <c r="J53" s="40"/>
+      <c r="I53" s="15">
+        <f t="shared" si="6"/>
+        <v>42559</v>
+      </c>
+      <c r="J53" s="34"/>
       <c r="K53" s="7"/>
       <c r="L53" s="7"/>
       <c r="M53" s="7"/>
@@ -10597,32 +10573,33 @@
       <c r="Z53" s="7"/>
     </row>
     <row r="54" spans="1:26" ht="64.5" customHeight="1">
-      <c r="A54" s="20" t="s">
+      <c r="A54" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="B54" s="20" t="s">
+      <c r="B54" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="C54" s="40"/>
-      <c r="D54" s="46" t="s">
+      <c r="C54" s="34"/>
+      <c r="D54" s="40" t="s">
         <v>178</v>
       </c>
-      <c r="E54" s="45" t="s">
+      <c r="E54" s="39" t="s">
         <v>179</v>
       </c>
-      <c r="F54" s="45" t="s">
+      <c r="F54" s="39" t="s">
         <v>179</v>
       </c>
-      <c r="G54" s="51" t="s">
+      <c r="G54" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="H54" s="36" t="s">
+      <c r="H54" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="I54" s="26">
-        <v>42589</v>
-      </c>
-      <c r="J54" s="40"/>
+      <c r="I54" s="15">
+        <f t="shared" si="6"/>
+        <v>42559</v>
+      </c>
+      <c r="J54" s="34"/>
       <c r="K54" s="7"/>
       <c r="L54" s="7"/>
       <c r="M54" s="7"/>
@@ -10641,34 +10618,35 @@
       <c r="Z54" s="7"/>
     </row>
     <row r="55" spans="1:26" ht="67.5" customHeight="1">
-      <c r="A55" s="20" t="s">
+      <c r="A55" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="B55" s="36" t="s">
+      <c r="B55" s="31" t="s">
         <v>181</v>
       </c>
-      <c r="C55" s="18" t="s">
+      <c r="C55" s="14" t="s">
         <v>272</v>
       </c>
-      <c r="D55" s="36" t="s">
+      <c r="D55" s="31" t="s">
         <v>182</v>
       </c>
-      <c r="E55" s="45" t="s">
+      <c r="E55" s="39" t="s">
         <v>171</v>
       </c>
-      <c r="F55" s="45" t="s">
+      <c r="F55" s="39" t="s">
         <v>171</v>
       </c>
-      <c r="G55" s="51" t="s">
+      <c r="G55" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="H55" s="36" t="s">
+      <c r="H55" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="I55" s="26">
-        <v>42589</v>
-      </c>
-      <c r="J55" s="40"/>
+      <c r="I55" s="15">
+        <f t="shared" si="6"/>
+        <v>42559</v>
+      </c>
+      <c r="J55" s="34"/>
       <c r="K55" s="7"/>
       <c r="L55" s="7"/>
       <c r="M55" s="7"/>
@@ -10687,20 +10665,20 @@
       <c r="Z55" s="7"/>
     </row>
     <row r="56" spans="1:26">
-      <c r="A56" s="44" t="s">
+      <c r="A56" s="38" t="s">
         <v>184</v>
       </c>
-      <c r="B56" s="27" t="s">
+      <c r="B56" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="C56" s="22"/>
-      <c r="D56" s="22"/>
-      <c r="E56" s="22"/>
-      <c r="F56" s="22"/>
-      <c r="G56" s="22"/>
-      <c r="H56" s="22"/>
-      <c r="I56" s="39"/>
-      <c r="J56" s="39"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="18"/>
+      <c r="E56" s="18"/>
+      <c r="F56" s="18"/>
+      <c r="G56" s="18"/>
+      <c r="H56" s="18"/>
+      <c r="I56" s="33"/>
+      <c r="J56" s="33"/>
       <c r="K56" s="7"/>
       <c r="L56" s="7"/>
       <c r="M56" s="7"/>
@@ -10719,32 +10697,33 @@
       <c r="Z56" s="7"/>
     </row>
     <row r="57" spans="1:26" ht="49.5" customHeight="1">
-      <c r="A57" s="20" t="s">
+      <c r="A57" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="B57" s="20" t="s">
+      <c r="B57" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="C57" s="40"/>
-      <c r="D57" s="46" t="s">
+      <c r="C57" s="34"/>
+      <c r="D57" s="40" t="s">
         <v>187</v>
       </c>
-      <c r="E57" s="46" t="s">
+      <c r="E57" s="40" t="s">
         <v>188</v>
       </c>
-      <c r="F57" s="46" t="s">
+      <c r="F57" s="40" t="s">
         <v>188</v>
       </c>
-      <c r="G57" s="51" t="s">
+      <c r="G57" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="H57" s="36" t="s">
+      <c r="H57" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="I57" s="26">
-        <v>42589</v>
-      </c>
-      <c r="J57" s="40"/>
+      <c r="I57" s="15">
+        <f t="shared" ref="I57:I60" si="7">DATE(2016,7,8)</f>
+        <v>42559</v>
+      </c>
+      <c r="J57" s="34"/>
       <c r="K57" s="7"/>
       <c r="L57" s="7"/>
       <c r="M57" s="7"/>
@@ -10763,32 +10742,33 @@
       <c r="Z57" s="7"/>
     </row>
     <row r="58" spans="1:26" ht="45" customHeight="1">
-      <c r="A58" s="20" t="s">
+      <c r="A58" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="B58" s="20" t="s">
+      <c r="B58" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="C58" s="40"/>
-      <c r="D58" s="46" t="s">
+      <c r="C58" s="34"/>
+      <c r="D58" s="40" t="s">
         <v>191</v>
       </c>
-      <c r="E58" s="46" t="s">
+      <c r="E58" s="40" t="s">
         <v>192</v>
       </c>
-      <c r="F58" s="46" t="s">
+      <c r="F58" s="40" t="s">
         <v>192</v>
       </c>
-      <c r="G58" s="51" t="s">
+      <c r="G58" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="H58" s="36" t="s">
+      <c r="H58" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="I58" s="26">
-        <v>42589</v>
-      </c>
-      <c r="J58" s="40"/>
+      <c r="I58" s="15">
+        <f t="shared" si="7"/>
+        <v>42559</v>
+      </c>
+      <c r="J58" s="34"/>
       <c r="K58" s="7"/>
       <c r="L58" s="7"/>
       <c r="M58" s="7"/>
@@ -10807,32 +10787,33 @@
       <c r="Z58" s="7"/>
     </row>
     <row r="59" spans="1:26" ht="57" customHeight="1">
-      <c r="A59" s="20" t="s">
+      <c r="A59" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="B59" s="20" t="s">
+      <c r="B59" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="C59" s="40"/>
-      <c r="D59" s="46" t="s">
+      <c r="C59" s="34"/>
+      <c r="D59" s="40" t="s">
         <v>191</v>
       </c>
-      <c r="E59" s="46" t="s">
+      <c r="E59" s="40" t="s">
         <v>192</v>
       </c>
-      <c r="F59" s="46" t="s">
+      <c r="F59" s="40" t="s">
         <v>192</v>
       </c>
-      <c r="G59" s="51" t="s">
+      <c r="G59" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="H59" s="36" t="s">
+      <c r="H59" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="I59" s="26">
-        <v>42589</v>
-      </c>
-      <c r="J59" s="40"/>
+      <c r="I59" s="15">
+        <f t="shared" si="7"/>
+        <v>42559</v>
+      </c>
+      <c r="J59" s="34"/>
       <c r="K59" s="7"/>
       <c r="L59" s="7"/>
       <c r="M59" s="7"/>
@@ -10851,32 +10832,33 @@
       <c r="Z59" s="7"/>
     </row>
     <row r="60" spans="1:26" ht="56.25" customHeight="1">
-      <c r="A60" s="20" t="s">
+      <c r="A60" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="B60" s="20" t="s">
+      <c r="B60" s="16" t="s">
         <v>196</v>
       </c>
-      <c r="C60" s="40"/>
-      <c r="D60" s="46" t="s">
+      <c r="C60" s="34"/>
+      <c r="D60" s="40" t="s">
         <v>191</v>
       </c>
-      <c r="E60" s="46" t="s">
+      <c r="E60" s="40" t="s">
         <v>192</v>
       </c>
-      <c r="F60" s="46" t="s">
+      <c r="F60" s="40" t="s">
         <v>192</v>
       </c>
-      <c r="G60" s="51" t="s">
+      <c r="G60" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="H60" s="36" t="s">
+      <c r="H60" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="I60" s="26">
-        <v>42589</v>
-      </c>
-      <c r="J60" s="40"/>
+      <c r="I60" s="15">
+        <f t="shared" si="7"/>
+        <v>42559</v>
+      </c>
+      <c r="J60" s="34"/>
       <c r="K60" s="7"/>
       <c r="L60" s="7"/>
       <c r="M60" s="7"/>
@@ -10895,34 +10877,35 @@
       <c r="Z60" s="7"/>
     </row>
     <row r="61" spans="1:26" ht="60" customHeight="1">
-      <c r="A61" s="20" t="s">
+      <c r="A61" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="B61" s="46" t="s">
+      <c r="B61" s="40" t="s">
         <v>198</v>
       </c>
-      <c r="C61" s="18" t="s">
+      <c r="C61" s="14" t="s">
         <v>272</v>
       </c>
-      <c r="D61" s="46" t="s">
+      <c r="D61" s="40" t="s">
         <v>199</v>
       </c>
-      <c r="E61" s="46" t="s">
+      <c r="E61" s="40" t="s">
         <v>200</v>
       </c>
-      <c r="F61" s="46" t="s">
+      <c r="F61" s="40" t="s">
         <v>267</v>
       </c>
-      <c r="G61" s="52" t="s">
+      <c r="G61" s="46" t="s">
         <v>209</v>
       </c>
-      <c r="H61" s="36" t="s">
+      <c r="H61" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="I61" s="26">
-        <v>42589</v>
-      </c>
-      <c r="J61" s="40"/>
+      <c r="I61" s="15">
+        <f>DATE(2016,7,8)</f>
+        <v>42559</v>
+      </c>
+      <c r="J61" s="34"/>
       <c r="K61" s="7"/>
       <c r="L61" s="7"/>
       <c r="M61" s="7"/>
@@ -10941,20 +10924,20 @@
       <c r="Z61" s="7"/>
     </row>
     <row r="62" spans="1:26" ht="27.75" customHeight="1">
-      <c r="A62" s="44" t="s">
+      <c r="A62" s="38" t="s">
         <v>202</v>
       </c>
-      <c r="B62" s="27" t="s">
+      <c r="B62" s="22" t="s">
         <v>204</v>
       </c>
-      <c r="C62" s="22"/>
-      <c r="D62" s="22"/>
-      <c r="E62" s="22"/>
-      <c r="F62" s="22"/>
-      <c r="G62" s="22"/>
-      <c r="H62" s="22"/>
-      <c r="I62" s="39"/>
-      <c r="J62" s="39"/>
+      <c r="C62" s="18"/>
+      <c r="D62" s="18"/>
+      <c r="E62" s="18"/>
+      <c r="F62" s="18"/>
+      <c r="G62" s="18"/>
+      <c r="H62" s="18"/>
+      <c r="I62" s="33"/>
+      <c r="J62" s="33"/>
       <c r="K62" s="7"/>
       <c r="L62" s="7"/>
       <c r="M62" s="7"/>
@@ -10973,32 +10956,33 @@
       <c r="Z62" s="7"/>
     </row>
     <row r="63" spans="1:26" ht="259.5" customHeight="1">
-      <c r="A63" s="20" t="s">
+      <c r="A63" s="16" t="s">
         <v>203</v>
       </c>
-      <c r="B63" s="17" t="s">
+      <c r="B63" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="C63" s="17"/>
-      <c r="D63" s="17" t="s">
+      <c r="C63" s="13"/>
+      <c r="D63" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="E63" s="17" t="s">
+      <c r="E63" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="F63" s="17" t="s">
+      <c r="F63" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="G63" s="53" t="s">
+      <c r="G63" s="47" t="s">
         <v>209</v>
       </c>
-      <c r="H63" s="18" t="s">
+      <c r="H63" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="I63" s="19">
-        <v>42681</v>
-      </c>
-      <c r="J63" s="18"/>
+      <c r="I63" s="15">
+        <f t="shared" ref="I63:I78" si="8">DATE(2016,7,11)</f>
+        <v>42562</v>
+      </c>
+      <c r="J63" s="14"/>
       <c r="K63" s="7"/>
       <c r="L63" s="7"/>
       <c r="M63" s="7"/>
@@ -11017,32 +11001,33 @@
       <c r="Z63" s="7"/>
     </row>
     <row r="64" spans="1:26" ht="249.75" customHeight="1">
-      <c r="A64" s="20" t="s">
+      <c r="A64" s="16" t="s">
         <v>252</v>
       </c>
-      <c r="B64" s="17" t="s">
+      <c r="B64" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="C64" s="17"/>
-      <c r="D64" s="17" t="s">
+      <c r="C64" s="13"/>
+      <c r="D64" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="E64" s="17" t="s">
+      <c r="E64" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="F64" s="17" t="s">
+      <c r="F64" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="G64" s="53" t="s">
+      <c r="G64" s="47" t="s">
         <v>209</v>
       </c>
-      <c r="H64" s="18" t="s">
+      <c r="H64" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="I64" s="19">
-        <v>42681</v>
-      </c>
-      <c r="J64" s="18"/>
+      <c r="I64" s="15">
+        <f t="shared" si="8"/>
+        <v>42562</v>
+      </c>
+      <c r="J64" s="14"/>
       <c r="K64" s="7"/>
       <c r="L64" s="7"/>
       <c r="M64" s="7"/>
@@ -11061,32 +11046,33 @@
       <c r="Z64" s="7"/>
     </row>
     <row r="65" spans="1:26" ht="255">
-      <c r="A65" s="20" t="s">
+      <c r="A65" s="16" t="s">
         <v>253</v>
       </c>
-      <c r="B65" s="17" t="s">
+      <c r="B65" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="C65" s="17"/>
-      <c r="D65" s="17" t="s">
+      <c r="C65" s="13"/>
+      <c r="D65" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="E65" s="17" t="s">
+      <c r="E65" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="F65" s="17" t="s">
+      <c r="F65" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="G65" s="54" t="s">
+      <c r="G65" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="H65" s="18" t="s">
+      <c r="H65" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="I65" s="19">
-        <v>42681</v>
-      </c>
-      <c r="J65" s="47"/>
+      <c r="I65" s="15">
+        <f t="shared" si="8"/>
+        <v>42562</v>
+      </c>
+      <c r="J65" s="41"/>
       <c r="K65" s="7"/>
       <c r="L65" s="7"/>
       <c r="M65" s="7"/>
@@ -11105,32 +11091,33 @@
       <c r="Z65" s="7"/>
     </row>
     <row r="66" spans="1:26" ht="263.25" customHeight="1">
-      <c r="A66" s="20" t="s">
+      <c r="A66" s="16" t="s">
         <v>254</v>
       </c>
-      <c r="B66" s="17" t="s">
+      <c r="B66" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="C66" s="17"/>
-      <c r="D66" s="17" t="s">
+      <c r="C66" s="13"/>
+      <c r="D66" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="E66" s="17" t="s">
+      <c r="E66" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="F66" s="17" t="s">
+      <c r="F66" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="G66" s="48" t="s">
+      <c r="G66" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="H66" s="18" t="s">
+      <c r="H66" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="I66" s="19">
-        <v>42681</v>
-      </c>
-      <c r="J66" s="18"/>
+      <c r="I66" s="15">
+        <f t="shared" si="8"/>
+        <v>42562</v>
+      </c>
+      <c r="J66" s="14"/>
       <c r="K66" s="7"/>
       <c r="L66" s="7"/>
       <c r="M66" s="7"/>
@@ -11149,32 +11136,33 @@
       <c r="Z66" s="7"/>
     </row>
     <row r="67" spans="1:26" ht="249" customHeight="1">
-      <c r="A67" s="20" t="s">
+      <c r="A67" s="16" t="s">
         <v>255</v>
       </c>
-      <c r="B67" s="17" t="s">
+      <c r="B67" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="C67" s="17"/>
-      <c r="D67" s="17" t="s">
+      <c r="C67" s="13"/>
+      <c r="D67" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="E67" s="17" t="s">
+      <c r="E67" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="F67" s="17" t="s">
+      <c r="F67" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="G67" s="53" t="s">
+      <c r="G67" s="47" t="s">
         <v>209</v>
       </c>
-      <c r="H67" s="18" t="s">
+      <c r="H67" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="I67" s="19">
-        <v>42681</v>
-      </c>
-      <c r="J67" s="18"/>
+      <c r="I67" s="15">
+        <f t="shared" si="8"/>
+        <v>42562</v>
+      </c>
+      <c r="J67" s="14"/>
       <c r="K67" s="7"/>
       <c r="L67" s="7"/>
       <c r="M67" s="7"/>
@@ -11193,32 +11181,33 @@
       <c r="Z67" s="7"/>
     </row>
     <row r="68" spans="1:26" ht="278.25" customHeight="1">
-      <c r="A68" s="20" t="s">
+      <c r="A68" s="16" t="s">
         <v>256</v>
       </c>
-      <c r="B68" s="17" t="s">
+      <c r="B68" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="C68" s="17"/>
-      <c r="D68" s="17" t="s">
+      <c r="C68" s="13"/>
+      <c r="D68" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="E68" s="17" t="s">
+      <c r="E68" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="F68" s="17" t="s">
+      <c r="F68" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="G68" s="53" t="s">
+      <c r="G68" s="47" t="s">
         <v>209</v>
       </c>
-      <c r="H68" s="18" t="s">
+      <c r="H68" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="I68" s="19">
-        <v>42681</v>
-      </c>
-      <c r="J68" s="18"/>
+      <c r="I68" s="15">
+        <f t="shared" si="8"/>
+        <v>42562</v>
+      </c>
+      <c r="J68" s="14"/>
       <c r="K68" s="7"/>
       <c r="L68" s="7"/>
       <c r="M68" s="7"/>
@@ -11237,32 +11226,33 @@
       <c r="Z68" s="7"/>
     </row>
     <row r="69" spans="1:26" ht="267.75" customHeight="1">
-      <c r="A69" s="20" t="s">
+      <c r="A69" s="16" t="s">
         <v>257</v>
       </c>
-      <c r="B69" s="17" t="s">
+      <c r="B69" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="C69" s="17"/>
-      <c r="D69" s="17" t="s">
+      <c r="C69" s="13"/>
+      <c r="D69" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="E69" s="17" t="s">
+      <c r="E69" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="F69" s="17" t="s">
+      <c r="F69" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="G69" s="53" t="s">
+      <c r="G69" s="47" t="s">
         <v>209</v>
       </c>
-      <c r="H69" s="18" t="s">
+      <c r="H69" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="I69" s="19">
-        <v>42681</v>
-      </c>
-      <c r="J69" s="18"/>
+      <c r="I69" s="15">
+        <f t="shared" si="8"/>
+        <v>42562</v>
+      </c>
+      <c r="J69" s="14"/>
       <c r="K69" s="7"/>
       <c r="L69" s="7"/>
       <c r="M69" s="7"/>
@@ -11281,32 +11271,33 @@
       <c r="Z69" s="7"/>
     </row>
     <row r="70" spans="1:26" ht="282.75" customHeight="1">
-      <c r="A70" s="20" t="s">
+      <c r="A70" s="16" t="s">
         <v>258</v>
       </c>
-      <c r="B70" s="17" t="s">
+      <c r="B70" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="C70" s="17"/>
-      <c r="D70" s="17" t="s">
+      <c r="C70" s="13"/>
+      <c r="D70" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="E70" s="17" t="s">
+      <c r="E70" s="13" t="s">
         <v>229</v>
       </c>
-      <c r="F70" s="17" t="s">
+      <c r="F70" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="G70" s="53" t="s">
+      <c r="G70" s="47" t="s">
         <v>209</v>
       </c>
-      <c r="H70" s="18" t="s">
+      <c r="H70" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="I70" s="19">
-        <v>42681</v>
-      </c>
-      <c r="J70" s="18"/>
+      <c r="I70" s="15">
+        <f t="shared" si="8"/>
+        <v>42562</v>
+      </c>
+      <c r="J70" s="14"/>
       <c r="K70" s="7"/>
       <c r="L70" s="7"/>
       <c r="M70" s="7"/>
@@ -11325,32 +11316,33 @@
       <c r="Z70" s="7"/>
     </row>
     <row r="71" spans="1:26" ht="271.5" customHeight="1">
-      <c r="A71" s="20" t="s">
+      <c r="A71" s="16" t="s">
         <v>259</v>
       </c>
-      <c r="B71" s="17" t="s">
+      <c r="B71" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="C71" s="17"/>
-      <c r="D71" s="17" t="s">
+      <c r="C71" s="13"/>
+      <c r="D71" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="E71" s="17" t="s">
+      <c r="E71" s="13" t="s">
         <v>232</v>
       </c>
-      <c r="F71" s="17" t="s">
+      <c r="F71" s="13" t="s">
         <v>232</v>
       </c>
-      <c r="G71" s="54" t="s">
+      <c r="G71" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="H71" s="18" t="s">
+      <c r="H71" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="I71" s="19">
-        <v>42681</v>
-      </c>
-      <c r="J71" s="18"/>
+      <c r="I71" s="15">
+        <f t="shared" si="8"/>
+        <v>42562</v>
+      </c>
+      <c r="J71" s="14"/>
       <c r="K71" s="7"/>
       <c r="L71" s="7"/>
       <c r="M71" s="7"/>
@@ -11369,32 +11361,33 @@
       <c r="Z71" s="7"/>
     </row>
     <row r="72" spans="1:26" ht="270.75" customHeight="1">
-      <c r="A72" s="20" t="s">
+      <c r="A72" s="16" t="s">
         <v>260</v>
       </c>
-      <c r="B72" s="17" t="s">
+      <c r="B72" s="13" t="s">
         <v>233</v>
       </c>
-      <c r="C72" s="17"/>
-      <c r="D72" s="17" t="s">
+      <c r="C72" s="13"/>
+      <c r="D72" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="E72" s="17" t="s">
+      <c r="E72" s="13" t="s">
         <v>232</v>
       </c>
-      <c r="F72" s="17" t="s">
+      <c r="F72" s="13" t="s">
         <v>232</v>
       </c>
-      <c r="G72" s="48" t="s">
+      <c r="G72" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="H72" s="17" t="s">
+      <c r="H72" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="I72" s="19">
-        <v>42681</v>
-      </c>
-      <c r="J72" s="47"/>
+      <c r="I72" s="15">
+        <f t="shared" si="8"/>
+        <v>42562</v>
+      </c>
+      <c r="J72" s="41"/>
       <c r="K72" s="7"/>
       <c r="L72" s="7"/>
       <c r="M72" s="7"/>
@@ -11413,32 +11406,33 @@
       <c r="Z72" s="7"/>
     </row>
     <row r="73" spans="1:26" ht="276.75" customHeight="1">
-      <c r="A73" s="20" t="s">
+      <c r="A73" s="16" t="s">
         <v>261</v>
       </c>
-      <c r="B73" s="17" t="s">
+      <c r="B73" s="13" t="s">
         <v>235</v>
       </c>
-      <c r="C73" s="17"/>
-      <c r="D73" s="17" t="s">
+      <c r="C73" s="13"/>
+      <c r="D73" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="E73" s="17" t="s">
+      <c r="E73" s="13" t="s">
         <v>232</v>
       </c>
-      <c r="F73" s="17" t="s">
+      <c r="F73" s="13" t="s">
         <v>232</v>
       </c>
-      <c r="G73" s="48" t="s">
+      <c r="G73" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="H73" s="18" t="s">
+      <c r="H73" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="I73" s="19">
-        <v>42681</v>
-      </c>
-      <c r="J73" s="18"/>
+      <c r="I73" s="15">
+        <f t="shared" si="8"/>
+        <v>42562</v>
+      </c>
+      <c r="J73" s="14"/>
       <c r="K73" s="7"/>
       <c r="L73" s="7"/>
       <c r="M73" s="7"/>
@@ -11457,32 +11451,33 @@
       <c r="Z73" s="7"/>
     </row>
     <row r="74" spans="1:26" ht="261.75" customHeight="1">
-      <c r="A74" s="20" t="s">
+      <c r="A74" s="16" t="s">
         <v>262</v>
       </c>
-      <c r="B74" s="17" t="s">
+      <c r="B74" s="13" t="s">
         <v>237</v>
       </c>
-      <c r="C74" s="17"/>
-      <c r="D74" s="17" t="s">
+      <c r="C74" s="13"/>
+      <c r="D74" s="13" t="s">
         <v>238</v>
       </c>
-      <c r="E74" s="17" t="s">
+      <c r="E74" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="F74" s="17" t="s">
+      <c r="F74" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="G74" s="53" t="s">
+      <c r="G74" s="47" t="s">
         <v>209</v>
       </c>
-      <c r="H74" s="18" t="s">
+      <c r="H74" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="I74" s="19">
-        <v>42681</v>
-      </c>
-      <c r="J74" s="18"/>
+      <c r="I74" s="15">
+        <f t="shared" si="8"/>
+        <v>42562</v>
+      </c>
+      <c r="J74" s="14"/>
       <c r="K74" s="7"/>
       <c r="L74" s="7"/>
       <c r="M74" s="7"/>
@@ -11501,32 +11496,33 @@
       <c r="Z74" s="7"/>
     </row>
     <row r="75" spans="1:26" ht="271.5" customHeight="1">
-      <c r="A75" s="20" t="s">
+      <c r="A75" s="16" t="s">
         <v>263</v>
       </c>
-      <c r="B75" s="17" t="s">
+      <c r="B75" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="C75" s="17"/>
-      <c r="D75" s="17" t="s">
+      <c r="C75" s="13"/>
+      <c r="D75" s="13" t="s">
         <v>242</v>
       </c>
-      <c r="E75" s="17" t="s">
+      <c r="E75" s="13" t="s">
         <v>243</v>
       </c>
-      <c r="F75" s="17" t="s">
+      <c r="F75" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="G75" s="53" t="s">
+      <c r="G75" s="47" t="s">
         <v>209</v>
       </c>
-      <c r="H75" s="18" t="s">
+      <c r="H75" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="I75" s="19">
-        <v>42681</v>
-      </c>
-      <c r="J75" s="18"/>
+      <c r="I75" s="15">
+        <f t="shared" si="8"/>
+        <v>42562</v>
+      </c>
+      <c r="J75" s="14"/>
       <c r="K75" s="7"/>
       <c r="L75" s="7"/>
       <c r="M75" s="7"/>
@@ -11545,32 +11541,33 @@
       <c r="Z75" s="7"/>
     </row>
     <row r="76" spans="1:26" ht="259.5" customHeight="1">
-      <c r="A76" s="20" t="s">
+      <c r="A76" s="16" t="s">
         <v>264</v>
       </c>
-      <c r="B76" s="17" t="s">
+      <c r="B76" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="C76" s="17"/>
-      <c r="D76" s="17" t="s">
+      <c r="C76" s="13"/>
+      <c r="D76" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="E76" s="17" t="s">
+      <c r="E76" s="13" t="s">
         <v>246</v>
       </c>
-      <c r="F76" s="17" t="s">
+      <c r="F76" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="G76" s="53" t="s">
+      <c r="G76" s="47" t="s">
         <v>209</v>
       </c>
-      <c r="H76" s="18" t="s">
+      <c r="H76" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="I76" s="19">
-        <v>42681</v>
-      </c>
-      <c r="J76" s="18"/>
+      <c r="I76" s="15">
+        <f t="shared" si="8"/>
+        <v>42562</v>
+      </c>
+      <c r="J76" s="14"/>
       <c r="K76" s="7"/>
       <c r="L76" s="7"/>
       <c r="M76" s="7"/>
@@ -11589,32 +11586,33 @@
       <c r="Z76" s="7"/>
     </row>
     <row r="77" spans="1:26" ht="263.25" customHeight="1">
-      <c r="A77" s="20" t="s">
+      <c r="A77" s="16" t="s">
         <v>265</v>
       </c>
-      <c r="B77" s="17" t="s">
+      <c r="B77" s="13" t="s">
         <v>247</v>
       </c>
-      <c r="C77" s="17"/>
-      <c r="D77" s="17" t="s">
+      <c r="C77" s="13"/>
+      <c r="D77" s="13" t="s">
         <v>248</v>
       </c>
-      <c r="E77" s="17" t="s">
+      <c r="E77" s="13" t="s">
         <v>249</v>
       </c>
-      <c r="F77" s="17" t="s">
+      <c r="F77" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="G77" s="53" t="s">
+      <c r="G77" s="47" t="s">
         <v>209</v>
       </c>
-      <c r="H77" s="18" t="s">
+      <c r="H77" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="I77" s="19">
-        <v>42681</v>
-      </c>
-      <c r="J77" s="18"/>
+      <c r="I77" s="15">
+        <f t="shared" si="8"/>
+        <v>42562</v>
+      </c>
+      <c r="J77" s="14"/>
       <c r="K77" s="7"/>
       <c r="L77" s="7"/>
       <c r="M77" s="7"/>
@@ -11633,32 +11631,33 @@
       <c r="Z77" s="7"/>
     </row>
     <row r="78" spans="1:26" ht="269.25" customHeight="1">
-      <c r="A78" s="20" t="s">
+      <c r="A78" s="16" t="s">
         <v>266</v>
       </c>
-      <c r="B78" s="17" t="s">
+      <c r="B78" s="13" t="s">
         <v>250</v>
       </c>
-      <c r="C78" s="17"/>
-      <c r="D78" s="17" t="s">
+      <c r="C78" s="13"/>
+      <c r="D78" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="E78" s="17" t="s">
+      <c r="E78" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="F78" s="17" t="s">
+      <c r="F78" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="G78" s="53" t="s">
+      <c r="G78" s="47" t="s">
         <v>209</v>
       </c>
-      <c r="H78" s="18" t="s">
+      <c r="H78" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="I78" s="19">
-        <v>42681</v>
-      </c>
-      <c r="J78" s="47"/>
+      <c r="I78" s="15">
+        <f t="shared" si="8"/>
+        <v>42562</v>
+      </c>
+      <c r="J78" s="41"/>
       <c r="K78" s="7"/>
       <c r="L78" s="7"/>
       <c r="M78" s="7"/>
@@ -11677,20 +11676,20 @@
       <c r="Z78" s="7"/>
     </row>
     <row r="79" spans="1:26" ht="24.75" customHeight="1">
-      <c r="A79" s="44" t="s">
+      <c r="A79" s="38" t="s">
         <v>268</v>
       </c>
-      <c r="B79" s="27" t="s">
+      <c r="B79" s="22" t="s">
         <v>269</v>
       </c>
-      <c r="C79" s="22"/>
-      <c r="D79" s="22"/>
-      <c r="E79" s="22"/>
-      <c r="F79" s="22"/>
-      <c r="G79" s="22"/>
-      <c r="H79" s="22"/>
-      <c r="I79" s="39"/>
-      <c r="J79" s="39"/>
+      <c r="C79" s="18"/>
+      <c r="D79" s="18"/>
+      <c r="E79" s="18"/>
+      <c r="F79" s="18"/>
+      <c r="G79" s="18"/>
+      <c r="H79" s="18"/>
+      <c r="I79" s="33"/>
+      <c r="J79" s="33"/>
       <c r="K79" s="7"/>
       <c r="L79" s="7"/>
       <c r="M79" s="7"/>
@@ -11709,34 +11708,35 @@
       <c r="Z79" s="7"/>
     </row>
     <row r="80" spans="1:26" ht="81" customHeight="1">
-      <c r="A80" s="20" t="s">
+      <c r="A80" s="16" t="s">
         <v>285</v>
       </c>
-      <c r="B80" s="18" t="s">
+      <c r="B80" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="C80" s="18" t="s">
+      <c r="C80" s="14" t="s">
         <v>272</v>
       </c>
-      <c r="D80" s="18" t="s">
+      <c r="D80" s="14" t="s">
         <v>273</v>
       </c>
-      <c r="E80" s="18" t="s">
+      <c r="E80" s="14" t="s">
         <v>274</v>
       </c>
-      <c r="F80" s="18" t="s">
+      <c r="F80" s="14" t="s">
         <v>274</v>
       </c>
-      <c r="G80" s="48" t="s">
+      <c r="G80" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="H80" s="17" t="s">
+      <c r="H80" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="I80" s="19">
-        <v>42681</v>
-      </c>
-      <c r="J80" s="15"/>
+      <c r="I80" s="15">
+        <f t="shared" ref="I80:I83" si="9">DATE(2016,7,11)</f>
+        <v>42562</v>
+      </c>
+      <c r="J80" s="11"/>
       <c r="K80" s="7"/>
       <c r="L80" s="7"/>
       <c r="M80" s="7"/>
@@ -11755,34 +11755,35 @@
       <c r="Z80" s="7"/>
     </row>
     <row r="81" spans="1:26" ht="171" customHeight="1">
-      <c r="A81" s="20" t="s">
+      <c r="A81" s="16" t="s">
         <v>286</v>
       </c>
-      <c r="B81" s="18" t="s">
+      <c r="B81" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="C81" s="18" t="s">
+      <c r="C81" s="14" t="s">
         <v>272</v>
       </c>
-      <c r="D81" s="18" t="s">
+      <c r="D81" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="E81" s="18" t="s">
+      <c r="E81" s="14" t="s">
         <v>274</v>
       </c>
-      <c r="F81" s="18" t="s">
+      <c r="F81" s="14" t="s">
         <v>274</v>
       </c>
-      <c r="G81" s="48" t="s">
+      <c r="G81" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="H81" s="17" t="s">
+      <c r="H81" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="I81" s="19">
-        <v>42681</v>
-      </c>
-      <c r="J81" s="15"/>
+      <c r="I81" s="15">
+        <f t="shared" si="9"/>
+        <v>42562</v>
+      </c>
+      <c r="J81" s="11"/>
       <c r="K81" s="7"/>
       <c r="L81" s="7"/>
       <c r="M81" s="7"/>
@@ -11801,34 +11802,35 @@
       <c r="Z81" s="7"/>
     </row>
     <row r="82" spans="1:26" ht="105">
-      <c r="A82" s="20" t="s">
+      <c r="A82" s="16" t="s">
         <v>287</v>
       </c>
-      <c r="B82" s="18" t="s">
+      <c r="B82" s="14" t="s">
         <v>277</v>
       </c>
-      <c r="C82" s="18" t="s">
+      <c r="C82" s="14" t="s">
         <v>272</v>
       </c>
-      <c r="D82" s="18" t="s">
+      <c r="D82" s="14" t="s">
         <v>278</v>
       </c>
-      <c r="E82" s="18" t="s">
+      <c r="E82" s="14" t="s">
         <v>274</v>
       </c>
-      <c r="F82" s="18" t="s">
+      <c r="F82" s="14" t="s">
         <v>274</v>
       </c>
-      <c r="G82" s="48" t="s">
+      <c r="G82" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="H82" s="17" t="s">
+      <c r="H82" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="I82" s="19">
-        <v>42681</v>
-      </c>
-      <c r="J82" s="15"/>
+      <c r="I82" s="15">
+        <f t="shared" si="9"/>
+        <v>42562</v>
+      </c>
+      <c r="J82" s="11"/>
       <c r="K82" s="7"/>
       <c r="L82" s="7"/>
       <c r="M82" s="7"/>
@@ -11847,34 +11849,35 @@
       <c r="Z82" s="7"/>
     </row>
     <row r="83" spans="1:26" ht="196.5" customHeight="1">
-      <c r="A83" s="20" t="s">
+      <c r="A83" s="16" t="s">
         <v>288</v>
       </c>
-      <c r="B83" s="18" t="s">
+      <c r="B83" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="C83" s="18" t="s">
+      <c r="C83" s="14" t="s">
         <v>272</v>
       </c>
-      <c r="D83" s="18" t="s">
+      <c r="D83" s="14" t="s">
         <v>280</v>
       </c>
-      <c r="E83" s="18" t="s">
+      <c r="E83" s="14" t="s">
         <v>274</v>
       </c>
-      <c r="F83" s="18" t="s">
+      <c r="F83" s="14" t="s">
         <v>274</v>
       </c>
-      <c r="G83" s="48" t="s">
+      <c r="G83" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="H83" s="17" t="s">
+      <c r="H83" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="I83" s="19">
-        <v>42681</v>
-      </c>
-      <c r="J83" s="15"/>
+      <c r="I83" s="15">
+        <f t="shared" si="9"/>
+        <v>42562</v>
+      </c>
+      <c r="J83" s="11"/>
       <c r="K83" s="7"/>
       <c r="L83" s="7"/>
       <c r="M83" s="7"/>
@@ -11893,34 +11896,35 @@
       <c r="Z83" s="7"/>
     </row>
     <row r="84" spans="1:26" ht="195" customHeight="1">
-      <c r="A84" s="20" t="s">
+      <c r="A84" s="16" t="s">
         <v>289</v>
       </c>
-      <c r="B84" s="18" t="s">
+      <c r="B84" s="14" t="s">
         <v>281</v>
       </c>
-      <c r="C84" s="18" t="s">
+      <c r="C84" s="14" t="s">
         <v>272</v>
       </c>
-      <c r="D84" s="49" t="s">
+      <c r="D84" s="43" t="s">
         <v>282</v>
       </c>
-      <c r="E84" s="18" t="s">
+      <c r="E84" s="14" t="s">
         <v>283</v>
       </c>
-      <c r="F84" s="18" t="s">
+      <c r="F84" s="14" t="s">
         <v>284</v>
       </c>
-      <c r="G84" s="50" t="s">
+      <c r="G84" s="44" t="s">
         <v>209</v>
       </c>
-      <c r="H84" s="17" t="s">
+      <c r="H84" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="I84" s="19">
-        <v>42681</v>
-      </c>
-      <c r="J84" s="15"/>
+      <c r="I84" s="15">
+        <f>DATE(2016,7,11)</f>
+        <v>42562</v>
+      </c>
+      <c r="J84" s="11"/>
       <c r="K84" s="7"/>
       <c r="L84" s="7"/>
       <c r="M84" s="7"/>
@@ -11939,20 +11943,20 @@
       <c r="Z84" s="7"/>
     </row>
     <row r="85" spans="1:26" ht="30" customHeight="1">
-      <c r="A85" s="44" t="s">
+      <c r="A85" s="38" t="s">
         <v>290</v>
       </c>
-      <c r="B85" s="27" t="s">
+      <c r="B85" s="22" t="s">
         <v>291</v>
       </c>
-      <c r="C85" s="22"/>
-      <c r="D85" s="22"/>
-      <c r="E85" s="22"/>
-      <c r="F85" s="22"/>
-      <c r="G85" s="22"/>
-      <c r="H85" s="22"/>
-      <c r="I85" s="39"/>
-      <c r="J85" s="39"/>
+      <c r="C85" s="18"/>
+      <c r="D85" s="18"/>
+      <c r="E85" s="18"/>
+      <c r="F85" s="18"/>
+      <c r="G85" s="18"/>
+      <c r="H85" s="18"/>
+      <c r="I85" s="33"/>
+      <c r="J85" s="33"/>
       <c r="K85" s="7"/>
       <c r="L85" s="7"/>
       <c r="M85" s="7"/>
@@ -11971,33 +11975,33 @@
       <c r="Z85" s="7"/>
     </row>
     <row r="86" spans="1:26" ht="89.25" customHeight="1">
-      <c r="A86" s="20" t="s">
+      <c r="A86" s="16" t="s">
         <v>292</v>
       </c>
-      <c r="B86" s="56" t="s">
+      <c r="B86" s="50" t="s">
         <v>293</v>
       </c>
-      <c r="C86" s="15"/>
-      <c r="D86" s="60" t="s">
+      <c r="C86" s="11"/>
+      <c r="D86" s="54" t="s">
         <v>298</v>
       </c>
-      <c r="E86" s="57" t="s">
+      <c r="E86" s="51" t="s">
         <v>295</v>
       </c>
-      <c r="F86" s="57" t="s">
+      <c r="F86" s="51" t="s">
         <v>295</v>
       </c>
-      <c r="G86" s="54" t="s">
+      <c r="G86" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="H86" s="17" t="s">
+      <c r="H86" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="I86" s="19">
-        <f t="shared" ref="I86:I88" si="0">DATE(2016,7,12)</f>
+      <c r="I86" s="15">
+        <f t="shared" ref="I84:I90" si="10">DATE(2016,7,12)</f>
         <v>42563</v>
       </c>
-      <c r="J86" s="15"/>
+      <c r="J86" s="11"/>
       <c r="K86" s="7"/>
       <c r="L86" s="7"/>
       <c r="M86" s="7"/>
@@ -12016,33 +12020,33 @@
       <c r="Z86" s="7"/>
     </row>
     <row r="87" spans="1:26" ht="78" customHeight="1">
-      <c r="A87" s="20" t="s">
+      <c r="A87" s="16" t="s">
         <v>296</v>
       </c>
-      <c r="B87" s="58" t="s">
+      <c r="B87" s="52" t="s">
         <v>291</v>
       </c>
-      <c r="C87" s="59"/>
-      <c r="D87" s="46" t="s">
+      <c r="C87" s="53"/>
+      <c r="D87" s="40" t="s">
         <v>294</v>
       </c>
-      <c r="E87" s="57" t="s">
+      <c r="E87" s="51" t="s">
         <v>301</v>
       </c>
-      <c r="F87" s="57" t="s">
+      <c r="F87" s="51" t="s">
         <v>301</v>
       </c>
-      <c r="G87" s="54" t="s">
+      <c r="G87" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="H87" s="17" t="s">
+      <c r="H87" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="I87" s="19">
-        <f t="shared" si="0"/>
+      <c r="I87" s="15">
+        <f t="shared" si="10"/>
         <v>42563</v>
       </c>
-      <c r="J87" s="15"/>
+      <c r="J87" s="11"/>
       <c r="K87" s="7"/>
       <c r="L87" s="7"/>
       <c r="M87" s="7"/>
@@ -12061,33 +12065,33 @@
       <c r="Z87" s="7"/>
     </row>
     <row r="88" spans="1:26" ht="89.25" customHeight="1">
-      <c r="A88" s="20" t="s">
+      <c r="A88" s="16" t="s">
         <v>297</v>
       </c>
-      <c r="B88" s="59" t="s">
+      <c r="B88" s="53" t="s">
         <v>300</v>
       </c>
-      <c r="C88" s="59"/>
-      <c r="D88" s="60" t="s">
+      <c r="C88" s="53"/>
+      <c r="D88" s="54" t="s">
         <v>299</v>
       </c>
-      <c r="E88" s="57" t="s">
+      <c r="E88" s="51" t="s">
         <v>302</v>
       </c>
-      <c r="F88" s="57" t="s">
+      <c r="F88" s="51" t="s">
         <v>302</v>
       </c>
-      <c r="G88" s="54" t="s">
+      <c r="G88" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="H88" s="17" t="s">
+      <c r="H88" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="I88" s="19">
-        <f t="shared" si="0"/>
+      <c r="I88" s="15">
+        <f t="shared" si="10"/>
         <v>42563</v>
       </c>
-      <c r="J88" s="15"/>
+      <c r="J88" s="11"/>
       <c r="K88" s="7"/>
       <c r="L88" s="7"/>
       <c r="M88" s="7"/>
@@ -12106,20 +12110,20 @@
       <c r="Z88" s="7"/>
     </row>
     <row r="89" spans="1:26" ht="36.75" customHeight="1">
-      <c r="A89" s="62" t="s">
+      <c r="A89" s="55" t="s">
         <v>303</v>
       </c>
-      <c r="B89" s="22" t="s">
+      <c r="B89" s="18" t="s">
         <v>304</v>
       </c>
-      <c r="C89" s="22"/>
-      <c r="D89" s="22"/>
-      <c r="E89" s="22"/>
-      <c r="F89" s="22"/>
-      <c r="G89" s="22"/>
-      <c r="H89" s="22"/>
-      <c r="I89" s="39"/>
-      <c r="J89" s="39"/>
+      <c r="C89" s="18"/>
+      <c r="D89" s="18"/>
+      <c r="E89" s="18"/>
+      <c r="F89" s="18"/>
+      <c r="G89" s="18"/>
+      <c r="H89" s="18"/>
+      <c r="I89" s="33"/>
+      <c r="J89" s="33"/>
       <c r="K89" s="7"/>
       <c r="L89" s="7"/>
       <c r="M89" s="7"/>
@@ -12138,32 +12142,33 @@
       <c r="Z89" s="7"/>
     </row>
     <row r="90" spans="1:26" ht="267" customHeight="1">
-      <c r="A90" s="69" t="s">
+      <c r="A90" s="60" t="s">
         <v>339</v>
       </c>
-      <c r="B90" s="64" t="s">
+      <c r="B90" s="57" t="s">
         <v>305</v>
       </c>
-      <c r="C90" s="63"/>
-      <c r="D90" s="64" t="s">
+      <c r="C90" s="56"/>
+      <c r="D90" s="57" t="s">
         <v>306</v>
       </c>
-      <c r="E90" s="64" t="s">
+      <c r="E90" s="57" t="s">
         <v>307</v>
       </c>
-      <c r="F90" s="64" t="s">
+      <c r="F90" s="57" t="s">
         <v>307</v>
       </c>
-      <c r="G90" s="71" t="s">
+      <c r="G90" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="H90" s="67" t="s">
+      <c r="H90" s="59" t="s">
         <v>92</v>
       </c>
-      <c r="I90" s="19">
-        <v>42681</v>
-      </c>
-      <c r="J90" s="63"/>
+      <c r="I90" s="15">
+        <f>DATE(2016,7,13)</f>
+        <v>42564</v>
+      </c>
+      <c r="J90" s="56"/>
       <c r="K90" s="7"/>
       <c r="L90" s="7"/>
       <c r="M90" s="7"/>
@@ -12182,32 +12187,33 @@
       <c r="Z90" s="7"/>
     </row>
     <row r="91" spans="1:26" ht="254.25" customHeight="1">
-      <c r="A91" s="69" t="s">
+      <c r="A91" s="60" t="s">
         <v>340</v>
       </c>
-      <c r="B91" s="64" t="s">
+      <c r="B91" s="57" t="s">
         <v>308</v>
       </c>
-      <c r="C91" s="63"/>
-      <c r="D91" s="64" t="s">
+      <c r="C91" s="56"/>
+      <c r="D91" s="57" t="s">
         <v>309</v>
       </c>
-      <c r="E91" s="64" t="s">
+      <c r="E91" s="57" t="s">
         <v>307</v>
       </c>
-      <c r="F91" s="64" t="s">
+      <c r="F91" s="57" t="s">
         <v>307</v>
       </c>
-      <c r="G91" s="72" t="s">
+      <c r="G91" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="H91" s="67" t="s">
+      <c r="H91" s="59" t="s">
         <v>92</v>
       </c>
-      <c r="I91" s="19">
-        <v>42681</v>
-      </c>
-      <c r="J91" s="63"/>
+      <c r="I91" s="15">
+        <f t="shared" ref="I91:I105" si="11">DATE(2016,7,13)</f>
+        <v>42564</v>
+      </c>
+      <c r="J91" s="56"/>
       <c r="K91" s="7"/>
       <c r="L91" s="7"/>
       <c r="M91" s="7"/>
@@ -12226,32 +12232,33 @@
       <c r="Z91" s="7"/>
     </row>
     <row r="92" spans="1:26" ht="232.5" customHeight="1">
-      <c r="A92" s="69" t="s">
+      <c r="A92" s="60" t="s">
         <v>341</v>
       </c>
-      <c r="B92" s="64" t="s">
+      <c r="B92" s="57" t="s">
         <v>310</v>
       </c>
-      <c r="C92" s="63"/>
-      <c r="D92" s="64" t="s">
+      <c r="C92" s="56"/>
+      <c r="D92" s="57" t="s">
         <v>311</v>
       </c>
-      <c r="E92" s="64" t="s">
+      <c r="E92" s="57" t="s">
         <v>312</v>
       </c>
-      <c r="F92" s="64" t="s">
+      <c r="F92" s="57" t="s">
         <v>312</v>
       </c>
-      <c r="G92" s="72" t="s">
+      <c r="G92" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="H92" s="67" t="s">
+      <c r="H92" s="59" t="s">
         <v>92</v>
       </c>
-      <c r="I92" s="19">
-        <v>42681</v>
-      </c>
-      <c r="J92" s="63"/>
+      <c r="I92" s="15">
+        <f t="shared" si="11"/>
+        <v>42564</v>
+      </c>
+      <c r="J92" s="56"/>
       <c r="K92" s="7"/>
       <c r="L92" s="7"/>
       <c r="M92" s="7"/>
@@ -12270,32 +12277,33 @@
       <c r="Z92" s="7"/>
     </row>
     <row r="93" spans="1:26" ht="197.25" customHeight="1">
-      <c r="A93" s="69" t="s">
+      <c r="A93" s="60" t="s">
         <v>342</v>
       </c>
-      <c r="B93" s="64" t="s">
+      <c r="B93" s="57" t="s">
         <v>313</v>
       </c>
-      <c r="C93" s="63"/>
-      <c r="D93" s="64" t="s">
+      <c r="C93" s="56"/>
+      <c r="D93" s="57" t="s">
         <v>314</v>
       </c>
-      <c r="E93" s="64" t="s">
+      <c r="E93" s="57" t="s">
         <v>312</v>
       </c>
-      <c r="F93" s="64" t="s">
+      <c r="F93" s="57" t="s">
         <v>312</v>
       </c>
-      <c r="G93" s="72" t="s">
+      <c r="G93" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="H93" s="67" t="s">
+      <c r="H93" s="59" t="s">
         <v>92</v>
       </c>
-      <c r="I93" s="19">
-        <v>42681</v>
-      </c>
-      <c r="J93" s="63"/>
+      <c r="I93" s="15">
+        <f t="shared" si="11"/>
+        <v>42564</v>
+      </c>
+      <c r="J93" s="56"/>
       <c r="K93" s="7"/>
       <c r="L93" s="7"/>
       <c r="M93" s="7"/>
@@ -12314,32 +12322,33 @@
       <c r="Z93" s="7"/>
     </row>
     <row r="94" spans="1:26" ht="252" customHeight="1">
-      <c r="A94" s="69" t="s">
+      <c r="A94" s="60" t="s">
         <v>343</v>
       </c>
-      <c r="B94" s="64" t="s">
+      <c r="B94" s="57" t="s">
         <v>315</v>
       </c>
-      <c r="C94" s="63"/>
-      <c r="D94" s="64" t="s">
+      <c r="C94" s="56"/>
+      <c r="D94" s="57" t="s">
         <v>316</v>
       </c>
-      <c r="E94" s="64" t="s">
+      <c r="E94" s="57" t="s">
         <v>307</v>
       </c>
-      <c r="F94" s="64" t="s">
+      <c r="F94" s="57" t="s">
         <v>307</v>
       </c>
-      <c r="G94" s="72" t="s">
+      <c r="G94" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="H94" s="67" t="s">
+      <c r="H94" s="59" t="s">
         <v>92</v>
       </c>
-      <c r="I94" s="19">
-        <v>42681</v>
-      </c>
-      <c r="J94" s="63"/>
+      <c r="I94" s="15">
+        <f t="shared" si="11"/>
+        <v>42564</v>
+      </c>
+      <c r="J94" s="56"/>
       <c r="K94" s="7"/>
       <c r="L94" s="7"/>
       <c r="M94" s="7"/>
@@ -12358,32 +12367,33 @@
       <c r="Z94" s="7"/>
     </row>
     <row r="95" spans="1:26" ht="276.75" customHeight="1">
-      <c r="A95" s="69" t="s">
+      <c r="A95" s="60" t="s">
         <v>344</v>
       </c>
-      <c r="B95" s="64" t="s">
+      <c r="B95" s="57" t="s">
         <v>317</v>
       </c>
-      <c r="C95" s="63"/>
-      <c r="D95" s="64" t="s">
+      <c r="C95" s="56"/>
+      <c r="D95" s="57" t="s">
         <v>318</v>
       </c>
-      <c r="E95" s="64" t="s">
+      <c r="E95" s="57" t="s">
         <v>307</v>
       </c>
-      <c r="F95" s="64" t="s">
+      <c r="F95" s="57" t="s">
         <v>307</v>
       </c>
-      <c r="G95" s="72" t="s">
+      <c r="G95" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="H95" s="67" t="s">
+      <c r="H95" s="59" t="s">
         <v>92</v>
       </c>
-      <c r="I95" s="19">
-        <v>42681</v>
-      </c>
-      <c r="J95" s="63"/>
+      <c r="I95" s="15">
+        <f t="shared" si="11"/>
+        <v>42564</v>
+      </c>
+      <c r="J95" s="56"/>
       <c r="K95" s="7"/>
       <c r="L95" s="7"/>
       <c r="M95" s="7"/>
@@ -12402,32 +12412,33 @@
       <c r="Z95" s="7"/>
     </row>
     <row r="96" spans="1:26" ht="196.5" customHeight="1">
-      <c r="A96" s="69" t="s">
+      <c r="A96" s="60" t="s">
         <v>345</v>
       </c>
-      <c r="B96" s="64" t="s">
+      <c r="B96" s="57" t="s">
         <v>319</v>
       </c>
-      <c r="C96" s="63"/>
-      <c r="D96" s="64" t="s">
+      <c r="C96" s="56"/>
+      <c r="D96" s="57" t="s">
         <v>320</v>
       </c>
-      <c r="E96" s="64" t="s">
+      <c r="E96" s="57" t="s">
         <v>307</v>
       </c>
-      <c r="F96" s="64" t="s">
+      <c r="F96" s="57" t="s">
         <v>307</v>
       </c>
-      <c r="G96" s="72" t="s">
+      <c r="G96" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="H96" s="67" t="s">
+      <c r="H96" s="59" t="s">
         <v>92</v>
       </c>
-      <c r="I96" s="19">
-        <v>42681</v>
-      </c>
-      <c r="J96" s="63"/>
+      <c r="I96" s="15">
+        <f t="shared" si="11"/>
+        <v>42564</v>
+      </c>
+      <c r="J96" s="56"/>
       <c r="K96" s="7"/>
       <c r="L96" s="7"/>
       <c r="M96" s="7"/>
@@ -12446,32 +12457,33 @@
       <c r="Z96" s="7"/>
     </row>
     <row r="97" spans="1:26" ht="249.75" customHeight="1">
-      <c r="A97" s="69" t="s">
+      <c r="A97" s="60" t="s">
         <v>346</v>
       </c>
-      <c r="B97" s="64" t="s">
+      <c r="B97" s="57" t="s">
         <v>321</v>
       </c>
-      <c r="C97" s="63"/>
-      <c r="D97" s="64" t="s">
+      <c r="C97" s="56"/>
+      <c r="D97" s="57" t="s">
         <v>322</v>
       </c>
-      <c r="E97" s="64" t="s">
+      <c r="E97" s="57" t="s">
         <v>307</v>
       </c>
-      <c r="F97" s="64" t="s">
+      <c r="F97" s="57" t="s">
         <v>307</v>
       </c>
-      <c r="G97" s="72" t="s">
+      <c r="G97" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="H97" s="67" t="s">
+      <c r="H97" s="59" t="s">
         <v>92</v>
       </c>
-      <c r="I97" s="19">
-        <v>42681</v>
-      </c>
-      <c r="J97" s="63"/>
+      <c r="I97" s="15">
+        <f t="shared" si="11"/>
+        <v>42564</v>
+      </c>
+      <c r="J97" s="56"/>
       <c r="K97" s="7"/>
       <c r="L97" s="7"/>
       <c r="M97" s="7"/>
@@ -12490,32 +12502,33 @@
       <c r="Z97" s="7"/>
     </row>
     <row r="98" spans="1:26" ht="196.5" customHeight="1">
-      <c r="A98" s="69" t="s">
+      <c r="A98" s="60" t="s">
         <v>347</v>
       </c>
-      <c r="B98" s="64" t="s">
+      <c r="B98" s="57" t="s">
         <v>323</v>
       </c>
-      <c r="C98" s="63"/>
-      <c r="D98" s="65" t="s">
+      <c r="C98" s="56"/>
+      <c r="D98" s="58" t="s">
         <v>324</v>
       </c>
-      <c r="E98" s="64" t="s">
+      <c r="E98" s="57" t="s">
         <v>307</v>
       </c>
-      <c r="F98" s="64" t="s">
+      <c r="F98" s="57" t="s">
         <v>312</v>
       </c>
-      <c r="G98" s="70" t="s">
+      <c r="G98" s="61" t="s">
         <v>209</v>
       </c>
-      <c r="H98" s="67" t="s">
+      <c r="H98" s="59" t="s">
         <v>92</v>
       </c>
-      <c r="I98" s="19">
-        <v>42681</v>
-      </c>
-      <c r="J98" s="63"/>
+      <c r="I98" s="15">
+        <f t="shared" si="11"/>
+        <v>42564</v>
+      </c>
+      <c r="J98" s="56"/>
       <c r="K98" s="7"/>
       <c r="L98" s="7"/>
       <c r="M98" s="7"/>
@@ -12534,32 +12547,33 @@
       <c r="Z98" s="7"/>
     </row>
     <row r="99" spans="1:26" ht="225">
-      <c r="A99" s="69" t="s">
+      <c r="A99" s="60" t="s">
         <v>348</v>
       </c>
-      <c r="B99" s="64" t="s">
+      <c r="B99" s="57" t="s">
         <v>325</v>
       </c>
-      <c r="C99" s="63"/>
-      <c r="D99" s="64" t="s">
+      <c r="C99" s="56"/>
+      <c r="D99" s="57" t="s">
         <v>326</v>
       </c>
-      <c r="E99" s="64" t="s">
+      <c r="E99" s="57" t="s">
         <v>307</v>
       </c>
-      <c r="F99" s="64" t="s">
+      <c r="F99" s="57" t="s">
         <v>312</v>
       </c>
-      <c r="G99" s="70" t="s">
+      <c r="G99" s="61" t="s">
         <v>209</v>
       </c>
-      <c r="H99" s="67" t="s">
+      <c r="H99" s="59" t="s">
         <v>92</v>
       </c>
-      <c r="I99" s="19">
-        <v>42681</v>
-      </c>
-      <c r="J99" s="63"/>
+      <c r="I99" s="15">
+        <f t="shared" si="11"/>
+        <v>42564</v>
+      </c>
+      <c r="J99" s="56"/>
       <c r="K99" s="7"/>
       <c r="L99" s="7"/>
       <c r="M99" s="7"/>
@@ -12578,32 +12592,33 @@
       <c r="Z99" s="7"/>
     </row>
     <row r="100" spans="1:26" ht="289.5" customHeight="1">
-      <c r="A100" s="69" t="s">
+      <c r="A100" s="60" t="s">
         <v>349</v>
       </c>
-      <c r="B100" s="64" t="s">
+      <c r="B100" s="57" t="s">
         <v>327</v>
       </c>
-      <c r="C100" s="63"/>
-      <c r="D100" s="64" t="s">
+      <c r="C100" s="56"/>
+      <c r="D100" s="57" t="s">
         <v>328</v>
       </c>
-      <c r="E100" s="64" t="s">
+      <c r="E100" s="57" t="s">
         <v>312</v>
       </c>
-      <c r="F100" s="64" t="s">
+      <c r="F100" s="57" t="s">
         <v>312</v>
       </c>
-      <c r="G100" s="70" t="s">
+      <c r="G100" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="H100" s="67" t="s">
+      <c r="H100" s="59" t="s">
         <v>92</v>
       </c>
-      <c r="I100" s="19">
-        <v>42681</v>
-      </c>
-      <c r="J100" s="63"/>
+      <c r="I100" s="15">
+        <f t="shared" si="11"/>
+        <v>42564</v>
+      </c>
+      <c r="J100" s="56"/>
       <c r="K100" s="7"/>
       <c r="L100" s="7"/>
       <c r="M100" s="7"/>
@@ -12622,32 +12637,33 @@
       <c r="Z100" s="7"/>
     </row>
     <row r="101" spans="1:26" ht="264" customHeight="1">
-      <c r="A101" s="69" t="s">
+      <c r="A101" s="60" t="s">
         <v>350</v>
       </c>
-      <c r="B101" s="64" t="s">
+      <c r="B101" s="57" t="s">
         <v>237</v>
       </c>
-      <c r="C101" s="63"/>
-      <c r="D101" s="64" t="s">
+      <c r="C101" s="56"/>
+      <c r="D101" s="57" t="s">
         <v>329</v>
       </c>
-      <c r="E101" s="64" t="s">
+      <c r="E101" s="57" t="s">
         <v>330</v>
       </c>
-      <c r="F101" s="64" t="s">
+      <c r="F101" s="57" t="s">
         <v>331</v>
       </c>
-      <c r="G101" s="70" t="s">
+      <c r="G101" s="61" t="s">
         <v>209</v>
       </c>
-      <c r="H101" s="67" t="s">
+      <c r="H101" s="59" t="s">
         <v>92</v>
       </c>
-      <c r="I101" s="19">
-        <v>42681</v>
-      </c>
-      <c r="J101" s="63"/>
+      <c r="I101" s="15">
+        <f t="shared" si="11"/>
+        <v>42564</v>
+      </c>
+      <c r="J101" s="56"/>
       <c r="K101" s="7"/>
       <c r="L101" s="7"/>
       <c r="M101" s="7"/>
@@ -12666,32 +12682,33 @@
       <c r="Z101" s="7"/>
     </row>
     <row r="102" spans="1:26" ht="225">
-      <c r="A102" s="69" t="s">
+      <c r="A102" s="60" t="s">
         <v>351</v>
       </c>
-      <c r="B102" s="64" t="s">
+      <c r="B102" s="57" t="s">
         <v>241</v>
       </c>
-      <c r="C102" s="63"/>
-      <c r="D102" s="64" t="s">
+      <c r="C102" s="56"/>
+      <c r="D102" s="57" t="s">
         <v>332</v>
       </c>
-      <c r="E102" s="64" t="s">
+      <c r="E102" s="57" t="s">
         <v>333</v>
       </c>
-      <c r="F102" s="64" t="s">
+      <c r="F102" s="57" t="s">
         <v>331</v>
       </c>
-      <c r="G102" s="70" t="s">
+      <c r="G102" s="61" t="s">
         <v>209</v>
       </c>
-      <c r="H102" s="67" t="s">
+      <c r="H102" s="59" t="s">
         <v>92</v>
       </c>
-      <c r="I102" s="19">
-        <v>42681</v>
-      </c>
-      <c r="J102" s="63"/>
+      <c r="I102" s="15">
+        <f t="shared" si="11"/>
+        <v>42564</v>
+      </c>
+      <c r="J102" s="56"/>
       <c r="K102" s="7"/>
       <c r="L102" s="7"/>
       <c r="M102" s="7"/>
@@ -12710,32 +12727,33 @@
       <c r="Z102" s="7"/>
     </row>
     <row r="103" spans="1:26" ht="250.5" customHeight="1">
-      <c r="A103" s="69" t="s">
+      <c r="A103" s="60" t="s">
         <v>352</v>
       </c>
-      <c r="B103" s="64" t="s">
+      <c r="B103" s="57" t="s">
         <v>244</v>
       </c>
-      <c r="C103" s="63"/>
-      <c r="D103" s="64" t="s">
+      <c r="C103" s="56"/>
+      <c r="D103" s="57" t="s">
         <v>334</v>
       </c>
-      <c r="E103" s="64" t="s">
+      <c r="E103" s="57" t="s">
         <v>335</v>
       </c>
-      <c r="F103" s="64" t="s">
+      <c r="F103" s="57" t="s">
         <v>331</v>
       </c>
-      <c r="G103" s="70" t="s">
+      <c r="G103" s="61" t="s">
         <v>209</v>
       </c>
-      <c r="H103" s="67" t="s">
+      <c r="H103" s="59" t="s">
         <v>92</v>
       </c>
-      <c r="I103" s="19">
-        <v>42681</v>
-      </c>
-      <c r="J103" s="63"/>
+      <c r="I103" s="15">
+        <f t="shared" si="11"/>
+        <v>42564</v>
+      </c>
+      <c r="J103" s="56"/>
       <c r="K103" s="7"/>
       <c r="L103" s="7"/>
       <c r="M103" s="7"/>
@@ -12754,32 +12772,33 @@
       <c r="Z103" s="7"/>
     </row>
     <row r="104" spans="1:26" ht="225" customHeight="1">
-      <c r="A104" s="69" t="s">
+      <c r="A104" s="60" t="s">
         <v>353</v>
       </c>
-      <c r="B104" s="64" t="s">
+      <c r="B104" s="57" t="s">
         <v>247</v>
       </c>
-      <c r="C104" s="63"/>
-      <c r="D104" s="64" t="s">
+      <c r="C104" s="56"/>
+      <c r="D104" s="57" t="s">
         <v>336</v>
       </c>
-      <c r="E104" s="64" t="s">
+      <c r="E104" s="57" t="s">
         <v>337</v>
       </c>
-      <c r="F104" s="64" t="s">
+      <c r="F104" s="57" t="s">
         <v>331</v>
       </c>
-      <c r="G104" s="70" t="s">
+      <c r="G104" s="61" t="s">
         <v>209</v>
       </c>
-      <c r="H104" s="67" t="s">
+      <c r="H104" s="59" t="s">
         <v>92</v>
       </c>
-      <c r="I104" s="19">
-        <v>42681</v>
-      </c>
-      <c r="J104" s="63"/>
+      <c r="I104" s="15">
+        <f t="shared" si="11"/>
+        <v>42564</v>
+      </c>
+      <c r="J104" s="56"/>
       <c r="K104" s="7"/>
       <c r="L104" s="7"/>
       <c r="M104" s="7"/>
@@ -12798,32 +12817,33 @@
       <c r="Z104" s="7"/>
     </row>
     <row r="105" spans="1:26" ht="225">
-      <c r="A105" s="69" t="s">
+      <c r="A105" s="60" t="s">
         <v>354</v>
       </c>
-      <c r="B105" s="64" t="s">
+      <c r="B105" s="57" t="s">
         <v>250</v>
       </c>
-      <c r="C105" s="63"/>
-      <c r="D105" s="64" t="s">
+      <c r="C105" s="56"/>
+      <c r="D105" s="57" t="s">
         <v>328</v>
       </c>
-      <c r="E105" s="64" t="s">
+      <c r="E105" s="57" t="s">
         <v>338</v>
       </c>
-      <c r="F105" s="64" t="s">
+      <c r="F105" s="57" t="s">
         <v>312</v>
       </c>
-      <c r="G105" s="70" t="s">
+      <c r="G105" s="61" t="s">
         <v>209</v>
       </c>
-      <c r="H105" s="67" t="s">
+      <c r="H105" s="59" t="s">
         <v>92</v>
       </c>
-      <c r="I105" s="19">
-        <v>42681</v>
-      </c>
-      <c r="J105" s="63"/>
+      <c r="I105" s="15">
+        <f t="shared" si="11"/>
+        <v>42564</v>
+      </c>
+      <c r="J105" s="56"/>
       <c r="K105" s="7"/>
       <c r="L105" s="7"/>
       <c r="M105" s="7"/>
@@ -12841,17 +12861,17 @@
       <c r="Y105" s="7"/>
       <c r="Z105" s="7"/>
     </row>
-    <row r="106" spans="1:26" ht="57.75" customHeight="1">
-      <c r="A106" s="68"/>
-      <c r="B106" s="68"/>
-      <c r="C106" s="66"/>
-      <c r="D106" s="66"/>
-      <c r="E106" s="66"/>
-      <c r="F106" s="66"/>
-      <c r="G106" s="66"/>
-      <c r="H106" s="66"/>
-      <c r="I106" s="66"/>
-      <c r="J106" s="66"/>
+    <row r="106" spans="1:26">
+      <c r="A106" s="8"/>
+      <c r="B106" s="8"/>
+      <c r="C106" s="8"/>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="7"/>
+      <c r="H106" s="8"/>
+      <c r="I106" s="8"/>
+      <c r="J106" s="8"/>
       <c r="K106" s="7"/>
       <c r="L106" s="7"/>
       <c r="M106" s="7"/>
@@ -12869,17 +12889,17 @@
       <c r="Y106" s="7"/>
       <c r="Z106" s="7"/>
     </row>
-    <row r="107" spans="1:26" ht="276" customHeight="1">
-      <c r="A107" s="63"/>
-      <c r="B107" s="64"/>
-      <c r="C107" s="63"/>
-      <c r="D107" s="64"/>
-      <c r="E107" s="64"/>
-      <c r="F107" s="64"/>
-      <c r="G107" s="63"/>
-      <c r="H107" s="67"/>
-      <c r="I107" s="61"/>
-      <c r="J107" s="63"/>
+    <row r="107" spans="1:26">
+      <c r="A107" s="8"/>
+      <c r="B107" s="8"/>
+      <c r="C107" s="8"/>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="7"/>
+      <c r="H107" s="8"/>
+      <c r="I107" s="8"/>
+      <c r="J107" s="8"/>
       <c r="K107" s="7"/>
       <c r="L107" s="7"/>
       <c r="M107" s="7"/>
@@ -12897,17 +12917,17 @@
       <c r="Y107" s="7"/>
       <c r="Z107" s="7"/>
     </row>
-    <row r="108" spans="1:26" ht="285.75" customHeight="1">
-      <c r="A108" s="63"/>
-      <c r="B108" s="64"/>
-      <c r="C108" s="63"/>
-      <c r="D108" s="64"/>
-      <c r="E108" s="64"/>
-      <c r="F108" s="64"/>
-      <c r="G108" s="64"/>
-      <c r="H108" s="67"/>
-      <c r="I108" s="61"/>
-      <c r="J108" s="63"/>
+    <row r="108" spans="1:26">
+      <c r="A108" s="8"/>
+      <c r="B108" s="8"/>
+      <c r="C108" s="8"/>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="7"/>
+      <c r="H108" s="8"/>
+      <c r="I108" s="8"/>
+      <c r="J108" s="8"/>
       <c r="K108" s="7"/>
       <c r="L108" s="7"/>
       <c r="M108" s="7"/>
@@ -12925,17 +12945,17 @@
       <c r="Y108" s="7"/>
       <c r="Z108" s="7"/>
     </row>
-    <row r="109" spans="1:26" ht="288.75" customHeight="1">
-      <c r="A109" s="63"/>
-      <c r="B109" s="64"/>
-      <c r="C109" s="63"/>
-      <c r="D109" s="64"/>
-      <c r="E109" s="64"/>
-      <c r="F109" s="64"/>
-      <c r="G109" s="64"/>
-      <c r="H109" s="67"/>
-      <c r="I109" s="61"/>
-      <c r="J109" s="63"/>
+    <row r="109" spans="1:26">
+      <c r="A109" s="8"/>
+      <c r="B109" s="8"/>
+      <c r="C109" s="8"/>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="7"/>
+      <c r="H109" s="8"/>
+      <c r="I109" s="8"/>
+      <c r="J109" s="8"/>
       <c r="K109" s="7"/>
       <c r="L109" s="7"/>
       <c r="M109" s="7"/>
@@ -12953,17 +12973,17 @@
       <c r="Y109" s="7"/>
       <c r="Z109" s="7"/>
     </row>
-    <row r="110" spans="1:26" ht="233.25" customHeight="1">
-      <c r="A110" s="63"/>
-      <c r="B110" s="64"/>
-      <c r="C110" s="63"/>
-      <c r="D110" s="64"/>
-      <c r="E110" s="64"/>
-      <c r="F110" s="64"/>
-      <c r="G110" s="64"/>
-      <c r="H110" s="67"/>
-      <c r="I110" s="61"/>
-      <c r="J110" s="63"/>
+    <row r="110" spans="1:26">
+      <c r="A110" s="8"/>
+      <c r="B110" s="8"/>
+      <c r="C110" s="8"/>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="7"/>
+      <c r="H110" s="8"/>
+      <c r="I110" s="8"/>
+      <c r="J110" s="8"/>
       <c r="K110" s="7"/>
       <c r="L110" s="7"/>
       <c r="M110" s="7"/>
@@ -12982,16 +13002,16 @@
       <c r="Z110" s="7"/>
     </row>
     <row r="111" spans="1:26">
-      <c r="A111" s="63"/>
-      <c r="B111" s="64"/>
-      <c r="C111" s="63"/>
-      <c r="D111" s="64"/>
-      <c r="E111" s="64"/>
-      <c r="F111" s="64"/>
-      <c r="G111" s="64"/>
-      <c r="H111" s="67"/>
-      <c r="I111" s="61"/>
-      <c r="J111" s="63"/>
+      <c r="A111" s="8"/>
+      <c r="B111" s="8"/>
+      <c r="C111" s="8"/>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="7"/>
+      <c r="H111" s="8"/>
+      <c r="I111" s="8"/>
+      <c r="J111" s="8"/>
       <c r="K111" s="7"/>
       <c r="L111" s="7"/>
       <c r="M111" s="7"/>
@@ -13009,17 +13029,17 @@
       <c r="Y111" s="7"/>
       <c r="Z111" s="7"/>
     </row>
-    <row r="112" spans="1:26" ht="307.5" customHeight="1">
-      <c r="A112" s="63"/>
-      <c r="B112" s="64"/>
-      <c r="C112" s="63"/>
-      <c r="D112" s="64"/>
-      <c r="E112" s="64"/>
-      <c r="F112" s="64"/>
-      <c r="G112" s="64"/>
-      <c r="H112" s="67"/>
-      <c r="I112" s="61"/>
-      <c r="J112" s="63"/>
+    <row r="112" spans="1:26">
+      <c r="A112" s="8"/>
+      <c r="B112" s="8"/>
+      <c r="C112" s="8"/>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="7"/>
+      <c r="H112" s="8"/>
+      <c r="I112" s="8"/>
+      <c r="J112" s="8"/>
       <c r="K112" s="7"/>
       <c r="L112" s="7"/>
       <c r="M112" s="7"/>
@@ -13038,16 +13058,16 @@
       <c r="Z112" s="7"/>
     </row>
     <row r="113" spans="1:26">
-      <c r="A113" s="63"/>
-      <c r="B113" s="64"/>
-      <c r="C113" s="63"/>
-      <c r="D113" s="64"/>
-      <c r="E113" s="64"/>
-      <c r="F113" s="64"/>
-      <c r="G113" s="64"/>
-      <c r="H113" s="67"/>
-      <c r="I113" s="61"/>
-      <c r="J113" s="63"/>
+      <c r="A113" s="8"/>
+      <c r="B113" s="8"/>
+      <c r="C113" s="8"/>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="7"/>
+      <c r="H113" s="8"/>
+      <c r="I113" s="8"/>
+      <c r="J113" s="8"/>
       <c r="K113" s="7"/>
       <c r="L113" s="7"/>
       <c r="M113" s="7"/>
@@ -13066,16 +13086,16 @@
       <c r="Z113" s="7"/>
     </row>
     <row r="114" spans="1:26">
-      <c r="A114" s="63"/>
-      <c r="B114" s="64"/>
-      <c r="C114" s="63"/>
-      <c r="D114" s="64"/>
-      <c r="E114" s="64"/>
-      <c r="F114" s="64"/>
-      <c r="G114" s="64"/>
-      <c r="H114" s="67"/>
-      <c r="I114" s="61"/>
-      <c r="J114" s="63"/>
+      <c r="A114" s="8"/>
+      <c r="B114" s="8"/>
+      <c r="C114" s="8"/>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="7"/>
+      <c r="H114" s="8"/>
+      <c r="I114" s="8"/>
+      <c r="J114" s="8"/>
       <c r="K114" s="7"/>
       <c r="L114" s="7"/>
       <c r="M114" s="7"/>
@@ -13093,17 +13113,17 @@
       <c r="Y114" s="7"/>
       <c r="Z114" s="7"/>
     </row>
-    <row r="115" spans="1:26" ht="315" customHeight="1">
-      <c r="A115" s="63"/>
-      <c r="B115" s="64"/>
-      <c r="C115" s="63"/>
-      <c r="D115" s="64"/>
-      <c r="E115" s="64"/>
-      <c r="F115" s="64"/>
-      <c r="G115" s="64"/>
-      <c r="H115" s="67"/>
-      <c r="I115" s="61"/>
-      <c r="J115" s="63"/>
+    <row r="115" spans="1:26">
+      <c r="A115" s="8"/>
+      <c r="B115" s="8"/>
+      <c r="C115" s="8"/>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="7"/>
+      <c r="H115" s="8"/>
+      <c r="I115" s="8"/>
+      <c r="J115" s="8"/>
       <c r="K115" s="7"/>
       <c r="L115" s="7"/>
       <c r="M115" s="7"/>
@@ -13122,16 +13142,16 @@
       <c r="Z115" s="7"/>
     </row>
     <row r="116" spans="1:26">
-      <c r="A116" s="63"/>
-      <c r="B116" s="64"/>
-      <c r="C116" s="63"/>
-      <c r="D116" s="64"/>
-      <c r="E116" s="64"/>
-      <c r="F116" s="64"/>
-      <c r="G116" s="64"/>
-      <c r="H116" s="67"/>
-      <c r="I116" s="61"/>
-      <c r="J116" s="63"/>
+      <c r="A116" s="8"/>
+      <c r="B116" s="8"/>
+      <c r="C116" s="8"/>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="7"/>
+      <c r="H116" s="8"/>
+      <c r="I116" s="8"/>
+      <c r="J116" s="8"/>
       <c r="K116" s="7"/>
       <c r="L116" s="7"/>
       <c r="M116" s="7"/>
@@ -13150,16 +13170,16 @@
       <c r="Z116" s="7"/>
     </row>
     <row r="117" spans="1:26">
-      <c r="A117" s="63"/>
-      <c r="B117" s="64"/>
-      <c r="C117" s="63"/>
-      <c r="D117" s="64"/>
-      <c r="E117" s="64"/>
-      <c r="F117" s="64"/>
-      <c r="G117" s="64"/>
-      <c r="H117" s="67"/>
-      <c r="I117" s="61"/>
-      <c r="J117" s="63"/>
+      <c r="A117" s="8"/>
+      <c r="B117" s="8"/>
+      <c r="C117" s="8"/>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="7"/>
+      <c r="H117" s="8"/>
+      <c r="I117" s="8"/>
+      <c r="J117" s="8"/>
       <c r="K117" s="7"/>
       <c r="L117" s="7"/>
       <c r="M117" s="7"/>
@@ -13177,17 +13197,17 @@
       <c r="Y117" s="7"/>
       <c r="Z117" s="7"/>
     </row>
-    <row r="118" spans="1:26" ht="288" customHeight="1">
-      <c r="A118" s="63"/>
-      <c r="B118" s="64"/>
-      <c r="C118" s="63"/>
-      <c r="D118" s="64"/>
-      <c r="E118" s="64"/>
-      <c r="F118" s="64"/>
-      <c r="G118" s="64"/>
-      <c r="H118" s="67"/>
-      <c r="I118" s="61"/>
-      <c r="J118" s="63"/>
+    <row r="118" spans="1:26">
+      <c r="A118" s="8"/>
+      <c r="B118" s="8"/>
+      <c r="C118" s="8"/>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="7"/>
+      <c r="H118" s="8"/>
+      <c r="I118" s="8"/>
+      <c r="J118" s="8"/>
       <c r="K118" s="7"/>
       <c r="L118" s="7"/>
       <c r="M118" s="7"/>
@@ -13206,16 +13226,16 @@
       <c r="Z118" s="7"/>
     </row>
     <row r="119" spans="1:26">
-      <c r="A119" s="63"/>
-      <c r="B119" s="64"/>
-      <c r="C119" s="63"/>
-      <c r="D119" s="64"/>
-      <c r="E119" s="64"/>
-      <c r="F119" s="64"/>
-      <c r="G119" s="64"/>
-      <c r="H119" s="67"/>
-      <c r="I119" s="61"/>
-      <c r="J119" s="63"/>
+      <c r="A119" s="8"/>
+      <c r="B119" s="8"/>
+      <c r="C119" s="8"/>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="7"/>
+      <c r="H119" s="8"/>
+      <c r="I119" s="8"/>
+      <c r="J119" s="8"/>
       <c r="K119" s="7"/>
       <c r="L119" s="7"/>
       <c r="M119" s="7"/>
@@ -13234,16 +13254,16 @@
       <c r="Z119" s="7"/>
     </row>
     <row r="120" spans="1:26">
-      <c r="A120" s="63"/>
-      <c r="B120" s="64"/>
-      <c r="C120" s="63"/>
-      <c r="D120" s="64"/>
-      <c r="E120" s="64"/>
-      <c r="F120" s="64"/>
-      <c r="G120" s="64"/>
-      <c r="H120" s="67"/>
-      <c r="I120" s="61"/>
-      <c r="J120" s="63"/>
+      <c r="A120" s="8"/>
+      <c r="B120" s="8"/>
+      <c r="C120" s="8"/>
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="7"/>
+      <c r="H120" s="8"/>
+      <c r="I120" s="8"/>
+      <c r="J120" s="8"/>
       <c r="K120" s="7"/>
       <c r="L120" s="7"/>
       <c r="M120" s="7"/>
@@ -13261,17 +13281,17 @@
       <c r="Y120" s="7"/>
       <c r="Z120" s="7"/>
     </row>
-    <row r="121" spans="1:26" ht="300" customHeight="1">
-      <c r="A121" s="63"/>
-      <c r="B121" s="64"/>
-      <c r="C121" s="63"/>
-      <c r="D121" s="64"/>
-      <c r="E121" s="64"/>
-      <c r="F121" s="64"/>
-      <c r="G121" s="64"/>
-      <c r="H121" s="67"/>
-      <c r="I121" s="61"/>
-      <c r="J121" s="63"/>
+    <row r="121" spans="1:26">
+      <c r="A121" s="8"/>
+      <c r="B121" s="8"/>
+      <c r="C121" s="8"/>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="7"/>
+      <c r="H121" s="8"/>
+      <c r="I121" s="8"/>
+      <c r="J121" s="8"/>
       <c r="K121" s="7"/>
       <c r="L121" s="7"/>
       <c r="M121" s="7"/>
@@ -13289,17 +13309,17 @@
       <c r="Y121" s="7"/>
       <c r="Z121" s="7"/>
     </row>
-    <row r="122" spans="1:26" ht="297.75" customHeight="1">
-      <c r="A122" s="63"/>
-      <c r="B122" s="64"/>
-      <c r="C122" s="63"/>
-      <c r="D122" s="64"/>
-      <c r="E122" s="64"/>
-      <c r="F122" s="64"/>
-      <c r="G122" s="64"/>
-      <c r="H122" s="67"/>
-      <c r="I122" s="61"/>
-      <c r="J122" s="63"/>
+    <row r="122" spans="1:26">
+      <c r="A122" s="8"/>
+      <c r="B122" s="8"/>
+      <c r="C122" s="8"/>
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="7"/>
+      <c r="H122" s="8"/>
+      <c r="I122" s="8"/>
+      <c r="J122" s="8"/>
       <c r="K122" s="7"/>
       <c r="L122" s="7"/>
       <c r="M122" s="7"/>
@@ -13318,16 +13338,16 @@
       <c r="Z122" s="7"/>
     </row>
     <row r="123" spans="1:26">
-      <c r="A123" s="15"/>
-      <c r="B123" s="15"/>
-      <c r="C123" s="15"/>
-      <c r="D123" s="15"/>
-      <c r="E123" s="15"/>
-      <c r="F123" s="15"/>
-      <c r="G123" s="15"/>
-      <c r="H123" s="15"/>
-      <c r="I123" s="15"/>
-      <c r="J123" s="15"/>
+      <c r="A123" s="8"/>
+      <c r="B123" s="8"/>
+      <c r="C123" s="8"/>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="7"/>
+      <c r="H123" s="8"/>
+      <c r="I123" s="8"/>
+      <c r="J123" s="8"/>
       <c r="K123" s="7"/>
       <c r="L123" s="7"/>
       <c r="M123" s="7"/>
@@ -13346,16 +13366,16 @@
       <c r="Z123" s="7"/>
     </row>
     <row r="124" spans="1:26">
-      <c r="A124" s="15"/>
-      <c r="B124" s="15"/>
-      <c r="C124" s="15"/>
-      <c r="D124" s="15"/>
-      <c r="E124" s="15"/>
-      <c r="F124" s="15"/>
-      <c r="G124" s="15"/>
-      <c r="H124" s="15"/>
-      <c r="I124" s="15"/>
-      <c r="J124" s="15"/>
+      <c r="A124" s="8"/>
+      <c r="B124" s="8"/>
+      <c r="C124" s="8"/>
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="7"/>
+      <c r="H124" s="8"/>
+      <c r="I124" s="8"/>
+      <c r="J124" s="8"/>
       <c r="K124" s="7"/>
       <c r="L124" s="7"/>
       <c r="M124" s="7"/>
@@ -13374,16 +13394,16 @@
       <c r="Z124" s="7"/>
     </row>
     <row r="125" spans="1:26">
-      <c r="A125" s="15"/>
-      <c r="B125" s="15"/>
-      <c r="C125" s="15"/>
-      <c r="D125" s="15"/>
-      <c r="E125" s="15"/>
-      <c r="F125" s="15"/>
-      <c r="G125" s="15"/>
-      <c r="H125" s="15"/>
-      <c r="I125" s="15"/>
-      <c r="J125" s="15"/>
+      <c r="A125" s="8"/>
+      <c r="B125" s="8"/>
+      <c r="C125" s="8"/>
+      <c r="D125" s="8"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="7"/>
+      <c r="H125" s="8"/>
+      <c r="I125" s="8"/>
+      <c r="J125" s="8"/>
       <c r="K125" s="7"/>
       <c r="L125" s="7"/>
       <c r="M125" s="7"/>
@@ -13402,16 +13422,16 @@
       <c r="Z125" s="7"/>
     </row>
     <row r="126" spans="1:26">
-      <c r="A126" s="15"/>
-      <c r="B126" s="15"/>
-      <c r="C126" s="15"/>
-      <c r="D126" s="15"/>
-      <c r="E126" s="15"/>
-      <c r="F126" s="15"/>
-      <c r="G126" s="15"/>
-      <c r="H126" s="15"/>
-      <c r="I126" s="15"/>
-      <c r="J126" s="15"/>
+      <c r="A126" s="8"/>
+      <c r="B126" s="8"/>
+      <c r="C126" s="8"/>
+      <c r="D126" s="8"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="7"/>
+      <c r="H126" s="8"/>
+      <c r="I126" s="8"/>
+      <c r="J126" s="8"/>
       <c r="K126" s="7"/>
       <c r="L126" s="7"/>
       <c r="M126" s="7"/>
@@ -13430,16 +13450,16 @@
       <c r="Z126" s="7"/>
     </row>
     <row r="127" spans="1:26">
-      <c r="A127" s="15"/>
-      <c r="B127" s="15"/>
-      <c r="C127" s="15"/>
-      <c r="D127" s="15"/>
-      <c r="E127" s="15"/>
-      <c r="F127" s="15"/>
-      <c r="G127" s="15"/>
-      <c r="H127" s="15"/>
-      <c r="I127" s="15"/>
-      <c r="J127" s="15"/>
+      <c r="A127" s="8"/>
+      <c r="B127" s="8"/>
+      <c r="C127" s="8"/>
+      <c r="D127" s="8"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="7"/>
+      <c r="H127" s="8"/>
+      <c r="I127" s="8"/>
+      <c r="J127" s="8"/>
       <c r="K127" s="7"/>
       <c r="L127" s="7"/>
       <c r="M127" s="7"/>
@@ -13458,16 +13478,16 @@
       <c r="Z127" s="7"/>
     </row>
     <row r="128" spans="1:26">
-      <c r="A128" s="15"/>
-      <c r="B128" s="15"/>
-      <c r="C128" s="15"/>
-      <c r="D128" s="15"/>
-      <c r="E128" s="15"/>
-      <c r="F128" s="15"/>
-      <c r="G128" s="15"/>
-      <c r="H128" s="15"/>
-      <c r="I128" s="15"/>
-      <c r="J128" s="15"/>
+      <c r="A128" s="8"/>
+      <c r="B128" s="8"/>
+      <c r="C128" s="8"/>
+      <c r="D128" s="8"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="7"/>
+      <c r="H128" s="8"/>
+      <c r="I128" s="8"/>
+      <c r="J128" s="8"/>
       <c r="K128" s="7"/>
       <c r="L128" s="7"/>
       <c r="M128" s="7"/>
@@ -13486,16 +13506,16 @@
       <c r="Z128" s="7"/>
     </row>
     <row r="129" spans="1:26">
-      <c r="A129" s="15"/>
-      <c r="B129" s="15"/>
-      <c r="C129" s="15"/>
-      <c r="D129" s="15"/>
-      <c r="E129" s="15"/>
-      <c r="F129" s="15"/>
-      <c r="G129" s="15"/>
-      <c r="H129" s="15"/>
-      <c r="I129" s="15"/>
-      <c r="J129" s="15"/>
+      <c r="A129" s="8"/>
+      <c r="B129" s="8"/>
+      <c r="C129" s="8"/>
+      <c r="D129" s="8"/>
+      <c r="E129" s="8"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="7"/>
+      <c r="H129" s="8"/>
+      <c r="I129" s="8"/>
+      <c r="J129" s="8"/>
       <c r="K129" s="7"/>
       <c r="L129" s="7"/>
       <c r="M129" s="7"/>
@@ -37425,678 +37445,6 @@
       <c r="Y983" s="7"/>
       <c r="Z983" s="7"/>
     </row>
-    <row r="984" spans="1:26">
-      <c r="A984" s="8"/>
-      <c r="B984" s="8"/>
-      <c r="C984" s="8"/>
-      <c r="D984" s="8"/>
-      <c r="E984" s="8"/>
-      <c r="F984" s="8"/>
-      <c r="G984" s="7"/>
-      <c r="H984" s="8"/>
-      <c r="I984" s="8"/>
-      <c r="J984" s="8"/>
-      <c r="K984" s="7"/>
-      <c r="L984" s="7"/>
-      <c r="M984" s="7"/>
-      <c r="N984" s="7"/>
-      <c r="O984" s="7"/>
-      <c r="P984" s="7"/>
-      <c r="Q984" s="7"/>
-      <c r="R984" s="7"/>
-      <c r="S984" s="7"/>
-      <c r="T984" s="7"/>
-      <c r="U984" s="7"/>
-      <c r="V984" s="7"/>
-      <c r="W984" s="7"/>
-      <c r="X984" s="7"/>
-      <c r="Y984" s="7"/>
-      <c r="Z984" s="7"/>
-    </row>
-    <row r="985" spans="1:26">
-      <c r="A985" s="8"/>
-      <c r="B985" s="8"/>
-      <c r="C985" s="8"/>
-      <c r="D985" s="8"/>
-      <c r="E985" s="8"/>
-      <c r="F985" s="8"/>
-      <c r="G985" s="7"/>
-      <c r="H985" s="8"/>
-      <c r="I985" s="8"/>
-      <c r="J985" s="8"/>
-      <c r="K985" s="7"/>
-      <c r="L985" s="7"/>
-      <c r="M985" s="7"/>
-      <c r="N985" s="7"/>
-      <c r="O985" s="7"/>
-      <c r="P985" s="7"/>
-      <c r="Q985" s="7"/>
-      <c r="R985" s="7"/>
-      <c r="S985" s="7"/>
-      <c r="T985" s="7"/>
-      <c r="U985" s="7"/>
-      <c r="V985" s="7"/>
-      <c r="W985" s="7"/>
-      <c r="X985" s="7"/>
-      <c r="Y985" s="7"/>
-      <c r="Z985" s="7"/>
-    </row>
-    <row r="986" spans="1:26">
-      <c r="A986" s="8"/>
-      <c r="B986" s="8"/>
-      <c r="C986" s="8"/>
-      <c r="D986" s="8"/>
-      <c r="E986" s="8"/>
-      <c r="F986" s="8"/>
-      <c r="G986" s="7"/>
-      <c r="H986" s="8"/>
-      <c r="I986" s="8"/>
-      <c r="J986" s="8"/>
-      <c r="K986" s="7"/>
-      <c r="L986" s="7"/>
-      <c r="M986" s="7"/>
-      <c r="N986" s="7"/>
-      <c r="O986" s="7"/>
-      <c r="P986" s="7"/>
-      <c r="Q986" s="7"/>
-      <c r="R986" s="7"/>
-      <c r="S986" s="7"/>
-      <c r="T986" s="7"/>
-      <c r="U986" s="7"/>
-      <c r="V986" s="7"/>
-      <c r="W986" s="7"/>
-      <c r="X986" s="7"/>
-      <c r="Y986" s="7"/>
-      <c r="Z986" s="7"/>
-    </row>
-    <row r="987" spans="1:26">
-      <c r="A987" s="8"/>
-      <c r="B987" s="8"/>
-      <c r="C987" s="8"/>
-      <c r="D987" s="8"/>
-      <c r="E987" s="8"/>
-      <c r="F987" s="8"/>
-      <c r="G987" s="7"/>
-      <c r="H987" s="8"/>
-      <c r="I987" s="8"/>
-      <c r="J987" s="8"/>
-      <c r="K987" s="7"/>
-      <c r="L987" s="7"/>
-      <c r="M987" s="7"/>
-      <c r="N987" s="7"/>
-      <c r="O987" s="7"/>
-      <c r="P987" s="7"/>
-      <c r="Q987" s="7"/>
-      <c r="R987" s="7"/>
-      <c r="S987" s="7"/>
-      <c r="T987" s="7"/>
-      <c r="U987" s="7"/>
-      <c r="V987" s="7"/>
-      <c r="W987" s="7"/>
-      <c r="X987" s="7"/>
-      <c r="Y987" s="7"/>
-      <c r="Z987" s="7"/>
-    </row>
-    <row r="988" spans="1:26">
-      <c r="A988" s="8"/>
-      <c r="B988" s="8"/>
-      <c r="C988" s="8"/>
-      <c r="D988" s="8"/>
-      <c r="E988" s="8"/>
-      <c r="F988" s="8"/>
-      <c r="G988" s="7"/>
-      <c r="H988" s="8"/>
-      <c r="I988" s="8"/>
-      <c r="J988" s="8"/>
-      <c r="K988" s="7"/>
-      <c r="L988" s="7"/>
-      <c r="M988" s="7"/>
-      <c r="N988" s="7"/>
-      <c r="O988" s="7"/>
-      <c r="P988" s="7"/>
-      <c r="Q988" s="7"/>
-      <c r="R988" s="7"/>
-      <c r="S988" s="7"/>
-      <c r="T988" s="7"/>
-      <c r="U988" s="7"/>
-      <c r="V988" s="7"/>
-      <c r="W988" s="7"/>
-      <c r="X988" s="7"/>
-      <c r="Y988" s="7"/>
-      <c r="Z988" s="7"/>
-    </row>
-    <row r="989" spans="1:26">
-      <c r="A989" s="8"/>
-      <c r="B989" s="8"/>
-      <c r="C989" s="8"/>
-      <c r="D989" s="8"/>
-      <c r="E989" s="8"/>
-      <c r="F989" s="8"/>
-      <c r="G989" s="7"/>
-      <c r="H989" s="8"/>
-      <c r="I989" s="8"/>
-      <c r="J989" s="8"/>
-      <c r="K989" s="7"/>
-      <c r="L989" s="7"/>
-      <c r="M989" s="7"/>
-      <c r="N989" s="7"/>
-      <c r="O989" s="7"/>
-      <c r="P989" s="7"/>
-      <c r="Q989" s="7"/>
-      <c r="R989" s="7"/>
-      <c r="S989" s="7"/>
-      <c r="T989" s="7"/>
-      <c r="U989" s="7"/>
-      <c r="V989" s="7"/>
-      <c r="W989" s="7"/>
-      <c r="X989" s="7"/>
-      <c r="Y989" s="7"/>
-      <c r="Z989" s="7"/>
-    </row>
-    <row r="990" spans="1:26">
-      <c r="A990" s="8"/>
-      <c r="B990" s="8"/>
-      <c r="C990" s="8"/>
-      <c r="D990" s="8"/>
-      <c r="E990" s="8"/>
-      <c r="F990" s="8"/>
-      <c r="G990" s="7"/>
-      <c r="H990" s="8"/>
-      <c r="I990" s="8"/>
-      <c r="J990" s="8"/>
-      <c r="K990" s="7"/>
-      <c r="L990" s="7"/>
-      <c r="M990" s="7"/>
-      <c r="N990" s="7"/>
-      <c r="O990" s="7"/>
-      <c r="P990" s="7"/>
-      <c r="Q990" s="7"/>
-      <c r="R990" s="7"/>
-      <c r="S990" s="7"/>
-      <c r="T990" s="7"/>
-      <c r="U990" s="7"/>
-      <c r="V990" s="7"/>
-      <c r="W990" s="7"/>
-      <c r="X990" s="7"/>
-      <c r="Y990" s="7"/>
-      <c r="Z990" s="7"/>
-    </row>
-    <row r="991" spans="1:26">
-      <c r="A991" s="8"/>
-      <c r="B991" s="8"/>
-      <c r="C991" s="8"/>
-      <c r="D991" s="8"/>
-      <c r="E991" s="8"/>
-      <c r="F991" s="8"/>
-      <c r="G991" s="7"/>
-      <c r="H991" s="8"/>
-      <c r="I991" s="8"/>
-      <c r="J991" s="8"/>
-      <c r="K991" s="7"/>
-      <c r="L991" s="7"/>
-      <c r="M991" s="7"/>
-      <c r="N991" s="7"/>
-      <c r="O991" s="7"/>
-      <c r="P991" s="7"/>
-      <c r="Q991" s="7"/>
-      <c r="R991" s="7"/>
-      <c r="S991" s="7"/>
-      <c r="T991" s="7"/>
-      <c r="U991" s="7"/>
-      <c r="V991" s="7"/>
-      <c r="W991" s="7"/>
-      <c r="X991" s="7"/>
-      <c r="Y991" s="7"/>
-      <c r="Z991" s="7"/>
-    </row>
-    <row r="992" spans="1:26">
-      <c r="A992" s="8"/>
-      <c r="B992" s="8"/>
-      <c r="C992" s="8"/>
-      <c r="D992" s="8"/>
-      <c r="E992" s="8"/>
-      <c r="F992" s="8"/>
-      <c r="G992" s="7"/>
-      <c r="H992" s="8"/>
-      <c r="I992" s="8"/>
-      <c r="J992" s="8"/>
-      <c r="K992" s="7"/>
-      <c r="L992" s="7"/>
-      <c r="M992" s="7"/>
-      <c r="N992" s="7"/>
-      <c r="O992" s="7"/>
-      <c r="P992" s="7"/>
-      <c r="Q992" s="7"/>
-      <c r="R992" s="7"/>
-      <c r="S992" s="7"/>
-      <c r="T992" s="7"/>
-      <c r="U992" s="7"/>
-      <c r="V992" s="7"/>
-      <c r="W992" s="7"/>
-      <c r="X992" s="7"/>
-      <c r="Y992" s="7"/>
-      <c r="Z992" s="7"/>
-    </row>
-    <row r="993" spans="1:26">
-      <c r="A993" s="8"/>
-      <c r="B993" s="8"/>
-      <c r="C993" s="8"/>
-      <c r="D993" s="8"/>
-      <c r="E993" s="8"/>
-      <c r="F993" s="8"/>
-      <c r="G993" s="7"/>
-      <c r="H993" s="8"/>
-      <c r="I993" s="8"/>
-      <c r="J993" s="8"/>
-      <c r="K993" s="7"/>
-      <c r="L993" s="7"/>
-      <c r="M993" s="7"/>
-      <c r="N993" s="7"/>
-      <c r="O993" s="7"/>
-      <c r="P993" s="7"/>
-      <c r="Q993" s="7"/>
-      <c r="R993" s="7"/>
-      <c r="S993" s="7"/>
-      <c r="T993" s="7"/>
-      <c r="U993" s="7"/>
-      <c r="V993" s="7"/>
-      <c r="W993" s="7"/>
-      <c r="X993" s="7"/>
-      <c r="Y993" s="7"/>
-      <c r="Z993" s="7"/>
-    </row>
-    <row r="994" spans="1:26">
-      <c r="A994" s="8"/>
-      <c r="B994" s="8"/>
-      <c r="C994" s="8"/>
-      <c r="D994" s="8"/>
-      <c r="E994" s="8"/>
-      <c r="F994" s="8"/>
-      <c r="G994" s="7"/>
-      <c r="H994" s="8"/>
-      <c r="I994" s="8"/>
-      <c r="J994" s="8"/>
-      <c r="K994" s="7"/>
-      <c r="L994" s="7"/>
-      <c r="M994" s="7"/>
-      <c r="N994" s="7"/>
-      <c r="O994" s="7"/>
-      <c r="P994" s="7"/>
-      <c r="Q994" s="7"/>
-      <c r="R994" s="7"/>
-      <c r="S994" s="7"/>
-      <c r="T994" s="7"/>
-      <c r="U994" s="7"/>
-      <c r="V994" s="7"/>
-      <c r="W994" s="7"/>
-      <c r="X994" s="7"/>
-      <c r="Y994" s="7"/>
-      <c r="Z994" s="7"/>
-    </row>
-    <row r="995" spans="1:26">
-      <c r="A995" s="8"/>
-      <c r="B995" s="8"/>
-      <c r="C995" s="8"/>
-      <c r="D995" s="8"/>
-      <c r="E995" s="8"/>
-      <c r="F995" s="8"/>
-      <c r="G995" s="7"/>
-      <c r="H995" s="8"/>
-      <c r="I995" s="8"/>
-      <c r="J995" s="8"/>
-      <c r="K995" s="7"/>
-      <c r="L995" s="7"/>
-      <c r="M995" s="7"/>
-      <c r="N995" s="7"/>
-      <c r="O995" s="7"/>
-      <c r="P995" s="7"/>
-      <c r="Q995" s="7"/>
-      <c r="R995" s="7"/>
-      <c r="S995" s="7"/>
-      <c r="T995" s="7"/>
-      <c r="U995" s="7"/>
-      <c r="V995" s="7"/>
-      <c r="W995" s="7"/>
-      <c r="X995" s="7"/>
-      <c r="Y995" s="7"/>
-      <c r="Z995" s="7"/>
-    </row>
-    <row r="996" spans="1:26">
-      <c r="A996" s="8"/>
-      <c r="B996" s="8"/>
-      <c r="C996" s="8"/>
-      <c r="D996" s="8"/>
-      <c r="E996" s="8"/>
-      <c r="F996" s="8"/>
-      <c r="G996" s="7"/>
-      <c r="H996" s="8"/>
-      <c r="I996" s="8"/>
-      <c r="J996" s="8"/>
-      <c r="K996" s="7"/>
-      <c r="L996" s="7"/>
-      <c r="M996" s="7"/>
-      <c r="N996" s="7"/>
-      <c r="O996" s="7"/>
-      <c r="P996" s="7"/>
-      <c r="Q996" s="7"/>
-      <c r="R996" s="7"/>
-      <c r="S996" s="7"/>
-      <c r="T996" s="7"/>
-      <c r="U996" s="7"/>
-      <c r="V996" s="7"/>
-      <c r="W996" s="7"/>
-      <c r="X996" s="7"/>
-      <c r="Y996" s="7"/>
-      <c r="Z996" s="7"/>
-    </row>
-    <row r="997" spans="1:26">
-      <c r="A997" s="8"/>
-      <c r="B997" s="8"/>
-      <c r="C997" s="8"/>
-      <c r="D997" s="8"/>
-      <c r="E997" s="8"/>
-      <c r="F997" s="8"/>
-      <c r="G997" s="7"/>
-      <c r="H997" s="8"/>
-      <c r="I997" s="8"/>
-      <c r="J997" s="8"/>
-      <c r="K997" s="7"/>
-      <c r="L997" s="7"/>
-      <c r="M997" s="7"/>
-      <c r="N997" s="7"/>
-      <c r="O997" s="7"/>
-      <c r="P997" s="7"/>
-      <c r="Q997" s="7"/>
-      <c r="R997" s="7"/>
-      <c r="S997" s="7"/>
-      <c r="T997" s="7"/>
-      <c r="U997" s="7"/>
-      <c r="V997" s="7"/>
-      <c r="W997" s="7"/>
-      <c r="X997" s="7"/>
-      <c r="Y997" s="7"/>
-      <c r="Z997" s="7"/>
-    </row>
-    <row r="998" spans="1:26">
-      <c r="A998" s="8"/>
-      <c r="B998" s="8"/>
-      <c r="C998" s="8"/>
-      <c r="D998" s="8"/>
-      <c r="E998" s="8"/>
-      <c r="F998" s="8"/>
-      <c r="G998" s="7"/>
-      <c r="H998" s="8"/>
-      <c r="I998" s="8"/>
-      <c r="J998" s="8"/>
-      <c r="K998" s="7"/>
-      <c r="L998" s="7"/>
-      <c r="M998" s="7"/>
-      <c r="N998" s="7"/>
-      <c r="O998" s="7"/>
-      <c r="P998" s="7"/>
-      <c r="Q998" s="7"/>
-      <c r="R998" s="7"/>
-      <c r="S998" s="7"/>
-      <c r="T998" s="7"/>
-      <c r="U998" s="7"/>
-      <c r="V998" s="7"/>
-      <c r="W998" s="7"/>
-      <c r="X998" s="7"/>
-      <c r="Y998" s="7"/>
-      <c r="Z998" s="7"/>
-    </row>
-    <row r="999" spans="1:26">
-      <c r="A999" s="8"/>
-      <c r="B999" s="8"/>
-      <c r="C999" s="8"/>
-      <c r="D999" s="8"/>
-      <c r="E999" s="8"/>
-      <c r="F999" s="8"/>
-      <c r="G999" s="7"/>
-      <c r="H999" s="8"/>
-      <c r="I999" s="8"/>
-      <c r="J999" s="8"/>
-      <c r="K999" s="7"/>
-      <c r="L999" s="7"/>
-      <c r="M999" s="7"/>
-      <c r="N999" s="7"/>
-      <c r="O999" s="7"/>
-      <c r="P999" s="7"/>
-      <c r="Q999" s="7"/>
-      <c r="R999" s="7"/>
-      <c r="S999" s="7"/>
-      <c r="T999" s="7"/>
-      <c r="U999" s="7"/>
-      <c r="V999" s="7"/>
-      <c r="W999" s="7"/>
-      <c r="X999" s="7"/>
-      <c r="Y999" s="7"/>
-      <c r="Z999" s="7"/>
-    </row>
-    <row r="1000" spans="1:26">
-      <c r="A1000" s="8"/>
-      <c r="B1000" s="8"/>
-      <c r="C1000" s="8"/>
-      <c r="D1000" s="8"/>
-      <c r="E1000" s="8"/>
-      <c r="F1000" s="8"/>
-      <c r="G1000" s="7"/>
-      <c r="H1000" s="8"/>
-      <c r="I1000" s="8"/>
-      <c r="J1000" s="8"/>
-      <c r="K1000" s="7"/>
-      <c r="L1000" s="7"/>
-      <c r="M1000" s="7"/>
-      <c r="N1000" s="7"/>
-      <c r="O1000" s="7"/>
-      <c r="P1000" s="7"/>
-      <c r="Q1000" s="7"/>
-      <c r="R1000" s="7"/>
-      <c r="S1000" s="7"/>
-      <c r="T1000" s="7"/>
-      <c r="U1000" s="7"/>
-      <c r="V1000" s="7"/>
-      <c r="W1000" s="7"/>
-      <c r="X1000" s="7"/>
-      <c r="Y1000" s="7"/>
-      <c r="Z1000" s="7"/>
-    </row>
-    <row r="1001" spans="1:26">
-      <c r="A1001" s="8"/>
-      <c r="B1001" s="8"/>
-      <c r="C1001" s="8"/>
-      <c r="D1001" s="8"/>
-      <c r="E1001" s="8"/>
-      <c r="F1001" s="8"/>
-      <c r="G1001" s="7"/>
-      <c r="H1001" s="8"/>
-      <c r="I1001" s="8"/>
-      <c r="J1001" s="8"/>
-      <c r="K1001" s="7"/>
-      <c r="L1001" s="7"/>
-      <c r="M1001" s="7"/>
-      <c r="N1001" s="7"/>
-      <c r="O1001" s="7"/>
-      <c r="P1001" s="7"/>
-      <c r="Q1001" s="7"/>
-      <c r="R1001" s="7"/>
-      <c r="S1001" s="7"/>
-      <c r="T1001" s="7"/>
-      <c r="U1001" s="7"/>
-      <c r="V1001" s="7"/>
-      <c r="W1001" s="7"/>
-      <c r="X1001" s="7"/>
-      <c r="Y1001" s="7"/>
-      <c r="Z1001" s="7"/>
-    </row>
-    <row r="1002" spans="1:26">
-      <c r="A1002" s="8"/>
-      <c r="B1002" s="8"/>
-      <c r="C1002" s="8"/>
-      <c r="D1002" s="8"/>
-      <c r="E1002" s="8"/>
-      <c r="F1002" s="8"/>
-      <c r="G1002" s="7"/>
-      <c r="H1002" s="8"/>
-      <c r="I1002" s="8"/>
-      <c r="J1002" s="8"/>
-      <c r="K1002" s="7"/>
-      <c r="L1002" s="7"/>
-      <c r="M1002" s="7"/>
-      <c r="N1002" s="7"/>
-      <c r="O1002" s="7"/>
-      <c r="P1002" s="7"/>
-      <c r="Q1002" s="7"/>
-      <c r="R1002" s="7"/>
-      <c r="S1002" s="7"/>
-      <c r="T1002" s="7"/>
-      <c r="U1002" s="7"/>
-      <c r="V1002" s="7"/>
-      <c r="W1002" s="7"/>
-      <c r="X1002" s="7"/>
-      <c r="Y1002" s="7"/>
-      <c r="Z1002" s="7"/>
-    </row>
-    <row r="1003" spans="1:26">
-      <c r="A1003" s="8"/>
-      <c r="B1003" s="8"/>
-      <c r="C1003" s="8"/>
-      <c r="D1003" s="8"/>
-      <c r="E1003" s="8"/>
-      <c r="F1003" s="8"/>
-      <c r="G1003" s="7"/>
-      <c r="H1003" s="8"/>
-      <c r="I1003" s="8"/>
-      <c r="J1003" s="8"/>
-      <c r="K1003" s="7"/>
-      <c r="L1003" s="7"/>
-      <c r="M1003" s="7"/>
-      <c r="N1003" s="7"/>
-      <c r="O1003" s="7"/>
-      <c r="P1003" s="7"/>
-      <c r="Q1003" s="7"/>
-      <c r="R1003" s="7"/>
-      <c r="S1003" s="7"/>
-      <c r="T1003" s="7"/>
-      <c r="U1003" s="7"/>
-      <c r="V1003" s="7"/>
-      <c r="W1003" s="7"/>
-      <c r="X1003" s="7"/>
-      <c r="Y1003" s="7"/>
-      <c r="Z1003" s="7"/>
-    </row>
-    <row r="1004" spans="1:26">
-      <c r="A1004" s="8"/>
-      <c r="B1004" s="8"/>
-      <c r="C1004" s="8"/>
-      <c r="D1004" s="8"/>
-      <c r="E1004" s="8"/>
-      <c r="F1004" s="8"/>
-      <c r="G1004" s="7"/>
-      <c r="H1004" s="8"/>
-      <c r="I1004" s="8"/>
-      <c r="J1004" s="8"/>
-      <c r="K1004" s="7"/>
-      <c r="L1004" s="7"/>
-      <c r="M1004" s="7"/>
-      <c r="N1004" s="7"/>
-      <c r="O1004" s="7"/>
-      <c r="P1004" s="7"/>
-      <c r="Q1004" s="7"/>
-      <c r="R1004" s="7"/>
-      <c r="S1004" s="7"/>
-      <c r="T1004" s="7"/>
-      <c r="U1004" s="7"/>
-      <c r="V1004" s="7"/>
-      <c r="W1004" s="7"/>
-      <c r="X1004" s="7"/>
-      <c r="Y1004" s="7"/>
-      <c r="Z1004" s="7"/>
-    </row>
-    <row r="1005" spans="1:26">
-      <c r="A1005" s="8"/>
-      <c r="B1005" s="8"/>
-      <c r="C1005" s="8"/>
-      <c r="D1005" s="8"/>
-      <c r="E1005" s="8"/>
-      <c r="F1005" s="8"/>
-      <c r="G1005" s="7"/>
-      <c r="H1005" s="8"/>
-      <c r="I1005" s="8"/>
-      <c r="J1005" s="8"/>
-      <c r="K1005" s="7"/>
-      <c r="L1005" s="7"/>
-      <c r="M1005" s="7"/>
-      <c r="N1005" s="7"/>
-      <c r="O1005" s="7"/>
-      <c r="P1005" s="7"/>
-      <c r="Q1005" s="7"/>
-      <c r="R1005" s="7"/>
-      <c r="S1005" s="7"/>
-      <c r="T1005" s="7"/>
-      <c r="U1005" s="7"/>
-      <c r="V1005" s="7"/>
-      <c r="W1005" s="7"/>
-      <c r="X1005" s="7"/>
-      <c r="Y1005" s="7"/>
-      <c r="Z1005" s="7"/>
-    </row>
-    <row r="1006" spans="1:26">
-      <c r="A1006" s="8"/>
-      <c r="B1006" s="8"/>
-      <c r="C1006" s="8"/>
-      <c r="D1006" s="8"/>
-      <c r="E1006" s="8"/>
-      <c r="F1006" s="8"/>
-      <c r="G1006" s="7"/>
-      <c r="H1006" s="8"/>
-      <c r="I1006" s="8"/>
-      <c r="J1006" s="8"/>
-      <c r="K1006" s="7"/>
-      <c r="L1006" s="7"/>
-      <c r="M1006" s="7"/>
-      <c r="N1006" s="7"/>
-      <c r="O1006" s="7"/>
-      <c r="P1006" s="7"/>
-      <c r="Q1006" s="7"/>
-      <c r="R1006" s="7"/>
-      <c r="S1006" s="7"/>
-      <c r="T1006" s="7"/>
-      <c r="U1006" s="7"/>
-      <c r="V1006" s="7"/>
-      <c r="W1006" s="7"/>
-      <c r="X1006" s="7"/>
-      <c r="Y1006" s="7"/>
-      <c r="Z1006" s="7"/>
-    </row>
-    <row r="1007" spans="1:26">
-      <c r="A1007" s="8"/>
-      <c r="B1007" s="8"/>
-      <c r="C1007" s="8"/>
-      <c r="D1007" s="8"/>
-      <c r="E1007" s="8"/>
-      <c r="F1007" s="8"/>
-      <c r="G1007" s="7"/>
-      <c r="H1007" s="8"/>
-      <c r="I1007" s="8"/>
-      <c r="J1007" s="8"/>
-      <c r="K1007" s="7"/>
-      <c r="L1007" s="7"/>
-      <c r="M1007" s="7"/>
-      <c r="N1007" s="7"/>
-      <c r="O1007" s="7"/>
-      <c r="P1007" s="7"/>
-      <c r="Q1007" s="7"/>
-      <c r="R1007" s="7"/>
-      <c r="S1007" s="7"/>
-      <c r="T1007" s="7"/>
-      <c r="U1007" s="7"/>
-      <c r="V1007" s="7"/>
-      <c r="W1007" s="7"/>
-      <c r="X1007" s="7"/>
-      <c r="Y1007" s="7"/>
-      <c r="Z1007" s="7"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
